--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>Exp</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>PhyAttr</t>
   </si>
   <si>
     <t>Gold</t>
@@ -805,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -813,7 +822,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1133,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1241,16 +1249,16 @@
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1264,28 +1272,28 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1305,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -1340,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
         <v>20</v>
@@ -1375,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2">
         <v>35</v>
@@ -1410,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <v>50</v>
@@ -1445,7 +1453,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2">
         <v>90</v>
@@ -1480,7 +1488,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
         <v>120</v>
@@ -1515,7 +1523,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
         <v>150</v>
@@ -1550,7 +1558,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>210</v>
@@ -1585,7 +1593,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
         <v>255</v>
@@ -1620,7 +1628,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2">
         <v>300</v>
@@ -1655,7 +1663,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2">
         <v>420</v>
@@ -1690,7 +1698,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2">
         <v>510</v>
@@ -1725,7 +1733,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2">
         <v>600</v>
@@ -1760,7 +1768,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2">
         <v>760</v>
@@ -1795,7 +1803,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2">
         <v>880</v>
@@ -1830,7 +1838,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2">
         <v>1000</v>
@@ -1865,7 +1873,7 @@
         <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F22" s="2">
         <v>1400</v>
@@ -1900,7 +1908,7 @@
         <v>57</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F23" s="2">
         <v>1700</v>
@@ -1935,7 +1943,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F24" s="2">
         <v>2000</v>
@@ -1970,7 +1978,7 @@
         <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F25" s="2">
         <v>2600</v>
@@ -2005,7 +2013,7 @@
         <v>67</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2">
         <v>3050</v>
@@ -2040,7 +2048,7 @@
         <v>70</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2">
         <v>3500</v>
@@ -2068,7 +2076,7 @@
         <v>74</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2">
         <v>4100</v>
@@ -2096,7 +2104,7 @@
         <v>77</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F29" s="2">
         <v>4550</v>
@@ -2124,7 +2132,7 @@
         <v>80</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F30" s="2">
         <v>5000</v>
@@ -2152,7 +2160,7 @@
         <v>84</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F31" s="2">
         <v>6000</v>
@@ -2180,7 +2188,7 @@
         <v>87</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F32" s="2">
         <v>6750</v>
@@ -2208,7 +2216,7 @@
         <v>90</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F33" s="2">
         <v>7500</v>
@@ -2236,7 +2244,7 @@
         <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F34" s="2">
         <v>8500</v>
@@ -2264,7 +2272,7 @@
         <v>97</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F35" s="2">
         <v>9250</v>
@@ -2292,7 +2300,7 @@
         <v>100</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F36" s="2">
         <v>10000</v>
@@ -2320,7 +2328,7 @@
         <v>104</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F37" s="2">
         <v>12000</v>
@@ -2348,7 +2356,7 @@
         <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F38" s="2">
         <v>13500</v>
@@ -2376,7 +2384,7 @@
         <v>110</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2">
         <v>15000</v>
@@ -2404,7 +2412,7 @@
         <v>114</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2">
         <v>17000</v>
@@ -2432,7 +2440,7 @@
         <v>117</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2">
         <v>18500</v>
@@ -2460,7 +2468,7 @@
         <v>120</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2">
         <v>20000</v>
@@ -2477,9 +2485,6 @@
       <c r="J42" s="2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -814,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -822,6 +822,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1141,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B6" sqref="B6:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1305,9 +1306,9 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:17">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1340,9 +1341,9 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:17">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>1002</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -1375,9 +1376,9 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:17">
       <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>1003</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -1410,9 +1411,9 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:17">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>10</v>
+        <v>1004</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -1445,9 +1446,9 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:17">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>14</v>
+        <v>1005</v>
       </c>
       <c r="D10" s="1">
         <v>14</v>
@@ -1480,9 +1481,9 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:17">
       <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>17</v>
+        <v>1006</v>
       </c>
       <c r="D11" s="1">
         <v>17</v>
@@ -1515,9 +1516,9 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:17">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>20</v>
+        <v>1007</v>
       </c>
       <c r="D12" s="1">
         <v>20</v>
@@ -1550,9 +1551,9 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:17">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>24</v>
+        <v>1008</v>
       </c>
       <c r="D13" s="1">
         <v>24</v>
@@ -1585,9 +1586,9 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>27</v>
+        <v>1009</v>
       </c>
       <c r="D14" s="1">
         <v>27</v>
@@ -1620,9 +1621,9 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:17">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
-        <v>30</v>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
+        <v>1010</v>
       </c>
       <c r="D15" s="2">
         <v>30</v>
@@ -1655,9 +1656,9 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:17">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>34</v>
+        <v>1011</v>
       </c>
       <c r="D16" s="1">
         <v>34</v>
@@ -1690,9 +1691,9 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:17">
       <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>37</v>
+        <v>1012</v>
       </c>
       <c r="D17" s="1">
         <v>37</v>
@@ -1725,9 +1726,9 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="1:17">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
-        <v>40</v>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
+        <v>1013</v>
       </c>
       <c r="D18" s="2">
         <v>40</v>
@@ -1760,9 +1761,9 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="1:17">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>44</v>
+        <v>1014</v>
       </c>
       <c r="D19" s="1">
         <v>44</v>
@@ -1795,9 +1796,9 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:17">
       <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1">
-        <v>47</v>
+        <v>1015</v>
       </c>
       <c r="D20" s="1">
         <v>47</v>
@@ -1830,9 +1831,9 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:17">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2">
-        <v>50</v>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
+        <v>1016</v>
       </c>
       <c r="D21" s="2">
         <v>50</v>
@@ -1865,9 +1866,9 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="1:17">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1">
-        <v>54</v>
+        <v>1017</v>
       </c>
       <c r="D22" s="1">
         <v>54</v>
@@ -1900,9 +1901,9 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:17">
       <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1">
-        <v>57</v>
+        <v>1018</v>
       </c>
       <c r="D23" s="1">
         <v>57</v>
@@ -1935,9 +1936,9 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="1:17">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <v>60</v>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
+        <v>1019</v>
       </c>
       <c r="D24" s="2">
         <v>60</v>
@@ -1970,9 +1971,9 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:17">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1">
-        <v>64</v>
+        <v>1020</v>
       </c>
       <c r="D25" s="1">
         <v>64</v>
@@ -2005,9 +2006,9 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:17">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <v>67</v>
+        <v>1021</v>
       </c>
       <c r="D26" s="1">
         <v>67</v>
@@ -2040,9 +2041,9 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:10">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
-        <v>70</v>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>1022</v>
       </c>
       <c r="D27" s="2">
         <v>70</v>
@@ -2068,9 +2069,9 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="1:10">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1">
-        <v>74</v>
+        <v>1023</v>
       </c>
       <c r="D28" s="1">
         <v>74</v>
@@ -2096,9 +2097,9 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="1:10">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1">
-        <v>77</v>
+        <v>1024</v>
       </c>
       <c r="D29" s="1">
         <v>77</v>
@@ -2124,9 +2125,9 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:10">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2">
-        <v>80</v>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
+        <v>1025</v>
       </c>
       <c r="D30" s="2">
         <v>80</v>
@@ -2152,9 +2153,9 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:10">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1">
-        <v>84</v>
+        <v>1026</v>
       </c>
       <c r="D31" s="1">
         <v>84</v>
@@ -2180,9 +2181,9 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="1:10">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1">
-        <v>87</v>
+        <v>1027</v>
       </c>
       <c r="D32" s="1">
         <v>87</v>
@@ -2208,9 +2209,9 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:10">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1">
-        <v>90</v>
+        <v>1028</v>
       </c>
       <c r="D33" s="1">
         <v>90</v>
@@ -2236,9 +2237,9 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:10">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1">
-        <v>94</v>
+        <v>1029</v>
       </c>
       <c r="D34" s="1">
         <v>94</v>
@@ -2264,9 +2265,9 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="1:10">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="1">
-        <v>97</v>
+        <v>1030</v>
       </c>
       <c r="D35" s="1">
         <v>97</v>
@@ -2292,9 +2293,9 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:10">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2">
-        <v>100</v>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
+        <v>1031</v>
       </c>
       <c r="D36" s="2">
         <v>100</v>
@@ -2320,9 +2321,9 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:10">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1">
-        <v>104</v>
+        <v>1032</v>
       </c>
       <c r="D37" s="1">
         <v>104</v>
@@ -2348,9 +2349,9 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="1:10">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1">
-        <v>107</v>
+        <v>1033</v>
       </c>
       <c r="D38" s="1">
         <v>107</v>
@@ -2376,9 +2377,9 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:10">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1">
-        <v>110</v>
+        <v>1034</v>
       </c>
       <c r="D39" s="1">
         <v>110</v>
@@ -2404,9 +2405,9 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:10">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1">
-        <v>114</v>
+        <v>1035</v>
       </c>
       <c r="D40" s="1">
         <v>114</v>
@@ -2432,9 +2433,9 @@
     </row>
     <row r="41" s="1" customFormat="1" spans="1:10">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1">
-        <v>117</v>
+        <v>1036</v>
       </c>
       <c r="D41" s="1">
         <v>117</v>
@@ -2460,9 +2461,9 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="1:10">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2">
-        <v>120</v>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
+        <v>1037</v>
       </c>
       <c r="D42" s="2">
         <v>120</v>
@@ -2485,6 +2486,108 @@
       <c r="J42" s="2">
         <v>4000</v>
       </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="619">
   <si>
     <t>ID</t>
   </si>
@@ -125,1168 +125,1351 @@
     <t>钉耙猫</t>
   </si>
   <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>550</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>多钩猫</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>3150</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>食人花</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>765</t>
+  </si>
+  <si>
+    <t>4590</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>毒蜘蛛</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>6300</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>半兽人</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>半兽战士</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>11340</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+  </si>
+  <si>
+    <t>1395</t>
+  </si>
+  <si>
+    <t>2325</t>
+  </si>
+  <si>
+    <t>13950</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>骷髅</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>2975</t>
+  </si>
+  <si>
+    <t>17850</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>骷髅战士</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>3515</t>
+  </si>
+  <si>
+    <t>21090</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>骷髅射手</t>
+  </si>
+  <si>
+    <t>2460</t>
+  </si>
+  <si>
+    <t>4100</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>骷髅斧手</t>
+  </si>
+  <si>
+    <t>2970</t>
+  </si>
+  <si>
+    <t>4950</t>
+  </si>
+  <si>
+    <t>29700</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>10015</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>洞蛆</t>
+  </si>
+  <si>
+    <t>3384</t>
+  </si>
+  <si>
+    <t>5640</t>
+  </si>
+  <si>
+    <t>33840</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>10016</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>3825</t>
+  </si>
+  <si>
+    <t>6375</t>
+  </si>
+  <si>
+    <t>38250</t>
+  </si>
+  <si>
+    <t>1275</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>10017</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>爬行僵尸</t>
+  </si>
+  <si>
+    <t>4455</t>
+  </si>
+  <si>
+    <t>7425</t>
+  </si>
+  <si>
+    <t>44550</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>10018</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>闪电僵尸</t>
+  </si>
+  <si>
+    <t>4959</t>
+  </si>
+  <si>
+    <t>8265</t>
+  </si>
+  <si>
+    <t>49590</t>
+  </si>
+  <si>
+    <t>1653</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>10019</t>
+  </si>
+  <si>
+    <t>红蛇</t>
+  </si>
+  <si>
+    <t>5490</t>
+  </si>
+  <si>
+    <t>9150</t>
+  </si>
+  <si>
+    <t>54900</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>10020</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>虎蛇</t>
+  </si>
+  <si>
+    <t>6240</t>
+  </si>
+  <si>
+    <t>10400</t>
+  </si>
+  <si>
+    <t>62400</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>10021</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>6834</t>
+  </si>
+  <si>
+    <t>11390</t>
+  </si>
+  <si>
+    <t>68340</t>
+  </si>
+  <si>
+    <t>2278</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>10022</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>沙虫</t>
+  </si>
+  <si>
+    <t>7455</t>
+  </si>
+  <si>
+    <t>12425</t>
+  </si>
+  <si>
+    <t>74550</t>
+  </si>
+  <si>
+    <t>2485</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>10023</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>猎鹰</t>
+  </si>
+  <si>
+    <t>8325</t>
+  </si>
+  <si>
+    <t>13875</t>
+  </si>
+  <si>
+    <t>83250</t>
+  </si>
+  <si>
+    <t>2775</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>10024</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>多角虫</t>
+  </si>
+  <si>
+    <t>9009</t>
+  </si>
+  <si>
+    <t>15015</t>
+  </si>
+  <si>
+    <t>90090</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>10025</t>
+  </si>
+  <si>
+    <t>粪虫</t>
+  </si>
+  <si>
+    <t>9720</t>
+  </si>
+  <si>
+    <t>16200</t>
+  </si>
+  <si>
+    <t>97200</t>
+  </si>
+  <si>
+    <t>3240</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>10026</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>角蝇</t>
+  </si>
+  <si>
+    <t>10710</t>
+  </si>
+  <si>
+    <t>107100</t>
+  </si>
+  <si>
+    <t>3570</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>10027</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>暗黑战士</t>
+  </si>
+  <si>
+    <t>11484</t>
+  </si>
+  <si>
+    <t>19140</t>
+  </si>
+  <si>
+    <t>114840</t>
+  </si>
+  <si>
+    <t>3828</t>
+  </si>
+  <si>
+    <t>10028</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>沃玛战士</t>
+  </si>
+  <si>
+    <t>12285</t>
+  </si>
+  <si>
+    <t>20475</t>
+  </si>
+  <si>
+    <t>122850</t>
+  </si>
+  <si>
+    <t>4095</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>10029</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>沃玛勇士</t>
+  </si>
+  <si>
+    <t>13395</t>
+  </si>
+  <si>
+    <t>22325</t>
+  </si>
+  <si>
+    <t>133950</t>
+  </si>
+  <si>
+    <t>4465</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>火焰沃玛</t>
+  </si>
+  <si>
+    <t>14259</t>
+  </si>
+  <si>
+    <t>23765</t>
+  </si>
+  <si>
+    <t>142590</t>
+  </si>
+  <si>
+    <t>4753</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>10031</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>15150</t>
+  </si>
+  <si>
+    <t>25250</t>
+  </si>
+  <si>
+    <t>151500</t>
+  </si>
+  <si>
+    <t>5050</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>10032</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>楔蛾</t>
+  </si>
+  <si>
+    <t>16380</t>
+  </si>
+  <si>
+    <t>27300</t>
+  </si>
+  <si>
+    <t>163800</t>
+  </si>
+  <si>
+    <t>5460</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>10033</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>黑野猪</t>
+  </si>
+  <si>
+    <t>17334</t>
+  </si>
+  <si>
+    <t>28890</t>
+  </si>
+  <si>
+    <t>173340</t>
+  </si>
+  <si>
+    <t>5778</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>10034</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>10005</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>多钩猫</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>800</t>
+    <t>红野猪</t>
+  </si>
+  <si>
+    <t>18315</t>
+  </si>
+  <si>
+    <t>30525</t>
+  </si>
+  <si>
+    <t>183150</t>
+  </si>
+  <si>
+    <t>6105</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>10035</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>蝎蛇</t>
+  </si>
+  <si>
+    <t>19665</t>
+  </si>
+  <si>
+    <t>32775</t>
+  </si>
+  <si>
+    <t>196650</t>
+  </si>
+  <si>
+    <t>6555</t>
+  </si>
+  <si>
+    <t>1311</t>
+  </si>
+  <si>
+    <t>10036</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>跳跳蜂</t>
+  </si>
+  <si>
+    <t>20709</t>
+  </si>
+  <si>
+    <t>34515</t>
+  </si>
+  <si>
+    <t>207090</t>
+  </si>
+  <si>
+    <t>6903</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>10037</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>蜈蚣</t>
+  </si>
+  <si>
+    <t>21780</t>
+  </si>
+  <si>
+    <t>36300</t>
+  </si>
+  <si>
+    <t>217800</t>
+  </si>
+  <si>
+    <t>7260</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>10038</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>钳虫</t>
+  </si>
+  <si>
+    <t>23250</t>
+  </si>
+  <si>
+    <t>38750</t>
+  </si>
+  <si>
+    <t>232500</t>
+  </si>
+  <si>
+    <t>7750</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>10039</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>蠕虫</t>
+  </si>
+  <si>
+    <t>24384</t>
+  </si>
+  <si>
+    <t>40640</t>
+  </si>
+  <si>
+    <t>243840</t>
+  </si>
+  <si>
+    <t>8128</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>10040</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>大老鼠</t>
+  </si>
+  <si>
+    <t>25545</t>
+  </si>
+  <si>
+    <t>42575</t>
+  </si>
+  <si>
+    <t>255450</t>
+  </si>
+  <si>
+    <t>8515</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>10041</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>祖玛弓箭手</t>
+  </si>
+  <si>
+    <t>27135</t>
+  </si>
+  <si>
+    <t>45225</t>
+  </si>
+  <si>
+    <t>271350</t>
+  </si>
+  <si>
+    <t>9045</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>10042</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>祖玛卫士</t>
+  </si>
+  <si>
+    <t>28359</t>
+  </si>
+  <si>
+    <t>47265</t>
+  </si>
+  <si>
+    <t>283590</t>
+  </si>
+  <si>
+    <t>9453</t>
+  </si>
+  <si>
+    <t>10043</t>
+  </si>
+  <si>
+    <t>祖玛雕像</t>
+  </si>
+  <si>
+    <t>29610</t>
+  </si>
+  <si>
+    <t>49350</t>
+  </si>
+  <si>
+    <t>296100</t>
+  </si>
+  <si>
+    <t>9870</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>10044</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>虹魔战士</t>
+  </si>
+  <si>
+    <t>31320</t>
+  </si>
+  <si>
+    <t>52200</t>
+  </si>
+  <si>
+    <t>313200</t>
+  </si>
+  <si>
+    <t>10440</t>
+  </si>
+  <si>
+    <t>2088</t>
+  </si>
+  <si>
+    <t>10045</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>虹魔勇士</t>
+  </si>
+  <si>
+    <t>32634</t>
+  </si>
+  <si>
+    <t>54390</t>
+  </si>
+  <si>
+    <t>326340</t>
+  </si>
+  <si>
+    <t>10878</t>
+  </si>
+  <si>
+    <t>2175</t>
+  </si>
+  <si>
+    <t>10046</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>虹魔射手</t>
+  </si>
+  <si>
+    <t>33975</t>
+  </si>
+  <si>
+    <t>56625</t>
+  </si>
+  <si>
+    <t>339750</t>
+  </si>
+  <si>
+    <t>11325</t>
+  </si>
+  <si>
+    <t>2265</t>
+  </si>
+  <si>
+    <t>10047</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>虹魔法师</t>
+  </si>
+  <si>
+    <t>35805</t>
+  </si>
+  <si>
+    <t>59675</t>
+  </si>
+  <si>
+    <t>358050</t>
+  </si>
+  <si>
+    <t>11935</t>
+  </si>
+  <si>
+    <t>2387</t>
+  </si>
+  <si>
+    <t>10048</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>虹魔祭师</t>
+  </si>
+  <si>
+    <t>37209</t>
+  </si>
+  <si>
+    <t>62015</t>
+  </si>
+  <si>
+    <t>372090</t>
+  </si>
+  <si>
+    <t>12403</t>
+  </si>
+  <si>
+    <t>2480</t>
+  </si>
+  <si>
+    <t>10049</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>食人花</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>10007</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>毒蜘蛛</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>10008</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>半兽人</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>10009</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>半兽战士</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>2750</t>
-  </si>
-  <si>
-    <t>10010</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>蝙蝠</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>3700</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>10011</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>骷髅</t>
-  </si>
-  <si>
-    <t>500</t>
+    <t>骷髅长枪兵</t>
+  </si>
+  <si>
+    <t>38640</t>
+  </si>
+  <si>
+    <t>64400</t>
+  </si>
+  <si>
+    <t>386400</t>
+  </si>
+  <si>
+    <t>12880</t>
+  </si>
+  <si>
+    <t>2576</t>
+  </si>
+  <si>
+    <t>10050</t>
+  </si>
+  <si>
+    <t>骷髅弓箭手</t>
+  </si>
+  <si>
+    <t>40590</t>
+  </si>
+  <si>
+    <t>67650</t>
+  </si>
+  <si>
+    <t>405900</t>
+  </si>
+  <si>
+    <t>13530</t>
+  </si>
+  <si>
+    <t>2706</t>
+  </si>
+  <si>
+    <t>10051</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>骷髅刀斧手</t>
+  </si>
+  <si>
+    <t>42084</t>
+  </si>
+  <si>
+    <t>70140</t>
+  </si>
+  <si>
+    <t>420840</t>
+  </si>
+  <si>
+    <t>14028</t>
+  </si>
+  <si>
+    <t>2805</t>
+  </si>
+  <si>
+    <t>10052</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>骷髅锤兵</t>
+  </si>
+  <si>
+    <t>43605</t>
+  </si>
+  <si>
+    <t>72675</t>
+  </si>
+  <si>
+    <t>436050</t>
+  </si>
+  <si>
+    <t>14535</t>
+  </si>
+  <si>
+    <t>2907</t>
+  </si>
+  <si>
+    <t>10053</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>恶灵骷髅</t>
+  </si>
+  <si>
+    <t>45675</t>
+  </si>
+  <si>
+    <t>76125</t>
+  </si>
+  <si>
+    <t>456750</t>
+  </si>
+  <si>
+    <t>15225</t>
+  </si>
+  <si>
+    <t>3045</t>
+  </si>
+  <si>
+    <t>10054</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>恶灵僵尸</t>
+  </si>
+  <si>
+    <t>47259</t>
+  </si>
+  <si>
+    <t>78765</t>
+  </si>
+  <si>
+    <t>472590</t>
+  </si>
+  <si>
+    <t>15753</t>
+  </si>
+  <si>
+    <t>10055</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>牛头魔</t>
+  </si>
+  <si>
+    <t>48870</t>
+  </si>
+  <si>
+    <t>81450</t>
+  </si>
+  <si>
+    <t>488700</t>
+  </si>
+  <si>
+    <t>16290</t>
+  </si>
+  <si>
+    <t>3258</t>
+  </si>
+  <si>
+    <t>10056</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>牛魔侍卫</t>
+  </si>
+  <si>
+    <t>51060</t>
+  </si>
+  <si>
+    <t>85100</t>
+  </si>
+  <si>
+    <t>510600</t>
+  </si>
+  <si>
+    <t>17020</t>
+  </si>
+  <si>
+    <t>3404</t>
+  </si>
+  <si>
+    <t>10057</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>牛魔战士</t>
+  </si>
+  <si>
+    <t>52734</t>
+  </si>
+  <si>
+    <t>87890</t>
+  </si>
+  <si>
+    <t>527340</t>
+  </si>
+  <si>
+    <t>17578</t>
+  </si>
+  <si>
+    <t>10058</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>牛魔斗士</t>
+  </si>
+  <si>
+    <t>54435</t>
+  </si>
+  <si>
+    <t>90725</t>
+  </si>
+  <si>
+    <t>544350</t>
+  </si>
+  <si>
+    <t>18145</t>
+  </si>
+  <si>
+    <t>3629</t>
+  </si>
+  <si>
+    <t>10059</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>牛魔将军</t>
+  </si>
+  <si>
+    <t>56745</t>
+  </si>
+  <si>
+    <t>94575</t>
+  </si>
+  <si>
+    <t>567450</t>
+  </si>
+  <si>
+    <t>18915</t>
+  </si>
+  <si>
+    <t>3783</t>
+  </si>
+  <si>
+    <t>10060</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>牛魔祭祀</t>
+  </si>
+  <si>
+    <t>58509</t>
+  </si>
+  <si>
+    <t>97515</t>
+  </si>
+  <si>
+    <t>585090</t>
+  </si>
+  <si>
+    <t>19503</t>
+  </si>
+  <si>
+    <t>3900</t>
+  </si>
+  <si>
+    <t>10061</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>10012</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>骷髅战士</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>10013</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>骷髅射手</t>
-  </si>
-  <si>
-    <t>950</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>9500</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>10014</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>骷髅斧手</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>10015</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>洞蛆</t>
-  </si>
-  <si>
-    <t>1850</t>
-  </si>
-  <si>
-    <t>18500</t>
-  </si>
-  <si>
-    <t>10016</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-  </si>
-  <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>4800</t>
-  </si>
-  <si>
-    <t>10017</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>爬行僵尸</t>
-  </si>
-  <si>
-    <t>3450</t>
-  </si>
-  <si>
-    <t>1380</t>
-  </si>
-  <si>
-    <t>34500</t>
-  </si>
-  <si>
-    <t>6900</t>
-  </si>
-  <si>
-    <t>10018</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>闪电僵尸</t>
-  </si>
-  <si>
-    <t>4450</t>
-  </si>
-  <si>
-    <t>1780</t>
-  </si>
-  <si>
-    <t>44500</t>
-  </si>
-  <si>
-    <t>8900</t>
-  </si>
-  <si>
-    <t>10019</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>红蛇</t>
-  </si>
-  <si>
-    <t>5500</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>55000</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>10020</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>虎蛇</t>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>3200</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>16000</t>
-  </si>
-  <si>
-    <t>10021</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>狼</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>4200</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>10022</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>沙虫</t>
-  </si>
-  <si>
-    <t>13500</t>
-  </si>
-  <si>
-    <t>5400</t>
-  </si>
-  <si>
-    <t>135000</t>
-  </si>
-  <si>
-    <t>27000</t>
-  </si>
-  <si>
-    <t>10023</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>猎鹰</t>
-  </si>
-  <si>
-    <t>19000</t>
-  </si>
-  <si>
-    <t>7600</t>
-  </si>
-  <si>
-    <t>190000</t>
-  </si>
-  <si>
-    <t>38000</t>
-  </si>
-  <si>
-    <t>10024</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>多角虫</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>250000</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>10025</t>
-  </si>
-  <si>
-    <t>粪虫</t>
-  </si>
-  <si>
-    <t>32000</t>
-  </si>
-  <si>
-    <t>12800</t>
-  </si>
-  <si>
-    <t>320000</t>
-  </si>
-  <si>
-    <t>64000</t>
-  </si>
-  <si>
-    <t>10026</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>角蝇</t>
-  </si>
-  <si>
-    <t>45500</t>
-  </si>
-  <si>
-    <t>18200</t>
-  </si>
-  <si>
-    <t>455000</t>
-  </si>
-  <si>
-    <t>91000</t>
-  </si>
-  <si>
-    <t>10027</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>暗黑战士</t>
-  </si>
-  <si>
-    <t>59000</t>
-  </si>
-  <si>
-    <t>23600</t>
-  </si>
-  <si>
-    <t>590000</t>
-  </si>
-  <si>
-    <t>118000</t>
-  </si>
-  <si>
-    <t>10028</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>沃玛战士</t>
-  </si>
-  <si>
-    <t>76500</t>
-  </si>
-  <si>
-    <t>30600</t>
-  </si>
-  <si>
-    <t>765000</t>
-  </si>
-  <si>
-    <t>153000</t>
-  </si>
-  <si>
-    <t>10029</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>沃玛勇士</t>
-  </si>
-  <si>
-    <t>108000</t>
-  </si>
-  <si>
-    <t>43200</t>
-  </si>
-  <si>
-    <t>1080000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>火焰沃玛</t>
-  </si>
-  <si>
-    <t>140000</t>
-  </si>
-  <si>
-    <t>56000</t>
-  </si>
-  <si>
-    <t>1400000</t>
-  </si>
-  <si>
-    <t>280000</t>
-  </si>
-  <si>
-    <t>10031</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>178000</t>
-  </si>
-  <si>
-    <t>71200</t>
-  </si>
-  <si>
-    <t>1780000</t>
-  </si>
-  <si>
-    <t>356000</t>
-  </si>
-  <si>
-    <t>10032</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>楔蛾</t>
-  </si>
-  <si>
-    <t>242500</t>
-  </si>
-  <si>
-    <t>97000</t>
-  </si>
-  <si>
-    <t>2425000</t>
-  </si>
-  <si>
-    <t>485000</t>
-  </si>
-  <si>
-    <t>10033</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>黑野猪</t>
-  </si>
-  <si>
-    <t>305500</t>
-  </si>
-  <si>
-    <t>122200</t>
-  </si>
-  <si>
-    <t>3055000</t>
-  </si>
-  <si>
-    <t>611000</t>
-  </si>
-  <si>
-    <t>10034</t>
-  </si>
-  <si>
-    <t>红野猪</t>
-  </si>
-  <si>
-    <t>385000</t>
-  </si>
-  <si>
-    <t>154000</t>
-  </si>
-  <si>
-    <t>3850000</t>
-  </si>
-  <si>
-    <t>770000</t>
-  </si>
-  <si>
-    <t>10035</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>蝎蛇</t>
-  </si>
-  <si>
-    <t>520000</t>
-  </si>
-  <si>
-    <t>208000</t>
-  </si>
-  <si>
-    <t>5200000</t>
-  </si>
-  <si>
-    <t>1040000</t>
-  </si>
-  <si>
-    <t>10036</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>跳跳蜂</t>
-  </si>
-  <si>
-    <t>660000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>6600000</t>
-  </si>
-  <si>
-    <t>1320000</t>
-  </si>
-  <si>
-    <t>10037</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>蜈蚣</t>
-  </si>
-  <si>
-    <t>830000</t>
-  </si>
-  <si>
-    <t>332000</t>
-  </si>
-  <si>
-    <t>8300000</t>
-  </si>
-  <si>
-    <t>1660000</t>
-  </si>
-  <si>
-    <t>10038</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>钳虫</t>
-  </si>
-  <si>
-    <t>1130000</t>
-  </si>
-  <si>
-    <t>452000</t>
-  </si>
-  <si>
-    <t>11300000</t>
-  </si>
-  <si>
-    <t>2260000</t>
-  </si>
-  <si>
-    <t>10039</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>蠕虫</t>
-  </si>
-  <si>
-    <t>1425000</t>
-  </si>
-  <si>
-    <t>570000</t>
-  </si>
-  <si>
-    <t>14250000</t>
-  </si>
-  <si>
-    <t>2850000</t>
-  </si>
-  <si>
-    <t>10040</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>大老鼠</t>
-  </si>
-  <si>
-    <t>1795000</t>
-  </si>
-  <si>
-    <t>718000</t>
-  </si>
-  <si>
-    <t>17950000</t>
-  </si>
-  <si>
-    <t>3590000</t>
-  </si>
-  <si>
-    <t>10041</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>祖玛弓箭手</t>
-  </si>
-  <si>
-    <t>2440000</t>
-  </si>
-  <si>
-    <t>976000</t>
-  </si>
-  <si>
-    <t>24400000</t>
-  </si>
-  <si>
-    <t>4880000</t>
-  </si>
-  <si>
-    <t>10042</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>祖玛卫士</t>
-  </si>
-  <si>
-    <t>3075000</t>
-  </si>
-  <si>
-    <t>1230000</t>
-  </si>
-  <si>
-    <t>30750000</t>
-  </si>
-  <si>
-    <t>6150000</t>
-  </si>
-  <si>
-    <t>10043</t>
-  </si>
-  <si>
-    <t>祖玛雕像</t>
-  </si>
-  <si>
-    <t>3875000</t>
-  </si>
-  <si>
-    <t>1550000</t>
-  </si>
-  <si>
-    <t>38750000</t>
-  </si>
-  <si>
-    <t>7750000</t>
-  </si>
-  <si>
-    <t>10044</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>虹魔战士</t>
-  </si>
-  <si>
-    <t>5270000</t>
-  </si>
-  <si>
-    <t>2108000</t>
-  </si>
-  <si>
-    <t>52700000</t>
-  </si>
-  <si>
-    <t>10540000</t>
-  </si>
-  <si>
-    <t>10045</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>虹魔勇士</t>
-  </si>
-  <si>
-    <t>6640000</t>
-  </si>
-  <si>
-    <t>2656000</t>
-  </si>
-  <si>
-    <t>66400000</t>
-  </si>
-  <si>
-    <t>13280000</t>
-  </si>
-  <si>
-    <t>10046</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>虹魔射手</t>
-  </si>
-  <si>
-    <t>8210000</t>
-  </si>
-  <si>
-    <t>3284000</t>
-  </si>
-  <si>
-    <t>82100000</t>
-  </si>
-  <si>
-    <t>16420000</t>
-  </si>
-  <si>
-    <t>10047</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>虹魔法师</t>
-  </si>
-  <si>
-    <t>10765000</t>
-  </si>
-  <si>
-    <t>4306000</t>
-  </si>
-  <si>
-    <t>107650000</t>
-  </si>
-  <si>
-    <t>21530000</t>
-  </si>
-  <si>
-    <t>10048</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>虹魔祭师</t>
-  </si>
-  <si>
-    <t>13190000</t>
-  </si>
-  <si>
-    <t>5276000</t>
-  </si>
-  <si>
-    <t>131900000</t>
-  </si>
-  <si>
-    <t>26380000</t>
-  </si>
-  <si>
-    <t>10049</t>
-  </si>
-  <si>
-    <t>骷髅长枪兵</t>
-  </si>
-  <si>
-    <t>16155000</t>
-  </si>
-  <si>
-    <t>6462000</t>
-  </si>
-  <si>
-    <t>161550000</t>
-  </si>
-  <si>
-    <t>32310000</t>
-  </si>
-  <si>
-    <t>10050</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>骷髅弓箭手</t>
-  </si>
-  <si>
-    <t>21180000</t>
-  </si>
-  <si>
-    <t>8472000</t>
-  </si>
-  <si>
-    <t>211800000</t>
-  </si>
-  <si>
-    <t>42360000</t>
-  </si>
-  <si>
-    <t>10051</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>骷髅刀斧手</t>
-  </si>
-  <si>
-    <t>25945000</t>
-  </si>
-  <si>
-    <t>10378000</t>
-  </si>
-  <si>
-    <t>259450000</t>
-  </si>
-  <si>
-    <t>51890000</t>
-  </si>
-  <si>
-    <t>10052</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>骷髅锤兵</t>
-  </si>
-  <si>
-    <t>31785000</t>
-  </si>
-  <si>
-    <t>12714000</t>
-  </si>
-  <si>
-    <t>317850000</t>
-  </si>
-  <si>
-    <t>63570000</t>
-  </si>
-  <si>
-    <t>10053</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>恶灵骷髅</t>
-  </si>
-  <si>
-    <t>41665000</t>
-  </si>
-  <si>
-    <t>16666000</t>
-  </si>
-  <si>
-    <t>416650000</t>
-  </si>
-  <si>
-    <t>83330000</t>
-  </si>
-  <si>
-    <t>10054</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>恶灵僵尸</t>
-  </si>
-  <si>
-    <t>51040000</t>
-  </si>
-  <si>
-    <t>20416000</t>
-  </si>
-  <si>
-    <t>510400000</t>
-  </si>
-  <si>
-    <t>102080000</t>
-  </si>
-  <si>
-    <t>10055</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>牛头魔</t>
-  </si>
-  <si>
-    <t>62525000</t>
-  </si>
-  <si>
-    <t>25010000</t>
-  </si>
-  <si>
-    <t>625250000</t>
-  </si>
-  <si>
-    <t>125050000</t>
-  </si>
-  <si>
-    <t>10056</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>牛魔侍卫</t>
-  </si>
-  <si>
-    <t>81960000</t>
-  </si>
-  <si>
-    <t>32784000</t>
-  </si>
-  <si>
-    <t>819600000</t>
-  </si>
-  <si>
-    <t>163920000</t>
-  </si>
-  <si>
-    <t>10057</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>牛魔战士</t>
-  </si>
-  <si>
-    <t>100405000</t>
-  </si>
-  <si>
-    <t>40162000</t>
-  </si>
-  <si>
-    <t>1004050000</t>
-  </si>
-  <si>
-    <t>200810000</t>
-  </si>
-  <si>
-    <t>10058</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>牛魔斗士</t>
-  </si>
-  <si>
-    <t>123000000</t>
-  </si>
-  <si>
-    <t>49200000</t>
-  </si>
-  <si>
-    <t>1230000000</t>
-  </si>
-  <si>
-    <t>246000000</t>
-  </si>
-  <si>
-    <t>10059</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>牛魔将军</t>
-  </si>
-  <si>
-    <t>161230000</t>
-  </si>
-  <si>
-    <t>64492000</t>
-  </si>
-  <si>
-    <t>1612300000</t>
-  </si>
-  <si>
-    <t>322460000</t>
-  </si>
-  <si>
-    <t>10060</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>牛魔祭祀</t>
-  </si>
-  <si>
-    <t>197515000</t>
-  </si>
-  <si>
-    <t>79006000</t>
-  </si>
-  <si>
-    <t>1975150000</t>
-  </si>
-  <si>
-    <t>395030000</t>
-  </si>
-  <si>
-    <t>10061</t>
-  </si>
-  <si>
     <t>天狼蜘蛛</t>
   </si>
   <si>
-    <t>237460000</t>
-  </si>
-  <si>
-    <t>94984000</t>
-  </si>
-  <si>
-    <t>2374600000</t>
-  </si>
-  <si>
-    <t>474920000</t>
+    <t>60300</t>
+  </si>
+  <si>
+    <t>100500</t>
+  </si>
+  <si>
+    <t>603000</t>
+  </si>
+  <si>
+    <t>20100</t>
+  </si>
+  <si>
+    <t>4020</t>
   </si>
   <si>
     <t>10062</t>
@@ -1298,16 +1481,19 @@
     <t>钢牙蜘蛛</t>
   </si>
   <si>
-    <t>299790000</t>
-  </si>
-  <si>
-    <t>119916000</t>
-  </si>
-  <si>
-    <t>2997900000</t>
-  </si>
-  <si>
-    <t>599580000</t>
+    <t>62730</t>
+  </si>
+  <si>
+    <t>104550</t>
+  </si>
+  <si>
+    <t>627300</t>
+  </si>
+  <si>
+    <t>20910</t>
+  </si>
+  <si>
+    <t>4182</t>
   </si>
   <si>
     <t>10063</t>
@@ -1319,16 +1505,19 @@
     <t>幻影蜘蛛</t>
   </si>
   <si>
-    <t>357055000</t>
-  </si>
-  <si>
-    <t>142822000</t>
-  </si>
-  <si>
-    <t>3570550000</t>
-  </si>
-  <si>
-    <t>714110000</t>
+    <t>64584</t>
+  </si>
+  <si>
+    <t>107640</t>
+  </si>
+  <si>
+    <t>645840</t>
+  </si>
+  <si>
+    <t>21528</t>
+  </si>
+  <si>
+    <t>4305</t>
   </si>
   <si>
     <t>10064</t>
@@ -1337,16 +1526,19 @@
     <t>月魔蜘蛛</t>
   </si>
   <si>
-    <t>425260000</t>
-  </si>
-  <si>
-    <t>170104000</t>
-  </si>
-  <si>
-    <t>4252600000</t>
-  </si>
-  <si>
-    <t>850520000</t>
+    <t>66465</t>
+  </si>
+  <si>
+    <t>110775</t>
+  </si>
+  <si>
+    <t>664650</t>
+  </si>
+  <si>
+    <t>22155</t>
+  </si>
+  <si>
+    <t>4431</t>
   </si>
   <si>
     <t>10065</t>
@@ -1358,16 +1550,19 @@
     <t>黑锷蜘蛛</t>
   </si>
   <si>
-    <t>536880000</t>
-  </si>
-  <si>
-    <t>214752000</t>
-  </si>
-  <si>
-    <t>5368800000</t>
-  </si>
-  <si>
-    <t>1073760000</t>
+    <t>69015</t>
+  </si>
+  <si>
+    <t>115025</t>
+  </si>
+  <si>
+    <t>690150</t>
+  </si>
+  <si>
+    <t>23005</t>
+  </si>
+  <si>
+    <t>4601</t>
   </si>
   <si>
     <t>10066</t>
@@ -1379,16 +1574,19 @@
     <t>花吻蜘蛛</t>
   </si>
   <si>
-    <t>639435000</t>
-  </si>
-  <si>
-    <t>255774000</t>
-  </si>
-  <si>
-    <t>6394350000</t>
-  </si>
-  <si>
-    <t>1278870000</t>
+    <t>70959</t>
+  </si>
+  <si>
+    <t>118265</t>
+  </si>
+  <si>
+    <t>709590</t>
+  </si>
+  <si>
+    <t>23653</t>
+  </si>
+  <si>
+    <t>4730</t>
   </si>
   <si>
     <t>10067</t>
@@ -1400,16 +1598,19 @@
     <t>血僵尸</t>
   </si>
   <si>
-    <t>761575000</t>
-  </si>
-  <si>
-    <t>304630000</t>
-  </si>
-  <si>
-    <t>7615750000</t>
-  </si>
-  <si>
-    <t>1523150000</t>
+    <t>72930</t>
+  </si>
+  <si>
+    <t>121550</t>
+  </si>
+  <si>
+    <t>729300</t>
+  </si>
+  <si>
+    <t>24310</t>
+  </si>
+  <si>
+    <t>4862</t>
   </si>
   <si>
     <t>10068</t>
@@ -1421,16 +1622,19 @@
     <t>血巨人</t>
   </si>
   <si>
-    <t>961475000</t>
-  </si>
-  <si>
-    <t>384590000</t>
-  </si>
-  <si>
-    <t>9614750000</t>
-  </si>
-  <si>
-    <t>1922950000</t>
+    <t>75600</t>
+  </si>
+  <si>
+    <t>126000</t>
+  </si>
+  <si>
+    <t>756000</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>5040</t>
   </si>
   <si>
     <t>10069</t>
@@ -1442,16 +1646,19 @@
     <t>魔龙邪眼</t>
   </si>
   <si>
-    <t>1145130000</t>
-  </si>
-  <si>
-    <t>458052000</t>
-  </si>
-  <si>
-    <t>11451300000</t>
-  </si>
-  <si>
-    <t>2290260000</t>
+    <t>77634</t>
+  </si>
+  <si>
+    <t>129390</t>
+  </si>
+  <si>
+    <t>776340</t>
+  </si>
+  <si>
+    <t>25878</t>
+  </si>
+  <si>
+    <t>5175</t>
   </si>
   <si>
     <t>10070</t>
@@ -1463,16 +1670,19 @@
     <t>魔龙血蛙</t>
   </si>
   <si>
-    <t>1363870000</t>
-  </si>
-  <si>
-    <t>545548000</t>
-  </si>
-  <si>
-    <t>13638700000</t>
-  </si>
-  <si>
-    <t>2727740000</t>
+    <t>79695</t>
+  </si>
+  <si>
+    <t>132825</t>
+  </si>
+  <si>
+    <t>796950</t>
+  </si>
+  <si>
+    <t>26565</t>
+  </si>
+  <si>
+    <t>5313</t>
   </si>
   <si>
     <t>10071</t>
@@ -1484,16 +1694,19 @@
     <t>魔龙刺蛙</t>
   </si>
   <si>
-    <t>1721855000</t>
-  </si>
-  <si>
-    <t>688742000</t>
-  </si>
-  <si>
-    <t>17218550000</t>
-  </si>
-  <si>
-    <t>3443710000</t>
+    <t>82485</t>
+  </si>
+  <si>
+    <t>137475</t>
+  </si>
+  <si>
+    <t>824850</t>
+  </si>
+  <si>
+    <t>27495</t>
+  </si>
+  <si>
+    <t>5499</t>
   </si>
   <si>
     <t>10072</t>
@@ -1505,16 +1718,16 @@
     <t>魔龙刀兵</t>
   </si>
   <si>
-    <t>2050760000</t>
-  </si>
-  <si>
-    <t>820304000</t>
-  </si>
-  <si>
-    <t>20507600000</t>
-  </si>
-  <si>
-    <t>4101520000</t>
+    <t>84609</t>
+  </si>
+  <si>
+    <t>141015</t>
+  </si>
+  <si>
+    <t>846090</t>
+  </si>
+  <si>
+    <t>28203</t>
   </si>
   <si>
     <t>10073</t>
@@ -1526,16 +1739,19 @@
     <t>魔龙破甲兵</t>
   </si>
   <si>
-    <t>2442485000</t>
-  </si>
-  <si>
-    <t>976994000</t>
-  </si>
-  <si>
-    <t>24424850000</t>
-  </si>
-  <si>
-    <t>4884970000</t>
+    <t>86760</t>
+  </si>
+  <si>
+    <t>144600</t>
+  </si>
+  <si>
+    <t>867600</t>
+  </si>
+  <si>
+    <t>28920</t>
+  </si>
+  <si>
+    <t>5784</t>
   </si>
   <si>
     <t>10074</t>
@@ -1547,16 +1763,19 @@
     <t>魔龙射手</t>
   </si>
   <si>
-    <t>3083585000</t>
-  </si>
-  <si>
-    <t>1233434000</t>
-  </si>
-  <si>
-    <t>30835850000</t>
-  </si>
-  <si>
-    <t>6167170000</t>
+    <t>89670</t>
+  </si>
+  <si>
+    <t>149450</t>
+  </si>
+  <si>
+    <t>896700</t>
+  </si>
+  <si>
+    <t>29890</t>
+  </si>
+  <si>
+    <t>5978</t>
   </si>
   <si>
     <t>10075</t>
@@ -1568,16 +1787,19 @@
     <t>魔龙巨蛾</t>
   </si>
   <si>
-    <t>3672600000</t>
-  </si>
-  <si>
-    <t>1469040000</t>
-  </si>
-  <si>
-    <t>36726000000</t>
-  </si>
-  <si>
-    <t>7345200000</t>
+    <t>91884</t>
+  </si>
+  <si>
+    <t>153140</t>
+  </si>
+  <si>
+    <t>918840</t>
+  </si>
+  <si>
+    <t>30628</t>
+  </si>
+  <si>
+    <t>6125</t>
   </si>
   <si>
     <t>10076</t>
@@ -1589,16 +1811,19 @@
     <t>魔龙战将</t>
   </si>
   <si>
-    <t>4291980000</t>
-  </si>
-  <si>
-    <t>1716792000</t>
-  </si>
-  <si>
-    <t>42919800000</t>
-  </si>
-  <si>
-    <t>8583960000</t>
+    <t>94125</t>
+  </si>
+  <si>
+    <t>156875</t>
+  </si>
+  <si>
+    <t>941250</t>
+  </si>
+  <si>
+    <t>31375</t>
+  </si>
+  <si>
+    <t>6275</t>
   </si>
   <si>
     <t>10077</t>
@@ -1610,16 +1835,19 @@
     <t>魔龙力士</t>
   </si>
   <si>
-    <t>5216930000</t>
-  </si>
-  <si>
-    <t>2086772000</t>
-  </si>
-  <si>
-    <t>52169300000</t>
-  </si>
-  <si>
-    <t>10433860000</t>
+    <t>97155</t>
+  </si>
+  <si>
+    <t>161925</t>
+  </si>
+  <si>
+    <t>971550</t>
+  </si>
+  <si>
+    <t>32385</t>
+  </si>
+  <si>
+    <t>6477</t>
   </si>
   <si>
     <t>10078</t>
@@ -1631,16 +1859,19 @@
     <t>火龙守护兽</t>
   </si>
   <si>
-    <t>6039250000</t>
-  </si>
-  <si>
-    <t>2415700000</t>
-  </si>
-  <si>
-    <t>60392500000</t>
-  </si>
-  <si>
-    <t>12078500000</t>
+    <t>99459</t>
+  </si>
+  <si>
+    <t>165765</t>
+  </si>
+  <si>
+    <t>994590</t>
+  </si>
+  <si>
+    <t>33153</t>
+  </si>
+  <si>
+    <t>6630</t>
   </si>
 </sst>
 </file>
@@ -2774,1931 +3005,1931 @@
         <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I19" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="I21" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="J21" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="I22" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="I23" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="J23" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="E24" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="H24" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="I24" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="I25" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="H26" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="I26" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="J26" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="I27" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="J27" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="J28" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I29" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="J29" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="H30" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="I30" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="J30" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="F31" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="G31" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="H31" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="I31" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="H32" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="I32" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="J32" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F33" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="H33" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="I33" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="J33" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="F34" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G34" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="H34" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="I34" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="J34" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="E35" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="G35" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="H35" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="I35" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="J35" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="E36" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="F36" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="H36" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="I36" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="J36" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="G37" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="H37" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="I37" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="J37" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="D38" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="E38" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="F38" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="G38" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="H38" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="I38" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="J38" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="D39" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="E39" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="F39" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="G39" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="H39" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="I39" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="J39" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="D40" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="F40" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="G40" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="H40" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="I40" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="J40" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="F41" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="G41" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="H41" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="I41" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="J41" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="E42" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="F42" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="G42" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="H42" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="I42" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="J42" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="D43" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="E43" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="F43" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="G43" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="H43" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="I43" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="J43" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="E44" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="F44" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="G44" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="H44" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="I44" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="J44" t="s">
-        <v>291</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="G45" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="H45" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="I45" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="J45" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="D46" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="E46" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="F46" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G46" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="H46" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="I46" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="J46" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="F47" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="G47" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="H47" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="I47" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="J47" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" ht="24.0" customHeight="true">
       <c r="C48" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="D48" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="E48" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="F48" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="G48" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="H48" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="I48" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="J48" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" ht="24.0" customHeight="true">
       <c r="C49" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="D49" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="E49" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="F49" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="G49" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="H49" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="I49" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="J49" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" ht="24.0" customHeight="true">
       <c r="C50" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="E50" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="F50" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="G50" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="H50" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="I50" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="J50" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" ht="24.0" customHeight="true">
       <c r="C51" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="E51" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="F51" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="G51" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="H51" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="I51" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="J51" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" ht="24.0" customHeight="true">
       <c r="C52" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="D52" t="s">
-        <v>342</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="F52" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="G52" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="H52" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="I52" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="J52" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" ht="24.0" customHeight="true">
       <c r="C53" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="D53" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="E53" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="F53" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="G53" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="H53" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="I53" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="J53" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" ht="24.0" customHeight="true">
       <c r="C54" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="D54" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="E54" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="F54" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="G54" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="H54" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="I54" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J54" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" ht="24.0" customHeight="true">
       <c r="C55" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="D55" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="E55" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="F55" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="G55" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="H55" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="I55" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="J55" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" ht="24.0" customHeight="true">
       <c r="C56" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="D56" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="E56" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="F56" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="G56" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="H56" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="I56" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="J56" t="s">
-        <v>373</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" ht="24.0" customHeight="true">
       <c r="C57" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="D57" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="E57" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="F57" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="G57" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="H57" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="I57" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="J57" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" ht="24.0" customHeight="true">
       <c r="C58" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="D58" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="E58" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="F58" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="G58" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="H58" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="I58" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="J58" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" ht="24.0" customHeight="true">
       <c r="C59" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="D59" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="E59" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="F59" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="G59" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="H59" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="I59" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="J59" t="s">
-        <v>394</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" ht="24.0" customHeight="true">
       <c r="C60" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="D60" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="E60" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="G60" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="H60" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="I60" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="J60" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" ht="24.0" customHeight="true">
       <c r="C61" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="D61" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="E61" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="F61" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="G61" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="H61" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="I61" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="J61" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" ht="24.0" customHeight="true">
       <c r="C62" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="D62" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="E62" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="F62" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="G62" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="H62" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="I62" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="J62" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" ht="24.0" customHeight="true">
       <c r="C63" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>478</v>
       </c>
       <c r="E63" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="F63" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="G63" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="H63" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="I63" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="J63" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" ht="24.0" customHeight="true">
       <c r="C64" t="s">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="D64" t="s">
-        <v>425</v>
+        <v>486</v>
       </c>
       <c r="E64" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
       <c r="F64" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="G64" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="H64" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="I64" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="J64" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" ht="24.0" customHeight="true">
       <c r="C65" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="D65" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="E65" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="F65" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="G65" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="H65" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="I65" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="J65" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" ht="24.0" customHeight="true">
       <c r="C66" t="s">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="F66" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="G66" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="H66" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="I66" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="J66" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" ht="24.0" customHeight="true">
       <c r="C67" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="D67" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="E67" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="F67" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="G67" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="H67" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="I67" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="J67" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
     </row>
     <row r="68" ht="24.0" customHeight="true">
       <c r="C68" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="D68" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="E68" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="F68" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="G68" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="H68" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
       <c r="I68" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="J68" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" ht="24.0" customHeight="true">
       <c r="C69" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="D69" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="E69" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="F69" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="G69" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="H69" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="I69" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="J69" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" ht="24.0" customHeight="true">
       <c r="C70" t="s">
-        <v>465</v>
+        <v>532</v>
       </c>
       <c r="D70" t="s">
-        <v>466</v>
+        <v>533</v>
       </c>
       <c r="E70" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
       <c r="F70" t="s">
-        <v>468</v>
+        <v>535</v>
       </c>
       <c r="G70" t="s">
-        <v>469</v>
+        <v>536</v>
       </c>
       <c r="H70" t="s">
-        <v>470</v>
+        <v>537</v>
       </c>
       <c r="I70" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="J70" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" ht="24.0" customHeight="true">
       <c r="C71" t="s">
-        <v>472</v>
+        <v>540</v>
       </c>
       <c r="D71" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="E71" t="s">
-        <v>474</v>
+        <v>542</v>
       </c>
       <c r="F71" t="s">
-        <v>475</v>
+        <v>543</v>
       </c>
       <c r="G71" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="H71" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="I71" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="J71" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
     </row>
     <row r="72" ht="24.0" customHeight="true">
       <c r="C72" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="D72" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="E72" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="F72" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="G72" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="H72" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="I72" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="J72" t="s">
-        <v>483</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" ht="24.0" customHeight="true">
       <c r="C73" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="D73" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="E73" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="F73" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="G73" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="H73" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
       <c r="I73" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="J73" t="s">
-        <v>490</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" ht="24.0" customHeight="true">
       <c r="C74" t="s">
-        <v>493</v>
+        <v>564</v>
       </c>
       <c r="D74" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="E74" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="F74" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="G74" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="H74" t="s">
-        <v>498</v>
+        <v>569</v>
       </c>
       <c r="I74" t="s">
-        <v>499</v>
+        <v>570</v>
       </c>
       <c r="J74" t="s">
-        <v>497</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" ht="24.0" customHeight="true">
       <c r="C75" t="s">
-        <v>500</v>
+        <v>571</v>
       </c>
       <c r="D75" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
       <c r="E75" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
       <c r="F75" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="G75" t="s">
-        <v>504</v>
+        <v>575</v>
       </c>
       <c r="H75" t="s">
-        <v>505</v>
+        <v>576</v>
       </c>
       <c r="I75" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
       <c r="J75" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76" ht="24.0" customHeight="true">
       <c r="C76" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="D76" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="E76" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="F76" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="G76" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="H76" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="I76" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="J76" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
     </row>
     <row r="77" ht="24.0" customHeight="true">
       <c r="C77" t="s">
-        <v>514</v>
+        <v>587</v>
       </c>
       <c r="D77" t="s">
-        <v>515</v>
+        <v>588</v>
       </c>
       <c r="E77" t="s">
-        <v>516</v>
+        <v>589</v>
       </c>
       <c r="F77" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
       <c r="G77" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="H77" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="I77" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="J77" t="s">
-        <v>518</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78" ht="24.0" customHeight="true">
       <c r="C78" t="s">
-        <v>521</v>
+        <v>595</v>
       </c>
       <c r="D78" t="s">
-        <v>522</v>
+        <v>596</v>
       </c>
       <c r="E78" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
       <c r="F78" t="s">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="G78" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="H78" t="s">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="I78" t="s">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="J78" t="s">
-        <v>525</v>
+        <v>602</v>
       </c>
     </row>
     <row r="79" ht="24.0" customHeight="true">
       <c r="C79" t="s">
-        <v>528</v>
+        <v>603</v>
       </c>
       <c r="D79" t="s">
-        <v>529</v>
+        <v>604</v>
       </c>
       <c r="E79" t="s">
-        <v>530</v>
+        <v>605</v>
       </c>
       <c r="F79" t="s">
-        <v>531</v>
+        <v>606</v>
       </c>
       <c r="G79" t="s">
-        <v>532</v>
+        <v>607</v>
       </c>
       <c r="H79" t="s">
-        <v>533</v>
+        <v>608</v>
       </c>
       <c r="I79" t="s">
-        <v>534</v>
+        <v>609</v>
       </c>
       <c r="J79" t="s">
-        <v>532</v>
+        <v>610</v>
       </c>
     </row>
     <row r="80" ht="24.0" customHeight="true">
       <c r="C80" t="s">
-        <v>535</v>
+        <v>611</v>
       </c>
       <c r="D80" t="s">
-        <v>536</v>
+        <v>612</v>
       </c>
       <c r="E80" t="s">
-        <v>537</v>
+        <v>613</v>
       </c>
       <c r="F80" t="s">
-        <v>538</v>
+        <v>614</v>
       </c>
       <c r="G80" t="s">
-        <v>539</v>
+        <v>615</v>
       </c>
       <c r="H80" t="s">
-        <v>540</v>
+        <v>616</v>
       </c>
       <c r="I80" t="s">
-        <v>541</v>
+        <v>617</v>
       </c>
       <c r="J80" t="s">
-        <v>539</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="262">
   <si>
     <t>ID</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>long</t>
-  </si>
-  <si>
-    <t>PhyAttr</t>
   </si>
   <si>
     <t>10001</t>
@@ -1764,27 +1761,27 @@
   <sheetPr/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="6.875" collapsed="false"/>
-    <col min="2" max="2" style="2" width="9.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="9.875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="11.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="12.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="13.375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="2" width="12.125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="2" width="15.875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="2" width="16.375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="2" width="13.0" collapsed="false"/>
-    <col min="11" max="12" style="2" width="9.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="2" width="13.625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="2" width="8.125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="2" width="9.625" collapsed="false"/>
-    <col min="16" max="16384" style="2" width="9.0" collapsed="false"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
@@ -1914,914 +1911,914 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" ht="24.0" customHeight="true">
+    <row r="6" ht="24" customHeight="1" spans="3:10">
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:10">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" ht="24.0" customHeight="true">
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:10">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" ht="24.0" customHeight="true">
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:10">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" ht="24.0" customHeight="true">
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:10">
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" ht="24.0" customHeight="true">
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" t="s">
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:10">
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" ht="24.0" customHeight="true">
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>59</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
         <v>60</v>
       </c>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" t="s">
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:10">
+      <c r="C12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" ht="24.0" customHeight="true">
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
         <v>67</v>
       </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s">
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:10">
+      <c r="C13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" ht="24.0" customHeight="true">
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>69</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>71</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>72</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>73</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
         <v>74</v>
       </c>
-      <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" t="s">
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:10">
+      <c r="C14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" ht="24.0" customHeight="true">
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>76</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>77</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>78</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>79</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>80</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s">
         <v>81</v>
       </c>
-      <c r="I14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:10">
+      <c r="C15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" ht="24.0" customHeight="true">
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>83</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>84</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>85</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>86</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>87</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
         <v>88</v>
       </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" t="s">
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:10">
+      <c r="C16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" ht="24.0" customHeight="true">
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
         <v>90</v>
       </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>91</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>92</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>93</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s">
         <v>94</v>
       </c>
-      <c r="I16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" t="s">
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:10">
+      <c r="C17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" ht="24.0" customHeight="true">
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>96</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>97</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>98</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>99</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>100</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" t="s">
         <v>101</v>
       </c>
-      <c r="I17" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" t="s">
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:10">
+      <c r="C18" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" ht="24.0" customHeight="true">
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>104</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>105</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>106</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>107</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" t="s">
         <v>108</v>
       </c>
-      <c r="I18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" t="s">
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:10">
+      <c r="C19" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" ht="24.0" customHeight="true">
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>110</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>111</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>112</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>113</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>114</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s">
         <v>115</v>
       </c>
-      <c r="I19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" t="s">
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:10">
+      <c r="C20" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" ht="24.0" customHeight="true">
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>117</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>118</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>119</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>120</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>121</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" t="s">
         <v>122</v>
       </c>
-      <c r="I20" t="s">
-        <v>121</v>
-      </c>
-      <c r="J20" t="s">
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:10">
+      <c r="C21" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" ht="24.0" customHeight="true">
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>124</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>125</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>126</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>127</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>128</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" t="s">
         <v>129</v>
       </c>
-      <c r="I21" t="s">
-        <v>128</v>
-      </c>
-      <c r="J21" t="s">
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:10">
+      <c r="C22" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" ht="24.0" customHeight="true">
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>131</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>132</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>133</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>134</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>135</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" t="s">
         <v>136</v>
       </c>
-      <c r="I22" t="s">
-        <v>135</v>
-      </c>
-      <c r="J22" t="s">
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:10">
+      <c r="C23" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" ht="24.0" customHeight="true">
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>138</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>139</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>140</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>141</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>142</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" t="s">
         <v>143</v>
       </c>
-      <c r="I23" t="s">
-        <v>142</v>
-      </c>
-      <c r="J23" t="s">
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:10">
+      <c r="C24" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" ht="24.0" customHeight="true">
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>145</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>146</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>147</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>148</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>149</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" t="s">
         <v>150</v>
       </c>
-      <c r="I24" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" t="s">
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:10">
+      <c r="C25" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" ht="24.0" customHeight="true">
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>152</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>153</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>154</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>155</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>156</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" t="s">
         <v>157</v>
       </c>
-      <c r="I25" t="s">
-        <v>156</v>
-      </c>
-      <c r="J25" t="s">
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:10">
+      <c r="C26" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="26" ht="24.0" customHeight="true">
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>159</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>160</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>161</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>162</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>163</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" t="s">
         <v>164</v>
       </c>
-      <c r="I26" t="s">
-        <v>163</v>
-      </c>
-      <c r="J26" t="s">
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:10">
+      <c r="C27" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="27" ht="24.0" customHeight="true">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>166</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>167</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>168</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>169</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>170</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
+        <v>169</v>
+      </c>
+      <c r="J27" t="s">
         <v>171</v>
       </c>
-      <c r="I27" t="s">
-        <v>170</v>
-      </c>
-      <c r="J27" t="s">
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:10">
+      <c r="C28" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="28" ht="24.0" customHeight="true">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>173</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>174</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>175</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>176</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>177</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" t="s">
         <v>178</v>
       </c>
-      <c r="I28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J28" t="s">
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:10">
+      <c r="C29" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="29" ht="24.0" customHeight="true">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>180</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>181</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>182</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>183</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>184</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
+        <v>183</v>
+      </c>
+      <c r="J29" t="s">
         <v>185</v>
       </c>
-      <c r="I29" t="s">
-        <v>184</v>
-      </c>
-      <c r="J29" t="s">
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:10">
+      <c r="C30" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="30" ht="24.0" customHeight="true">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>187</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>188</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>189</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>190</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>191</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" t="s">
         <v>192</v>
       </c>
-      <c r="I30" t="s">
-        <v>191</v>
-      </c>
-      <c r="J30" t="s">
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:10">
+      <c r="C31" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="31" ht="24.0" customHeight="true">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>194</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>195</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>196</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>197</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>198</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" t="s">
         <v>199</v>
       </c>
-      <c r="I31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J31" t="s">
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:10">
+      <c r="C32" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" ht="24.0" customHeight="true">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>201</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>202</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>203</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>204</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>205</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" t="s">
         <v>206</v>
       </c>
-      <c r="I32" t="s">
-        <v>205</v>
-      </c>
-      <c r="J32" t="s">
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:10">
+      <c r="C33" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="33" ht="24.0" customHeight="true">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>208</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>209</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>210</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>211</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>212</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
+        <v>211</v>
+      </c>
+      <c r="J33" t="s">
         <v>213</v>
       </c>
-      <c r="I33" t="s">
-        <v>212</v>
-      </c>
-      <c r="J33" t="s">
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:10">
+      <c r="C34" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="34" ht="24.0" customHeight="true">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>215</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>216</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>217</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>218</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>219</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" t="s">
         <v>220</v>
       </c>
-      <c r="I34" t="s">
-        <v>219</v>
-      </c>
-      <c r="J34" t="s">
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:10">
+      <c r="C35" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="35" ht="24.0" customHeight="true">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>222</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>223</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>224</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>225</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>226</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
+        <v>225</v>
+      </c>
+      <c r="J35" t="s">
         <v>227</v>
       </c>
-      <c r="I35" t="s">
-        <v>226</v>
-      </c>
-      <c r="J35" t="s">
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:10">
+      <c r="C36" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="36" ht="24.0" customHeight="true">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>229</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>230</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>231</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>232</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>233</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
+        <v>232</v>
+      </c>
+      <c r="J36" t="s">
         <v>234</v>
       </c>
-      <c r="I36" t="s">
-        <v>233</v>
-      </c>
-      <c r="J36" t="s">
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:10">
+      <c r="C37" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="37" ht="24.0" customHeight="true">
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>236</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>237</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>238</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>239</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>240</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>239</v>
+      </c>
+      <c r="J37" t="s">
         <v>241</v>
       </c>
-      <c r="I37" t="s">
-        <v>240</v>
-      </c>
-      <c r="J37" t="s">
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:10">
+      <c r="C38" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="38" ht="24.0" customHeight="true">
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>243</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>244</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>245</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>246</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>247</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>246</v>
+      </c>
+      <c r="J38" t="s">
         <v>248</v>
       </c>
-      <c r="I38" t="s">
-        <v>247</v>
-      </c>
-      <c r="J38" t="s">
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:10">
+      <c r="C39" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="39" ht="24.0" customHeight="true">
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>250</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>251</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>252</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>253</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>254</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
+        <v>253</v>
+      </c>
+      <c r="J39" t="s">
         <v>255</v>
       </c>
-      <c r="I39" t="s">
-        <v>254</v>
-      </c>
-      <c r="J39" t="s">
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:10">
+      <c r="C40" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="40" ht="24.0" customHeight="true">
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>257</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>258</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>259</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>260</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>261</v>
       </c>
-      <c r="H40" t="s">
-        <v>262</v>
-      </c>
       <c r="I40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2840,27 +2837,27 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="6.875" collapsed="false"/>
-    <col min="2" max="2" style="2" width="9.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="9.875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="11.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="12.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="13.375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="2" width="12.125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="2" width="15.875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="2" width="16.375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="2" width="13.0" collapsed="false"/>
-    <col min="11" max="12" style="2" width="9.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="2" width="13.625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="2" width="8.125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="2" width="9.625" collapsed="false"/>
-    <col min="16" max="16384" style="2" width="9.0" collapsed="false"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
@@ -2937,7 +2934,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="225">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +74,9 @@
     <t>long</t>
   </si>
   <si>
+    <t>PhyAttr</t>
+  </si>
+  <si>
     <t>10001</t>
   </si>
   <si>
@@ -83,16 +86,10 @@
     <t>鸡</t>
   </si>
   <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>1650</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>10002</t>
@@ -104,16 +101,10 @@
     <t>鹿</t>
   </si>
   <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>6300</t>
-  </si>
-  <si>
-    <t>42</t>
+    <t>500</t>
+  </si>
+  <si>
+    <t>5000</t>
   </si>
   <si>
     <t>10003</t>
@@ -125,16 +116,13 @@
     <t>稻草人</t>
   </si>
   <si>
-    <t>1395</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>13950</t>
-  </si>
-  <si>
-    <t>93</t>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>20000</t>
   </si>
   <si>
     <t>10004</t>
@@ -146,16 +134,7 @@
     <t>钉耙猫</t>
   </si>
   <si>
-    <t>2460</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>164</t>
+    <t>50000</t>
   </si>
   <si>
     <t>10005</t>
@@ -167,16 +146,10 @@
     <t>食人花</t>
   </si>
   <si>
-    <t>3825</t>
-  </si>
-  <si>
-    <t>1275</t>
-  </si>
-  <si>
-    <t>38250</t>
-  </si>
-  <si>
-    <t>255</t>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>100000</t>
   </si>
   <si>
     <t>10006</t>
@@ -188,16 +161,13 @@
     <t>蝙蝠</t>
   </si>
   <si>
-    <t>5490</t>
-  </si>
-  <si>
-    <t>1830</t>
-  </si>
-  <si>
-    <t>54900</t>
-  </si>
-  <si>
-    <t>366</t>
+    <t>14065</t>
+  </si>
+  <si>
+    <t>2813</t>
+  </si>
+  <si>
+    <t>140650</t>
   </si>
   <si>
     <t>10007</t>
@@ -209,16 +179,13 @@
     <t>小骷髅</t>
   </si>
   <si>
-    <t>7455</t>
-  </si>
-  <si>
-    <t>2485</t>
-  </si>
-  <si>
-    <t>74550</t>
-  </si>
-  <si>
-    <t>497</t>
+    <t>19783</t>
+  </si>
+  <si>
+    <t>3956</t>
+  </si>
+  <si>
+    <t>197830</t>
   </si>
   <si>
     <t>10008</t>
@@ -230,16 +197,13 @@
     <t>骷髅战士</t>
   </si>
   <si>
-    <t>9720</t>
-  </si>
-  <si>
-    <t>3240</t>
-  </si>
-  <si>
-    <t>97200</t>
-  </si>
-  <si>
-    <t>648</t>
+    <t>27826</t>
+  </si>
+  <si>
+    <t>5565</t>
+  </si>
+  <si>
+    <t>278260</t>
   </si>
   <si>
     <t>10009</t>
@@ -251,16 +215,13 @@
     <t>骷髅射手</t>
   </si>
   <si>
-    <t>12285</t>
-  </si>
-  <si>
-    <t>4095</t>
-  </si>
-  <si>
-    <t>122850</t>
-  </si>
-  <si>
-    <t>819</t>
+    <t>39137</t>
+  </si>
+  <si>
+    <t>7827</t>
+  </si>
+  <si>
+    <t>391370</t>
   </si>
   <si>
     <t>10010</t>
@@ -272,34 +233,31 @@
     <t>骷髅斧手</t>
   </si>
   <si>
-    <t>15150</t>
-  </si>
-  <si>
-    <t>5050</t>
-  </si>
-  <si>
-    <t>151500</t>
+    <t>55048</t>
+  </si>
+  <si>
+    <t>11009</t>
+  </si>
+  <si>
+    <t>550480</t>
+  </si>
+  <si>
+    <t>10011</t>
   </si>
   <si>
     <t>1010</t>
   </si>
   <si>
-    <t>10011</t>
-  </si>
-  <si>
     <t>洞蛆</t>
   </si>
   <si>
-    <t>18315</t>
-  </si>
-  <si>
-    <t>6105</t>
-  </si>
-  <si>
-    <t>183150</t>
-  </si>
-  <si>
-    <t>1221</t>
+    <t>77426</t>
+  </si>
+  <si>
+    <t>15485</t>
+  </si>
+  <si>
+    <t>774260</t>
   </si>
   <si>
     <t>10012</t>
@@ -311,16 +269,13 @@
     <t>僵尸</t>
   </si>
   <si>
+    <t>108902</t>
+  </si>
+  <si>
     <t>21780</t>
   </si>
   <si>
-    <t>7260</t>
-  </si>
-  <si>
-    <t>217800</t>
-  </si>
-  <si>
-    <t>1452</t>
+    <t>1089020</t>
   </si>
   <si>
     <t>10013</t>
@@ -332,16 +287,13 @@
     <t>虎蛇</t>
   </si>
   <si>
-    <t>25545</t>
-  </si>
-  <si>
-    <t>8515</t>
-  </si>
-  <si>
-    <t>255450</t>
-  </si>
-  <si>
-    <t>1703</t>
+    <t>153174</t>
+  </si>
+  <si>
+    <t>30634</t>
+  </si>
+  <si>
+    <t>1531740</t>
   </si>
   <si>
     <t>10014</t>
@@ -353,16 +305,13 @@
     <t>狼</t>
   </si>
   <si>
-    <t>29610</t>
-  </si>
-  <si>
-    <t>9870</t>
-  </si>
-  <si>
-    <t>296100</t>
-  </si>
-  <si>
-    <t>1974</t>
+    <t>215443</t>
+  </si>
+  <si>
+    <t>43088</t>
+  </si>
+  <si>
+    <t>2154430</t>
   </si>
   <si>
     <t>10015</t>
@@ -374,16 +323,13 @@
     <t>沙虫</t>
   </si>
   <si>
-    <t>33975</t>
-  </si>
-  <si>
-    <t>11325</t>
-  </si>
-  <si>
-    <t>339750</t>
-  </si>
-  <si>
-    <t>2265</t>
+    <t>303027</t>
+  </si>
+  <si>
+    <t>60605</t>
+  </si>
+  <si>
+    <t>3030270</t>
   </si>
   <si>
     <t>10016</t>
@@ -395,16 +341,13 @@
     <t>猎鹰</t>
   </si>
   <si>
-    <t>38640</t>
-  </si>
-  <si>
-    <t>12880</t>
-  </si>
-  <si>
-    <t>386400</t>
-  </si>
-  <si>
-    <t>2576</t>
+    <t>426216</t>
+  </si>
+  <si>
+    <t>85243</t>
+  </si>
+  <si>
+    <t>4262160</t>
   </si>
   <si>
     <t>10017</t>
@@ -416,16 +359,13 @@
     <t>多角虫</t>
   </si>
   <si>
-    <t>43605</t>
-  </si>
-  <si>
-    <t>14535</t>
-  </si>
-  <si>
-    <t>436050</t>
-  </si>
-  <si>
-    <t>2907</t>
+    <t>599484</t>
+  </si>
+  <si>
+    <t>119896</t>
+  </si>
+  <si>
+    <t>5994840</t>
   </si>
   <si>
     <t>10018</t>
@@ -437,16 +377,13 @@
     <t>粪虫</t>
   </si>
   <si>
-    <t>48870</t>
-  </si>
-  <si>
-    <t>16290</t>
-  </si>
-  <si>
-    <t>488700</t>
-  </si>
-  <si>
-    <t>3258</t>
+    <t>843191</t>
+  </si>
+  <si>
+    <t>168638</t>
+  </si>
+  <si>
+    <t>8431910</t>
   </si>
   <si>
     <t>10019</t>
@@ -458,16 +395,13 @@
     <t>角蝇</t>
   </si>
   <si>
-    <t>54435</t>
-  </si>
-  <si>
-    <t>18145</t>
-  </si>
-  <si>
-    <t>544350</t>
-  </si>
-  <si>
-    <t>3629</t>
+    <t>1185971</t>
+  </si>
+  <si>
+    <t>237194</t>
+  </si>
+  <si>
+    <t>11859710</t>
   </si>
   <si>
     <t>10020</t>
@@ -479,16 +413,13 @@
     <t>暗黑战士</t>
   </si>
   <si>
-    <t>60300</t>
-  </si>
-  <si>
-    <t>20100</t>
-  </si>
-  <si>
-    <t>603000</t>
-  </si>
-  <si>
-    <t>4020</t>
+    <t>1668101</t>
+  </si>
+  <si>
+    <t>333620</t>
+  </si>
+  <si>
+    <t>16681010</t>
   </si>
   <si>
     <t>10021</t>
@@ -500,16 +431,13 @@
     <t>沃玛战士</t>
   </si>
   <si>
-    <t>66465</t>
-  </si>
-  <si>
-    <t>22155</t>
-  </si>
-  <si>
-    <t>664650</t>
-  </si>
-  <si>
-    <t>4431</t>
+    <t>2346229</t>
+  </si>
+  <si>
+    <t>469245</t>
+  </si>
+  <si>
+    <t>23462290</t>
   </si>
   <si>
     <t>10022</t>
@@ -521,16 +449,13 @@
     <t>沃玛勇士</t>
   </si>
   <si>
-    <t>72930</t>
-  </si>
-  <si>
-    <t>24310</t>
-  </si>
-  <si>
-    <t>729300</t>
-  </si>
-  <si>
-    <t>4862</t>
+    <t>3300035</t>
+  </si>
+  <si>
+    <t>660007</t>
+  </si>
+  <si>
+    <t>33000350</t>
   </si>
   <si>
     <t>10023</t>
@@ -542,16 +467,13 @@
     <t>火焰沃玛</t>
   </si>
   <si>
-    <t>79695</t>
-  </si>
-  <si>
-    <t>26565</t>
-  </si>
-  <si>
-    <t>796950</t>
-  </si>
-  <si>
-    <t>5313</t>
+    <t>4641589</t>
+  </si>
+  <si>
+    <t>928317</t>
+  </si>
+  <si>
+    <t>46415890</t>
   </si>
   <si>
     <t>10024</t>
@@ -563,16 +485,13 @@
     <t>楔蛾</t>
   </si>
   <si>
-    <t>86760</t>
-  </si>
-  <si>
-    <t>28920</t>
-  </si>
-  <si>
-    <t>867600</t>
-  </si>
-  <si>
-    <t>5784</t>
+    <t>6528521</t>
+  </si>
+  <si>
+    <t>1305704</t>
+  </si>
+  <si>
+    <t>65285210</t>
   </si>
   <si>
     <t>10025</t>
@@ -584,16 +503,13 @@
     <t>黑野猪</t>
   </si>
   <si>
-    <t>94125</t>
-  </si>
-  <si>
-    <t>31375</t>
-  </si>
-  <si>
-    <t>941250</t>
-  </si>
-  <si>
-    <t>6275</t>
+    <t>9182543</t>
+  </si>
+  <si>
+    <t>1836508</t>
+  </si>
+  <si>
+    <t>91825430</t>
   </si>
   <si>
     <t>10026</t>
@@ -605,16 +521,13 @@
     <t>红野猪</t>
   </si>
   <si>
-    <t>101790</t>
-  </si>
-  <si>
-    <t>33930</t>
-  </si>
-  <si>
-    <t>1017900</t>
-  </si>
-  <si>
-    <t>6786</t>
+    <t>12915497</t>
+  </si>
+  <si>
+    <t>2583099</t>
+  </si>
+  <si>
+    <t>129154970</t>
   </si>
   <si>
     <t>10027</t>
@@ -626,16 +539,13 @@
     <t>蝎蛇</t>
   </si>
   <si>
-    <t>109755</t>
-  </si>
-  <si>
-    <t>36585</t>
-  </si>
-  <si>
-    <t>1097550</t>
-  </si>
-  <si>
-    <t>7317</t>
+    <t>18165998</t>
+  </si>
+  <si>
+    <t>3633199</t>
+  </si>
+  <si>
+    <t>181659980</t>
   </si>
   <si>
     <t>10028</t>
@@ -647,16 +557,13 @@
     <t>跳跳蜂</t>
   </si>
   <si>
-    <t>118020</t>
-  </si>
-  <si>
-    <t>39340</t>
-  </si>
-  <si>
-    <t>1180200</t>
-  </si>
-  <si>
-    <t>7868</t>
+    <t>25550971</t>
+  </si>
+  <si>
+    <t>5110194</t>
+  </si>
+  <si>
+    <t>255509710</t>
   </si>
   <si>
     <t>10029</t>
@@ -668,16 +575,13 @@
     <t>蜈蚣</t>
   </si>
   <si>
-    <t>126585</t>
-  </si>
-  <si>
-    <t>42195</t>
-  </si>
-  <si>
-    <t>1265850</t>
-  </si>
-  <si>
-    <t>8439</t>
+    <t>35938137</t>
+  </si>
+  <si>
+    <t>7187627</t>
+  </si>
+  <si>
+    <t>359381370</t>
   </si>
   <si>
     <t>10030</t>
@@ -689,16 +593,13 @@
     <t>钳虫</t>
   </si>
   <si>
-    <t>135450</t>
-  </si>
-  <si>
-    <t>45150</t>
-  </si>
-  <si>
-    <t>1354500</t>
-  </si>
-  <si>
-    <t>9030</t>
+    <t>50547968</t>
+  </si>
+  <si>
+    <t>10109593</t>
+  </si>
+  <si>
+    <t>505479680</t>
   </si>
   <si>
     <t>10031</t>
@@ -710,16 +611,13 @@
     <t>蠕虫</t>
   </si>
   <si>
-    <t>144615</t>
-  </si>
-  <si>
-    <t>48205</t>
-  </si>
-  <si>
-    <t>1446150</t>
-  </si>
-  <si>
-    <t>9641</t>
+    <t>71097094</t>
+  </si>
+  <si>
+    <t>14219418</t>
+  </si>
+  <si>
+    <t>710970940</t>
   </si>
   <si>
     <t>10032</t>
@@ -731,16 +629,13 @@
     <t>大老鼠</t>
   </si>
   <si>
-    <t>154080</t>
-  </si>
-  <si>
-    <t>51360</t>
-  </si>
-  <si>
-    <t>1540800</t>
-  </si>
-  <si>
-    <t>10272</t>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>1000000000</t>
   </si>
   <si>
     <t>10033</t>
@@ -752,16 +647,13 @@
     <t>祖玛弓箭手</t>
   </si>
   <si>
-    <t>163845</t>
-  </si>
-  <si>
-    <t>54615</t>
-  </si>
-  <si>
-    <t>1638450</t>
-  </si>
-  <si>
-    <t>10923</t>
+    <t>140652724</t>
+  </si>
+  <si>
+    <t>28130544</t>
+  </si>
+  <si>
+    <t>1406527240</t>
   </si>
   <si>
     <t>10034</t>
@@ -773,16 +665,13 @@
     <t>祖玛卫士</t>
   </si>
   <si>
-    <t>173910</t>
-  </si>
-  <si>
-    <t>57970</t>
-  </si>
-  <si>
-    <t>1739100</t>
-  </si>
-  <si>
-    <t>11594</t>
+    <t>197831888</t>
+  </si>
+  <si>
+    <t>39566377</t>
+  </si>
+  <si>
+    <t>1978318880</t>
   </si>
   <si>
     <t>10035</t>
@@ -794,13 +683,13 @@
     <t>祖玛雕像</t>
   </si>
   <si>
-    <t>184275</t>
-  </si>
-  <si>
-    <t>61425</t>
-  </si>
-  <si>
-    <t>1842750</t>
+    <t>278255940</t>
+  </si>
+  <si>
+    <t>55651188</t>
+  </si>
+  <si>
+    <t>2782559400</t>
   </si>
 </sst>
 </file>
@@ -1761,27 +1650,27 @@
   <sheetPr/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="6.875" collapsed="false"/>
+    <col min="2" max="2" style="2" width="9.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="9.875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="11.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="12.125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="2" width="13.375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="2" width="12.125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="2" width="15.875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="2" width="16.375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="2" width="13.0" collapsed="false"/>
+    <col min="11" max="12" style="2" width="9.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="2" width="13.625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="2" width="8.125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="2" width="9.625" collapsed="false"/>
+    <col min="16" max="16384" style="2" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
@@ -1911,914 +1800,914 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="3:10">
+    <row r="6" ht="24.0" customHeight="true">
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
       </c>
       <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="24.0" customHeight="true">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:10">
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="24.0" customHeight="true">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:10">
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="24.0" customHeight="true">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:10">
-      <c r="C9" t="s">
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="24.0" customHeight="true">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
         <v>44</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="24.0" customHeight="true">
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:10">
-      <c r="C10" t="s">
+      <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F11" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H11" t="s">
         <v>50</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" ht="24.0" customHeight="true">
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="E12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:10">
-      <c r="C11" t="s">
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H12" t="s">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" ht="24.0" customHeight="true">
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="H11" t="s">
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="F13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:10">
-      <c r="C12" t="s">
+      <c r="G13" t="s">
         <v>61</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H13" t="s">
         <v>62</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" ht="24.0" customHeight="true">
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="G12" t="s">
+      <c r="E14" t="s">
         <v>65</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="I12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="G14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:10">
-      <c r="C13" t="s">
+      <c r="H14" t="s">
         <v>68</v>
       </c>
-      <c r="D13" t="s">
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" ht="24.0" customHeight="true">
+      <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D15" t="s">
         <v>70</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E15" t="s">
         <v>71</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F15" t="s">
         <v>72</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G15" t="s">
         <v>73</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
         <v>72</v>
       </c>
-      <c r="J13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:10">
-      <c r="C14" t="s">
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" ht="24.0" customHeight="true">
+      <c r="C16" t="s">
         <v>75</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>77</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>78</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>79</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H16" t="s">
         <v>80</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s">
         <v>79</v>
       </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="17" ht="24.0" customHeight="true">
+      <c r="C17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:10">
-      <c r="C15" t="s">
+      <c r="D17" t="s">
         <v>82</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E17" t="s">
         <v>83</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F17" t="s">
         <v>84</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G17" t="s">
         <v>85</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H17" t="s">
         <v>86</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" ht="24.0" customHeight="true">
+      <c r="C18" t="s">
         <v>87</v>
       </c>
-      <c r="I15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="D18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:10">
-      <c r="C16" t="s">
+      <c r="E18" t="s">
         <v>89</v>
       </c>
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F18" t="s">
         <v>90</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H18" t="s">
         <v>92</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" ht="24.0" customHeight="true">
+      <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="I16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="D19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:10">
-      <c r="C17" t="s">
+      <c r="E19" t="s">
         <v>95</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F19" t="s">
         <v>96</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G19" t="s">
         <v>97</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H19" t="s">
         <v>98</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" ht="24.0" customHeight="true">
+      <c r="C20" t="s">
         <v>99</v>
       </c>
-      <c r="H17" t="s">
+      <c r="D20" t="s">
         <v>100</v>
       </c>
-      <c r="I17" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="E20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:10">
-      <c r="C18" t="s">
+      <c r="F20" t="s">
         <v>102</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G20" t="s">
         <v>103</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H20" t="s">
         <v>104</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" ht="24.0" customHeight="true">
+      <c r="C21" t="s">
         <v>105</v>
       </c>
-      <c r="G18" t="s">
+      <c r="D21" t="s">
         <v>106</v>
       </c>
-      <c r="H18" t="s">
+      <c r="E21" t="s">
         <v>107</v>
       </c>
-      <c r="I18" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="F21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:10">
-      <c r="C19" t="s">
+      <c r="G21" t="s">
         <v>109</v>
       </c>
-      <c r="D19" t="s">
+      <c r="H21" t="s">
         <v>110</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" ht="24.0" customHeight="true">
+      <c r="C22" t="s">
         <v>111</v>
       </c>
-      <c r="F19" t="s">
+      <c r="D22" t="s">
         <v>112</v>
       </c>
-      <c r="G19" t="s">
+      <c r="E22" t="s">
         <v>113</v>
       </c>
-      <c r="H19" t="s">
+      <c r="F22" t="s">
         <v>114</v>
       </c>
-      <c r="I19" t="s">
-        <v>113</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="G22" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:10">
-      <c r="C20" t="s">
+      <c r="H22" t="s">
         <v>116</v>
       </c>
-      <c r="D20" t="s">
+      <c r="I22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" ht="24.0" customHeight="true">
+      <c r="C23" t="s">
         <v>117</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D23" t="s">
         <v>118</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E23" t="s">
         <v>119</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F23" t="s">
         <v>120</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G23" t="s">
         <v>121</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" t="s">
         <v>120</v>
       </c>
-      <c r="J20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:10">
-      <c r="C21" t="s">
+      <c r="J23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" ht="24.0" customHeight="true">
+      <c r="C24" t="s">
         <v>123</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>124</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
         <v>125</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F24" t="s">
         <v>126</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G24" t="s">
         <v>127</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H24" t="s">
         <v>128</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" t="s">
         <v>127</v>
       </c>
-      <c r="J21" t="s">
+    </row>
+    <row r="25" ht="24.0" customHeight="true">
+      <c r="C25" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:10">
-      <c r="C22" t="s">
+      <c r="D25" t="s">
         <v>130</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E25" t="s">
         <v>131</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F25" t="s">
         <v>132</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G25" t="s">
         <v>133</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H25" t="s">
         <v>134</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" ht="24.0" customHeight="true">
+      <c r="C26" t="s">
         <v>135</v>
       </c>
-      <c r="I22" t="s">
-        <v>134</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="D26" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:10">
-      <c r="C23" t="s">
+      <c r="E26" t="s">
         <v>137</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F26" t="s">
         <v>138</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G26" t="s">
         <v>139</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H26" t="s">
         <v>140</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" ht="24.0" customHeight="true">
+      <c r="C27" t="s">
         <v>141</v>
       </c>
-      <c r="H23" t="s">
+      <c r="D27" t="s">
         <v>142</v>
       </c>
-      <c r="I23" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="E27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:10">
-      <c r="C24" t="s">
+      <c r="F27" t="s">
         <v>144</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G27" t="s">
         <v>145</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H27" t="s">
         <v>146</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" ht="24.0" customHeight="true">
+      <c r="C28" t="s">
         <v>147</v>
       </c>
-      <c r="G24" t="s">
+      <c r="D28" t="s">
         <v>148</v>
       </c>
-      <c r="H24" t="s">
+      <c r="E28" t="s">
         <v>149</v>
       </c>
-      <c r="I24" t="s">
-        <v>148</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="F28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:10">
-      <c r="C25" t="s">
+      <c r="G28" t="s">
         <v>151</v>
       </c>
-      <c r="D25" t="s">
+      <c r="H28" t="s">
         <v>152</v>
       </c>
-      <c r="E25" t="s">
+      <c r="I28" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" ht="24.0" customHeight="true">
+      <c r="C29" t="s">
         <v>153</v>
       </c>
-      <c r="F25" t="s">
+      <c r="D29" t="s">
         <v>154</v>
       </c>
-      <c r="G25" t="s">
+      <c r="E29" t="s">
         <v>155</v>
       </c>
-      <c r="H25" t="s">
+      <c r="F29" t="s">
         <v>156</v>
       </c>
-      <c r="I25" t="s">
-        <v>155</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="G29" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:10">
-      <c r="C26" t="s">
+      <c r="H29" t="s">
         <v>158</v>
       </c>
-      <c r="D26" t="s">
+      <c r="I29" t="s">
+        <v>156</v>
+      </c>
+      <c r="J29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" ht="24.0" customHeight="true">
+      <c r="C30" t="s">
         <v>159</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D30" t="s">
         <v>160</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E30" t="s">
         <v>161</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F30" t="s">
         <v>162</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G30" t="s">
         <v>163</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" t="s">
         <v>162</v>
       </c>
-      <c r="J26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:10">
-      <c r="C27" t="s">
+      <c r="J30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" ht="24.0" customHeight="true">
+      <c r="C31" t="s">
         <v>165</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D31" t="s">
         <v>166</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E31" t="s">
         <v>167</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F31" t="s">
         <v>168</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G31" t="s">
         <v>169</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H31" t="s">
         <v>170</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I31" t="s">
+        <v>168</v>
+      </c>
+      <c r="J31" t="s">
         <v>169</v>
       </c>
-      <c r="J27" t="s">
+    </row>
+    <row r="32" ht="24.0" customHeight="true">
+      <c r="C32" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:10">
-      <c r="C28" t="s">
+      <c r="D32" t="s">
         <v>172</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E32" t="s">
         <v>173</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F32" t="s">
         <v>174</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G32" t="s">
         <v>175</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H32" t="s">
         <v>176</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I32" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" ht="24.0" customHeight="true">
+      <c r="C33" t="s">
         <v>177</v>
       </c>
-      <c r="I28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="D33" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:10">
-      <c r="C29" t="s">
+      <c r="E33" t="s">
         <v>179</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F33" t="s">
         <v>180</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G33" t="s">
         <v>181</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H33" t="s">
         <v>182</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I33" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" ht="24.0" customHeight="true">
+      <c r="C34" t="s">
         <v>183</v>
       </c>
-      <c r="H29" t="s">
+      <c r="D34" t="s">
         <v>184</v>
       </c>
-      <c r="I29" t="s">
-        <v>183</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="E34" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:10">
-      <c r="C30" t="s">
+      <c r="F34" t="s">
         <v>186</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G34" t="s">
         <v>187</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H34" t="s">
         <v>188</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I34" t="s">
+        <v>186</v>
+      </c>
+      <c r="J34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" ht="24.0" customHeight="true">
+      <c r="C35" t="s">
         <v>189</v>
       </c>
-      <c r="G30" t="s">
+      <c r="D35" t="s">
         <v>190</v>
       </c>
-      <c r="H30" t="s">
+      <c r="E35" t="s">
         <v>191</v>
       </c>
-      <c r="I30" t="s">
-        <v>190</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="F35" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:10">
-      <c r="C31" t="s">
+      <c r="G35" t="s">
         <v>193</v>
       </c>
-      <c r="D31" t="s">
+      <c r="H35" t="s">
         <v>194</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I35" t="s">
+        <v>192</v>
+      </c>
+      <c r="J35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" ht="24.0" customHeight="true">
+      <c r="C36" t="s">
         <v>195</v>
       </c>
-      <c r="F31" t="s">
+      <c r="D36" t="s">
         <v>196</v>
       </c>
-      <c r="G31" t="s">
+      <c r="E36" t="s">
         <v>197</v>
       </c>
-      <c r="H31" t="s">
+      <c r="F36" t="s">
         <v>198</v>
       </c>
-      <c r="I31" t="s">
-        <v>197</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="G36" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:10">
-      <c r="C32" t="s">
+      <c r="H36" t="s">
         <v>200</v>
       </c>
-      <c r="D32" t="s">
+      <c r="I36" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" ht="24.0" customHeight="true">
+      <c r="C37" t="s">
         <v>201</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D37" t="s">
         <v>202</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E37" t="s">
         <v>203</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F37" t="s">
         <v>204</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G37" t="s">
         <v>205</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" t="s">
         <v>204</v>
       </c>
-      <c r="J32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:10">
-      <c r="C33" t="s">
+      <c r="J37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" ht="24.0" customHeight="true">
+      <c r="C38" t="s">
         <v>207</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D38" t="s">
         <v>208</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E38" t="s">
         <v>209</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F38" t="s">
         <v>210</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G38" t="s">
         <v>211</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H38" t="s">
         <v>212</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I38" t="s">
+        <v>210</v>
+      </c>
+      <c r="J38" t="s">
         <v>211</v>
       </c>
-      <c r="J33" t="s">
+    </row>
+    <row r="39" ht="24.0" customHeight="true">
+      <c r="C39" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:10">
-      <c r="C34" t="s">
+      <c r="D39" t="s">
         <v>214</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E39" t="s">
         <v>215</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F39" t="s">
         <v>216</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G39" t="s">
         <v>217</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H39" t="s">
         <v>218</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I39" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" ht="24.0" customHeight="true">
+      <c r="C40" t="s">
         <v>219</v>
       </c>
-      <c r="I34" t="s">
-        <v>218</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="D40" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:10">
-      <c r="C35" t="s">
+      <c r="E40" t="s">
         <v>221</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F40" t="s">
         <v>222</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G40" t="s">
         <v>223</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H40" t="s">
         <v>224</v>
       </c>
-      <c r="G35" t="s">
-        <v>225</v>
-      </c>
-      <c r="H35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I35" t="s">
-        <v>225</v>
-      </c>
-      <c r="J35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:10">
-      <c r="C36" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" t="s">
-        <v>229</v>
-      </c>
-      <c r="E36" t="s">
-        <v>230</v>
-      </c>
-      <c r="F36" t="s">
-        <v>231</v>
-      </c>
-      <c r="G36" t="s">
-        <v>232</v>
-      </c>
-      <c r="H36" t="s">
-        <v>233</v>
-      </c>
-      <c r="I36" t="s">
-        <v>232</v>
-      </c>
-      <c r="J36" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:10">
-      <c r="C37" t="s">
-        <v>235</v>
-      </c>
-      <c r="D37" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37" t="s">
-        <v>237</v>
-      </c>
-      <c r="F37" t="s">
-        <v>238</v>
-      </c>
-      <c r="G37" t="s">
-        <v>239</v>
-      </c>
-      <c r="H37" t="s">
-        <v>240</v>
-      </c>
-      <c r="I37" t="s">
-        <v>239</v>
-      </c>
-      <c r="J37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:10">
-      <c r="C38" t="s">
-        <v>242</v>
-      </c>
-      <c r="D38" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" t="s">
-        <v>244</v>
-      </c>
-      <c r="F38" t="s">
-        <v>245</v>
-      </c>
-      <c r="G38" t="s">
-        <v>246</v>
-      </c>
-      <c r="H38" t="s">
-        <v>247</v>
-      </c>
-      <c r="I38" t="s">
-        <v>246</v>
-      </c>
-      <c r="J38" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:10">
-      <c r="C39" t="s">
-        <v>249</v>
-      </c>
-      <c r="D39" t="s">
-        <v>250</v>
-      </c>
-      <c r="E39" t="s">
-        <v>251</v>
-      </c>
-      <c r="F39" t="s">
-        <v>252</v>
-      </c>
-      <c r="G39" t="s">
-        <v>253</v>
-      </c>
-      <c r="H39" t="s">
-        <v>254</v>
-      </c>
-      <c r="I39" t="s">
-        <v>253</v>
-      </c>
-      <c r="J39" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:10">
-      <c r="C40" t="s">
-        <v>256</v>
-      </c>
-      <c r="D40" t="s">
-        <v>257</v>
-      </c>
-      <c r="E40" t="s">
-        <v>258</v>
-      </c>
-      <c r="F40" t="s">
-        <v>259</v>
-      </c>
-      <c r="G40" t="s">
-        <v>260</v>
-      </c>
-      <c r="H40" t="s">
-        <v>261</v>
-      </c>
       <c r="I40" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="J40" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2837,27 +2726,27 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="6.875" collapsed="false"/>
+    <col min="2" max="2" style="2" width="9.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="9.875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="11.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="12.125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="2" width="13.375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="2" width="12.125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="2" width="15.875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="2" width="16.375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="2" width="13.0" collapsed="false"/>
+    <col min="11" max="12" style="2" width="9.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="2" width="13.625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="2" width="8.125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="2" width="9.625" collapsed="false"/>
+    <col min="16" max="16384" style="2" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
@@ -2934,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="226">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +35,9 @@
     <t>生命</t>
   </si>
   <si>
+    <t>DamageIncrea</t>
+  </si>
+  <si>
     <t>经验</t>
   </si>
   <si>
@@ -74,622 +77,622 @@
     <t>long</t>
   </si>
   <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>鸡</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>鹿</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>稻草人</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>钉耙猫</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>食人花</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+  </si>
+  <si>
+    <t>14065</t>
+  </si>
+  <si>
+    <t>2813</t>
+  </si>
+  <si>
+    <t>140650</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>小骷髅</t>
+  </si>
+  <si>
+    <t>19783</t>
+  </si>
+  <si>
+    <t>3956</t>
+  </si>
+  <si>
+    <t>197830</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>骷髅战士</t>
+  </si>
+  <si>
+    <t>27826</t>
+  </si>
+  <si>
+    <t>5565</t>
+  </si>
+  <si>
+    <t>278260</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>骷髅射手</t>
+  </si>
+  <si>
+    <t>39137</t>
+  </si>
+  <si>
+    <t>7827</t>
+  </si>
+  <si>
+    <t>391370</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>骷髅斧手</t>
+  </si>
+  <si>
+    <t>55048</t>
+  </si>
+  <si>
+    <t>11009</t>
+  </si>
+  <si>
+    <t>550480</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>洞蛆</t>
+  </si>
+  <si>
+    <t>77426</t>
+  </si>
+  <si>
+    <t>15485</t>
+  </si>
+  <si>
+    <t>774260</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>108902</t>
+  </si>
+  <si>
+    <t>21780</t>
+  </si>
+  <si>
+    <t>1089020</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>虎蛇</t>
+  </si>
+  <si>
+    <t>153174</t>
+  </si>
+  <si>
+    <t>30634</t>
+  </si>
+  <si>
+    <t>1531740</t>
+  </si>
+  <si>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>215443</t>
+  </si>
+  <si>
+    <t>43088</t>
+  </si>
+  <si>
+    <t>2154430</t>
+  </si>
+  <si>
+    <t>10015</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>沙虫</t>
+  </si>
+  <si>
+    <t>303027</t>
+  </si>
+  <si>
+    <t>60605</t>
+  </si>
+  <si>
+    <t>3030270</t>
+  </si>
+  <si>
+    <t>10016</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>猎鹰</t>
+  </si>
+  <si>
+    <t>426216</t>
+  </si>
+  <si>
+    <t>85243</t>
+  </si>
+  <si>
+    <t>4262160</t>
+  </si>
+  <si>
+    <t>10017</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>多角虫</t>
+  </si>
+  <si>
+    <t>599484</t>
+  </si>
+  <si>
+    <t>119896</t>
+  </si>
+  <si>
+    <t>5994840</t>
+  </si>
+  <si>
+    <t>10018</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>粪虫</t>
+  </si>
+  <si>
+    <t>843191</t>
+  </si>
+  <si>
+    <t>168638</t>
+  </si>
+  <si>
+    <t>8431910</t>
+  </si>
+  <si>
+    <t>10019</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>角蝇</t>
+  </si>
+  <si>
+    <t>1185971</t>
+  </si>
+  <si>
+    <t>237194</t>
+  </si>
+  <si>
+    <t>11859710</t>
+  </si>
+  <si>
+    <t>10020</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>暗黑战士</t>
+  </si>
+  <si>
+    <t>1668101</t>
+  </si>
+  <si>
+    <t>333620</t>
+  </si>
+  <si>
+    <t>16681010</t>
+  </si>
+  <si>
+    <t>10021</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>沃玛战士</t>
+  </si>
+  <si>
+    <t>2346229</t>
+  </si>
+  <si>
+    <t>469245</t>
+  </si>
+  <si>
+    <t>23462290</t>
+  </si>
+  <si>
+    <t>10022</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>沃玛勇士</t>
+  </si>
+  <si>
+    <t>3300035</t>
+  </si>
+  <si>
+    <t>660007</t>
+  </si>
+  <si>
+    <t>33000350</t>
+  </si>
+  <si>
+    <t>10023</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>火焰沃玛</t>
+  </si>
+  <si>
+    <t>4641589</t>
+  </si>
+  <si>
+    <t>928317</t>
+  </si>
+  <si>
+    <t>46415890</t>
+  </si>
+  <si>
+    <t>10024</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>楔蛾</t>
+  </si>
+  <si>
+    <t>6528521</t>
+  </si>
+  <si>
+    <t>1305704</t>
+  </si>
+  <si>
+    <t>65285210</t>
+  </si>
+  <si>
+    <t>10025</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>黑野猪</t>
+  </si>
+  <si>
+    <t>9182543</t>
+  </si>
+  <si>
+    <t>1836508</t>
+  </si>
+  <si>
+    <t>91825430</t>
+  </si>
+  <si>
+    <t>10026</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>红野猪</t>
+  </si>
+  <si>
+    <t>12915497</t>
+  </si>
+  <si>
+    <t>2583099</t>
+  </si>
+  <si>
+    <t>129154970</t>
+  </si>
+  <si>
+    <t>10027</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>蝎蛇</t>
+  </si>
+  <si>
+    <t>18165998</t>
+  </si>
+  <si>
+    <t>3633199</t>
+  </si>
+  <si>
+    <t>181659980</t>
+  </si>
+  <si>
+    <t>10028</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>跳跳蜂</t>
+  </si>
+  <si>
+    <t>25550971</t>
+  </si>
+  <si>
+    <t>5110194</t>
+  </si>
+  <si>
+    <t>255509710</t>
+  </si>
+  <si>
+    <t>10029</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>蜈蚣</t>
+  </si>
+  <si>
+    <t>35938137</t>
+  </si>
+  <si>
+    <t>7187627</t>
+  </si>
+  <si>
+    <t>359381370</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>钳虫</t>
+  </si>
+  <si>
+    <t>50547968</t>
+  </si>
+  <si>
+    <t>10109593</t>
+  </si>
+  <si>
+    <t>505479680</t>
+  </si>
+  <si>
+    <t>10031</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>蠕虫</t>
+  </si>
+  <si>
+    <t>71097094</t>
+  </si>
+  <si>
+    <t>14219418</t>
+  </si>
+  <si>
+    <t>710970940</t>
+  </si>
+  <si>
+    <t>10032</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>大老鼠</t>
+  </si>
+  <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>1000000000</t>
+  </si>
+  <si>
+    <t>10033</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>祖玛弓箭手</t>
+  </si>
+  <si>
+    <t>140652724</t>
+  </si>
+  <si>
+    <t>28130544</t>
+  </si>
+  <si>
+    <t>1406527240</t>
+  </si>
+  <si>
+    <t>10034</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>祖玛卫士</t>
+  </si>
+  <si>
+    <t>197831888</t>
+  </si>
+  <si>
+    <t>39566377</t>
+  </si>
+  <si>
+    <t>1978318880</t>
+  </si>
+  <si>
+    <t>10035</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>祖玛雕像</t>
+  </si>
+  <si>
+    <t>278255940</t>
+  </si>
+  <si>
+    <t>55651188</t>
+  </si>
+  <si>
+    <t>2782559400</t>
+  </si>
+  <si>
     <t>PhyAttr</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>鸡</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>鹿</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>10003</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>稻草人</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>10004</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>钉耙猫</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>10005</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>食人花</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>蝙蝠</t>
-  </si>
-  <si>
-    <t>14065</t>
-  </si>
-  <si>
-    <t>2813</t>
-  </si>
-  <si>
-    <t>140650</t>
-  </si>
-  <si>
-    <t>10007</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>小骷髅</t>
-  </si>
-  <si>
-    <t>19783</t>
-  </si>
-  <si>
-    <t>3956</t>
-  </si>
-  <si>
-    <t>197830</t>
-  </si>
-  <si>
-    <t>10008</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>骷髅战士</t>
-  </si>
-  <si>
-    <t>27826</t>
-  </si>
-  <si>
-    <t>5565</t>
-  </si>
-  <si>
-    <t>278260</t>
-  </si>
-  <si>
-    <t>10009</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>骷髅射手</t>
-  </si>
-  <si>
-    <t>39137</t>
-  </si>
-  <si>
-    <t>7827</t>
-  </si>
-  <si>
-    <t>391370</t>
-  </si>
-  <si>
-    <t>10010</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>骷髅斧手</t>
-  </si>
-  <si>
-    <t>55048</t>
-  </si>
-  <si>
-    <t>11009</t>
-  </si>
-  <si>
-    <t>550480</t>
-  </si>
-  <si>
-    <t>10011</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>洞蛆</t>
-  </si>
-  <si>
-    <t>77426</t>
-  </si>
-  <si>
-    <t>15485</t>
-  </si>
-  <si>
-    <t>774260</t>
-  </si>
-  <si>
-    <t>10012</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-  </si>
-  <si>
-    <t>108902</t>
-  </si>
-  <si>
-    <t>21780</t>
-  </si>
-  <si>
-    <t>1089020</t>
-  </si>
-  <si>
-    <t>10013</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>虎蛇</t>
-  </si>
-  <si>
-    <t>153174</t>
-  </si>
-  <si>
-    <t>30634</t>
-  </si>
-  <si>
-    <t>1531740</t>
-  </si>
-  <si>
-    <t>10014</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>狼</t>
-  </si>
-  <si>
-    <t>215443</t>
-  </si>
-  <si>
-    <t>43088</t>
-  </si>
-  <si>
-    <t>2154430</t>
-  </si>
-  <si>
-    <t>10015</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>沙虫</t>
-  </si>
-  <si>
-    <t>303027</t>
-  </si>
-  <si>
-    <t>60605</t>
-  </si>
-  <si>
-    <t>3030270</t>
-  </si>
-  <si>
-    <t>10016</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>猎鹰</t>
-  </si>
-  <si>
-    <t>426216</t>
-  </si>
-  <si>
-    <t>85243</t>
-  </si>
-  <si>
-    <t>4262160</t>
-  </si>
-  <si>
-    <t>10017</t>
-  </si>
-  <si>
-    <t>1016</t>
-  </si>
-  <si>
-    <t>多角虫</t>
-  </si>
-  <si>
-    <t>599484</t>
-  </si>
-  <si>
-    <t>119896</t>
-  </si>
-  <si>
-    <t>5994840</t>
-  </si>
-  <si>
-    <t>10018</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>粪虫</t>
-  </si>
-  <si>
-    <t>843191</t>
-  </si>
-  <si>
-    <t>168638</t>
-  </si>
-  <si>
-    <t>8431910</t>
-  </si>
-  <si>
-    <t>10019</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>角蝇</t>
-  </si>
-  <si>
-    <t>1185971</t>
-  </si>
-  <si>
-    <t>237194</t>
-  </si>
-  <si>
-    <t>11859710</t>
-  </si>
-  <si>
-    <t>10020</t>
-  </si>
-  <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>暗黑战士</t>
-  </si>
-  <si>
-    <t>1668101</t>
-  </si>
-  <si>
-    <t>333620</t>
-  </si>
-  <si>
-    <t>16681010</t>
-  </si>
-  <si>
-    <t>10021</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>沃玛战士</t>
-  </si>
-  <si>
-    <t>2346229</t>
-  </si>
-  <si>
-    <t>469245</t>
-  </si>
-  <si>
-    <t>23462290</t>
-  </si>
-  <si>
-    <t>10022</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>沃玛勇士</t>
-  </si>
-  <si>
-    <t>3300035</t>
-  </si>
-  <si>
-    <t>660007</t>
-  </si>
-  <si>
-    <t>33000350</t>
-  </si>
-  <si>
-    <t>10023</t>
-  </si>
-  <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>火焰沃玛</t>
-  </si>
-  <si>
-    <t>4641589</t>
-  </si>
-  <si>
-    <t>928317</t>
-  </si>
-  <si>
-    <t>46415890</t>
-  </si>
-  <si>
-    <t>10024</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>楔蛾</t>
-  </si>
-  <si>
-    <t>6528521</t>
-  </si>
-  <si>
-    <t>1305704</t>
-  </si>
-  <si>
-    <t>65285210</t>
-  </si>
-  <si>
-    <t>10025</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>黑野猪</t>
-  </si>
-  <si>
-    <t>9182543</t>
-  </si>
-  <si>
-    <t>1836508</t>
-  </si>
-  <si>
-    <t>91825430</t>
-  </si>
-  <si>
-    <t>10026</t>
-  </si>
-  <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>红野猪</t>
-  </si>
-  <si>
-    <t>12915497</t>
-  </si>
-  <si>
-    <t>2583099</t>
-  </si>
-  <si>
-    <t>129154970</t>
-  </si>
-  <si>
-    <t>10027</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>蝎蛇</t>
-  </si>
-  <si>
-    <t>18165998</t>
-  </si>
-  <si>
-    <t>3633199</t>
-  </si>
-  <si>
-    <t>181659980</t>
-  </si>
-  <si>
-    <t>10028</t>
-  </si>
-  <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>跳跳蜂</t>
-  </si>
-  <si>
-    <t>25550971</t>
-  </si>
-  <si>
-    <t>5110194</t>
-  </si>
-  <si>
-    <t>255509710</t>
-  </si>
-  <si>
-    <t>10029</t>
-  </si>
-  <si>
-    <t>1028</t>
-  </si>
-  <si>
-    <t>蜈蚣</t>
-  </si>
-  <si>
-    <t>35938137</t>
-  </si>
-  <si>
-    <t>7187627</t>
-  </si>
-  <si>
-    <t>359381370</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>1029</t>
-  </si>
-  <si>
-    <t>钳虫</t>
-  </si>
-  <si>
-    <t>50547968</t>
-  </si>
-  <si>
-    <t>10109593</t>
-  </si>
-  <si>
-    <t>505479680</t>
-  </si>
-  <si>
-    <t>10031</t>
-  </si>
-  <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>蠕虫</t>
-  </si>
-  <si>
-    <t>71097094</t>
-  </si>
-  <si>
-    <t>14219418</t>
-  </si>
-  <si>
-    <t>710970940</t>
-  </si>
-  <si>
-    <t>10032</t>
-  </si>
-  <si>
-    <t>1031</t>
-  </si>
-  <si>
-    <t>大老鼠</t>
-  </si>
-  <si>
-    <t>100000000</t>
-  </si>
-  <si>
-    <t>20000000</t>
-  </si>
-  <si>
-    <t>1000000000</t>
-  </si>
-  <si>
-    <t>10033</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>祖玛弓箭手</t>
-  </si>
-  <si>
-    <t>140652724</t>
-  </si>
-  <si>
-    <t>28130544</t>
-  </si>
-  <si>
-    <t>1406527240</t>
-  </si>
-  <si>
-    <t>10034</t>
-  </si>
-  <si>
-    <t>1033</t>
-  </si>
-  <si>
-    <t>祖玛卫士</t>
-  </si>
-  <si>
-    <t>197831888</t>
-  </si>
-  <si>
-    <t>39566377</t>
-  </si>
-  <si>
-    <t>1978318880</t>
-  </si>
-  <si>
-    <t>10035</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>祖玛雕像</t>
-  </si>
-  <si>
-    <t>278255940</t>
-  </si>
-  <si>
-    <t>55651188</t>
-  </si>
-  <si>
-    <t>2782559400</t>
   </si>
 </sst>
 </file>
@@ -1648,32 +1651,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="6.875" collapsed="false"/>
-    <col min="2" max="2" style="2" width="9.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="9.875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="11.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="12.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="13.375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="2" width="12.125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="2" width="15.875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="2" width="16.375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="2" width="13.0" collapsed="false"/>
-    <col min="11" max="12" style="2" width="9.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="2" width="13.625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="2" width="8.125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="2" width="9.625" collapsed="false"/>
-    <col min="16" max="16384" style="2" width="9.0" collapsed="false"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="13.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="F1" s="2"/>
@@ -1686,8 +1689,9 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:16">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="2"/>
@@ -1700,8 +1704,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1728,79 +1733,88 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" ht="24.0" customHeight="true">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="3:11">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -1819,14 +1833,17 @@
       <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="24.0" customHeight="true">
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:11">
       <c r="C7" t="s">
         <v>25</v>
       </c>
@@ -1845,14 +1862,17 @@
       <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="24.0" customHeight="true">
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:11">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -1871,14 +1891,17 @@
       <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>33</v>
       </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" ht="24.0" customHeight="true">
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:11">
       <c r="C9" t="s">
         <v>36</v>
       </c>
@@ -1897,14 +1920,17 @@
       <c r="H9" t="s">
         <v>39</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>29</v>
       </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="24.0" customHeight="true">
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:11">
       <c r="C10" t="s">
         <v>40</v>
       </c>
@@ -1923,14 +1949,17 @@
       <c r="H10" t="s">
         <v>44</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>43</v>
       </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" ht="24.0" customHeight="true">
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:11">
       <c r="C11" t="s">
         <v>45</v>
       </c>
@@ -1949,14 +1978,17 @@
       <c r="H11" t="s">
         <v>50</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>48</v>
       </c>
-      <c r="J11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" ht="24.0" customHeight="true">
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:11">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -1975,14 +2007,17 @@
       <c r="H12" t="s">
         <v>56</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>54</v>
       </c>
-      <c r="J12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" ht="24.0" customHeight="true">
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:11">
       <c r="C13" t="s">
         <v>57</v>
       </c>
@@ -2001,14 +2036,17 @@
       <c r="H13" t="s">
         <v>62</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>60</v>
       </c>
-      <c r="J13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" ht="24.0" customHeight="true">
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:11">
       <c r="C14" t="s">
         <v>63</v>
       </c>
@@ -2027,14 +2065,17 @@
       <c r="H14" t="s">
         <v>68</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>66</v>
       </c>
-      <c r="J14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" ht="24.0" customHeight="true">
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:11">
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -2053,14 +2094,17 @@
       <c r="H15" t="s">
         <v>74</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>72</v>
       </c>
-      <c r="J15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" ht="24.0" customHeight="true">
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:11">
       <c r="C16" t="s">
         <v>75</v>
       </c>
@@ -2079,14 +2123,17 @@
       <c r="H16" t="s">
         <v>80</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>78</v>
       </c>
-      <c r="J16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" ht="24.0" customHeight="true">
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:11">
       <c r="C17" t="s">
         <v>81</v>
       </c>
@@ -2105,14 +2152,17 @@
       <c r="H17" t="s">
         <v>86</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>84</v>
       </c>
-      <c r="J17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" ht="24.0" customHeight="true">
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:11">
       <c r="C18" t="s">
         <v>87</v>
       </c>
@@ -2131,14 +2181,17 @@
       <c r="H18" t="s">
         <v>92</v>
       </c>
-      <c r="I18" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" ht="24.0" customHeight="true">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>129000</v>
+      </c>
+      <c r="K18">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:11">
       <c r="C19" t="s">
         <v>93</v>
       </c>
@@ -2157,14 +2210,17 @@
       <c r="H19" t="s">
         <v>98</v>
       </c>
-      <c r="I19" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" ht="24.0" customHeight="true">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>154000</v>
+      </c>
+      <c r="K19">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:11">
       <c r="C20" t="s">
         <v>99</v>
       </c>
@@ -2183,14 +2239,17 @@
       <c r="H20" t="s">
         <v>104</v>
       </c>
-      <c r="I20" t="s">
-        <v>102</v>
-      </c>
-      <c r="J20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" ht="24.0" customHeight="true">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>184000</v>
+      </c>
+      <c r="K20">
+        <v>184000</v>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:11">
       <c r="C21" t="s">
         <v>105</v>
       </c>
@@ -2209,14 +2268,17 @@
       <c r="H21" t="s">
         <v>110</v>
       </c>
-      <c r="I21" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" ht="24.0" customHeight="true">
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>220000</v>
+      </c>
+      <c r="K21">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:11">
       <c r="C22" t="s">
         <v>111</v>
       </c>
@@ -2235,14 +2297,17 @@
       <c r="H22" t="s">
         <v>116</v>
       </c>
-      <c r="I22" t="s">
-        <v>114</v>
-      </c>
-      <c r="J22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" ht="24.0" customHeight="true">
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>264000</v>
+      </c>
+      <c r="K22">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:11">
       <c r="C23" t="s">
         <v>117</v>
       </c>
@@ -2261,14 +2326,17 @@
       <c r="H23" t="s">
         <v>122</v>
       </c>
-      <c r="I23" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" ht="24.0" customHeight="true">
+      <c r="I23">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>316000</v>
+      </c>
+      <c r="K23">
+        <v>316000</v>
+      </c>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:11">
       <c r="C24" t="s">
         <v>123</v>
       </c>
@@ -2287,14 +2355,17 @@
       <c r="H24" t="s">
         <v>128</v>
       </c>
-      <c r="I24" t="s">
-        <v>126</v>
-      </c>
-      <c r="J24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" ht="24.0" customHeight="true">
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>379000</v>
+      </c>
+      <c r="K24">
+        <v>379000</v>
+      </c>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:11">
       <c r="C25" t="s">
         <v>129</v>
       </c>
@@ -2313,14 +2384,17 @@
       <c r="H25" t="s">
         <v>134</v>
       </c>
-      <c r="I25" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" ht="24.0" customHeight="true">
+      <c r="I25">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>454000</v>
+      </c>
+      <c r="K25">
+        <v>454000</v>
+      </c>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:11">
       <c r="C26" t="s">
         <v>135</v>
       </c>
@@ -2339,14 +2413,17 @@
       <c r="H26" t="s">
         <v>140</v>
       </c>
-      <c r="I26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" ht="24.0" customHeight="true">
+      <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>544000</v>
+      </c>
+      <c r="K26">
+        <v>544000</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:11">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -2365,14 +2442,17 @@
       <c r="H27" t="s">
         <v>146</v>
       </c>
-      <c r="I27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" ht="24.0" customHeight="true">
+      <c r="I27">
+        <v>35</v>
+      </c>
+      <c r="J27">
+        <v>652000</v>
+      </c>
+      <c r="K27">
+        <v>652000</v>
+      </c>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:11">
       <c r="C28" t="s">
         <v>147</v>
       </c>
@@ -2391,14 +2471,17 @@
       <c r="H28" t="s">
         <v>152</v>
       </c>
-      <c r="I28" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" ht="24.0" customHeight="true">
+      <c r="I28">
+        <v>40</v>
+      </c>
+      <c r="J28">
+        <v>782000</v>
+      </c>
+      <c r="K28">
+        <v>782000</v>
+      </c>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:11">
       <c r="C29" t="s">
         <v>153</v>
       </c>
@@ -2417,14 +2500,17 @@
       <c r="H29" t="s">
         <v>158</v>
       </c>
-      <c r="I29" t="s">
-        <v>156</v>
-      </c>
-      <c r="J29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" ht="24.0" customHeight="true">
+      <c r="I29">
+        <v>450</v>
+      </c>
+      <c r="J29">
+        <v>938000</v>
+      </c>
+      <c r="K29">
+        <v>938000</v>
+      </c>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:11">
       <c r="C30" t="s">
         <v>159</v>
       </c>
@@ -2443,14 +2529,17 @@
       <c r="H30" t="s">
         <v>164</v>
       </c>
-      <c r="I30" t="s">
-        <v>162</v>
-      </c>
-      <c r="J30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" ht="24.0" customHeight="true">
+      <c r="I30">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <v>1120000</v>
+      </c>
+      <c r="K30">
+        <v>1120000</v>
+      </c>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:11">
       <c r="C31" t="s">
         <v>165</v>
       </c>
@@ -2469,14 +2558,17 @@
       <c r="H31" t="s">
         <v>170</v>
       </c>
-      <c r="I31" t="s">
-        <v>168</v>
-      </c>
-      <c r="J31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" ht="24.0" customHeight="true">
+      <c r="I31">
+        <v>55</v>
+      </c>
+      <c r="J31">
+        <v>1340000</v>
+      </c>
+      <c r="K31">
+        <v>1340000</v>
+      </c>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:11">
       <c r="C32" t="s">
         <v>171</v>
       </c>
@@ -2495,14 +2587,17 @@
       <c r="H32" t="s">
         <v>176</v>
       </c>
-      <c r="I32" t="s">
-        <v>174</v>
-      </c>
-      <c r="J32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" ht="24.0" customHeight="true">
+      <c r="I32">
+        <v>60</v>
+      </c>
+      <c r="J32">
+        <v>1600000</v>
+      </c>
+      <c r="K32">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:11">
       <c r="C33" t="s">
         <v>177</v>
       </c>
@@ -2521,14 +2616,17 @@
       <c r="H33" t="s">
         <v>182</v>
       </c>
-      <c r="I33" t="s">
-        <v>180</v>
-      </c>
-      <c r="J33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" ht="24.0" customHeight="true">
+      <c r="I33">
+        <v>65</v>
+      </c>
+      <c r="J33">
+        <v>1920000</v>
+      </c>
+      <c r="K33">
+        <v>1920000</v>
+      </c>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:11">
       <c r="C34" t="s">
         <v>183</v>
       </c>
@@ -2547,14 +2645,17 @@
       <c r="H34" t="s">
         <v>188</v>
       </c>
-      <c r="I34" t="s">
-        <v>186</v>
-      </c>
-      <c r="J34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" ht="24.0" customHeight="true">
+      <c r="I34">
+        <v>70</v>
+      </c>
+      <c r="J34">
+        <v>2300000</v>
+      </c>
+      <c r="K34">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:11">
       <c r="C35" t="s">
         <v>189</v>
       </c>
@@ -2573,14 +2674,17 @@
       <c r="H35" t="s">
         <v>194</v>
       </c>
-      <c r="I35" t="s">
-        <v>192</v>
-      </c>
-      <c r="J35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" ht="24.0" customHeight="true">
+      <c r="I35">
+        <v>75</v>
+      </c>
+      <c r="J35">
+        <v>2760000</v>
+      </c>
+      <c r="K35">
+        <v>2760000</v>
+      </c>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:11">
       <c r="C36" t="s">
         <v>195</v>
       </c>
@@ -2599,14 +2703,17 @@
       <c r="H36" t="s">
         <v>200</v>
       </c>
-      <c r="I36" t="s">
-        <v>198</v>
-      </c>
-      <c r="J36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" ht="24.0" customHeight="true">
+      <c r="I36">
+        <v>80</v>
+      </c>
+      <c r="J36">
+        <v>3310000</v>
+      </c>
+      <c r="K36">
+        <v>3310000</v>
+      </c>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:11">
       <c r="C37" t="s">
         <v>201</v>
       </c>
@@ -2625,14 +2732,17 @@
       <c r="H37" t="s">
         <v>206</v>
       </c>
-      <c r="I37" t="s">
-        <v>204</v>
-      </c>
-      <c r="J37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" ht="24.0" customHeight="true">
+      <c r="I37">
+        <v>85</v>
+      </c>
+      <c r="J37">
+        <v>3970000</v>
+      </c>
+      <c r="K37">
+        <v>3970000</v>
+      </c>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:11">
       <c r="C38" t="s">
         <v>207</v>
       </c>
@@ -2651,14 +2761,17 @@
       <c r="H38" t="s">
         <v>212</v>
       </c>
-      <c r="I38" t="s">
-        <v>210</v>
-      </c>
-      <c r="J38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" ht="24.0" customHeight="true">
+      <c r="I38">
+        <v>90</v>
+      </c>
+      <c r="J38">
+        <v>4760000</v>
+      </c>
+      <c r="K38">
+        <v>4760000</v>
+      </c>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:11">
       <c r="C39" t="s">
         <v>213</v>
       </c>
@@ -2677,14 +2790,17 @@
       <c r="H39" t="s">
         <v>218</v>
       </c>
-      <c r="I39" t="s">
-        <v>216</v>
-      </c>
-      <c r="J39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" ht="24.0" customHeight="true">
+      <c r="I39">
+        <v>95</v>
+      </c>
+      <c r="J39">
+        <v>5710000</v>
+      </c>
+      <c r="K39">
+        <v>5710000</v>
+      </c>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:11">
       <c r="C40" t="s">
         <v>219</v>
       </c>
@@ -2703,16 +2819,19 @@
       <c r="H40" t="s">
         <v>224</v>
       </c>
-      <c r="I40" t="s">
-        <v>222</v>
-      </c>
-      <c r="J40" t="s">
-        <v>223</v>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>6850000</v>
+      </c>
+      <c r="K40">
+        <v>6850000</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 F3:H4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -2732,21 +2851,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="6.875" collapsed="false"/>
-    <col min="2" max="2" style="2" width="9.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="9.875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="11.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="12.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="13.375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="2" width="12.125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="2" width="15.875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="2" width="16.375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="2" width="13.0" collapsed="false"/>
-    <col min="11" max="12" style="2" width="9.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="2" width="13.625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="2" width="8.125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="2" width="9.625" collapsed="false"/>
-    <col min="16" max="16384" style="2" width="9.0" collapsed="false"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
@@ -2799,10 +2918,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -2814,28 +2933,28 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -2847,28 +2966,28 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="261">
   <si>
     <t>ID</t>
   </si>
@@ -690,6 +690,111 @@
   </si>
   <si>
     <t>2782559400</t>
+  </si>
+  <si>
+    <t>10036</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>幻影鸡</t>
+  </si>
+  <si>
+    <t>391370000</t>
+  </si>
+  <si>
+    <t>78274000</t>
+  </si>
+  <si>
+    <t>3913700000</t>
+  </si>
+  <si>
+    <t>5280000</t>
+  </si>
+  <si>
+    <t>10037</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>幻影鹿</t>
+  </si>
+  <si>
+    <t>550470000</t>
+  </si>
+  <si>
+    <t>110094000</t>
+  </si>
+  <si>
+    <t>5504700000</t>
+  </si>
+  <si>
+    <t>5610000</t>
+  </si>
+  <si>
+    <t>10038</t>
+  </si>
+  <si>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>幻影草人</t>
+  </si>
+  <si>
+    <t>774260000</t>
+  </si>
+  <si>
+    <t>154852000</t>
+  </si>
+  <si>
+    <t>7742600000</t>
+  </si>
+  <si>
+    <t>5950000</t>
+  </si>
+  <si>
+    <t>10039</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>幻影猫</t>
+  </si>
+  <si>
+    <t>1089020000</t>
+  </si>
+  <si>
+    <t>217804000</t>
+  </si>
+  <si>
+    <t>10890200000</t>
+  </si>
+  <si>
+    <t>6300000</t>
+  </si>
+  <si>
+    <t>10040</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>幻影花</t>
+  </si>
+  <si>
+    <t>1531740000</t>
+  </si>
+  <si>
+    <t>306348000</t>
+  </si>
+  <si>
+    <t>15317400000</t>
+  </si>
+  <si>
+    <t>6660000</t>
   </si>
   <si>
     <t>PhyAttr</t>
@@ -1651,10 +1756,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2828,6 +2933,186 @@
       <c r="K40">
         <v>6850000</v>
       </c>
+    </row>
+    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" t="s">
+        <v>229</v>
+      </c>
+      <c r="H41" t="s">
+        <v>230</v>
+      </c>
+      <c r="I41">
+        <v>105</v>
+      </c>
+      <c r="J41" t="s">
+        <v>231</v>
+      </c>
+      <c r="K41" t="s">
+        <v>231</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" t="s">
+        <v>236</v>
+      </c>
+      <c r="H42" t="s">
+        <v>237</v>
+      </c>
+      <c r="I42">
+        <v>110</v>
+      </c>
+      <c r="J42" t="s">
+        <v>238</v>
+      </c>
+      <c r="K42" t="s">
+        <v>238</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" t="s">
+        <v>240</v>
+      </c>
+      <c r="E43" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" t="s">
+        <v>243</v>
+      </c>
+      <c r="H43" t="s">
+        <v>244</v>
+      </c>
+      <c r="I43">
+        <v>115</v>
+      </c>
+      <c r="J43" t="s">
+        <v>245</v>
+      </c>
+      <c r="K43" t="s">
+        <v>245</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" t="s">
+        <v>247</v>
+      </c>
+      <c r="E44" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" t="s">
+        <v>250</v>
+      </c>
+      <c r="H44" t="s">
+        <v>251</v>
+      </c>
+      <c r="I44">
+        <v>120</v>
+      </c>
+      <c r="J44" t="s">
+        <v>252</v>
+      </c>
+      <c r="K44" t="s">
+        <v>252</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45" t="s">
+        <v>256</v>
+      </c>
+      <c r="G45" t="s">
+        <v>257</v>
+      </c>
+      <c r="H45" t="s">
+        <v>258</v>
+      </c>
+      <c r="I45">
+        <v>125</v>
+      </c>
+      <c r="J45" t="s">
+        <v>259</v>
+      </c>
+      <c r="K45" t="s">
+        <v>259</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2942,7 +3227,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>13</v>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="290">
   <si>
     <t>ID</t>
   </si>
@@ -170,6 +170,9 @@
     <t>140650</t>
   </si>
   <si>
+    <t>30000</t>
+  </si>
+  <si>
     <t>10007</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
     <t>197830</t>
   </si>
   <si>
+    <t>60000</t>
+  </si>
+  <si>
     <t>10008</t>
   </si>
   <si>
@@ -224,6 +230,9 @@
     <t>391370</t>
   </si>
   <si>
+    <t>150000</t>
+  </si>
+  <si>
     <t>10010</t>
   </si>
   <si>
@@ -242,6 +251,9 @@
     <t>550480</t>
   </si>
   <si>
+    <t>210000</t>
+  </si>
+  <si>
     <t>10011</t>
   </si>
   <si>
@@ -260,6 +272,9 @@
     <t>774260</t>
   </si>
   <si>
+    <t>280000</t>
+  </si>
+  <si>
     <t>10012</t>
   </si>
   <si>
@@ -278,6 +293,9 @@
     <t>1089020</t>
   </si>
   <si>
+    <t>360000</t>
+  </si>
+  <si>
     <t>10013</t>
   </si>
   <si>
@@ -296,6 +314,9 @@
     <t>1531740</t>
   </si>
   <si>
+    <t>450000</t>
+  </si>
+  <si>
     <t>10014</t>
   </si>
   <si>
@@ -314,6 +335,9 @@
     <t>2154430</t>
   </si>
   <si>
+    <t>550000</t>
+  </si>
+  <si>
     <t>10015</t>
   </si>
   <si>
@@ -332,6 +356,9 @@
     <t>3030270</t>
   </si>
   <si>
+    <t>660000</t>
+  </si>
+  <si>
     <t>10016</t>
   </si>
   <si>
@@ -350,6 +377,9 @@
     <t>4262160</t>
   </si>
   <si>
+    <t>780000</t>
+  </si>
+  <si>
     <t>10017</t>
   </si>
   <si>
@@ -368,6 +398,9 @@
     <t>5994840</t>
   </si>
   <si>
+    <t>910000</t>
+  </si>
+  <si>
     <t>10018</t>
   </si>
   <si>
@@ -386,6 +419,9 @@
     <t>8431910</t>
   </si>
   <si>
+    <t>1050000</t>
+  </si>
+  <si>
     <t>10019</t>
   </si>
   <si>
@@ -404,6 +440,9 @@
     <t>11859710</t>
   </si>
   <si>
+    <t>1200000</t>
+  </si>
+  <si>
     <t>10020</t>
   </si>
   <si>
@@ -422,6 +461,9 @@
     <t>16681010</t>
   </si>
   <si>
+    <t>1360000</t>
+  </si>
+  <si>
     <t>10021</t>
   </si>
   <si>
@@ -440,6 +482,9 @@
     <t>23462290</t>
   </si>
   <si>
+    <t>1530000</t>
+  </si>
+  <si>
     <t>10022</t>
   </si>
   <si>
@@ -458,6 +503,9 @@
     <t>33000350</t>
   </si>
   <si>
+    <t>1710000</t>
+  </si>
+  <si>
     <t>10023</t>
   </si>
   <si>
@@ -476,6 +524,9 @@
     <t>46415890</t>
   </si>
   <si>
+    <t>1900000</t>
+  </si>
+  <si>
     <t>10024</t>
   </si>
   <si>
@@ -494,6 +545,9 @@
     <t>65285210</t>
   </si>
   <si>
+    <t>2100000</t>
+  </si>
+  <si>
     <t>10025</t>
   </si>
   <si>
@@ -512,6 +566,9 @@
     <t>91825430</t>
   </si>
   <si>
+    <t>2310000</t>
+  </si>
+  <si>
     <t>10026</t>
   </si>
   <si>
@@ -530,6 +587,9 @@
     <t>129154970</t>
   </si>
   <si>
+    <t>2530000</t>
+  </si>
+  <si>
     <t>10027</t>
   </si>
   <si>
@@ -548,6 +608,9 @@
     <t>181659980</t>
   </si>
   <si>
+    <t>2760000</t>
+  </si>
+  <si>
     <t>10028</t>
   </si>
   <si>
@@ -566,6 +629,9 @@
     <t>255509710</t>
   </si>
   <si>
+    <t>3000000</t>
+  </si>
+  <si>
     <t>10029</t>
   </si>
   <si>
@@ -584,6 +650,9 @@
     <t>359381370</t>
   </si>
   <si>
+    <t>3250000</t>
+  </si>
+  <si>
     <t>10030</t>
   </si>
   <si>
@@ -602,6 +671,9 @@
     <t>505479680</t>
   </si>
   <si>
+    <t>3510000</t>
+  </si>
+  <si>
     <t>10031</t>
   </si>
   <si>
@@ -620,6 +692,9 @@
     <t>710970940</t>
   </si>
   <si>
+    <t>3780000</t>
+  </si>
+  <si>
     <t>10032</t>
   </si>
   <si>
@@ -638,6 +713,9 @@
     <t>1000000000</t>
   </si>
   <si>
+    <t>4060000</t>
+  </si>
+  <si>
     <t>10033</t>
   </si>
   <si>
@@ -656,6 +734,9 @@
     <t>1406527240</t>
   </si>
   <si>
+    <t>4350000</t>
+  </si>
+  <si>
     <t>10034</t>
   </si>
   <si>
@@ -674,6 +755,9 @@
     <t>1978318880</t>
   </si>
   <si>
+    <t>4650000</t>
+  </si>
+  <si>
     <t>10035</t>
   </si>
   <si>
@@ -690,6 +774,9 @@
   </si>
   <si>
     <t>2782559400</t>
+  </si>
+  <si>
+    <t>4960000</t>
   </si>
   <si>
     <t>10036</t>
@@ -1758,8 +1845,8 @@
   <sheetPr/>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2087,882 +2174,882 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:11">
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:11">
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:11">
       <c r="C14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:11">
       <c r="C15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:11">
       <c r="C16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:11">
       <c r="C17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:11">
       <c r="C18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>129000</v>
-      </c>
-      <c r="K18">
-        <v>129000</v>
+      <c r="J18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:11">
       <c r="C19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>154000</v>
-      </c>
-      <c r="K19">
-        <v>154000</v>
+      <c r="J19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:11">
       <c r="C20" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>184000</v>
-      </c>
-      <c r="K20">
-        <v>184000</v>
+      <c r="J20" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:11">
       <c r="C21" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I21">
         <v>5</v>
       </c>
-      <c r="J21">
-        <v>220000</v>
-      </c>
-      <c r="K21">
-        <v>220000</v>
+      <c r="J21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:11">
       <c r="C22" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
-      <c r="J22">
-        <v>264000</v>
-      </c>
-      <c r="K22">
-        <v>264000</v>
+      <c r="J22" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:11">
       <c r="C23" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="I23">
         <v>15</v>
       </c>
-      <c r="J23">
-        <v>316000</v>
-      </c>
-      <c r="K23">
-        <v>316000</v>
+      <c r="J23" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:11">
       <c r="C24" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I24">
         <v>20</v>
       </c>
-      <c r="J24">
-        <v>379000</v>
-      </c>
-      <c r="K24">
-        <v>379000</v>
+      <c r="J24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:11">
       <c r="C25" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I25">
         <v>25</v>
       </c>
-      <c r="J25">
-        <v>454000</v>
-      </c>
-      <c r="K25">
-        <v>454000</v>
+      <c r="J25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:11">
       <c r="C26" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="I26">
         <v>30</v>
       </c>
-      <c r="J26">
-        <v>544000</v>
-      </c>
-      <c r="K26">
-        <v>544000</v>
+      <c r="J26" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:11">
       <c r="C27" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="I27">
         <v>35</v>
       </c>
-      <c r="J27">
-        <v>652000</v>
-      </c>
-      <c r="K27">
-        <v>652000</v>
+      <c r="J27" t="s">
+        <v>162</v>
+      </c>
+      <c r="K27" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:11">
       <c r="C28" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="H28" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="I28">
         <v>40</v>
       </c>
-      <c r="J28">
-        <v>782000</v>
-      </c>
-      <c r="K28">
-        <v>782000</v>
+      <c r="J28" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:11">
       <c r="C29" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I29">
         <v>450</v>
       </c>
-      <c r="J29">
-        <v>938000</v>
-      </c>
-      <c r="K29">
-        <v>938000</v>
+      <c r="J29" t="s">
+        <v>176</v>
+      </c>
+      <c r="K29" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:11">
       <c r="C30" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="H30" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="I30">
         <v>50</v>
       </c>
-      <c r="J30">
-        <v>1120000</v>
-      </c>
-      <c r="K30">
-        <v>1120000</v>
+      <c r="J30" t="s">
+        <v>183</v>
+      </c>
+      <c r="K30" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:11">
       <c r="C31" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G31" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="H31" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="I31">
         <v>55</v>
       </c>
-      <c r="J31">
-        <v>1340000</v>
-      </c>
-      <c r="K31">
-        <v>1340000</v>
+      <c r="J31" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:11">
       <c r="C32" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="I32">
         <v>60</v>
       </c>
-      <c r="J32">
-        <v>1600000</v>
-      </c>
-      <c r="K32">
-        <v>1600000</v>
+      <c r="J32" t="s">
+        <v>197</v>
+      </c>
+      <c r="K32" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:11">
       <c r="C33" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="F33" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="I33">
         <v>65</v>
       </c>
-      <c r="J33">
-        <v>1920000</v>
-      </c>
-      <c r="K33">
-        <v>1920000</v>
+      <c r="J33" t="s">
+        <v>204</v>
+      </c>
+      <c r="K33" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:11">
       <c r="C34" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="F34" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="H34" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="I34">
         <v>70</v>
       </c>
-      <c r="J34">
-        <v>2300000</v>
-      </c>
-      <c r="K34">
-        <v>2300000</v>
+      <c r="J34" t="s">
+        <v>211</v>
+      </c>
+      <c r="K34" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:11">
       <c r="C35" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="F35" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G35" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="H35" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="I35">
         <v>75</v>
       </c>
-      <c r="J35">
-        <v>2760000</v>
-      </c>
-      <c r="K35">
-        <v>2760000</v>
+      <c r="J35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K35" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:11">
       <c r="C36" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="F36" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G36" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="H36" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="I36">
         <v>80</v>
       </c>
-      <c r="J36">
-        <v>3310000</v>
-      </c>
-      <c r="K36">
-        <v>3310000</v>
+      <c r="J36" t="s">
+        <v>225</v>
+      </c>
+      <c r="K36" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:11">
       <c r="C37" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="F37" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G37" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="H37" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I37">
         <v>85</v>
       </c>
-      <c r="J37">
-        <v>3970000</v>
-      </c>
-      <c r="K37">
-        <v>3970000</v>
+      <c r="J37" t="s">
+        <v>232</v>
+      </c>
+      <c r="K37" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:11">
       <c r="C38" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="F38" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="G38" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="H38" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="I38">
         <v>90</v>
       </c>
-      <c r="J38">
-        <v>4760000</v>
-      </c>
-      <c r="K38">
-        <v>4760000</v>
+      <c r="J38" t="s">
+        <v>239</v>
+      </c>
+      <c r="K38" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:11">
       <c r="C39" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="G39" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="H39" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="I39">
         <v>95</v>
       </c>
-      <c r="J39">
-        <v>5710000</v>
-      </c>
-      <c r="K39">
-        <v>5710000</v>
+      <c r="J39" t="s">
+        <v>246</v>
+      </c>
+      <c r="K39" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:11">
       <c r="C40" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="F40" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="G40" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="H40" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
-      <c r="J40">
-        <v>6850000</v>
-      </c>
-      <c r="K40">
-        <v>6850000</v>
+      <c r="J40" t="s">
+        <v>253</v>
+      </c>
+      <c r="K40" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:16">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="F41" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="G41" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H41" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="I41">
         <v>105</v>
       </c>
       <c r="J41" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="K41" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -2974,31 +3061,31 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="E42" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="F42" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="G42" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="H42" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="I42">
         <v>110</v>
       </c>
       <c r="J42" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="K42" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3010,31 +3097,31 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="D43" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="E43" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="F43" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="H43" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="I43">
         <v>115</v>
       </c>
       <c r="J43" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="K43" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -3046,31 +3133,31 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="D44" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="E44" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="F44" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="G44" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="H44" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="I44">
         <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="K44" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -3082,31 +3169,31 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="E45" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="F45" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="G45" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="H45" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="I45">
         <v>125</v>
       </c>
       <c r="J45" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="K45" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -3227,7 +3314,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>13</v>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -1845,8 +1845,8 @@
   <sheetPr/>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:K45"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2693,7 +2693,7 @@
         <v>175</v>
       </c>
       <c r="I29">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s">
         <v>176</v>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -482,7 +482,7 @@
     <t>23462290</t>
   </si>
   <si>
-    <t>1530000</t>
+    <t>1759499</t>
   </si>
   <si>
     <t>10022</t>
@@ -503,7 +503,7 @@
     <t>33000350</t>
   </si>
   <si>
-    <t>1710000</t>
+    <t>2223000</t>
   </si>
   <si>
     <t>10023</t>
@@ -524,7 +524,7 @@
     <t>46415890</t>
   </si>
   <si>
-    <t>1900000</t>
+    <t>2755000</t>
   </si>
   <si>
     <t>10024</t>
@@ -545,7 +545,7 @@
     <t>65285210</t>
   </si>
   <si>
-    <t>2100000</t>
+    <t>3360000</t>
   </si>
   <si>
     <t>10025</t>
@@ -566,7 +566,7 @@
     <t>91825430</t>
   </si>
   <si>
-    <t>2310000</t>
+    <t>4042500</t>
   </si>
   <si>
     <t>10026</t>
@@ -587,7 +587,7 @@
     <t>129154970</t>
   </si>
   <si>
-    <t>2530000</t>
+    <t>4807000</t>
   </si>
   <si>
     <t>10027</t>
@@ -608,7 +608,7 @@
     <t>181659980</t>
   </si>
   <si>
-    <t>2760000</t>
+    <t>5657999</t>
   </si>
   <si>
     <t>10028</t>
@@ -629,7 +629,7 @@
     <t>255509710</t>
   </si>
   <si>
-    <t>3000000</t>
+    <t>6600000</t>
   </si>
   <si>
     <t>10029</t>
@@ -650,7 +650,7 @@
     <t>359381370</t>
   </si>
   <si>
-    <t>3250000</t>
+    <t>7637499</t>
   </si>
   <si>
     <t>10030</t>
@@ -671,7 +671,7 @@
     <t>505479680</t>
   </si>
   <si>
-    <t>3510000</t>
+    <t>8775000</t>
   </si>
   <si>
     <t>10031</t>
@@ -692,7 +692,7 @@
     <t>710970940</t>
   </si>
   <si>
-    <t>3780000</t>
+    <t>10017000</t>
   </si>
   <si>
     <t>10032</t>
@@ -713,7 +713,7 @@
     <t>1000000000</t>
   </si>
   <si>
-    <t>4060000</t>
+    <t>11368000</t>
   </si>
   <si>
     <t>10033</t>
@@ -734,7 +734,7 @@
     <t>1406527240</t>
   </si>
   <si>
-    <t>4350000</t>
+    <t>12832500</t>
   </si>
   <si>
     <t>10034</t>
@@ -755,7 +755,7 @@
     <t>1978318880</t>
   </si>
   <si>
-    <t>4650000</t>
+    <t>14415000</t>
   </si>
   <si>
     <t>10035</t>
@@ -776,7 +776,7 @@
     <t>2782559400</t>
   </si>
   <si>
-    <t>4960000</t>
+    <t>16120000</t>
   </si>
   <si>
     <t>10036</t>
@@ -797,7 +797,7 @@
     <t>3913700000</t>
   </si>
   <si>
-    <t>5280000</t>
+    <t>17952000</t>
   </si>
   <si>
     <t>10037</t>
@@ -818,7 +818,7 @@
     <t>5504700000</t>
   </si>
   <si>
-    <t>5610000</t>
+    <t>19915500</t>
   </si>
   <si>
     <t>10038</t>
@@ -839,7 +839,7 @@
     <t>7742600000</t>
   </si>
   <si>
-    <t>5950000</t>
+    <t>22015000</t>
   </si>
   <si>
     <t>10039</t>
@@ -860,7 +860,7 @@
     <t>10890200000</t>
   </si>
   <si>
-    <t>6300000</t>
+    <t>24255000</t>
   </si>
   <si>
     <t>10040</t>
@@ -881,7 +881,7 @@
     <t>15317400000</t>
   </si>
   <si>
-    <t>6660000</t>
+    <t>26640000</t>
   </si>
   <si>
     <t>PhyAttr</t>
@@ -1845,8 +1845,8 @@
   <sheetPr/>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1861,7 +1861,6 @@
     <col min="8" max="9" width="15.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="13" width="9" style="2"/>
     <col min="14" max="14" width="13.625" style="2" customWidth="1"/>
     <col min="15" max="15" width="8.125" style="2" customWidth="1"/>
     <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
@@ -1877,8 +1876,6 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1892,8 +1889,6 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1928,8 +1923,6 @@
       <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1964,8 +1957,6 @@
       <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2000,8 +1991,6 @@
       <c r="K5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -2461,7 +2450,8 @@
         <v>119</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <f t="shared" ref="I21:I45" si="0">(D21-1014)*3</f>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
         <v>120</v>
@@ -2490,7 +2480,8 @@
         <v>126</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
         <v>127</v>
@@ -2519,7 +2510,8 @@
         <v>133</v>
       </c>
       <c r="I23">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="J23" t="s">
         <v>134</v>
@@ -2548,7 +2540,8 @@
         <v>140</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
         <v>141</v>
@@ -2577,7 +2570,8 @@
         <v>147</v>
       </c>
       <c r="I25">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
         <v>148</v>
@@ -2606,7 +2600,8 @@
         <v>154</v>
       </c>
       <c r="I26">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
         <v>155</v>
@@ -2635,7 +2630,8 @@
         <v>161</v>
       </c>
       <c r="I27">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
         <v>162</v>
@@ -2664,7 +2660,8 @@
         <v>168</v>
       </c>
       <c r="I28">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
         <v>169</v>
@@ -2693,7 +2690,8 @@
         <v>175</v>
       </c>
       <c r="I29">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="J29" t="s">
         <v>176</v>
@@ -2722,7 +2720,8 @@
         <v>182</v>
       </c>
       <c r="I30">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -2751,7 +2750,8 @@
         <v>189</v>
       </c>
       <c r="I31">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
         <v>190</v>
@@ -2780,7 +2780,8 @@
         <v>196</v>
       </c>
       <c r="I32">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="J32" t="s">
         <v>197</v>
@@ -2809,7 +2810,8 @@
         <v>203</v>
       </c>
       <c r="I33">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="J33" t="s">
         <v>204</v>
@@ -2838,7 +2840,8 @@
         <v>210</v>
       </c>
       <c r="I34">
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="J34" t="s">
         <v>211</v>
@@ -2867,7 +2870,8 @@
         <v>217</v>
       </c>
       <c r="I35">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="J35" t="s">
         <v>218</v>
@@ -2896,7 +2900,8 @@
         <v>224</v>
       </c>
       <c r="I36">
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="J36" t="s">
         <v>225</v>
@@ -2925,7 +2930,8 @@
         <v>231</v>
       </c>
       <c r="I37">
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="J37" t="s">
         <v>232</v>
@@ -2954,7 +2960,8 @@
         <v>238</v>
       </c>
       <c r="I38">
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="J38" t="s">
         <v>239</v>
@@ -2983,7 +2990,8 @@
         <v>245</v>
       </c>
       <c r="I39">
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="J39" t="s">
         <v>246</v>
@@ -3012,7 +3020,8 @@
         <v>252</v>
       </c>
       <c r="I40">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="J40" t="s">
         <v>253</v>
@@ -3043,7 +3052,8 @@
         <v>259</v>
       </c>
       <c r="I41">
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="J41" t="s">
         <v>260</v>
@@ -3051,8 +3061,6 @@
       <c r="K41" t="s">
         <v>260</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -3079,7 +3087,8 @@
         <v>266</v>
       </c>
       <c r="I42">
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="J42" t="s">
         <v>267</v>
@@ -3087,8 +3096,6 @@
       <c r="K42" t="s">
         <v>267</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -3115,7 +3122,8 @@
         <v>273</v>
       </c>
       <c r="I43">
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="J43" t="s">
         <v>274</v>
@@ -3123,8 +3131,6 @@
       <c r="K43" t="s">
         <v>274</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -3151,7 +3157,8 @@
         <v>280</v>
       </c>
       <c r="I44">
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="J44" t="s">
         <v>281</v>
@@ -3159,8 +3166,6 @@
       <c r="K44" t="s">
         <v>281</v>
       </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -3187,7 +3192,8 @@
         <v>287</v>
       </c>
       <c r="I45">
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="J45" t="s">
         <v>288</v>
@@ -3195,15 +3201,13 @@
       <c r="K45" t="s">
         <v>288</v>
       </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 C3:C5 D3:D5 E3:E5 I3:I4 F3:H4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="330">
   <si>
     <t>ID</t>
   </si>
@@ -158,7 +158,7 @@
     <t>1005</t>
   </si>
   <si>
-    <t>蝙蝠</t>
+    <t>雪人</t>
   </si>
   <si>
     <t>14065</t>
@@ -179,7 +179,7 @@
     <t>1006</t>
   </si>
   <si>
-    <t>小骷髅</t>
+    <t>山洞蝙蝠</t>
   </si>
   <si>
     <t>19783</t>
@@ -200,7 +200,7 @@
     <t>1007</t>
   </si>
   <si>
-    <t>骷髅战士</t>
+    <t>骷髅</t>
   </si>
   <si>
     <t>27826</t>
@@ -218,7 +218,7 @@
     <t>1008</t>
   </si>
   <si>
-    <t>骷髅射手</t>
+    <t>僵尸</t>
   </si>
   <si>
     <t>39137</t>
@@ -239,7 +239,7 @@
     <t>1009</t>
   </si>
   <si>
-    <t>骷髅斧手</t>
+    <t>虎蛇</t>
   </si>
   <si>
     <t>55048</t>
@@ -260,7 +260,7 @@
     <t>1010</t>
   </si>
   <si>
-    <t>洞蛆</t>
+    <t>狼</t>
   </si>
   <si>
     <t>77426</t>
@@ -281,7 +281,7 @@
     <t>1011</t>
   </si>
   <si>
-    <t>僵尸</t>
+    <t>沙虫</t>
   </si>
   <si>
     <t>108902</t>
@@ -302,7 +302,7 @@
     <t>1012</t>
   </si>
   <si>
-    <t>虎蛇</t>
+    <t>鹰</t>
   </si>
   <si>
     <t>153174</t>
@@ -323,7 +323,7 @@
     <t>1013</t>
   </si>
   <si>
-    <t>狼</t>
+    <t>多角虫</t>
   </si>
   <si>
     <t>215443</t>
@@ -344,7 +344,7 @@
     <t>1014</t>
   </si>
   <si>
-    <t>沙虫</t>
+    <t>蜈蚣</t>
   </si>
   <si>
     <t>303027</t>
@@ -365,7 +365,7 @@
     <t>1015</t>
   </si>
   <si>
-    <t>猎鹰</t>
+    <t>钳虫</t>
   </si>
   <si>
     <t>426216</t>
@@ -386,7 +386,7 @@
     <t>1016</t>
   </si>
   <si>
-    <t>多角虫</t>
+    <t>蠕虫</t>
   </si>
   <si>
     <t>599484</t>
@@ -407,7 +407,7 @@
     <t>1017</t>
   </si>
   <si>
-    <t>粪虫</t>
+    <t>黑野猪</t>
   </si>
   <si>
     <t>843191</t>
@@ -428,7 +428,7 @@
     <t>1018</t>
   </si>
   <si>
-    <t>角蝇</t>
+    <t>野猪</t>
   </si>
   <si>
     <t>1185971</t>
@@ -449,7 +449,7 @@
     <t>1019</t>
   </si>
   <si>
-    <t>暗黑战士</t>
+    <t>蝎蛇</t>
   </si>
   <si>
     <t>1668101</t>
@@ -470,7 +470,7 @@
     <t>1020</t>
   </si>
   <si>
-    <t>沃玛战士</t>
+    <t>火焰沃玛</t>
   </si>
   <si>
     <t>2346229</t>
@@ -512,7 +512,7 @@
     <t>1022</t>
   </si>
   <si>
-    <t>火焰沃玛</t>
+    <t>祖玛雕像</t>
   </si>
   <si>
     <t>4641589</t>
@@ -533,7 +533,7 @@
     <t>1023</t>
   </si>
   <si>
-    <t>楔蛾</t>
+    <t>祖玛卫士</t>
   </si>
   <si>
     <t>6528521</t>
@@ -554,7 +554,7 @@
     <t>1024</t>
   </si>
   <si>
-    <t>黑野猪</t>
+    <t>红野猪</t>
   </si>
   <si>
     <t>9182543</t>
@@ -575,7 +575,7 @@
     <t>1025</t>
   </si>
   <si>
-    <t>红野猪</t>
+    <t>树妖</t>
   </si>
   <si>
     <t>12915497</t>
@@ -596,7 +596,7 @@
     <t>1026</t>
   </si>
   <si>
-    <t>蝎蛇</t>
+    <t>虹魔侍卫</t>
   </si>
   <si>
     <t>18165998</t>
@@ -617,7 +617,7 @@
     <t>1027</t>
   </si>
   <si>
-    <t>跳跳蜂</t>
+    <t>剧毒僵尸</t>
   </si>
   <si>
     <t>25550971</t>
@@ -638,7 +638,7 @@
     <t>1028</t>
   </si>
   <si>
-    <t>蜈蚣</t>
+    <t>骷髅锤兵</t>
   </si>
   <si>
     <t>35938137</t>
@@ -659,7 +659,7 @@
     <t>1029</t>
   </si>
   <si>
-    <t>钳虫</t>
+    <t>牛魔将军</t>
   </si>
   <si>
     <t>50547968</t>
@@ -680,7 +680,7 @@
     <t>1030</t>
   </si>
   <si>
-    <t>蠕虫</t>
+    <t>钢牙蜘蛛</t>
   </si>
   <si>
     <t>71097094</t>
@@ -701,7 +701,7 @@
     <t>1031</t>
   </si>
   <si>
-    <t>大老鼠</t>
+    <t>天狼蜘蛛</t>
   </si>
   <si>
     <t>100000000</t>
@@ -722,7 +722,7 @@
     <t>1032</t>
   </si>
   <si>
-    <t>祖玛弓箭手</t>
+    <t>血巨人</t>
   </si>
   <si>
     <t>140652724</t>
@@ -743,7 +743,7 @@
     <t>1033</t>
   </si>
   <si>
-    <t>祖玛卫士</t>
+    <t>魔龙力士</t>
   </si>
   <si>
     <t>197831888</t>
@@ -764,7 +764,7 @@
     <t>1034</t>
   </si>
   <si>
-    <t>祖玛雕像</t>
+    <t>火龙守护兽</t>
   </si>
   <si>
     <t>278255940</t>
@@ -882,6 +882,126 @@
   </si>
   <si>
     <t>26640000</t>
+  </si>
+  <si>
+    <t>10041</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>幻影雪人</t>
+  </si>
+  <si>
+    <t>2154430000</t>
+  </si>
+  <si>
+    <t>430886000</t>
+  </si>
+  <si>
+    <t>21544300000</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>35316500</t>
+  </si>
+  <si>
+    <t>10042</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>幻影蝙蝠</t>
+  </si>
+  <si>
+    <t>3030270000</t>
+  </si>
+  <si>
+    <t>606054000</t>
+  </si>
+  <si>
+    <t>30302700000</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>44763000</t>
+  </si>
+  <si>
+    <t>10043</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>幻影骷髅</t>
+  </si>
+  <si>
+    <t>4262150000</t>
+  </si>
+  <si>
+    <t>852430000</t>
+  </si>
+  <si>
+    <t>42621500000</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>55001999</t>
+  </si>
+  <si>
+    <t>10044</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>幻影僵尸</t>
+  </si>
+  <si>
+    <t>5994840000</t>
+  </si>
+  <si>
+    <t>1198968000</t>
+  </si>
+  <si>
+    <t>59948400000</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>66055999</t>
+  </si>
+  <si>
+    <t>10045</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>幻影虎蛇</t>
+  </si>
+  <si>
+    <t>8431900000</t>
+  </si>
+  <si>
+    <t>1686380000</t>
+  </si>
+  <si>
+    <t>84319000000</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>77947500</t>
   </si>
   <si>
     <t>PhyAttr</t>
@@ -1843,10 +1963,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1861,6 +1981,7 @@
     <col min="8" max="9" width="15.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.125"/>
     <col min="14" max="14" width="13.625" style="2" customWidth="1"/>
     <col min="15" max="15" width="8.125" style="2" customWidth="1"/>
     <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
@@ -3204,6 +3325,186 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
+    </row>
+    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" t="s">
+        <v>292</v>
+      </c>
+      <c r="G46" t="s">
+        <v>293</v>
+      </c>
+      <c r="H46" t="s">
+        <v>294</v>
+      </c>
+      <c r="I46" t="s">
+        <v>295</v>
+      </c>
+      <c r="J46" t="s">
+        <v>296</v>
+      </c>
+      <c r="K46" t="s">
+        <v>296</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" t="s">
+        <v>299</v>
+      </c>
+      <c r="F47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G47" t="s">
+        <v>301</v>
+      </c>
+      <c r="H47" t="s">
+        <v>302</v>
+      </c>
+      <c r="I47" t="s">
+        <v>303</v>
+      </c>
+      <c r="J47" t="s">
+        <v>304</v>
+      </c>
+      <c r="K47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s">
+        <v>305</v>
+      </c>
+      <c r="D48" t="s">
+        <v>306</v>
+      </c>
+      <c r="E48" t="s">
+        <v>307</v>
+      </c>
+      <c r="F48" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" t="s">
+        <v>309</v>
+      </c>
+      <c r="H48" t="s">
+        <v>310</v>
+      </c>
+      <c r="I48" t="s">
+        <v>311</v>
+      </c>
+      <c r="J48" t="s">
+        <v>312</v>
+      </c>
+      <c r="K48" t="s">
+        <v>312</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" t="s">
+        <v>314</v>
+      </c>
+      <c r="E49" t="s">
+        <v>315</v>
+      </c>
+      <c r="F49" t="s">
+        <v>316</v>
+      </c>
+      <c r="G49" t="s">
+        <v>317</v>
+      </c>
+      <c r="H49" t="s">
+        <v>318</v>
+      </c>
+      <c r="I49" t="s">
+        <v>319</v>
+      </c>
+      <c r="J49" t="s">
+        <v>320</v>
+      </c>
+      <c r="K49" t="s">
+        <v>320</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" t="s">
+        <v>322</v>
+      </c>
+      <c r="E50" t="s">
+        <v>323</v>
+      </c>
+      <c r="F50" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" t="s">
+        <v>326</v>
+      </c>
+      <c r="I50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J50" t="s">
+        <v>328</v>
+      </c>
+      <c r="K50" t="s">
+        <v>328</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3318,7 +3619,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>13</v>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -905,7 +905,7 @@
     <t>78</t>
   </si>
   <si>
-    <t>35316500</t>
+    <t>30710000</t>
   </si>
   <si>
     <t>10042</t>
@@ -929,7 +929,7 @@
     <t>81</t>
   </si>
   <si>
-    <t>44763000</t>
+    <t>35088000</t>
   </si>
   <si>
     <t>10043</t>
@@ -953,7 +953,7 @@
     <t>84</t>
   </si>
   <si>
-    <t>55001999</t>
+    <t>39782999</t>
   </si>
   <si>
     <t>10044</t>
@@ -977,7 +977,7 @@
     <t>87</t>
   </si>
   <si>
-    <t>66055999</t>
+    <t>44804000</t>
   </si>
   <si>
     <t>10045</t>
@@ -1001,7 +1001,7 @@
     <t>90</t>
   </si>
   <si>
-    <t>77947500</t>
+    <t>50160000</t>
   </si>
   <si>
     <t>PhyAttr</t>
@@ -1965,7 +1965,7 @@
   <sheetPr/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="J46" sqref="J46:K50"/>
     </sheetView>
   </sheetViews>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
-    <sheet name="定制配置" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="372">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +37,15 @@
     <t>DamageIncrea</t>
   </si>
   <si>
+    <t>DamageResist</t>
+  </si>
+  <si>
+    <t>CritRate</t>
+  </si>
+  <si>
+    <t>CritDamage</t>
+  </si>
+  <si>
     <t>经验</t>
   </si>
   <si>
@@ -1004,7 +1012,124 @@
     <t>50160000</t>
   </si>
   <si>
-    <t>PhyAttr</t>
+    <t>10046</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>幻影狼</t>
+  </si>
+  <si>
+    <t>11859710000</t>
+  </si>
+  <si>
+    <t>2371942000</t>
+  </si>
+  <si>
+    <t>168638000000</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>57918000</t>
+  </si>
+  <si>
+    <t>10047</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>幻影沙虫</t>
+  </si>
+  <si>
+    <t>16681000000</t>
+  </si>
+  <si>
+    <t>3336200000</t>
+  </si>
+  <si>
+    <t>337276000000</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>66205500</t>
+  </si>
+  <si>
+    <t>10048</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>幻影小鹰</t>
+  </si>
+  <si>
+    <t>23462280000</t>
+  </si>
+  <si>
+    <t>4692456000</t>
+  </si>
+  <si>
+    <t>674552000000</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>75036000</t>
+  </si>
+  <si>
+    <t>10049</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>幻影多角虫</t>
+  </si>
+  <si>
+    <t>33000340000</t>
+  </si>
+  <si>
+    <t>6600068000</t>
+  </si>
+  <si>
+    <t>1349104000000</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>84423000</t>
+  </si>
+  <si>
+    <t>10050</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>幻影蜈蚣</t>
+  </si>
+  <si>
+    <t>46415880000</t>
+  </si>
+  <si>
+    <t>9283176000</t>
+  </si>
+  <si>
+    <t>2698208000000</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>94380000</t>
   </si>
 </sst>
 </file>
@@ -1963,10 +2088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46:K50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J43" sqref="J$1:L$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1979,1573 +2104,17 @@
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
     <col min="8" max="9" width="15.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.125"/>
-    <col min="14" max="14" width="13.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="10" max="12" width="12.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.125"/>
+    <col min="17" max="17" width="13.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:16">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:16">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="3:11">
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:11">
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:11">
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:11">
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:11">
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:11">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:11">
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:11">
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:11">
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:11">
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:11">
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:11">
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:11">
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:11">
-      <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:11">
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:11">
-      <c r="C21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ref="I21:I45" si="0">(D21-1014)*3</f>
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:11">
-      <c r="C22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:11">
-      <c r="C23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" t="s">
-        <v>133</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J23" t="s">
-        <v>134</v>
-      </c>
-      <c r="K23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:11">
-      <c r="C24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J24" t="s">
-        <v>141</v>
-      </c>
-      <c r="K24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:11">
-      <c r="C25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J25" t="s">
-        <v>148</v>
-      </c>
-      <c r="K25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:11">
-      <c r="C26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" t="s">
-        <v>154</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="J26" t="s">
-        <v>155</v>
-      </c>
-      <c r="K26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:11">
-      <c r="C27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" t="s">
-        <v>160</v>
-      </c>
-      <c r="H27" t="s">
-        <v>161</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>162</v>
-      </c>
-      <c r="K27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:11">
-      <c r="C28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" t="s">
-        <v>168</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="J28" t="s">
-        <v>169</v>
-      </c>
-      <c r="K28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:11">
-      <c r="C29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="J29" t="s">
-        <v>176</v>
-      </c>
-      <c r="K29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:11">
-      <c r="C30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" t="s">
-        <v>179</v>
-      </c>
-      <c r="F30" t="s">
-        <v>180</v>
-      </c>
-      <c r="G30" t="s">
-        <v>181</v>
-      </c>
-      <c r="H30" t="s">
-        <v>182</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J30" t="s">
-        <v>183</v>
-      </c>
-      <c r="K30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:11">
-      <c r="C31" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31" t="s">
-        <v>188</v>
-      </c>
-      <c r="H31" t="s">
-        <v>189</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="J31" t="s">
-        <v>190</v>
-      </c>
-      <c r="K31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:11">
-      <c r="C32" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" t="s">
-        <v>195</v>
-      </c>
-      <c r="H32" t="s">
-        <v>196</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="J32" t="s">
-        <v>197</v>
-      </c>
-      <c r="K32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:11">
-      <c r="C33" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" t="s">
-        <v>200</v>
-      </c>
-      <c r="F33" t="s">
-        <v>201</v>
-      </c>
-      <c r="G33" t="s">
-        <v>202</v>
-      </c>
-      <c r="H33" t="s">
-        <v>203</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="J33" t="s">
-        <v>204</v>
-      </c>
-      <c r="K33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:11">
-      <c r="C34" t="s">
-        <v>205</v>
-      </c>
-      <c r="D34" t="s">
-        <v>206</v>
-      </c>
-      <c r="E34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F34" t="s">
-        <v>208</v>
-      </c>
-      <c r="G34" t="s">
-        <v>209</v>
-      </c>
-      <c r="H34" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="J34" t="s">
-        <v>211</v>
-      </c>
-      <c r="K34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:11">
-      <c r="C35" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" t="s">
-        <v>214</v>
-      </c>
-      <c r="F35" t="s">
-        <v>215</v>
-      </c>
-      <c r="G35" t="s">
-        <v>216</v>
-      </c>
-      <c r="H35" t="s">
-        <v>217</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="J35" t="s">
-        <v>218</v>
-      </c>
-      <c r="K35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:11">
-      <c r="C36" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E36" t="s">
-        <v>221</v>
-      </c>
-      <c r="F36" t="s">
-        <v>222</v>
-      </c>
-      <c r="G36" t="s">
-        <v>223</v>
-      </c>
-      <c r="H36" t="s">
-        <v>224</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="J36" t="s">
-        <v>225</v>
-      </c>
-      <c r="K36" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:11">
-      <c r="C37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E37" t="s">
-        <v>228</v>
-      </c>
-      <c r="F37" t="s">
-        <v>229</v>
-      </c>
-      <c r="G37" t="s">
-        <v>230</v>
-      </c>
-      <c r="H37" t="s">
-        <v>231</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="J37" t="s">
-        <v>232</v>
-      </c>
-      <c r="K37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:11">
-      <c r="C38" t="s">
-        <v>233</v>
-      </c>
-      <c r="D38" t="s">
-        <v>234</v>
-      </c>
-      <c r="E38" t="s">
-        <v>235</v>
-      </c>
-      <c r="F38" t="s">
-        <v>236</v>
-      </c>
-      <c r="G38" t="s">
-        <v>237</v>
-      </c>
-      <c r="H38" t="s">
-        <v>238</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="J38" t="s">
-        <v>239</v>
-      </c>
-      <c r="K38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:11">
-      <c r="C39" t="s">
-        <v>240</v>
-      </c>
-      <c r="D39" t="s">
-        <v>241</v>
-      </c>
-      <c r="E39" t="s">
-        <v>242</v>
-      </c>
-      <c r="F39" t="s">
-        <v>243</v>
-      </c>
-      <c r="G39" t="s">
-        <v>244</v>
-      </c>
-      <c r="H39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="J39" t="s">
-        <v>246</v>
-      </c>
-      <c r="K39" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:11">
-      <c r="C40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D40" t="s">
-        <v>248</v>
-      </c>
-      <c r="E40" t="s">
-        <v>249</v>
-      </c>
-      <c r="F40" t="s">
-        <v>250</v>
-      </c>
-      <c r="G40" t="s">
-        <v>251</v>
-      </c>
-      <c r="H40" t="s">
-        <v>252</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="J40" t="s">
-        <v>253</v>
-      </c>
-      <c r="K40" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" t="s">
-        <v>255</v>
-      </c>
-      <c r="E41" t="s">
-        <v>256</v>
-      </c>
-      <c r="F41" t="s">
-        <v>257</v>
-      </c>
-      <c r="G41" t="s">
-        <v>258</v>
-      </c>
-      <c r="H41" t="s">
-        <v>259</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="J41" t="s">
-        <v>260</v>
-      </c>
-      <c r="K41" t="s">
-        <v>260</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s">
-        <v>261</v>
-      </c>
-      <c r="D42" t="s">
-        <v>262</v>
-      </c>
-      <c r="E42" t="s">
-        <v>263</v>
-      </c>
-      <c r="F42" t="s">
-        <v>264</v>
-      </c>
-      <c r="G42" t="s">
-        <v>265</v>
-      </c>
-      <c r="H42" t="s">
-        <v>266</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="J42" t="s">
-        <v>267</v>
-      </c>
-      <c r="K42" t="s">
-        <v>267</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s">
-        <v>268</v>
-      </c>
-      <c r="D43" t="s">
-        <v>269</v>
-      </c>
-      <c r="E43" t="s">
-        <v>270</v>
-      </c>
-      <c r="F43" t="s">
-        <v>271</v>
-      </c>
-      <c r="G43" t="s">
-        <v>272</v>
-      </c>
-      <c r="H43" t="s">
-        <v>273</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="J43" t="s">
-        <v>274</v>
-      </c>
-      <c r="K43" t="s">
-        <v>274</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-    </row>
-    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s">
-        <v>275</v>
-      </c>
-      <c r="D44" t="s">
-        <v>276</v>
-      </c>
-      <c r="E44" t="s">
-        <v>277</v>
-      </c>
-      <c r="F44" t="s">
-        <v>278</v>
-      </c>
-      <c r="G44" t="s">
-        <v>279</v>
-      </c>
-      <c r="H44" t="s">
-        <v>280</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="J44" t="s">
-        <v>281</v>
-      </c>
-      <c r="K44" t="s">
-        <v>281</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s">
-        <v>282</v>
-      </c>
-      <c r="D45" t="s">
-        <v>283</v>
-      </c>
-      <c r="E45" t="s">
-        <v>284</v>
-      </c>
-      <c r="F45" t="s">
-        <v>285</v>
-      </c>
-      <c r="G45" t="s">
-        <v>286</v>
-      </c>
-      <c r="H45" t="s">
-        <v>287</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="J45" t="s">
-        <v>288</v>
-      </c>
-      <c r="K45" t="s">
-        <v>288</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-    </row>
-    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s">
-        <v>289</v>
-      </c>
-      <c r="D46" t="s">
-        <v>290</v>
-      </c>
-      <c r="E46" t="s">
-        <v>291</v>
-      </c>
-      <c r="F46" t="s">
-        <v>292</v>
-      </c>
-      <c r="G46" t="s">
-        <v>293</v>
-      </c>
-      <c r="H46" t="s">
-        <v>294</v>
-      </c>
-      <c r="I46" t="s">
-        <v>295</v>
-      </c>
-      <c r="J46" t="s">
-        <v>296</v>
-      </c>
-      <c r="K46" t="s">
-        <v>296</v>
-      </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-    </row>
-    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s">
-        <v>297</v>
-      </c>
-      <c r="D47" t="s">
-        <v>298</v>
-      </c>
-      <c r="E47" t="s">
-        <v>299</v>
-      </c>
-      <c r="F47" t="s">
-        <v>300</v>
-      </c>
-      <c r="G47" t="s">
-        <v>301</v>
-      </c>
-      <c r="H47" t="s">
-        <v>302</v>
-      </c>
-      <c r="I47" t="s">
-        <v>303</v>
-      </c>
-      <c r="J47" t="s">
-        <v>304</v>
-      </c>
-      <c r="K47" t="s">
-        <v>304</v>
-      </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D48" t="s">
-        <v>306</v>
-      </c>
-      <c r="E48" t="s">
-        <v>307</v>
-      </c>
-      <c r="F48" t="s">
-        <v>308</v>
-      </c>
-      <c r="G48" t="s">
-        <v>309</v>
-      </c>
-      <c r="H48" t="s">
-        <v>310</v>
-      </c>
-      <c r="I48" t="s">
-        <v>311</v>
-      </c>
-      <c r="J48" t="s">
-        <v>312</v>
-      </c>
-      <c r="K48" t="s">
-        <v>312</v>
-      </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s">
-        <v>313</v>
-      </c>
-      <c r="D49" t="s">
-        <v>314</v>
-      </c>
-      <c r="E49" t="s">
-        <v>315</v>
-      </c>
-      <c r="F49" t="s">
-        <v>316</v>
-      </c>
-      <c r="G49" t="s">
-        <v>317</v>
-      </c>
-      <c r="H49" t="s">
-        <v>318</v>
-      </c>
-      <c r="I49" t="s">
-        <v>319</v>
-      </c>
-      <c r="J49" t="s">
-        <v>320</v>
-      </c>
-      <c r="K49" t="s">
-        <v>320</v>
-      </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s">
-        <v>321</v>
-      </c>
-      <c r="D50" t="s">
-        <v>322</v>
-      </c>
-      <c r="E50" t="s">
-        <v>323</v>
-      </c>
-      <c r="F50" t="s">
-        <v>324</v>
-      </c>
-      <c r="G50" t="s">
-        <v>325</v>
-      </c>
-      <c r="H50" t="s">
-        <v>326</v>
-      </c>
-      <c r="I50" t="s">
-        <v>327</v>
-      </c>
-      <c r="J50" t="s">
-        <v>328</v>
-      </c>
-      <c r="K50" t="s">
-        <v>328</v>
-      </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 C3:C5 D3:D5 E3:E5 I3:I4 F3:H4" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
-  <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:19">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="F1" s="2"/>
@@ -3557,9 +2126,11 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:19">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="2"/>
@@ -3571,9 +2142,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:19">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -3595,113 +2168,2136 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:19">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:19">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="3:14">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:14">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:14">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:14">
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:14">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:14">
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:14">
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:14">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:14">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:14">
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:14">
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:14">
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:14">
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:14">
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:14">
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:14">
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I45" si="0">(D21-1014)*3</f>
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:14">
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:14">
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>137</v>
+      </c>
+      <c r="N23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:14">
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>144</v>
+      </c>
+      <c r="N24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:14">
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>151</v>
+      </c>
+      <c r="N25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:14">
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>158</v>
+      </c>
+      <c r="N26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:14">
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>165</v>
+      </c>
+      <c r="N27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:14">
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>172</v>
+      </c>
+      <c r="N28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:14">
+      <c r="C29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>179</v>
+      </c>
+      <c r="N29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:14">
+      <c r="C30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>186</v>
+      </c>
+      <c r="N30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:14">
+      <c r="C31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>193</v>
+      </c>
+      <c r="N31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:14">
+      <c r="C32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>200</v>
+      </c>
+      <c r="N32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:14">
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" t="s">
+        <v>206</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>207</v>
+      </c>
+      <c r="N33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:14">
+      <c r="C34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H34" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>214</v>
+      </c>
+      <c r="N34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:14">
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" t="s">
+        <v>219</v>
+      </c>
+      <c r="H35" t="s">
+        <v>220</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>221</v>
+      </c>
+      <c r="N35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:14">
+      <c r="C36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" t="s">
+        <v>226</v>
+      </c>
+      <c r="H36" t="s">
+        <v>227</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>228</v>
+      </c>
+      <c r="N36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:14">
+      <c r="C37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" t="s">
+        <v>231</v>
+      </c>
+      <c r="F37" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" t="s">
+        <v>234</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>235</v>
+      </c>
+      <c r="N37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:14">
+      <c r="C38" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" t="s">
+        <v>240</v>
+      </c>
+      <c r="H38" t="s">
+        <v>241</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>242</v>
+      </c>
+      <c r="N38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:14">
+      <c r="C39" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" t="s">
+        <v>245</v>
+      </c>
+      <c r="F39" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H39" t="s">
+        <v>248</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>249</v>
+      </c>
+      <c r="N39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:14">
+      <c r="C40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40" t="s">
+        <v>252</v>
+      </c>
+      <c r="F40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H40" t="s">
+        <v>255</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>256</v>
+      </c>
+      <c r="N40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" t="s">
+        <v>260</v>
+      </c>
+      <c r="G41" t="s">
+        <v>261</v>
+      </c>
+      <c r="H41" t="s">
+        <v>262</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>263</v>
+      </c>
+      <c r="N41" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" t="s">
+        <v>268</v>
+      </c>
+      <c r="H42" t="s">
+        <v>269</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>270</v>
+      </c>
+      <c r="N42" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" t="s">
+        <v>272</v>
+      </c>
+      <c r="E43" t="s">
+        <v>273</v>
+      </c>
+      <c r="F43" t="s">
+        <v>274</v>
+      </c>
+      <c r="G43" t="s">
+        <v>275</v>
+      </c>
+      <c r="H43" t="s">
+        <v>276</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>277</v>
+      </c>
+      <c r="N43" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" t="s">
+        <v>279</v>
+      </c>
+      <c r="E44" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" t="s">
+        <v>282</v>
+      </c>
+      <c r="H44" t="s">
+        <v>283</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>284</v>
+      </c>
+      <c r="N44" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" t="s">
+        <v>286</v>
+      </c>
+      <c r="E45" t="s">
+        <v>287</v>
+      </c>
+      <c r="F45" t="s">
+        <v>288</v>
+      </c>
+      <c r="G45" t="s">
+        <v>289</v>
+      </c>
+      <c r="H45" t="s">
+        <v>290</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>291</v>
+      </c>
+      <c r="N45" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s">
+        <v>292</v>
+      </c>
+      <c r="D46" t="s">
+        <v>293</v>
+      </c>
+      <c r="E46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" t="s">
+        <v>297</v>
+      </c>
+      <c r="I46" t="s">
+        <v>298</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>299</v>
+      </c>
+      <c r="N46" t="s">
+        <v>299</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s">
+        <v>300</v>
+      </c>
+      <c r="D47" t="s">
+        <v>301</v>
+      </c>
+      <c r="E47" t="s">
+        <v>302</v>
+      </c>
+      <c r="F47" t="s">
+        <v>303</v>
+      </c>
+      <c r="G47" t="s">
+        <v>304</v>
+      </c>
+      <c r="H47" t="s">
+        <v>305</v>
+      </c>
+      <c r="I47" t="s">
+        <v>306</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>307</v>
+      </c>
+      <c r="N47" t="s">
+        <v>307</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48" t="s">
+        <v>309</v>
+      </c>
+      <c r="E48" t="s">
+        <v>310</v>
+      </c>
+      <c r="F48" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" t="s">
+        <v>312</v>
+      </c>
+      <c r="H48" t="s">
+        <v>313</v>
+      </c>
+      <c r="I48" t="s">
+        <v>314</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>315</v>
+      </c>
+      <c r="N48" t="s">
+        <v>315</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s">
+        <v>316</v>
+      </c>
+      <c r="D49" t="s">
+        <v>317</v>
+      </c>
+      <c r="E49" t="s">
+        <v>318</v>
+      </c>
+      <c r="F49" t="s">
+        <v>319</v>
+      </c>
+      <c r="G49" t="s">
+        <v>320</v>
+      </c>
+      <c r="H49" t="s">
+        <v>321</v>
+      </c>
+      <c r="I49" t="s">
+        <v>322</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>323</v>
+      </c>
+      <c r="N49" t="s">
+        <v>323</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s">
+        <v>324</v>
+      </c>
+      <c r="D50" t="s">
+        <v>325</v>
+      </c>
+      <c r="E50" t="s">
+        <v>326</v>
+      </c>
+      <c r="F50" t="s">
+        <v>327</v>
+      </c>
+      <c r="G50" t="s">
+        <v>328</v>
+      </c>
+      <c r="H50" t="s">
+        <v>329</v>
+      </c>
+      <c r="I50" t="s">
+        <v>330</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>331</v>
+      </c>
+      <c r="N50" t="s">
+        <v>331</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s">
+        <v>332</v>
+      </c>
+      <c r="D51" t="s">
+        <v>333</v>
+      </c>
+      <c r="E51" t="s">
+        <v>334</v>
+      </c>
+      <c r="F51" t="s">
+        <v>335</v>
+      </c>
+      <c r="G51" t="s">
+        <v>336</v>
+      </c>
+      <c r="H51" t="s">
+        <v>337</v>
+      </c>
+      <c r="I51" t="s">
+        <v>338</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51" t="s">
+        <v>339</v>
+      </c>
+      <c r="N51" t="s">
+        <v>339</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s">
+        <v>340</v>
+      </c>
+      <c r="D52" t="s">
+        <v>341</v>
+      </c>
+      <c r="E52" t="s">
+        <v>342</v>
+      </c>
+      <c r="F52" t="s">
+        <v>343</v>
+      </c>
+      <c r="G52" t="s">
+        <v>344</v>
+      </c>
+      <c r="H52" t="s">
+        <v>345</v>
+      </c>
+      <c r="I52" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>10</v>
+      </c>
+      <c r="M52" t="s">
+        <v>347</v>
+      </c>
+      <c r="N52" t="s">
+        <v>347</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s">
+        <v>348</v>
+      </c>
+      <c r="D53" t="s">
+        <v>349</v>
+      </c>
+      <c r="E53" t="s">
+        <v>350</v>
+      </c>
+      <c r="F53" t="s">
+        <v>351</v>
+      </c>
+      <c r="G53" t="s">
+        <v>352</v>
+      </c>
+      <c r="H53" t="s">
+        <v>353</v>
+      </c>
+      <c r="I53" t="s">
+        <v>354</v>
+      </c>
+      <c r="J53">
+        <v>9</v>
+      </c>
+      <c r="K53">
+        <v>15</v>
+      </c>
+      <c r="L53">
+        <v>15</v>
+      </c>
+      <c r="M53" t="s">
+        <v>355</v>
+      </c>
+      <c r="N53" t="s">
+        <v>355</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s">
+        <v>356</v>
+      </c>
+      <c r="D54" t="s">
+        <v>357</v>
+      </c>
+      <c r="E54" t="s">
+        <v>358</v>
+      </c>
+      <c r="F54" t="s">
+        <v>359</v>
+      </c>
+      <c r="G54" t="s">
+        <v>360</v>
+      </c>
+      <c r="H54" t="s">
+        <v>361</v>
+      </c>
+      <c r="I54" t="s">
+        <v>362</v>
+      </c>
+      <c r="J54">
+        <v>12</v>
+      </c>
+      <c r="K54">
+        <v>20</v>
+      </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
+      <c r="M54" t="s">
+        <v>363</v>
+      </c>
+      <c r="N54" t="s">
+        <v>363</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s">
+        <v>364</v>
+      </c>
+      <c r="D55" t="s">
+        <v>365</v>
+      </c>
+      <c r="E55" t="s">
+        <v>366</v>
+      </c>
+      <c r="F55" t="s">
+        <v>367</v>
+      </c>
+      <c r="G55" t="s">
+        <v>368</v>
+      </c>
+      <c r="H55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I55" t="s">
+        <v>370</v>
+      </c>
+      <c r="J55">
+        <v>15</v>
+      </c>
+      <c r="K55">
+        <v>25</v>
+      </c>
+      <c r="L55">
+        <v>25</v>
+      </c>
+      <c r="M55" t="s">
+        <v>371</v>
+      </c>
+      <c r="N55" t="s">
+        <v>371</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="397">
   <si>
     <t>ID</t>
   </si>
@@ -910,9 +910,6 @@
     <t>21544300000</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>30710000</t>
   </si>
   <si>
@@ -934,9 +931,6 @@
     <t>30302700000</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
     <t>35088000</t>
   </si>
   <si>
@@ -958,9 +952,6 @@
     <t>42621500000</t>
   </si>
   <si>
-    <t>84</t>
-  </si>
-  <si>
     <t>39782999</t>
   </si>
   <si>
@@ -982,9 +973,6 @@
     <t>59948400000</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
     <t>44804000</t>
   </si>
   <si>
@@ -1006,9 +994,6 @@
     <t>84319000000</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>50160000</t>
   </si>
   <si>
@@ -1030,9 +1015,6 @@
     <t>168638000000</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
     <t>57918000</t>
   </si>
   <si>
@@ -1054,9 +1036,6 @@
     <t>337276000000</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>66205500</t>
   </si>
   <si>
@@ -1078,9 +1057,6 @@
     <t>674552000000</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>75036000</t>
   </si>
   <si>
@@ -1102,9 +1078,6 @@
     <t>1349104000000</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
     <t>84423000</t>
   </si>
   <si>
@@ -1126,10 +1099,112 @@
     <t>2698208000000</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
     <t>94380000</t>
+  </si>
+  <si>
+    <t>10051</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>幻影钳虫</t>
+  </si>
+  <si>
+    <t>65285210000</t>
+  </si>
+  <si>
+    <t>13057042000</t>
+  </si>
+  <si>
+    <t>5396416000000</t>
+  </si>
+  <si>
+    <t>104920499</t>
+  </si>
+  <si>
+    <t>10052</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>幻影蠕虫</t>
+  </si>
+  <si>
+    <t>91825420000</t>
+  </si>
+  <si>
+    <t>18365084000</t>
+  </si>
+  <si>
+    <t>10792832000000</t>
+  </si>
+  <si>
+    <t>116058000</t>
+  </si>
+  <si>
+    <t>10053</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>幻影黑猪</t>
+  </si>
+  <si>
+    <t>129154960000</t>
+  </si>
+  <si>
+    <t>25830992000</t>
+  </si>
+  <si>
+    <t>21585664000000</t>
+  </si>
+  <si>
+    <t>127806000</t>
+  </si>
+  <si>
+    <t>10054</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>幻影红猪</t>
+  </si>
+  <si>
+    <t>181659970000</t>
+  </si>
+  <si>
+    <t>36331994000</t>
+  </si>
+  <si>
+    <t>43171328000000</t>
+  </si>
+  <si>
+    <t>140178000</t>
+  </si>
+  <si>
+    <t>10055</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>幻影蝎蛇</t>
+  </si>
+  <si>
+    <t>255509700000</t>
+  </si>
+  <si>
+    <t>51101940000</t>
+  </si>
+  <si>
+    <t>86342656000000</t>
+  </si>
+  <si>
+    <t>153187500</t>
   </si>
 </sst>
 </file>
@@ -2088,10 +2163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J43" sqref="J$1:L$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2101,9 +2176,10 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="15.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="2" customWidth="1"/>
     <col min="10" max="12" width="12.125" style="2" customWidth="1"/>
     <col min="13" max="13" width="16.375" style="2" customWidth="1"/>
     <col min="14" max="14" width="13" style="2" customWidth="1"/>
@@ -2865,7 +2941,7 @@
         <v>122</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I45" si="0">(D21-1014)*3</f>
+        <f t="shared" ref="I21:I60" si="0">(D21-1014)*3</f>
         <v>3</v>
       </c>
       <c r="J21">
@@ -3866,23 +3942,24 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
         <v>298</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>299</v>
-      </c>
       <c r="N46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -3894,40 +3971,41 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" t="s">
         <v>300</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>301</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>302</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>303</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>304</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
         <v>305</v>
       </c>
-      <c r="I47" t="s">
-        <v>306</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
-        <v>307</v>
-      </c>
       <c r="N47" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -3939,40 +4017,41 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
+        <v>306</v>
+      </c>
+      <c r="D48" t="s">
+        <v>307</v>
+      </c>
+      <c r="E48" t="s">
         <v>308</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>309</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>310</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>311</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
         <v>312</v>
       </c>
-      <c r="H48" t="s">
-        <v>313</v>
-      </c>
-      <c r="I48" t="s">
-        <v>314</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>315</v>
-      </c>
       <c r="N48" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -3984,40 +4063,41 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" t="s">
+        <v>314</v>
+      </c>
+      <c r="E49" t="s">
+        <v>315</v>
+      </c>
+      <c r="F49" t="s">
         <v>316</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
         <v>317</v>
       </c>
-      <c r="E49" t="s">
+      <c r="H49" t="s">
         <v>318</v>
       </c>
-      <c r="F49" t="s">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
         <v>319</v>
       </c>
-      <c r="G49" t="s">
-        <v>320</v>
-      </c>
-      <c r="H49" t="s">
-        <v>321</v>
-      </c>
-      <c r="I49" t="s">
-        <v>322</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>323</v>
-      </c>
       <c r="N49" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -4029,40 +4109,41 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" t="s">
+        <v>321</v>
+      </c>
+      <c r="E50" t="s">
+        <v>322</v>
+      </c>
+      <c r="F50" t="s">
+        <v>323</v>
+      </c>
+      <c r="G50" t="s">
         <v>324</v>
       </c>
-      <c r="D50" t="s">
+      <c r="H50" t="s">
         <v>325</v>
       </c>
-      <c r="E50" t="s">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
         <v>326</v>
       </c>
-      <c r="F50" t="s">
-        <v>327</v>
-      </c>
-      <c r="G50" t="s">
-        <v>328</v>
-      </c>
-      <c r="H50" t="s">
-        <v>329</v>
-      </c>
-      <c r="I50" t="s">
-        <v>330</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50" t="s">
-        <v>331</v>
-      </c>
       <c r="N50" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -4074,40 +4155,44 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
+        <v>327</v>
+      </c>
+      <c r="D51" t="s">
+        <v>328</v>
+      </c>
+      <c r="E51" t="s">
+        <v>329</v>
+      </c>
+      <c r="F51" t="s">
+        <v>330</v>
+      </c>
+      <c r="G51" t="s">
+        <v>331</v>
+      </c>
+      <c r="H51" t="s">
         <v>332</v>
       </c>
-      <c r="D51" t="s">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ref="J51:J60" si="1">(D51-1044)*3</f>
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ref="K51:K60" si="2">(D51-1044)*5</f>
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ref="L51:L60" si="3">(D51-1044)*5</f>
+        <v>5</v>
+      </c>
+      <c r="M51" t="s">
         <v>333</v>
       </c>
-      <c r="E51" t="s">
-        <v>334</v>
-      </c>
-      <c r="F51" t="s">
-        <v>335</v>
-      </c>
-      <c r="G51" t="s">
-        <v>336</v>
-      </c>
-      <c r="H51" t="s">
-        <v>337</v>
-      </c>
-      <c r="I51" t="s">
-        <v>338</v>
-      </c>
-      <c r="J51">
-        <v>3</v>
-      </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
-      <c r="L51">
-        <v>5</v>
-      </c>
-      <c r="M51" t="s">
-        <v>339</v>
-      </c>
       <c r="N51" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -4119,40 +4204,44 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
+        <v>334</v>
+      </c>
+      <c r="D52" t="s">
+        <v>335</v>
+      </c>
+      <c r="E52" t="s">
+        <v>336</v>
+      </c>
+      <c r="F52" t="s">
+        <v>337</v>
+      </c>
+      <c r="G52" t="s">
+        <v>338</v>
+      </c>
+      <c r="H52" t="s">
+        <v>339</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M52" t="s">
         <v>340</v>
       </c>
-      <c r="D52" t="s">
-        <v>341</v>
-      </c>
-      <c r="E52" t="s">
-        <v>342</v>
-      </c>
-      <c r="F52" t="s">
-        <v>343</v>
-      </c>
-      <c r="G52" t="s">
-        <v>344</v>
-      </c>
-      <c r="H52" t="s">
-        <v>345</v>
-      </c>
-      <c r="I52" t="s">
-        <v>346</v>
-      </c>
-      <c r="J52">
-        <v>6</v>
-      </c>
-      <c r="K52">
-        <v>10</v>
-      </c>
-      <c r="L52">
-        <v>10</v>
-      </c>
-      <c r="M52" t="s">
-        <v>347</v>
-      </c>
       <c r="N52" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -4164,40 +4253,44 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D53" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E53" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F53" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G53" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H53" t="s">
-        <v>353</v>
-      </c>
-      <c r="I53" t="s">
-        <v>354</v>
+        <v>346</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="J53">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K53">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="L53">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="N53" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -4209,40 +4302,44 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D54" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E54" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F54" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G54" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H54" t="s">
-        <v>361</v>
-      </c>
-      <c r="I54" t="s">
-        <v>362</v>
+        <v>353</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="J54">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K54">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L54">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="N54" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -4254,46 +4351,295 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D55" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E55" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F55" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G55" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H55" t="s">
-        <v>369</v>
-      </c>
-      <c r="I55" t="s">
-        <v>370</v>
+        <v>360</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="J55">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K55">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="L55">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="M55" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="N55" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
+    </row>
+    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s">
+        <v>362</v>
+      </c>
+      <c r="D56" t="s">
+        <v>363</v>
+      </c>
+      <c r="E56" t="s">
+        <v>364</v>
+      </c>
+      <c r="F56" t="s">
+        <v>365</v>
+      </c>
+      <c r="G56" t="s">
+        <v>366</v>
+      </c>
+      <c r="H56" t="s">
+        <v>367</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="M56" t="s">
+        <v>368</v>
+      </c>
+      <c r="N56" t="s">
+        <v>368</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s">
+        <v>369</v>
+      </c>
+      <c r="D57" t="s">
+        <v>370</v>
+      </c>
+      <c r="E57" t="s">
+        <v>371</v>
+      </c>
+      <c r="F57" t="s">
+        <v>372</v>
+      </c>
+      <c r="G57" t="s">
+        <v>373</v>
+      </c>
+      <c r="H57" t="s">
+        <v>374</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="M57" t="s">
+        <v>375</v>
+      </c>
+      <c r="N57" t="s">
+        <v>375</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" t="s">
+        <v>377</v>
+      </c>
+      <c r="E58" t="s">
+        <v>378</v>
+      </c>
+      <c r="F58" t="s">
+        <v>379</v>
+      </c>
+      <c r="G58" t="s">
+        <v>380</v>
+      </c>
+      <c r="H58" t="s">
+        <v>381</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="M58" t="s">
+        <v>382</v>
+      </c>
+      <c r="N58" t="s">
+        <v>382</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s">
+        <v>383</v>
+      </c>
+      <c r="D59" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" t="s">
+        <v>385</v>
+      </c>
+      <c r="F59" t="s">
+        <v>386</v>
+      </c>
+      <c r="G59" t="s">
+        <v>387</v>
+      </c>
+      <c r="H59" t="s">
+        <v>388</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="M59" t="s">
+        <v>389</v>
+      </c>
+      <c r="N59" t="s">
+        <v>389</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s">
+        <v>390</v>
+      </c>
+      <c r="D60" t="s">
+        <v>391</v>
+      </c>
+      <c r="E60" t="s">
+        <v>392</v>
+      </c>
+      <c r="F60" t="s">
+        <v>393</v>
+      </c>
+      <c r="G60" t="s">
+        <v>394</v>
+      </c>
+      <c r="H60" t="s">
+        <v>395</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="M60" t="s">
+        <v>396</v>
+      </c>
+      <c r="N60" t="s">
+        <v>396</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="396">
   <si>
     <t>ID</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>100</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>10002</t>
@@ -2165,8 +2162,8 @@
   <sheetPr/>
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2361,14 +2358,14 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2391,22 +2388,22 @@
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:14">
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2421,31 +2418,31 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:14">
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
@@ -2459,30 +2456,30 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="3:14">
       <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2497,31 +2494,31 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:14">
       <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
@@ -2535,107 +2532,107 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:14">
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>52</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>53</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>54</v>
-      </c>
       <c r="N11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:14">
       <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>59</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>60</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>61</v>
-      </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:14">
       <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>63</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>66</v>
       </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
@@ -2649,296 +2646,296 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:14">
       <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>71</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>72</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>73</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>74</v>
-      </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:14">
       <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>77</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>78</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>79</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
         <v>80</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>81</v>
-      </c>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:14">
       <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
         <v>82</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>83</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>84</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>86</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
         <v>87</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>88</v>
-      </c>
       <c r="N16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:14">
       <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
         <v>89</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>90</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>91</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>92</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>93</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
         <v>94</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>95</v>
-      </c>
       <c r="N17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:14">
       <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>97</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>98</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>99</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>100</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>101</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>102</v>
-      </c>
       <c r="N18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:14">
       <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>104</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>105</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>107</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
         <v>108</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>109</v>
-      </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:14">
       <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
         <v>110</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>111</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>112</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>113</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>114</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
         <v>115</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>116</v>
-      </c>
       <c r="N20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:14">
       <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
         <v>117</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>118</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>119</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>120</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>121</v>
-      </c>
-      <c r="H21" t="s">
-        <v>122</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I60" si="0">(D21-1014)*3</f>
@@ -2954,30 +2951,30 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:14">
       <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
         <v>124</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>125</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>126</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>127</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>128</v>
-      </c>
-      <c r="H22" t="s">
-        <v>129</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -2993,30 +2990,30 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:14">
       <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
         <v>131</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>132</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>133</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>134</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>135</v>
-      </c>
-      <c r="H23" t="s">
-        <v>136</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -3032,30 +3029,30 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:14">
       <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
         <v>138</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>139</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>140</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>141</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>142</v>
-      </c>
-      <c r="H24" t="s">
-        <v>143</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
@@ -3071,30 +3068,30 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:14">
       <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
         <v>145</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>146</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>147</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>148</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>149</v>
-      </c>
-      <c r="H25" t="s">
-        <v>150</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
@@ -3110,30 +3107,30 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:14">
       <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" t="s">
         <v>152</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>153</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>154</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>155</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>156</v>
-      </c>
-      <c r="H26" t="s">
-        <v>157</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
@@ -3149,30 +3146,30 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:14">
       <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" t="s">
         <v>159</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>160</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>161</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>162</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>163</v>
-      </c>
-      <c r="H27" t="s">
-        <v>164</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
@@ -3188,30 +3185,30 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:14">
       <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
         <v>166</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>167</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>168</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>169</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>170</v>
-      </c>
-      <c r="H28" t="s">
-        <v>171</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -3227,30 +3224,30 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:14">
       <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" t="s">
         <v>173</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>174</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>175</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>176</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>177</v>
-      </c>
-      <c r="H29" t="s">
-        <v>178</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -3266,30 +3263,30 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:14">
       <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
         <v>180</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>181</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>182</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>183</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>184</v>
-      </c>
-      <c r="H30" t="s">
-        <v>185</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
@@ -3305,30 +3302,30 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:14">
       <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" t="s">
         <v>187</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>188</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>189</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>190</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>191</v>
-      </c>
-      <c r="H31" t="s">
-        <v>192</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
@@ -3344,30 +3341,30 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:14">
       <c r="C32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" t="s">
         <v>194</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>195</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>196</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>197</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>198</v>
-      </c>
-      <c r="H32" t="s">
-        <v>199</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
@@ -3383,30 +3380,30 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:14">
       <c r="C33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" t="s">
         <v>201</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>202</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>203</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>204</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>205</v>
-      </c>
-      <c r="H33" t="s">
-        <v>206</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
@@ -3422,30 +3419,30 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:14">
       <c r="C34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" t="s">
         <v>208</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>209</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>210</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>211</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>212</v>
-      </c>
-      <c r="H34" t="s">
-        <v>213</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
@@ -3461,30 +3458,30 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:14">
       <c r="C35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s">
         <v>215</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>216</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>217</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>218</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>219</v>
-      </c>
-      <c r="H35" t="s">
-        <v>220</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
@@ -3500,30 +3497,30 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:14">
       <c r="C36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" t="s">
         <v>222</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>223</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>224</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>225</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>226</v>
-      </c>
-      <c r="H36" t="s">
-        <v>227</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
@@ -3539,30 +3536,30 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:14">
       <c r="C37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" t="s">
         <v>229</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>230</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>231</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>232</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>233</v>
-      </c>
-      <c r="H37" t="s">
-        <v>234</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
@@ -3578,30 +3575,30 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:14">
       <c r="C38" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" t="s">
         <v>236</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>237</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>238</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>239</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>240</v>
-      </c>
-      <c r="H38" t="s">
-        <v>241</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
@@ -3617,30 +3614,30 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:14">
       <c r="C39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" t="s">
         <v>243</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>244</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>245</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>246</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>247</v>
-      </c>
-      <c r="H39" t="s">
-        <v>248</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
@@ -3656,30 +3653,30 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:14">
       <c r="C40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" t="s">
         <v>250</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>251</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>252</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>253</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>254</v>
-      </c>
-      <c r="H40" t="s">
-        <v>255</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
@@ -3695,32 +3692,32 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:19">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" t="s">
         <v>257</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>258</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>259</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>260</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>261</v>
-      </c>
-      <c r="H41" t="s">
-        <v>262</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
@@ -3736,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -3749,22 +3746,22 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" t="s">
         <v>264</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>265</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>266</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>267</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>268</v>
-      </c>
-      <c r="H42" t="s">
-        <v>269</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
@@ -3780,10 +3777,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -3793,22 +3790,22 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" t="s">
         <v>271</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>272</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>273</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>274</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>275</v>
-      </c>
-      <c r="H43" t="s">
-        <v>276</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
@@ -3824,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -3837,22 +3834,22 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" t="s">
         <v>278</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>279</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>280</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>281</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>282</v>
-      </c>
-      <c r="H44" t="s">
-        <v>283</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
@@ -3868,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -3881,22 +3878,22 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" t="s">
         <v>285</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>286</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>287</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>288</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>289</v>
-      </c>
-      <c r="H45" t="s">
-        <v>290</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
@@ -3912,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -3925,22 +3922,22 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" t="s">
         <v>292</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>293</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>294</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>295</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>296</v>
-      </c>
-      <c r="H46" t="s">
-        <v>297</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
@@ -3956,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -3971,22 +3968,22 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" t="s">
         <v>299</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>300</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>301</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>302</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>303</v>
-      </c>
-      <c r="H47" t="s">
-        <v>304</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
@@ -4002,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -4017,22 +4014,22 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
+        <v>305</v>
+      </c>
+      <c r="D48" t="s">
         <v>306</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>307</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>308</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>309</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>310</v>
-      </c>
-      <c r="H48" t="s">
-        <v>311</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
@@ -4048,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -4063,22 +4060,22 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
+        <v>312</v>
+      </c>
+      <c r="D49" t="s">
         <v>313</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>314</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>315</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>317</v>
-      </c>
-      <c r="H49" t="s">
-        <v>318</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
@@ -4094,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -4109,22 +4106,22 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
+        <v>319</v>
+      </c>
+      <c r="D50" t="s">
         <v>320</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>321</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>322</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>323</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>324</v>
-      </c>
-      <c r="H50" t="s">
-        <v>325</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
@@ -4140,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -4155,22 +4152,22 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" t="s">
         <v>327</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>328</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>329</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>330</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>331</v>
-      </c>
-      <c r="H51" t="s">
-        <v>332</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
@@ -4189,10 +4186,10 @@
         <v>5</v>
       </c>
       <c r="M51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -4204,22 +4201,22 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
+        <v>333</v>
+      </c>
+      <c r="D52" t="s">
         <v>334</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>335</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>336</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>337</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>338</v>
-      </c>
-      <c r="H52" t="s">
-        <v>339</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
@@ -4238,10 +4235,10 @@
         <v>10</v>
       </c>
       <c r="M52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -4253,22 +4250,22 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
+        <v>340</v>
+      </c>
+      <c r="D53" t="s">
         <v>341</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>342</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>343</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>344</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>345</v>
-      </c>
-      <c r="H53" t="s">
-        <v>346</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
@@ -4287,10 +4284,10 @@
         <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -4302,22 +4299,22 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" t="s">
         <v>348</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>349</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>350</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>351</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>352</v>
-      </c>
-      <c r="H54" t="s">
-        <v>353</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
@@ -4336,10 +4333,10 @@
         <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -4351,22 +4348,22 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
+        <v>354</v>
+      </c>
+      <c r="D55" t="s">
         <v>355</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>356</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>357</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>358</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>359</v>
-      </c>
-      <c r="H55" t="s">
-        <v>360</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
@@ -4385,10 +4382,10 @@
         <v>25</v>
       </c>
       <c r="M55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -4400,22 +4397,22 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
+        <v>361</v>
+      </c>
+      <c r="D56" t="s">
         <v>362</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>363</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>364</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>365</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>366</v>
-      </c>
-      <c r="H56" t="s">
-        <v>367</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
@@ -4434,10 +4431,10 @@
         <v>30</v>
       </c>
       <c r="M56" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N56" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -4449,22 +4446,22 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
+        <v>368</v>
+      </c>
+      <c r="D57" t="s">
         <v>369</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>370</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>371</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>372</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>373</v>
-      </c>
-      <c r="H57" t="s">
-        <v>374</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
@@ -4483,10 +4480,10 @@
         <v>35</v>
       </c>
       <c r="M57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -4498,22 +4495,22 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
+        <v>375</v>
+      </c>
+      <c r="D58" t="s">
         <v>376</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>377</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>378</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>379</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>380</v>
-      </c>
-      <c r="H58" t="s">
-        <v>381</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
@@ -4532,10 +4529,10 @@
         <v>40</v>
       </c>
       <c r="M58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -4547,22 +4544,22 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
+        <v>382</v>
+      </c>
+      <c r="D59" t="s">
         <v>383</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>384</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>385</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>386</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>387</v>
-      </c>
-      <c r="H59" t="s">
-        <v>388</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
@@ -4581,10 +4578,10 @@
         <v>45</v>
       </c>
       <c r="M59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -4596,22 +4593,22 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
+        <v>389</v>
+      </c>
+      <c r="D60" t="s">
         <v>390</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>391</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>392</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>393</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>394</v>
-      </c>
-      <c r="H60" t="s">
-        <v>395</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
@@ -4630,10 +4627,10 @@
         <v>50</v>
       </c>
       <c r="M60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="431">
   <si>
     <t>ID</t>
   </si>
@@ -1202,6 +1202,111 @@
   </si>
   <si>
     <t>153187500</t>
+  </si>
+  <si>
+    <t>10056</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>幻影火焰</t>
+  </si>
+  <si>
+    <t>359381360000</t>
+  </si>
+  <si>
+    <t>71876272000</t>
+  </si>
+  <si>
+    <t>164051046400000</t>
+  </si>
+  <si>
+    <t>156928000</t>
+  </si>
+  <si>
+    <t>10057</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>幻影勇士</t>
+  </si>
+  <si>
+    <t>505479680000</t>
+  </si>
+  <si>
+    <t>101095936000</t>
+  </si>
+  <si>
+    <t>311696988100000</t>
+  </si>
+  <si>
+    <t>160737000</t>
+  </si>
+  <si>
+    <t>10058</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>幻影雕像</t>
+  </si>
+  <si>
+    <t>710970940000</t>
+  </si>
+  <si>
+    <t>142194188000</t>
+  </si>
+  <si>
+    <t>592224277500000</t>
+  </si>
+  <si>
+    <t>164619000</t>
+  </si>
+  <si>
+    <t>10059</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>幻影卫士</t>
+  </si>
+  <si>
+    <t>1000000000000</t>
+  </si>
+  <si>
+    <t>200000000000</t>
+  </si>
+  <si>
+    <t>1125226127200000</t>
+  </si>
+  <si>
+    <t>168578500</t>
+  </si>
+  <si>
+    <t>10060</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>幻影魔猪</t>
+  </si>
+  <si>
+    <t>1406527240000</t>
+  </si>
+  <si>
+    <t>281305448000</t>
+  </si>
+  <si>
+    <t>2137929641700000</t>
+  </si>
+  <si>
+    <t>172620000</t>
   </si>
 </sst>
 </file>
@@ -2160,10 +2265,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2938,7 +3043,7 @@
         <v>121</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I60" si="0">(D21-1014)*3</f>
+        <f t="shared" ref="I21:I65" si="0">(D21-1014)*3</f>
         <v>3</v>
       </c>
       <c r="J21">
@@ -4174,15 +4279,15 @@
         <v>93</v>
       </c>
       <c r="J51">
-        <f t="shared" ref="J51:J60" si="1">(D51-1044)*3</f>
+        <f t="shared" ref="J51:J65" si="1">(D51-1044)*3</f>
         <v>3</v>
       </c>
       <c r="K51">
-        <f t="shared" ref="K51:K60" si="2">(D51-1044)*5</f>
+        <f t="shared" ref="K51:K65" si="2">(D51-1044)*5</f>
         <v>5</v>
       </c>
       <c r="L51">
-        <f t="shared" ref="L51:L60" si="3">(D51-1044)*5</f>
+        <f t="shared" ref="L51:L65" si="3">(D51-1044)*5</f>
         <v>5</v>
       </c>
       <c r="M51" t="s">
@@ -4637,6 +4742,251 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
+    </row>
+    <row r="61" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s">
+        <v>396</v>
+      </c>
+      <c r="D61" t="s">
+        <v>397</v>
+      </c>
+      <c r="E61" t="s">
+        <v>398</v>
+      </c>
+      <c r="F61" t="s">
+        <v>399</v>
+      </c>
+      <c r="G61" t="s">
+        <v>400</v>
+      </c>
+      <c r="H61" t="s">
+        <v>401</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="M61" t="s">
+        <v>402</v>
+      </c>
+      <c r="N61" t="s">
+        <v>402</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s">
+        <v>403</v>
+      </c>
+      <c r="D62" t="s">
+        <v>404</v>
+      </c>
+      <c r="E62" t="s">
+        <v>405</v>
+      </c>
+      <c r="F62" t="s">
+        <v>406</v>
+      </c>
+      <c r="G62" t="s">
+        <v>407</v>
+      </c>
+      <c r="H62" t="s">
+        <v>408</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="M62" t="s">
+        <v>409</v>
+      </c>
+      <c r="N62" t="s">
+        <v>409</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s">
+        <v>410</v>
+      </c>
+      <c r="D63" t="s">
+        <v>411</v>
+      </c>
+      <c r="E63" t="s">
+        <v>412</v>
+      </c>
+      <c r="F63" t="s">
+        <v>413</v>
+      </c>
+      <c r="G63" t="s">
+        <v>414</v>
+      </c>
+      <c r="H63" t="s">
+        <v>415</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="M63" t="s">
+        <v>416</v>
+      </c>
+      <c r="N63" t="s">
+        <v>416</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s">
+        <v>417</v>
+      </c>
+      <c r="D64" t="s">
+        <v>418</v>
+      </c>
+      <c r="E64" t="s">
+        <v>419</v>
+      </c>
+      <c r="F64" t="s">
+        <v>420</v>
+      </c>
+      <c r="G64" t="s">
+        <v>421</v>
+      </c>
+      <c r="H64" t="s">
+        <v>422</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="M64" t="s">
+        <v>423</v>
+      </c>
+      <c r="N64" t="s">
+        <v>423</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s">
+        <v>424</v>
+      </c>
+      <c r="D65" t="s">
+        <v>425</v>
+      </c>
+      <c r="E65" t="s">
+        <v>426</v>
+      </c>
+      <c r="F65" t="s">
+        <v>427</v>
+      </c>
+      <c r="G65" t="s">
+        <v>428</v>
+      </c>
+      <c r="H65" t="s">
+        <v>429</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="M65" t="s">
+        <v>430</v>
+      </c>
+      <c r="N65" t="s">
+        <v>430</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="461">
   <si>
     <t>ID</t>
   </si>
@@ -1303,16 +1316,106 @@
     <t>281305448000</t>
   </si>
   <si>
-    <t>2137929641700000</t>
+    <t>2140000000000000</t>
   </si>
   <si>
     <t>172620000</t>
+  </si>
+  <si>
+    <t>10061</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>幻影树妖</t>
+  </si>
+  <si>
+    <t>1978318880000</t>
+  </si>
+  <si>
+    <t>395663776000</t>
+  </si>
+  <si>
+    <t>176748000</t>
+  </si>
+  <si>
+    <t>10062</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>幻影侍卫</t>
+  </si>
+  <si>
+    <t>2782559400000</t>
+  </si>
+  <si>
+    <t>556511880000</t>
+  </si>
+  <si>
+    <t>180967000</t>
+  </si>
+  <si>
+    <t>10063</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>幻影剧毒</t>
+  </si>
+  <si>
+    <t>3913745600000</t>
+  </si>
+  <si>
+    <t>782749120000</t>
+  </si>
+  <si>
+    <t>185281500</t>
+  </si>
+  <si>
+    <t>10064</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>幻影锤兵</t>
+  </si>
+  <si>
+    <t>5504789800000</t>
+  </si>
+  <si>
+    <t>1100957960000</t>
+  </si>
+  <si>
+    <t>189696000</t>
+  </si>
+  <si>
+    <t>10065</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>幻影将军</t>
+  </si>
+  <si>
+    <t>7742636820000</t>
+  </si>
+  <si>
+    <t>1548527364000</t>
+  </si>
+  <si>
+    <t>194215000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1946,6 +2049,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2265,10 +2369,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2278,9 +2382,9 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.875" style="2" customWidth="1"/>
     <col min="10" max="12" width="12.125" style="2" customWidth="1"/>
     <col min="13" max="13" width="16.375" style="2" customWidth="1"/>
@@ -3043,7 +3147,7 @@
         <v>121</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I65" si="0">(D21-1014)*3</f>
+        <f t="shared" ref="I21:I66" si="0">(D21-1014)*3</f>
         <v>3</v>
       </c>
       <c r="J21">
@@ -4283,7 +4387,7 @@
         <v>3</v>
       </c>
       <c r="K51">
-        <f t="shared" ref="K51:K65" si="2">(D51-1044)*5</f>
+        <f t="shared" ref="K51:K70" si="2">(D51-1044)*5</f>
         <v>5</v>
       </c>
       <c r="L51">
@@ -4957,7 +5061,7 @@
       <c r="G65" t="s">
         <v>428</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I65">
@@ -4987,6 +5091,259 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
+    </row>
+    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s">
+        <v>431</v>
+      </c>
+      <c r="D66" t="s">
+        <v>432</v>
+      </c>
+      <c r="E66" t="s">
+        <v>433</v>
+      </c>
+      <c r="F66" t="s">
+        <v>434</v>
+      </c>
+      <c r="G66" t="s">
+        <v>435</v>
+      </c>
+      <c r="H66">
+        <f>H65*2.2</f>
+        <v>4708000000000000</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:L66" si="4">I65+5</f>
+        <v>140</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J70" si="5">J65+5</f>
+        <v>50</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="M66" t="s">
+        <v>436</v>
+      </c>
+      <c r="N66" t="s">
+        <v>436</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s">
+        <v>437</v>
+      </c>
+      <c r="D67" t="s">
+        <v>438</v>
+      </c>
+      <c r="E67" t="s">
+        <v>439</v>
+      </c>
+      <c r="F67" t="s">
+        <v>440</v>
+      </c>
+      <c r="G67" t="s">
+        <v>441</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H66:H71" si="6">H66*2.2</f>
+        <v>1.03576e+16</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I66:I70" si="7">I66+5</f>
+        <v>145</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K66:K70" si="8">K66+5</f>
+        <v>85</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L70" si="9">L66+5</f>
+        <v>85</v>
+      </c>
+      <c r="M67" t="s">
+        <v>442</v>
+      </c>
+      <c r="N67" t="s">
+        <v>442</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s">
+        <v>443</v>
+      </c>
+      <c r="D68" t="s">
+        <v>444</v>
+      </c>
+      <c r="E68" t="s">
+        <v>445</v>
+      </c>
+      <c r="F68" t="s">
+        <v>446</v>
+      </c>
+      <c r="G68" t="s">
+        <v>447</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>2.278672e+16</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="M68" t="s">
+        <v>448</v>
+      </c>
+      <c r="N68" t="s">
+        <v>448</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s">
+        <v>449</v>
+      </c>
+      <c r="D69" t="s">
+        <v>450</v>
+      </c>
+      <c r="E69" t="s">
+        <v>451</v>
+      </c>
+      <c r="F69" t="s">
+        <v>452</v>
+      </c>
+      <c r="G69" t="s">
+        <v>453</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>5.0130784e+16</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="M69" t="s">
+        <v>454</v>
+      </c>
+      <c r="N69" t="s">
+        <v>454</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s">
+        <v>455</v>
+      </c>
+      <c r="D70" t="s">
+        <v>456</v>
+      </c>
+      <c r="E70" t="s">
+        <v>457</v>
+      </c>
+      <c r="F70" t="s">
+        <v>458</v>
+      </c>
+      <c r="G70" t="s">
+        <v>459</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>1.102877248e+17</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="M70" t="s">
+        <v>460</v>
+      </c>
+      <c r="N70" t="s">
+        <v>460</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="8:8">
+      <c r="H71"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="462">
   <si>
     <t>ID</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>double</t>
   </si>
   <si>
     <t>long</t>
@@ -2371,8 +2374,8 @@
   <sheetPr/>
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="F5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2548,10 +2551,10 @@
         <v>20</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -2559,13 +2562,13 @@
     </row>
     <row r="6" ht="24" customHeight="1" spans="3:14">
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2589,106 +2592,106 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:14">
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
       <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>31</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:14">
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>36</v>
       </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>35</v>
-      </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="3:14">
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2703,68 +2706,68 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:14">
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>46</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>45</v>
-      </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:14">
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2779,30 +2782,30 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:14">
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2817,30 +2820,30 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:14">
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2855,30 +2858,30 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:14">
       <c r="C14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2893,30 +2896,30 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:14">
       <c r="C15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2931,30 +2934,30 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:14">
       <c r="C16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2969,30 +2972,30 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:14">
       <c r="C17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3007,30 +3010,30 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:14">
       <c r="C18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3045,30 +3048,30 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:14">
       <c r="C19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3083,30 +3086,30 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:14">
       <c r="C20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3121,30 +3124,30 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:14">
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I66" si="0">(D21-1014)*3</f>
@@ -3160,30 +3163,30 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:14">
       <c r="C22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -3199,30 +3202,30 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:14">
       <c r="C23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -3238,30 +3241,30 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:14">
       <c r="C24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
@@ -3277,30 +3280,30 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:14">
       <c r="C25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
@@ -3316,30 +3319,30 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:14">
       <c r="C26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
@@ -3355,30 +3358,30 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:14">
       <c r="C27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
@@ -3394,30 +3397,30 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:14">
       <c r="C28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -3433,30 +3436,30 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:14">
       <c r="C29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -3472,30 +3475,30 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:14">
       <c r="C30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
@@ -3511,30 +3514,30 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:14">
       <c r="C31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
@@ -3550,30 +3553,30 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:14">
       <c r="C32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
@@ -3589,30 +3592,30 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:14">
       <c r="C33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
@@ -3628,30 +3631,30 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:14">
       <c r="C34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
@@ -3667,30 +3670,30 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:14">
       <c r="C35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
@@ -3706,30 +3709,30 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:14">
       <c r="C36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
@@ -3745,30 +3748,30 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:14">
       <c r="C37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
@@ -3784,30 +3787,30 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:14">
       <c r="C38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
@@ -3823,30 +3826,30 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:14">
       <c r="C39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
@@ -3862,30 +3865,30 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:14">
       <c r="C40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
@@ -3901,32 +3904,32 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:19">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
@@ -3942,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -3955,22 +3958,22 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F42" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G42" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
@@ -3986,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -3999,22 +4002,22 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
@@ -4030,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -4043,22 +4046,22 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
@@ -4074,10 +4077,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N44" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -4087,22 +4090,22 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D45" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
@@ -4118,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N45" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -4131,22 +4134,22 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G46" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H46" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
@@ -4162,10 +4165,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -4177,22 +4180,22 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D47" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F47" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G47" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H47" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
@@ -4208,10 +4211,10 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N47" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -4223,22 +4226,22 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H48" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
@@ -4254,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N48" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -4269,22 +4272,22 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F49" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
@@ -4300,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N49" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -4315,22 +4318,22 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E50" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F50" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H50" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
@@ -4346,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -4361,22 +4364,22 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H51" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
@@ -4395,10 +4398,10 @@
         <v>5</v>
       </c>
       <c r="M51" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N51" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -4410,22 +4413,22 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D52" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E52" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F52" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G52" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H52" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
@@ -4444,10 +4447,10 @@
         <v>10</v>
       </c>
       <c r="M52" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N52" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -4459,22 +4462,22 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D53" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E53" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F53" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G53" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H53" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
@@ -4493,10 +4496,10 @@
         <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N53" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -4508,22 +4511,22 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D54" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E54" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F54" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G54" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H54" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
@@ -4542,10 +4545,10 @@
         <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -4557,22 +4560,22 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D55" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E55" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F55" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G55" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H55" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
@@ -4591,10 +4594,10 @@
         <v>25</v>
       </c>
       <c r="M55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -4606,22 +4609,22 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E56" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F56" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G56" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H56" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
@@ -4640,10 +4643,10 @@
         <v>30</v>
       </c>
       <c r="M56" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N56" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -4655,22 +4658,22 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D57" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E57" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F57" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H57" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
@@ -4689,10 +4692,10 @@
         <v>35</v>
       </c>
       <c r="M57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -4704,22 +4707,22 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E58" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F58" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H58" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
@@ -4738,10 +4741,10 @@
         <v>40</v>
       </c>
       <c r="M58" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N58" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -4753,22 +4756,22 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D59" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E59" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F59" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G59" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H59" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
@@ -4787,10 +4790,10 @@
         <v>45</v>
       </c>
       <c r="M59" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N59" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -4802,22 +4805,22 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E60" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F60" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G60" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H60" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
@@ -4836,10 +4839,10 @@
         <v>50</v>
       </c>
       <c r="M60" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N60" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -4851,22 +4854,22 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E61" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F61" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G61" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H61" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
@@ -4885,10 +4888,10 @@
         <v>55</v>
       </c>
       <c r="M61" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N61" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -4900,22 +4903,22 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D62" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E62" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F62" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G62" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H62" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
@@ -4934,10 +4937,10 @@
         <v>60</v>
       </c>
       <c r="M62" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N62" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -4949,22 +4952,22 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E63" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F63" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G63" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H63" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
@@ -4983,10 +4986,10 @@
         <v>65</v>
       </c>
       <c r="M63" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N63" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -4998,22 +5001,22 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D64" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E64" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F64" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G64" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H64" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
@@ -5032,10 +5035,10 @@
         <v>70</v>
       </c>
       <c r="M64" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N64" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -5047,22 +5050,22 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D65" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E65" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F65" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G65" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
@@ -5081,10 +5084,10 @@
         <v>75</v>
       </c>
       <c r="M65" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N65" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -5096,19 +5099,19 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D66" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E66" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F66" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G66" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H66">
         <f>H65*2.2</f>
@@ -5131,10 +5134,10 @@
         <v>80</v>
       </c>
       <c r="M66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -5146,19 +5149,19 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D67" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E67" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F67" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G67" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H66:H71" si="6">H66*2.2</f>
@@ -5181,10 +5184,10 @@
         <v>85</v>
       </c>
       <c r="M67" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N67" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -5196,19 +5199,19 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D68" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E68" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F68" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G68" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H68">
         <f t="shared" si="6"/>
@@ -5231,10 +5234,10 @@
         <v>90</v>
       </c>
       <c r="M68" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N68" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -5246,19 +5249,19 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D69" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E69" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F69" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G69" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H69">
         <f t="shared" si="6"/>
@@ -5281,10 +5284,10 @@
         <v>95</v>
       </c>
       <c r="M69" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N69" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -5296,19 +5299,19 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D70" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E70" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F70" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G70" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H70">
         <f t="shared" si="6"/>
@@ -5331,10 +5334,10 @@
         <v>100</v>
       </c>
       <c r="M70" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N70" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -5347,7 +5350,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5:H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="487">
   <si>
     <t>ID</t>
   </si>
@@ -1413,6 +1413,81 @@
   </si>
   <si>
     <t>194215000</t>
+  </si>
+  <si>
+    <t>10066</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>幻影钢牙</t>
+  </si>
+  <si>
+    <t>2178045924000</t>
+  </si>
+  <si>
+    <t>198369000</t>
+  </si>
+  <si>
+    <t>10067</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>幻影天狼</t>
+  </si>
+  <si>
+    <t>3063480926000</t>
+  </si>
+  <si>
+    <t>202940500</t>
+  </si>
+  <si>
+    <t>10068</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>幻影血巨人</t>
+  </si>
+  <si>
+    <t>4308869380000</t>
+  </si>
+  <si>
+    <t>207951999</t>
+  </si>
+  <si>
+    <t>10069</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>幻影魔龙兵</t>
+  </si>
+  <si>
+    <t>6060542164000</t>
+  </si>
+  <si>
+    <t>213426000</t>
+  </si>
+  <si>
+    <t>10070</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>幻影火龙兽</t>
+  </si>
+  <si>
+    <t>8524317658000</t>
+  </si>
+  <si>
+    <t>219385000</t>
   </si>
 </sst>
 </file>
@@ -2372,10 +2447,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="F5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5168,7 +5243,7 @@
         <v>1.03576e+16</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I66:I70" si="7">I66+5</f>
+        <f t="shared" ref="I66:I71" si="7">I66+5</f>
         <v>145</v>
       </c>
       <c r="J67">
@@ -5345,8 +5420,263 @@
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
     </row>
-    <row r="71" spans="8:8">
-      <c r="H71"/>
+    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s">
+        <v>462</v>
+      </c>
+      <c r="D71" t="s">
+        <v>463</v>
+      </c>
+      <c r="E71" t="s">
+        <v>464</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71:F75" si="10">F70*2</f>
+        <v>15485273640000</v>
+      </c>
+      <c r="G71" t="s">
+        <v>465</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ref="H71:H76" si="11">H70*1.4</f>
+        <v>1.5440281472e+17</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ref="I71:L71" si="12">I70+15</f>
+        <v>175</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="12"/>
+        <v>115</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="12"/>
+        <v>115</v>
+      </c>
+      <c r="M71" t="s">
+        <v>466</v>
+      </c>
+      <c r="N71" t="s">
+        <v>466</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s">
+        <v>467</v>
+      </c>
+      <c r="D72" t="s">
+        <v>468</v>
+      </c>
+      <c r="E72" t="s">
+        <v>469</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="10"/>
+        <v>30970547280000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>470</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="11"/>
+        <v>2.16163940608e+17</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ref="I71:I75" si="13">I71+15</f>
+        <v>190</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J75" si="14">J71+15</f>
+        <v>100</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ref="K72:K75" si="15">K71+15</f>
+        <v>130</v>
+      </c>
+      <c r="L72">
+        <f t="shared" ref="L72:L75" si="16">L71+15</f>
+        <v>130</v>
+      </c>
+      <c r="M72" t="s">
+        <v>471</v>
+      </c>
+      <c r="N72" t="s">
+        <v>471</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s">
+        <v>472</v>
+      </c>
+      <c r="D73" t="s">
+        <v>473</v>
+      </c>
+      <c r="E73" t="s">
+        <v>474</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="10"/>
+        <v>61941094560000</v>
+      </c>
+      <c r="G73" t="s">
+        <v>475</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="11"/>
+        <v>3.026295168512e+17</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="13"/>
+        <v>205</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="14"/>
+        <v>115</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="15"/>
+        <v>145</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="16"/>
+        <v>145</v>
+      </c>
+      <c r="M73" t="s">
+        <v>476</v>
+      </c>
+      <c r="N73" t="s">
+        <v>476</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s">
+        <v>477</v>
+      </c>
+      <c r="D74" t="s">
+        <v>478</v>
+      </c>
+      <c r="E74" t="s">
+        <v>479</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="10"/>
+        <v>123882189120000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>480</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="11"/>
+        <v>4.2368132359168e+17</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="13"/>
+        <v>220</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="14"/>
+        <v>130</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="15"/>
+        <v>160</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="16"/>
+        <v>160</v>
+      </c>
+      <c r="M74" t="s">
+        <v>481</v>
+      </c>
+      <c r="N74" t="s">
+        <v>481</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+    </row>
+    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s">
+        <v>482</v>
+      </c>
+      <c r="D75" t="s">
+        <v>483</v>
+      </c>
+      <c r="E75" t="s">
+        <v>484</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="10"/>
+        <v>247764378240000</v>
+      </c>
+      <c r="G75" t="s">
+        <v>485</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="11"/>
+        <v>5.93153853028352e+17</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="13"/>
+        <v>235</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="14"/>
+        <v>145</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="15"/>
+        <v>175</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="16"/>
+        <v>175</v>
+      </c>
+      <c r="M75" t="s">
+        <v>486</v>
+      </c>
+      <c r="N75">
+        <v>219385000</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="H76"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="501">
   <si>
     <t>ID</t>
   </si>
@@ -95,9 +95,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -1340,6 +1337,9 @@
     <t>395663776000</t>
   </si>
   <si>
+    <t>4700000000000000</t>
+  </si>
+  <si>
     <t>176748000</t>
   </si>
   <si>
@@ -1358,6 +1358,9 @@
     <t>556511880000</t>
   </si>
   <si>
+    <t>10000000000000000</t>
+  </si>
+  <si>
     <t>180967000</t>
   </si>
   <si>
@@ -1376,6 +1379,9 @@
     <t>782749120000</t>
   </si>
   <si>
+    <t>22000000000000000</t>
+  </si>
+  <si>
     <t>185281500</t>
   </si>
   <si>
@@ -1391,7 +1397,10 @@
     <t>5504789800000</t>
   </si>
   <si>
-    <t>1100957960000</t>
+    <t>1100000000000</t>
+  </si>
+  <si>
+    <t>48400000000000000</t>
   </si>
   <si>
     <t>189696000</t>
@@ -1406,10 +1415,13 @@
     <t>幻影将军</t>
   </si>
   <si>
-    <t>7742636820000</t>
-  </si>
-  <si>
-    <t>1548527364000</t>
+    <t>8000000000000</t>
+  </si>
+  <si>
+    <t>1500000000000</t>
+  </si>
+  <si>
+    <t>108400000000000000</t>
   </si>
   <si>
     <t>194215000</t>
@@ -1424,7 +1436,13 @@
     <t>幻影钢牙</t>
   </si>
   <si>
-    <t>2178045924000</t>
+    <t>16000000000000</t>
+  </si>
+  <si>
+    <t>2200000000000</t>
+  </si>
+  <si>
+    <t>140000000000000000</t>
   </si>
   <si>
     <t>198369000</t>
@@ -1439,7 +1457,13 @@
     <t>幻影天狼</t>
   </si>
   <si>
-    <t>3063480926000</t>
+    <t>32000000000000</t>
+  </si>
+  <si>
+    <t>3000000000000</t>
+  </si>
+  <si>
+    <t>200000000000000000</t>
   </si>
   <si>
     <t>202940500</t>
@@ -1454,7 +1478,13 @@
     <t>幻影血巨人</t>
   </si>
   <si>
-    <t>4308869380000</t>
+    <t>64000000000000</t>
+  </si>
+  <si>
+    <t>4300000000000</t>
+  </si>
+  <si>
+    <t>280000000000000000</t>
   </si>
   <si>
     <t>207951999</t>
@@ -1469,7 +1499,13 @@
     <t>幻影魔龙兵</t>
   </si>
   <si>
-    <t>6060542164000</t>
+    <t>128000000000000</t>
+  </si>
+  <si>
+    <t>6000000000000</t>
+  </si>
+  <si>
+    <t>400000000000000000</t>
   </si>
   <si>
     <t>213426000</t>
@@ -1484,7 +1520,13 @@
     <t>幻影火龙兽</t>
   </si>
   <si>
-    <t>8524317658000</t>
+    <t>256000000000000</t>
+  </si>
+  <si>
+    <t>8600000000000</t>
+  </si>
+  <si>
+    <t>600000000000000000</t>
   </si>
   <si>
     <t>219385000</t>
@@ -2449,8 +2491,8 @@
   <sheetPr/>
   <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="N75" sqref="N75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2605,13 +2647,13 @@
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>20</v>
@@ -2626,10 +2668,10 @@
         <v>20</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -2637,13 +2679,13 @@
     </row>
     <row r="6" ht="24" customHeight="1" spans="3:14">
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2667,31 +2709,31 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:14">
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
@@ -2705,31 +2747,31 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:14">
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
@@ -2743,31 +2785,31 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="3:14">
       <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
@@ -2781,31 +2823,31 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:14">
       <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
@@ -2819,107 +2861,107 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:14">
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>52</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>53</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>54</v>
-      </c>
       <c r="N11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:14">
       <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>59</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>60</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>61</v>
-      </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:14">
       <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>63</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>66</v>
       </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
@@ -2933,296 +2975,296 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:14">
       <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>71</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>72</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>73</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>74</v>
-      </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:14">
       <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>77</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>78</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>79</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
         <v>80</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>81</v>
-      </c>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:14">
       <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
         <v>82</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>83</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>84</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>86</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
         <v>87</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>88</v>
-      </c>
       <c r="N16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:14">
       <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
         <v>89</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>90</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>91</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>92</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>93</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
         <v>94</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>95</v>
-      </c>
       <c r="N17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:14">
       <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>97</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>98</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>99</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>100</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>101</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>102</v>
-      </c>
       <c r="N18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:14">
       <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>104</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>105</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>107</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
         <v>108</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>109</v>
-      </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:14">
       <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
         <v>110</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>111</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>112</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>113</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>114</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
         <v>115</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>116</v>
-      </c>
       <c r="N20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:14">
       <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
         <v>117</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>118</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>119</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>120</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>121</v>
-      </c>
-      <c r="H21" t="s">
-        <v>122</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I66" si="0">(D21-1014)*3</f>
@@ -3238,30 +3280,30 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:14">
       <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
         <v>124</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>125</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>126</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>127</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>128</v>
-      </c>
-      <c r="H22" t="s">
-        <v>129</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -3277,30 +3319,30 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:14">
       <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
         <v>131</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>132</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>133</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>134</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>135</v>
-      </c>
-      <c r="H23" t="s">
-        <v>136</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -3316,30 +3358,30 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:14">
       <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
         <v>138</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>139</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>140</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>141</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>142</v>
-      </c>
-      <c r="H24" t="s">
-        <v>143</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
@@ -3355,30 +3397,30 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:14">
       <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
         <v>145</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>146</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>147</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>148</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>149</v>
-      </c>
-      <c r="H25" t="s">
-        <v>150</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
@@ -3394,30 +3436,30 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:14">
       <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" t="s">
         <v>152</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>153</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>154</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>155</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>156</v>
-      </c>
-      <c r="H26" t="s">
-        <v>157</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
@@ -3433,30 +3475,30 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:14">
       <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" t="s">
         <v>159</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>160</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>161</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>162</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>163</v>
-      </c>
-      <c r="H27" t="s">
-        <v>164</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
@@ -3472,30 +3514,30 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:14">
       <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
         <v>166</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>167</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>168</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>169</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>170</v>
-      </c>
-      <c r="H28" t="s">
-        <v>171</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -3511,30 +3553,30 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:14">
       <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" t="s">
         <v>173</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>174</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>175</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>176</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>177</v>
-      </c>
-      <c r="H29" t="s">
-        <v>178</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -3550,30 +3592,30 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:14">
       <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
         <v>180</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>181</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>182</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>183</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>184</v>
-      </c>
-      <c r="H30" t="s">
-        <v>185</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
@@ -3589,30 +3631,30 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:14">
       <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" t="s">
         <v>187</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>188</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>189</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>190</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>191</v>
-      </c>
-      <c r="H31" t="s">
-        <v>192</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
@@ -3628,30 +3670,30 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:14">
       <c r="C32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" t="s">
         <v>194</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>195</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>196</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>197</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>198</v>
-      </c>
-      <c r="H32" t="s">
-        <v>199</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
@@ -3667,30 +3709,30 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:14">
       <c r="C33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" t="s">
         <v>201</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>202</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>203</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>204</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>205</v>
-      </c>
-      <c r="H33" t="s">
-        <v>206</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
@@ -3706,30 +3748,30 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:14">
       <c r="C34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" t="s">
         <v>208</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>209</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>210</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>211</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>212</v>
-      </c>
-      <c r="H34" t="s">
-        <v>213</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
@@ -3745,30 +3787,30 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:14">
       <c r="C35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s">
         <v>215</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>216</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>217</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>218</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>219</v>
-      </c>
-      <c r="H35" t="s">
-        <v>220</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
@@ -3784,30 +3826,30 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:14">
       <c r="C36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" t="s">
         <v>222</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>223</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>224</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>225</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>226</v>
-      </c>
-      <c r="H36" t="s">
-        <v>227</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
@@ -3823,30 +3865,30 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:14">
       <c r="C37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" t="s">
         <v>229</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>230</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>231</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>232</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>233</v>
-      </c>
-      <c r="H37" t="s">
-        <v>234</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
@@ -3862,30 +3904,30 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:14">
       <c r="C38" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" t="s">
         <v>236</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>237</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>238</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>239</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>240</v>
-      </c>
-      <c r="H38" t="s">
-        <v>241</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
@@ -3901,30 +3943,30 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:14">
       <c r="C39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" t="s">
         <v>243</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>244</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>245</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>246</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>247</v>
-      </c>
-      <c r="H39" t="s">
-        <v>248</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
@@ -3940,30 +3982,30 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:14">
       <c r="C40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" t="s">
         <v>250</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>251</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>252</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>253</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>254</v>
-      </c>
-      <c r="H40" t="s">
-        <v>255</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
@@ -3979,32 +4021,32 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:19">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" t="s">
         <v>257</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>258</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>259</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>260</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>261</v>
-      </c>
-      <c r="H41" t="s">
-        <v>262</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
@@ -4020,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -4033,22 +4075,22 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" t="s">
         <v>264</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>265</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>266</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>267</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>268</v>
-      </c>
-      <c r="H42" t="s">
-        <v>269</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
@@ -4064,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -4077,22 +4119,22 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" t="s">
         <v>271</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>272</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>273</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>274</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>275</v>
-      </c>
-      <c r="H43" t="s">
-        <v>276</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
@@ -4108,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -4121,22 +4163,22 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" t="s">
         <v>278</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>279</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>280</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>281</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>282</v>
-      </c>
-      <c r="H44" t="s">
-        <v>283</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
@@ -4152,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -4165,22 +4207,22 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" t="s">
         <v>285</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>286</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>287</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>288</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>289</v>
-      </c>
-      <c r="H45" t="s">
-        <v>290</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
@@ -4196,10 +4238,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -4209,22 +4251,22 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" t="s">
         <v>292</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>293</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>294</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>295</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>296</v>
-      </c>
-      <c r="H46" t="s">
-        <v>297</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
@@ -4240,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -4255,22 +4297,22 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" t="s">
         <v>299</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>300</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>301</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>302</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>303</v>
-      </c>
-      <c r="H47" t="s">
-        <v>304</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
@@ -4286,10 +4328,10 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -4301,22 +4343,22 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
+        <v>305</v>
+      </c>
+      <c r="D48" t="s">
         <v>306</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>307</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>308</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>309</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>310</v>
-      </c>
-      <c r="H48" t="s">
-        <v>311</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
@@ -4332,10 +4374,10 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -4347,22 +4389,22 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
+        <v>312</v>
+      </c>
+      <c r="D49" t="s">
         <v>313</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>314</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>315</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>317</v>
-      </c>
-      <c r="H49" t="s">
-        <v>318</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
@@ -4378,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -4393,22 +4435,22 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
+        <v>319</v>
+      </c>
+      <c r="D50" t="s">
         <v>320</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>321</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>322</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>323</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>324</v>
-      </c>
-      <c r="H50" t="s">
-        <v>325</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
@@ -4424,10 +4466,10 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -4439,22 +4481,22 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" t="s">
         <v>327</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>328</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>329</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>330</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>331</v>
-      </c>
-      <c r="H51" t="s">
-        <v>332</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
@@ -4473,10 +4515,10 @@
         <v>5</v>
       </c>
       <c r="M51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -4488,22 +4530,22 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
+        <v>333</v>
+      </c>
+      <c r="D52" t="s">
         <v>334</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>335</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>336</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>337</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>338</v>
-      </c>
-      <c r="H52" t="s">
-        <v>339</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
@@ -4522,10 +4564,10 @@
         <v>10</v>
       </c>
       <c r="M52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -4537,22 +4579,22 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
+        <v>340</v>
+      </c>
+      <c r="D53" t="s">
         <v>341</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>342</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>343</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>344</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>345</v>
-      </c>
-      <c r="H53" t="s">
-        <v>346</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
@@ -4571,10 +4613,10 @@
         <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -4586,22 +4628,22 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" t="s">
         <v>348</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>349</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>350</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>351</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>352</v>
-      </c>
-      <c r="H54" t="s">
-        <v>353</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
@@ -4620,10 +4662,10 @@
         <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -4635,22 +4677,22 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
+        <v>354</v>
+      </c>
+      <c r="D55" t="s">
         <v>355</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>356</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>357</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>358</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>359</v>
-      </c>
-      <c r="H55" t="s">
-        <v>360</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
@@ -4669,10 +4711,10 @@
         <v>25</v>
       </c>
       <c r="M55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -4684,22 +4726,22 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
+        <v>361</v>
+      </c>
+      <c r="D56" t="s">
         <v>362</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>363</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>364</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>365</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>366</v>
-      </c>
-      <c r="H56" t="s">
-        <v>367</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
@@ -4718,10 +4760,10 @@
         <v>30</v>
       </c>
       <c r="M56" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N56" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -4733,22 +4775,22 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
+        <v>368</v>
+      </c>
+      <c r="D57" t="s">
         <v>369</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>370</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>371</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>372</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>373</v>
-      </c>
-      <c r="H57" t="s">
-        <v>374</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
@@ -4767,10 +4809,10 @@
         <v>35</v>
       </c>
       <c r="M57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -4782,22 +4824,22 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
+        <v>375</v>
+      </c>
+      <c r="D58" t="s">
         <v>376</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>377</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>378</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>379</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>380</v>
-      </c>
-      <c r="H58" t="s">
-        <v>381</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
@@ -4816,10 +4858,10 @@
         <v>40</v>
       </c>
       <c r="M58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -4831,22 +4873,22 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
+        <v>382</v>
+      </c>
+      <c r="D59" t="s">
         <v>383</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>384</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>385</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>386</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>387</v>
-      </c>
-      <c r="H59" t="s">
-        <v>388</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
@@ -4865,10 +4907,10 @@
         <v>45</v>
       </c>
       <c r="M59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -4880,22 +4922,22 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
+        <v>389</v>
+      </c>
+      <c r="D60" t="s">
         <v>390</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>391</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>392</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>393</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>394</v>
-      </c>
-      <c r="H60" t="s">
-        <v>395</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
@@ -4914,10 +4956,10 @@
         <v>50</v>
       </c>
       <c r="M60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -4929,22 +4971,22 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" t="s">
+        <v>396</v>
+      </c>
+      <c r="D61" t="s">
         <v>397</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>398</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>399</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>400</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>401</v>
-      </c>
-      <c r="H61" t="s">
-        <v>402</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
@@ -4963,10 +5005,10 @@
         <v>55</v>
       </c>
       <c r="M61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -4978,22 +5020,22 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" t="s">
+        <v>403</v>
+      </c>
+      <c r="D62" t="s">
         <v>404</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>405</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>406</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>407</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>408</v>
-      </c>
-      <c r="H62" t="s">
-        <v>409</v>
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
@@ -5012,10 +5054,10 @@
         <v>60</v>
       </c>
       <c r="M62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -5027,22 +5069,22 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" t="s">
+        <v>410</v>
+      </c>
+      <c r="D63" t="s">
         <v>411</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>412</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>413</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>414</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>415</v>
-      </c>
-      <c r="H63" t="s">
-        <v>416</v>
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
@@ -5061,10 +5103,10 @@
         <v>65</v>
       </c>
       <c r="M63" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N63" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -5076,22 +5118,22 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" t="s">
+        <v>417</v>
+      </c>
+      <c r="D64" t="s">
         <v>418</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>419</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>420</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>421</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>422</v>
-      </c>
-      <c r="H64" t="s">
-        <v>423</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
@@ -5110,10 +5152,10 @@
         <v>70</v>
       </c>
       <c r="M64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -5125,22 +5167,22 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" t="s">
+        <v>424</v>
+      </c>
+      <c r="D65" t="s">
         <v>425</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>426</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>427</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>428</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
@@ -5159,10 +5201,10 @@
         <v>75</v>
       </c>
       <c r="M65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -5174,23 +5216,22 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" t="s">
+        <v>431</v>
+      </c>
+      <c r="D66" t="s">
         <v>432</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>433</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>434</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>435</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="H66">
-        <f>H65*2.2</f>
-        <v>4708000000000000</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:L66" si="4">I65+5</f>
@@ -5238,12 +5279,11 @@
       <c r="G67" t="s">
         <v>442</v>
       </c>
-      <c r="H67">
-        <f t="shared" ref="H66:H71" si="6">H66*2.2</f>
-        <v>1.03576e+16</v>
+      <c r="H67" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I66:I71" si="7">I66+5</f>
+        <f t="shared" ref="I66:I71" si="6">I66+5</f>
         <v>145</v>
       </c>
       <c r="J67">
@@ -5251,18 +5291,18 @@
         <v>55</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K66:K70" si="8">K66+5</f>
+        <f t="shared" ref="K66:K70" si="7">K66+5</f>
         <v>85</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L70" si="9">L66+5</f>
+        <f t="shared" ref="L67:L70" si="8">L66+5</f>
         <v>85</v>
       </c>
       <c r="M67" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N67" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -5274,26 +5314,25 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D68" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E68" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F68" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G68" t="s">
-        <v>448</v>
-      </c>
-      <c r="H68">
+        <v>449</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="6"/>
-        <v>2.278672e+16</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="J68">
@@ -5301,18 +5340,18 @@
         <v>60</v>
       </c>
       <c r="K68">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="L68">
-        <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
       <c r="M68" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N68" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -5324,26 +5363,25 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D69" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E69" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F69" t="s">
-        <v>453</v>
-      </c>
-      <c r="G69" t="s">
-        <v>454</v>
-      </c>
-      <c r="H69">
+        <v>455</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="6"/>
-        <v>5.0130784e+16</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="J69">
@@ -5351,18 +5389,18 @@
         <v>65</v>
       </c>
       <c r="K69">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="9"/>
-        <v>95</v>
-      </c>
       <c r="M69" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="N69" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -5374,26 +5412,25 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D70" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E70" t="s">
-        <v>458</v>
-      </c>
-      <c r="F70" t="s">
-        <v>459</v>
-      </c>
-      <c r="G70" t="s">
-        <v>460</v>
-      </c>
-      <c r="H70">
+        <v>461</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="6"/>
-        <v>1.102877248e+17</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="J70">
@@ -5401,18 +5438,18 @@
         <v>70</v>
       </c>
       <c r="K70">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="L70">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
       <c r="M70" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N70" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -5424,46 +5461,44 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D71" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E71" t="s">
-        <v>464</v>
-      </c>
-      <c r="F71">
-        <f t="shared" ref="F71:F75" si="10">F70*2</f>
-        <v>15485273640000</v>
-      </c>
-      <c r="G71" t="s">
-        <v>465</v>
-      </c>
-      <c r="H71">
-        <f t="shared" ref="H71:H76" si="11">H70*1.4</f>
-        <v>1.5440281472e+17</v>
+        <v>468</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="I71">
-        <f t="shared" ref="I71:L71" si="12">I70+15</f>
+        <f t="shared" ref="I71:L71" si="9">I70+15</f>
         <v>175</v>
       </c>
       <c r="J71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="K71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
       <c r="L71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
       <c r="M71" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="N71" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -5475,46 +5510,44 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D72" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E72" t="s">
-        <v>469</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="10"/>
-        <v>30970547280000</v>
-      </c>
-      <c r="G72" t="s">
-        <v>470</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="11"/>
-        <v>2.16163940608e+17</v>
+        <v>475</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="I72">
-        <f t="shared" ref="I71:I75" si="13">I71+15</f>
+        <f t="shared" ref="I71:I75" si="10">I71+15</f>
         <v>190</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:J75" si="14">J71+15</f>
+        <f t="shared" ref="J72:J75" si="11">J71+15</f>
         <v>100</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K75" si="15">K71+15</f>
+        <f t="shared" ref="K72:K75" si="12">K71+15</f>
         <v>130</v>
       </c>
       <c r="L72">
-        <f t="shared" ref="L72:L75" si="16">L71+15</f>
+        <f t="shared" ref="L72:L75" si="13">L71+15</f>
         <v>130</v>
       </c>
       <c r="M72" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="N72" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -5526,46 +5559,44 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D73" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="E73" t="s">
-        <v>474</v>
-      </c>
-      <c r="F73">
+        <v>482</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="10"/>
-        <v>61941094560000</v>
-      </c>
-      <c r="G73" t="s">
-        <v>475</v>
-      </c>
-      <c r="H73">
+        <v>205</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="11"/>
-        <v>3.026295168512e+17</v>
-      </c>
-      <c r="I73">
+        <v>115</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="L73">
         <f t="shared" si="13"/>
-        <v>205</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="14"/>
-        <v>115</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="15"/>
         <v>145</v>
       </c>
-      <c r="L73">
-        <f t="shared" si="16"/>
-        <v>145</v>
-      </c>
       <c r="M73" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="N73" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -5577,46 +5608,44 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D74" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="E74" t="s">
-        <v>479</v>
-      </c>
-      <c r="F74">
+        <v>489</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="10"/>
-        <v>123882189120000</v>
-      </c>
-      <c r="G74" t="s">
-        <v>480</v>
-      </c>
-      <c r="H74">
+        <v>220</v>
+      </c>
+      <c r="J74">
         <f t="shared" si="11"/>
-        <v>4.2368132359168e+17</v>
-      </c>
-      <c r="I74">
+        <v>130</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="12"/>
+        <v>160</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="13"/>
-        <v>220</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="14"/>
-        <v>130</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="15"/>
         <v>160</v>
       </c>
-      <c r="L74">
-        <f t="shared" si="16"/>
-        <v>160</v>
-      </c>
       <c r="M74" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="N74" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -5628,43 +5657,41 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D75" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="E75" t="s">
-        <v>484</v>
-      </c>
-      <c r="F75">
+        <v>496</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="10"/>
-        <v>247764378240000</v>
-      </c>
-      <c r="G75" t="s">
-        <v>485</v>
-      </c>
-      <c r="H75">
+        <v>235</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="11"/>
-        <v>5.93153853028352e+17</v>
-      </c>
-      <c r="I75">
+        <v>145</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="L75">
         <f t="shared" si="13"/>
-        <v>235</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="14"/>
-        <v>145</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="15"/>
         <v>175</v>
       </c>
-      <c r="L75">
-        <f t="shared" si="16"/>
-        <v>175</v>
-      </c>
       <c r="M75" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="N75">
         <v>219385000</v>
@@ -5680,7 +5707,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5:H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="531">
   <si>
     <t>ID</t>
   </si>
@@ -1530,6 +1530,96 @@
   </si>
   <si>
     <t>219385000</t>
+  </si>
+  <si>
+    <t>10071</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>噩梦鸡</t>
+  </si>
+  <si>
+    <t>512000000000000</t>
+  </si>
+  <si>
+    <t>12000000000000</t>
+  </si>
+  <si>
+    <t>1200000000000000000</t>
+  </si>
+  <si>
+    <t>10072</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>噩梦鹿</t>
+  </si>
+  <si>
+    <t>1000000000000000</t>
+  </si>
+  <si>
+    <t>16800000000000</t>
+  </si>
+  <si>
+    <t>1680000000000000000</t>
+  </si>
+  <si>
+    <t>10073</t>
+  </si>
+  <si>
+    <t>1072</t>
+  </si>
+  <si>
+    <t>噩梦草人</t>
+  </si>
+  <si>
+    <t>2000000000000000</t>
+  </si>
+  <si>
+    <t>23500000000000</t>
+  </si>
+  <si>
+    <t>2350000000000000000</t>
+  </si>
+  <si>
+    <t>10074</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>噩梦猫</t>
+  </si>
+  <si>
+    <t>4000000000000000</t>
+  </si>
+  <si>
+    <t>32900000000000</t>
+  </si>
+  <si>
+    <t>3290000000000000000</t>
+  </si>
+  <si>
+    <t>10075</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>噩梦花</t>
+  </si>
+  <si>
+    <t>8000000000000000</t>
+  </si>
+  <si>
+    <t>46000000000000</t>
+  </si>
+  <si>
+    <t>4600000000000000000</t>
   </si>
 </sst>
 </file>
@@ -2162,13 +2252,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2489,10 +2580,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S76"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2502,8 +2593,8 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.875" style="2" customWidth="1"/>
     <col min="10" max="12" width="12.125" style="2" customWidth="1"/>
@@ -5181,7 +5272,7 @@
       <c r="G65" t="s">
         <v>428</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="5" t="s">
         <v>429</v>
       </c>
       <c r="I65">
@@ -5230,7 +5321,7 @@
       <c r="G66" t="s">
         <v>435</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="5" t="s">
         <v>436</v>
       </c>
       <c r="I66">
@@ -5279,7 +5370,7 @@
       <c r="G67" t="s">
         <v>442</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="5" t="s">
         <v>443</v>
       </c>
       <c r="I67">
@@ -5328,7 +5419,7 @@
       <c r="G68" t="s">
         <v>449</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="5" t="s">
         <v>450</v>
       </c>
       <c r="I68">
@@ -5374,10 +5465,10 @@
       <c r="F69" t="s">
         <v>455</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="5" t="s">
         <v>457</v>
       </c>
       <c r="I69">
@@ -5420,13 +5511,13 @@
       <c r="E70" t="s">
         <v>461</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="5" t="s">
         <v>464</v>
       </c>
       <c r="I70">
@@ -5469,13 +5560,13 @@
       <c r="E71" t="s">
         <v>468</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="5" t="s">
         <v>471</v>
       </c>
       <c r="I71">
@@ -5518,13 +5609,13 @@
       <c r="E72" t="s">
         <v>475</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="5" t="s">
         <v>478</v>
       </c>
       <c r="I72">
@@ -5567,13 +5658,13 @@
       <c r="E73" t="s">
         <v>482</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="5" t="s">
         <v>485</v>
       </c>
       <c r="I73">
@@ -5616,13 +5707,13 @@
       <c r="E74" t="s">
         <v>489</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="5" t="s">
         <v>492</v>
       </c>
       <c r="I74">
@@ -5665,13 +5756,13 @@
       <c r="E75" t="s">
         <v>496</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="5" t="s">
         <v>499</v>
       </c>
       <c r="I75">
@@ -5702,8 +5793,229 @@
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
     </row>
-    <row r="76" spans="8:8">
-      <c r="H76"/>
+    <row r="76" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s">
+        <v>501</v>
+      </c>
+      <c r="D76" t="s">
+        <v>502</v>
+      </c>
+      <c r="E76" t="s">
+        <v>503</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ref="I76:I80" si="14">(D76-1014)*3</f>
+        <v>168</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>262</v>
+      </c>
+      <c r="N76" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+    </row>
+    <row r="77" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s">
+        <v>507</v>
+      </c>
+      <c r="D77" t="s">
+        <v>508</v>
+      </c>
+      <c r="E77" t="s">
+        <v>509</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="14"/>
+        <v>171</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>269</v>
+      </c>
+      <c r="N77" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+    </row>
+    <row r="78" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s">
+        <v>513</v>
+      </c>
+      <c r="D78" t="s">
+        <v>514</v>
+      </c>
+      <c r="E78" t="s">
+        <v>515</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="14"/>
+        <v>174</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>276</v>
+      </c>
+      <c r="N78" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+    </row>
+    <row r="79" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s">
+        <v>519</v>
+      </c>
+      <c r="D79" t="s">
+        <v>520</v>
+      </c>
+      <c r="E79" t="s">
+        <v>521</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="14"/>
+        <v>177</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>283</v>
+      </c>
+      <c r="N79" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+    </row>
+    <row r="80" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s">
+        <v>525</v>
+      </c>
+      <c r="D80" t="s">
+        <v>526</v>
+      </c>
+      <c r="E80" t="s">
+        <v>527</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
+        <v>290</v>
+      </c>
+      <c r="N80" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+    </row>
+    <row r="81" spans="7:8">
+      <c r="G81"/>
+      <c r="H81" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="532">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>所属地图</t>
+  </si>
+  <si>
+    <t>Layer</t>
   </si>
   <si>
     <t>名称</t>
@@ -2580,10 +2583,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2591,26 +2594,25 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="2" customWidth="1"/>
-    <col min="10" max="12" width="12.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.125"/>
-    <col min="17" max="17" width="13.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.625" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
+    <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.125"/>
+    <col min="18" max="18" width="13.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
+    <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2619,14 +2621,14 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:20">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2635,11 +2637,12 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="O2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:19">
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:20">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -2678,21 +2681,24 @@
       <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="O3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:19">
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:20">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -2704,7 +2710,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
@@ -2716,80 +2722,86 @@
         <v>9</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="O4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:19">
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:20">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="3:14">
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="3:15">
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1000</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -2799,60 +2811,66 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>26</v>
+      <c r="M6">
+        <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:14">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:15">
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
         <v>29</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>31</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:14">
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:15">
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
         <v>34</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -2863,8 +2881,8 @@
       <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="I8" t="s">
+        <v>38</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2875,34 +2893,37 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>35</v>
+      <c r="M8">
+        <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:14">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:15">
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
         <v>40</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2913,60 +2934,66 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>31</v>
+      <c r="M9">
+        <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:15">
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
         <v>44</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>46</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:14">
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:15">
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
         <v>49</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>50</v>
@@ -2977,8 +3004,8 @@
       <c r="H11" t="s">
         <v>52</v>
       </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="I11" t="s">
+        <v>53</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2989,22 +3016,25 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>53</v>
+      <c r="M11">
+        <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:14">
+        <v>54</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:15">
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
         <v>56</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -3015,8 +3045,8 @@
       <c r="H12" t="s">
         <v>59</v>
       </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="I12" t="s">
+        <v>60</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3027,22 +3057,25 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>60</v>
+      <c r="M12">
+        <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:14">
+        <v>61</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:15">
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
         <v>63</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>64</v>
@@ -3053,8 +3086,8 @@
       <c r="H13" t="s">
         <v>66</v>
       </c>
-      <c r="I13">
-        <v>0</v>
+      <c r="I13" t="s">
+        <v>67</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3065,22 +3098,25 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>46</v>
+      <c r="M13">
+        <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:14">
+        <v>47</v>
+      </c>
+      <c r="O13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:15">
       <c r="C14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
         <v>69</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>70</v>
@@ -3091,8 +3127,8 @@
       <c r="H14" t="s">
         <v>72</v>
       </c>
-      <c r="I14">
-        <v>0</v>
+      <c r="I14" t="s">
+        <v>73</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3103,22 +3139,25 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>73</v>
+      <c r="M14">
+        <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:14">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:15">
       <c r="C15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
         <v>76</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>77</v>
@@ -3129,8 +3168,8 @@
       <c r="H15" t="s">
         <v>79</v>
       </c>
-      <c r="I15">
-        <v>0</v>
+      <c r="I15" t="s">
+        <v>80</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3141,22 +3180,25 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>80</v>
+      <c r="M15">
+        <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:14">
+        <v>81</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:15">
       <c r="C16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
         <v>83</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>84</v>
@@ -3167,8 +3209,8 @@
       <c r="H16" t="s">
         <v>86</v>
       </c>
-      <c r="I16">
-        <v>0</v>
+      <c r="I16" t="s">
+        <v>87</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3179,22 +3221,25 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>87</v>
+      <c r="M16">
+        <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:14">
+        <v>88</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:15">
       <c r="C17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" t="s">
         <v>90</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>91</v>
@@ -3205,8 +3250,8 @@
       <c r="H17" t="s">
         <v>93</v>
       </c>
-      <c r="I17">
-        <v>0</v>
+      <c r="I17" t="s">
+        <v>94</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3217,22 +3262,25 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>94</v>
+      <c r="M17">
+        <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:14">
+        <v>95</v>
+      </c>
+      <c r="O17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:15">
       <c r="C18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
         <v>97</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -3243,8 +3291,8 @@
       <c r="H18" t="s">
         <v>100</v>
       </c>
-      <c r="I18">
-        <v>0</v>
+      <c r="I18" t="s">
+        <v>101</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3255,22 +3303,25 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>101</v>
+      <c r="M18">
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:14">
+        <v>102</v>
+      </c>
+      <c r="O18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:15">
       <c r="C19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
         <v>104</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>105</v>
@@ -3281,8 +3332,8 @@
       <c r="H19" t="s">
         <v>107</v>
       </c>
-      <c r="I19">
-        <v>0</v>
+      <c r="I19" t="s">
+        <v>108</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3293,22 +3344,25 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>108</v>
+      <c r="M19">
+        <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:14">
+        <v>109</v>
+      </c>
+      <c r="O19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:15">
       <c r="C20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" t="s">
         <v>111</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>112</v>
@@ -3319,8 +3373,8 @@
       <c r="H20" t="s">
         <v>114</v>
       </c>
-      <c r="I20">
-        <v>0</v>
+      <c r="I20" t="s">
+        <v>115</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3331,22 +3385,25 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>115</v>
+      <c r="M20">
+        <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:14">
+        <v>116</v>
+      </c>
+      <c r="O20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:15">
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" t="s">
         <v>118</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -3357,35 +3414,38 @@
       <c r="H21" t="s">
         <v>121</v>
       </c>
-      <c r="I21">
-        <f t="shared" ref="I21:I66" si="0">(D21-1014)*3</f>
+      <c r="I21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J66" si="0">(D21-1014)*3</f>
         <v>3</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>122</v>
+      <c r="M21">
+        <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:14">
+        <v>123</v>
+      </c>
+      <c r="O21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:15">
       <c r="C22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" t="s">
         <v>125</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -3396,35 +3456,38 @@
       <c r="H22" t="s">
         <v>128</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
-        <v>129</v>
+      <c r="M22">
+        <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:14">
+        <v>130</v>
+      </c>
+      <c r="O22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:15">
       <c r="C23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" t="s">
         <v>132</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>133</v>
@@ -3435,35 +3498,38 @@
       <c r="H23" t="s">
         <v>135</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
-        <v>136</v>
+      <c r="M23">
+        <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:14">
+        <v>137</v>
+      </c>
+      <c r="O23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:15">
       <c r="C24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" t="s">
         <v>139</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -3474,35 +3540,38 @@
       <c r="H24" t="s">
         <v>142</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>143</v>
+      <c r="M24">
+        <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:14">
+        <v>144</v>
+      </c>
+      <c r="O24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:15">
       <c r="C25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" t="s">
         <v>146</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>147</v>
@@ -3513,35 +3582,38 @@
       <c r="H25" t="s">
         <v>149</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="s">
-        <v>150</v>
+      <c r="M25">
+        <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:14">
+        <v>151</v>
+      </c>
+      <c r="O25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:15">
       <c r="C26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" t="s">
         <v>153</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>154</v>
@@ -3552,35 +3624,38 @@
       <c r="H26" t="s">
         <v>156</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
-        <v>157</v>
+      <c r="M26">
+        <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:14">
+        <v>158</v>
+      </c>
+      <c r="O26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:15">
       <c r="C27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" t="s">
         <v>160</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>161</v>
@@ -3591,35 +3666,38 @@
       <c r="H27" t="s">
         <v>163</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
-        <v>164</v>
+      <c r="M27">
+        <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:14">
+        <v>165</v>
+      </c>
+      <c r="O27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:15">
       <c r="C28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" t="s">
         <v>167</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>168</v>
@@ -3630,35 +3708,38 @@
       <c r="H28" t="s">
         <v>170</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
-        <v>171</v>
+      <c r="M28">
+        <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:14">
+        <v>172</v>
+      </c>
+      <c r="O28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:15">
       <c r="C29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" t="s">
         <v>174</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>175</v>
@@ -3669,35 +3750,38 @@
       <c r="H29" t="s">
         <v>177</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" t="s">
-        <v>178</v>
+      <c r="M29">
+        <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:14">
+        <v>179</v>
+      </c>
+      <c r="O29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:15">
       <c r="C30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" t="s">
         <v>181</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>182</v>
@@ -3708,35 +3792,38 @@
       <c r="H30" t="s">
         <v>184</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="s">
+        <v>185</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>185</v>
+      <c r="M30">
+        <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:14">
+        <v>186</v>
+      </c>
+      <c r="O30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:15">
       <c r="C31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" t="s">
         <v>188</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>189</v>
@@ -3747,35 +3834,38 @@
       <c r="H31" t="s">
         <v>191</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="s">
+        <v>192</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
-        <v>192</v>
+      <c r="M31">
+        <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:14">
+        <v>193</v>
+      </c>
+      <c r="O31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:15">
       <c r="C32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" t="s">
         <v>195</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>196</v>
@@ -3786,35 +3876,38 @@
       <c r="H32" t="s">
         <v>198</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="s">
+        <v>199</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>199</v>
+      <c r="M32">
+        <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:14">
+        <v>200</v>
+      </c>
+      <c r="O32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:15">
       <c r="C33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" t="s">
         <v>202</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>203</v>
@@ -3825,35 +3918,38 @@
       <c r="H33" t="s">
         <v>205</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" t="s">
-        <v>206</v>
+      <c r="M33">
+        <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:14">
+        <v>207</v>
+      </c>
+      <c r="O33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:15">
       <c r="C34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
-      </c>
-      <c r="E34" t="s">
         <v>209</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>210</v>
@@ -3864,35 +3960,38 @@
       <c r="H34" t="s">
         <v>212</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="s">
+        <v>213</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
-        <v>213</v>
+      <c r="M34">
+        <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:14">
+        <v>214</v>
+      </c>
+      <c r="O34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:15">
       <c r="C35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" t="s">
         <v>216</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>217</v>
@@ -3903,35 +4002,38 @@
       <c r="H35" t="s">
         <v>219</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="s">
+        <v>220</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>220</v>
+      <c r="M35">
+        <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:14">
+        <v>221</v>
+      </c>
+      <c r="O35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:15">
       <c r="C36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" t="s">
         <v>223</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>224</v>
@@ -3942,35 +4044,38 @@
       <c r="H36" t="s">
         <v>226</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>227</v>
+      <c r="M36">
+        <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:14">
+        <v>228</v>
+      </c>
+      <c r="O36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:15">
       <c r="C37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E37" t="s">
         <v>230</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>231</v>
@@ -3981,35 +4086,38 @@
       <c r="H37" t="s">
         <v>233</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="s">
+        <v>234</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>234</v>
+      <c r="M37">
+        <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:14">
+        <v>235</v>
+      </c>
+      <c r="O37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:15">
       <c r="C38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D38" t="s">
-        <v>236</v>
-      </c>
-      <c r="E38" t="s">
         <v>237</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>238</v>
@@ -4020,35 +4128,38 @@
       <c r="H38" t="s">
         <v>240</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="s">
+        <v>241</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
-        <v>241</v>
+      <c r="M38">
+        <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:14">
+        <v>242</v>
+      </c>
+      <c r="O38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:15">
       <c r="C39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D39" t="s">
-        <v>243</v>
-      </c>
-      <c r="E39" t="s">
         <v>244</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>245</v>
@@ -4059,35 +4170,38 @@
       <c r="H39" t="s">
         <v>247</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="s">
+        <v>248</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
-        <v>248</v>
+      <c r="M39">
+        <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:14">
+        <v>249</v>
+      </c>
+      <c r="O39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:15">
       <c r="C40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D40" t="s">
-        <v>250</v>
-      </c>
-      <c r="E40" t="s">
         <v>251</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>252</v>
@@ -4098,37 +4212,40 @@
       <c r="H40" t="s">
         <v>254</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="s">
+        <v>255</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
-        <v>255</v>
+      <c r="M40">
+        <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:19">
+        <v>256</v>
+      </c>
+      <c r="O40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D41" t="s">
-        <v>257</v>
-      </c>
-      <c r="E41" t="s">
         <v>258</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>259</v>
@@ -4139,40 +4256,43 @@
       <c r="H41" t="s">
         <v>261</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="s">
+        <v>262</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
-        <v>262</v>
+      <c r="M41">
+        <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q41" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="O41" t="s">
+        <v>263</v>
+      </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-    </row>
-    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D42" t="s">
-        <v>264</v>
-      </c>
-      <c r="E42" t="s">
         <v>265</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>266</v>
@@ -4183,40 +4303,43 @@
       <c r="H42" t="s">
         <v>268</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="s">
+        <v>269</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
-        <v>269</v>
+      <c r="M42">
+        <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q42" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="O42" t="s">
+        <v>270</v>
+      </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-    </row>
-    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D43" t="s">
-        <v>271</v>
-      </c>
-      <c r="E43" t="s">
         <v>272</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>273</v>
@@ -4227,40 +4350,43 @@
       <c r="H43" t="s">
         <v>275</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="s">
+        <v>276</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
-        <v>276</v>
+      <c r="M43">
+        <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q43" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="O43" t="s">
+        <v>277</v>
+      </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-    </row>
-    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D44" t="s">
-        <v>278</v>
-      </c>
-      <c r="E44" t="s">
         <v>279</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>280</v>
@@ -4271,40 +4397,43 @@
       <c r="H44" t="s">
         <v>282</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="s">
+        <v>283</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" t="s">
-        <v>283</v>
+      <c r="M44">
+        <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q44" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O44" t="s">
+        <v>284</v>
+      </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
-    </row>
-    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D45" t="s">
-        <v>285</v>
-      </c>
-      <c r="E45" t="s">
         <v>286</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>287</v>
@@ -4315,40 +4444,43 @@
       <c r="H45" t="s">
         <v>289</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="s">
+        <v>290</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
-        <v>290</v>
+      <c r="M45">
+        <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q45" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="O45" t="s">
+        <v>291</v>
+      </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-    </row>
-    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
-      </c>
-      <c r="E46" t="s">
         <v>293</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>294</v>
@@ -4359,42 +4491,45 @@
       <c r="H46" t="s">
         <v>296</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="s">
+        <v>297</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" t="s">
-        <v>297</v>
+      <c r="M46">
+        <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>297</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="O46" t="s">
+        <v>298</v>
+      </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-    </row>
-    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D47" t="s">
-        <v>299</v>
-      </c>
-      <c r="E47" t="s">
         <v>300</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>301</v>
@@ -4405,42 +4540,45 @@
       <c r="H47" t="s">
         <v>303</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="s">
+        <v>304</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" t="s">
-        <v>304</v>
+      <c r="M47">
+        <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>304</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O47" t="s">
+        <v>305</v>
+      </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-    </row>
-    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
-      </c>
-      <c r="E48" t="s">
         <v>307</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>308</v>
@@ -4451,42 +4589,45 @@
       <c r="H48" t="s">
         <v>310</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="s">
+        <v>311</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" t="s">
-        <v>311</v>
+      <c r="M48">
+        <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>311</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="O48" t="s">
+        <v>312</v>
+      </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-    </row>
-    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D49" t="s">
-        <v>313</v>
-      </c>
-      <c r="E49" t="s">
         <v>314</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>315</v>
@@ -4497,42 +4638,45 @@
       <c r="H49" t="s">
         <v>317</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="s">
+        <v>318</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49" t="s">
-        <v>318</v>
+      <c r="M49">
+        <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>318</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="O49" t="s">
+        <v>319</v>
+      </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-    </row>
-    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D50" t="s">
-        <v>320</v>
-      </c>
-      <c r="E50" t="s">
         <v>321</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>322</v>
@@ -4543,42 +4687,45 @@
       <c r="H50" t="s">
         <v>324</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="s">
+        <v>325</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" t="s">
-        <v>325</v>
+      <c r="M50">
+        <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>325</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O50" t="s">
+        <v>326</v>
+      </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-    </row>
-    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D51" t="s">
-        <v>327</v>
-      </c>
-      <c r="E51" t="s">
         <v>328</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>329</v>
@@ -4589,45 +4736,48 @@
       <c r="H51" t="s">
         <v>331</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="s">
+        <v>332</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="J51">
-        <f t="shared" ref="J51:J65" si="1">(D51-1044)*3</f>
+      <c r="K51">
+        <f t="shared" ref="K51:K65" si="1">(D51-1044)*3</f>
         <v>3</v>
       </c>
-      <c r="K51">
-        <f t="shared" ref="K51:K70" si="2">(D51-1044)*5</f>
+      <c r="L51">
+        <f t="shared" ref="L51:L70" si="2">(D51-1044)*5</f>
         <v>5</v>
       </c>
-      <c r="L51">
-        <f t="shared" ref="L51:L65" si="3">(D51-1044)*5</f>
+      <c r="M51">
+        <f t="shared" ref="M51:M65" si="3">(D51-1044)*5</f>
         <v>5</v>
       </c>
-      <c r="M51" t="s">
-        <v>332</v>
-      </c>
       <c r="N51" t="s">
-        <v>332</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="O51" t="s">
+        <v>333</v>
+      </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-    </row>
-    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D52" t="s">
-        <v>334</v>
-      </c>
-      <c r="E52" t="s">
         <v>335</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>336</v>
@@ -4638,45 +4788,48 @@
       <c r="H52" t="s">
         <v>338</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="s">
+        <v>339</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M52" t="s">
-        <v>339</v>
-      </c>
       <c r="N52" t="s">
-        <v>339</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="O52" t="s">
+        <v>340</v>
+      </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-    </row>
-    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D53" t="s">
-        <v>341</v>
-      </c>
-      <c r="E53" t="s">
         <v>342</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>343</v>
@@ -4687,45 +4840,48 @@
       <c r="H53" t="s">
         <v>345</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="s">
+        <v>346</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M53" t="s">
-        <v>346</v>
-      </c>
       <c r="N53" t="s">
-        <v>346</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="O53" t="s">
+        <v>347</v>
+      </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-    </row>
-    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D54" t="s">
-        <v>348</v>
-      </c>
-      <c r="E54" t="s">
         <v>349</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>350</v>
@@ -4736,45 +4892,48 @@
       <c r="H54" t="s">
         <v>352</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="s">
+        <v>353</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M54" t="s">
-        <v>353</v>
-      </c>
       <c r="N54" t="s">
-        <v>353</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="O54" t="s">
+        <v>354</v>
+      </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
-    </row>
-    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D55" t="s">
-        <v>355</v>
-      </c>
-      <c r="E55" t="s">
         <v>356</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>357</v>
@@ -4785,45 +4944,48 @@
       <c r="H55" t="s">
         <v>359</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="s">
+        <v>360</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="M55" t="s">
-        <v>360</v>
-      </c>
       <c r="N55" t="s">
-        <v>360</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="O55" t="s">
+        <v>361</v>
+      </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
-    </row>
-    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D56" t="s">
-        <v>362</v>
-      </c>
-      <c r="E56" t="s">
         <v>363</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>364</v>
@@ -4834,45 +4996,48 @@
       <c r="H56" t="s">
         <v>366</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="s">
+        <v>367</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M56" t="s">
-        <v>367</v>
-      </c>
       <c r="N56" t="s">
-        <v>367</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="O56" t="s">
+        <v>368</v>
+      </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
-    </row>
-    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D57" t="s">
-        <v>369</v>
-      </c>
-      <c r="E57" t="s">
         <v>370</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>371</v>
@@ -4883,45 +5048,48 @@
       <c r="H57" t="s">
         <v>373</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="s">
+        <v>374</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="M57" t="s">
-        <v>374</v>
-      </c>
       <c r="N57" t="s">
-        <v>374</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="O57" t="s">
+        <v>375</v>
+      </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
-    </row>
-    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
-      </c>
-      <c r="E58" t="s">
         <v>377</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>378</v>
@@ -4932,45 +5100,48 @@
       <c r="H58" t="s">
         <v>380</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="s">
+        <v>381</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="M58" t="s">
-        <v>381</v>
-      </c>
       <c r="N58" t="s">
-        <v>381</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="O58" t="s">
+        <v>382</v>
+      </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
-    </row>
-    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D59" t="s">
-        <v>383</v>
-      </c>
-      <c r="E59" t="s">
         <v>384</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>385</v>
@@ -4981,45 +5152,48 @@
       <c r="H59" t="s">
         <v>387</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="s">
+        <v>388</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M59" t="s">
-        <v>388</v>
-      </c>
       <c r="N59" t="s">
-        <v>388</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="O59" t="s">
+        <v>389</v>
+      </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
-    </row>
-    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
-      </c>
-      <c r="E60" t="s">
         <v>391</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>392</v>
@@ -5030,45 +5204,48 @@
       <c r="H60" t="s">
         <v>394</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="s">
+        <v>395</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M60" t="s">
-        <v>395</v>
-      </c>
       <c r="N60" t="s">
-        <v>395</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="O60" t="s">
+        <v>396</v>
+      </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
-    </row>
-    <row r="61" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D61" t="s">
-        <v>397</v>
-      </c>
-      <c r="E61" t="s">
         <v>398</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>399</v>
@@ -5079,45 +5256,48 @@
       <c r="H61" t="s">
         <v>401</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="s">
+        <v>402</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="M61" t="s">
-        <v>402</v>
-      </c>
       <c r="N61" t="s">
-        <v>402</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="O61" t="s">
+        <v>403</v>
+      </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
-    </row>
-    <row r="62" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D62" t="s">
-        <v>404</v>
-      </c>
-      <c r="E62" t="s">
         <v>405</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>406</v>
@@ -5128,45 +5308,48 @@
       <c r="H62" t="s">
         <v>408</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="s">
+        <v>409</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="M62" t="s">
-        <v>409</v>
-      </c>
       <c r="N62" t="s">
-        <v>409</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="O62" t="s">
+        <v>410</v>
+      </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
-    </row>
-    <row r="63" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D63" t="s">
-        <v>411</v>
-      </c>
-      <c r="E63" t="s">
         <v>412</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>413</v>
@@ -5177,45 +5360,48 @@
       <c r="H63" t="s">
         <v>415</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="s">
+        <v>416</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="M63" t="s">
-        <v>416</v>
-      </c>
       <c r="N63" t="s">
-        <v>416</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="O63" t="s">
+        <v>417</v>
+      </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-    </row>
-    <row r="64" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D64" t="s">
-        <v>418</v>
-      </c>
-      <c r="E64" t="s">
         <v>419</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>420</v>
@@ -5226,45 +5412,48 @@
       <c r="H64" t="s">
         <v>422</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="s">
+        <v>423</v>
+      </c>
+      <c r="J64">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="M64" t="s">
-        <v>423</v>
-      </c>
       <c r="N64" t="s">
-        <v>423</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="O64" t="s">
+        <v>424</v>
+      </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
-    </row>
-    <row r="65" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D65" t="s">
-        <v>425</v>
-      </c>
-      <c r="E65" t="s">
         <v>426</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>427</v>
@@ -5272,48 +5461,51 @@
       <c r="G65" t="s">
         <v>428</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" t="s">
         <v>429</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="J65">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="M65" t="s">
-        <v>430</v>
-      </c>
       <c r="N65" t="s">
-        <v>430</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="O65" t="s">
+        <v>431</v>
+      </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-    </row>
-    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D66" t="s">
-        <v>432</v>
-      </c>
-      <c r="E66" t="s">
         <v>433</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>434</v>
@@ -5321,48 +5513,51 @@
       <c r="G66" t="s">
         <v>435</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" t="s">
         <v>436</v>
       </c>
-      <c r="I66">
-        <f t="shared" ref="I66:L66" si="4">I65+5</f>
+      <c r="I66" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:M66" si="4">J65+5</f>
         <v>140</v>
       </c>
-      <c r="J66">
-        <f t="shared" ref="J66:J70" si="5">J65+5</f>
+      <c r="K66">
+        <f t="shared" ref="K66:K70" si="5">K65+5</f>
         <v>50</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="4"/>
-        <v>80</v>
       </c>
       <c r="L66">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="M66" t="s">
-        <v>437</v>
+      <c r="M66">
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="N66" t="s">
-        <v>437</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="O66" t="s">
+        <v>438</v>
+      </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
-    </row>
-    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D67" t="s">
-        <v>439</v>
-      </c>
-      <c r="E67" t="s">
         <v>440</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>441</v>
@@ -5370,48 +5565,51 @@
       <c r="G67" t="s">
         <v>442</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" t="s">
         <v>443</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I66:I71" si="6">I66+5</f>
+      <c r="I67" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J66:J71" si="6">J66+5</f>
         <v>145</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="K67">
-        <f t="shared" ref="K66:K70" si="7">K66+5</f>
+      <c r="L67">
+        <f t="shared" ref="L66:L70" si="7">L66+5</f>
         <v>85</v>
       </c>
-      <c r="L67">
-        <f t="shared" ref="L67:L70" si="8">L66+5</f>
+      <c r="M67">
+        <f t="shared" ref="M67:M70" si="8">M66+5</f>
         <v>85</v>
       </c>
-      <c r="M67" t="s">
-        <v>444</v>
-      </c>
       <c r="N67" t="s">
-        <v>444</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="O67" t="s">
+        <v>445</v>
+      </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
-    </row>
-    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D68" t="s">
-        <v>446</v>
-      </c>
-      <c r="E68" t="s">
         <v>447</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>448</v>
@@ -5419,99 +5617,105 @@
       <c r="G68" t="s">
         <v>449</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" t="s">
         <v>450</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="M68" t="s">
-        <v>451</v>
-      </c>
       <c r="N68" t="s">
-        <v>451</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="O68" t="s">
+        <v>452</v>
+      </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
-    </row>
-    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D69" t="s">
-        <v>453</v>
-      </c>
-      <c r="E69" t="s">
         <v>454</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>455</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" t="s">
         <v>456</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="6"/>
         <v>155</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="M69" t="s">
-        <v>458</v>
-      </c>
       <c r="N69" t="s">
-        <v>458</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="O69" t="s">
+        <v>459</v>
+      </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
-    </row>
-    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D70" t="s">
-        <v>460</v>
-      </c>
-      <c r="E70" t="s">
         <v>461</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
         <v>462</v>
       </c>
       <c r="G70" s="5" t="s">
@@ -5520,47 +5724,50 @@
       <c r="H70" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="6"/>
         <v>160</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="M70" t="s">
-        <v>465</v>
-      </c>
       <c r="N70" t="s">
-        <v>465</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="O70" t="s">
+        <v>466</v>
+      </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
-    </row>
-    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D71" t="s">
-        <v>467</v>
-      </c>
-      <c r="E71" t="s">
         <v>468</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
         <v>469</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -5569,47 +5776,50 @@
       <c r="H71" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="I71">
-        <f t="shared" ref="I71:L71" si="9">I70+15</f>
+      <c r="I71" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ref="J71:M71" si="9">J70+15</f>
         <v>175</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <f t="shared" si="9"/>
         <v>85</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="9"/>
-        <v>115</v>
       </c>
       <c r="L71">
         <f t="shared" si="9"/>
         <v>115</v>
       </c>
-      <c r="M71" t="s">
-        <v>472</v>
+      <c r="M71">
+        <f t="shared" si="9"/>
+        <v>115</v>
       </c>
       <c r="N71" t="s">
-        <v>472</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="O71" t="s">
+        <v>473</v>
+      </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
-    </row>
-    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D72" t="s">
-        <v>474</v>
-      </c>
-      <c r="E72" t="s">
         <v>475</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
         <v>476</v>
       </c>
       <c r="G72" s="5" t="s">
@@ -5618,47 +5828,50 @@
       <c r="H72" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="I72">
-        <f t="shared" ref="I71:I75" si="10">I71+15</f>
+      <c r="I72" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J71:J75" si="10">J71+15</f>
         <v>190</v>
       </c>
-      <c r="J72">
-        <f t="shared" ref="J72:J75" si="11">J71+15</f>
+      <c r="K72">
+        <f t="shared" ref="K72:K75" si="11">K71+15</f>
         <v>100</v>
       </c>
-      <c r="K72">
-        <f t="shared" ref="K72:K75" si="12">K71+15</f>
+      <c r="L72">
+        <f t="shared" ref="L72:L75" si="12">L71+15</f>
         <v>130</v>
       </c>
-      <c r="L72">
-        <f t="shared" ref="L72:L75" si="13">L71+15</f>
+      <c r="M72">
+        <f t="shared" ref="M72:M75" si="13">M71+15</f>
         <v>130</v>
       </c>
-      <c r="M72" t="s">
-        <v>479</v>
-      </c>
       <c r="N72" t="s">
-        <v>479</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="O72" t="s">
+        <v>480</v>
+      </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
-    </row>
-    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D73" t="s">
-        <v>481</v>
-      </c>
-      <c r="E73" t="s">
         <v>482</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
         <v>483</v>
       </c>
       <c r="G73" s="5" t="s">
@@ -5667,47 +5880,50 @@
       <c r="H73" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="10"/>
         <v>205</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <f t="shared" si="11"/>
         <v>115</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <f t="shared" si="12"/>
         <v>145</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <f t="shared" si="13"/>
         <v>145</v>
       </c>
-      <c r="M73" t="s">
-        <v>486</v>
-      </c>
       <c r="N73" t="s">
-        <v>486</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="O73" t="s">
+        <v>487</v>
+      </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
-    </row>
-    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D74" t="s">
-        <v>488</v>
-      </c>
-      <c r="E74" t="s">
         <v>489</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
         <v>490</v>
       </c>
       <c r="G74" s="5" t="s">
@@ -5716,47 +5932,50 @@
       <c r="H74" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="J74">
         <f t="shared" si="10"/>
         <v>220</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <f t="shared" si="12"/>
         <v>160</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <f t="shared" si="13"/>
         <v>160</v>
       </c>
-      <c r="M74" t="s">
-        <v>493</v>
-      </c>
       <c r="N74" t="s">
-        <v>493</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O74" t="s">
+        <v>494</v>
+      </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
-    </row>
-    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D75" t="s">
-        <v>495</v>
-      </c>
-      <c r="E75" t="s">
         <v>496</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
         <v>497</v>
       </c>
       <c r="G75" s="5" t="s">
@@ -5765,47 +5984,50 @@
       <c r="H75" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="10"/>
         <v>235</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <f t="shared" si="11"/>
         <v>145</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <f t="shared" si="12"/>
         <v>175</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <f t="shared" si="13"/>
         <v>175</v>
       </c>
-      <c r="M75" t="s">
-        <v>500</v>
-      </c>
-      <c r="N75">
+      <c r="N75" t="s">
+        <v>501</v>
+      </c>
+      <c r="O75">
         <v>219385000</v>
       </c>
-      <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
-    </row>
-    <row r="76" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D76" t="s">
-        <v>502</v>
-      </c>
-      <c r="E76" t="s">
         <v>503</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
         <v>504</v>
       </c>
       <c r="G76" s="5" t="s">
@@ -5814,42 +6036,45 @@
       <c r="H76" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="I76">
-        <f t="shared" ref="I76:I80" si="14">(D76-1014)*3</f>
+      <c r="I76" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ref="J76:J80" si="14">(D76-1014)*3</f>
         <v>168</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76" t="s">
-        <v>262</v>
+      <c r="M76">
+        <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q76" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="O76" t="s">
+        <v>263</v>
+      </c>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
-    </row>
-    <row r="77" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T76" s="2"/>
+    </row>
+    <row r="77" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D77" t="s">
-        <v>508</v>
-      </c>
-      <c r="E77" t="s">
         <v>509</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
         <v>510</v>
       </c>
       <c r="G77" s="5" t="s">
@@ -5858,42 +6083,45 @@
       <c r="H77" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" t="s">
-        <v>269</v>
+      <c r="M77">
+        <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q77" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="O77" t="s">
+        <v>270</v>
+      </c>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
-    </row>
-    <row r="78" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D78" t="s">
-        <v>514</v>
-      </c>
-      <c r="E78" t="s">
         <v>515</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
         <v>516</v>
       </c>
       <c r="G78" s="5" t="s">
@@ -5902,42 +6130,45 @@
       <c r="H78" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="J78">
         <f t="shared" si="14"/>
         <v>174</v>
       </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" t="s">
-        <v>276</v>
+      <c r="M78">
+        <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q78" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="O78" t="s">
+        <v>277</v>
+      </c>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
-    </row>
-    <row r="79" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T78" s="2"/>
+    </row>
+    <row r="79" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D79" t="s">
-        <v>520</v>
-      </c>
-      <c r="E79" t="s">
         <v>521</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
         <v>522</v>
       </c>
       <c r="G79" s="5" t="s">
@@ -5946,42 +6177,45 @@
       <c r="H79" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="J79">
         <f t="shared" si="14"/>
         <v>177</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79" t="s">
-        <v>283</v>
+      <c r="M79">
+        <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q79" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O79" t="s">
+        <v>284</v>
+      </c>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
-    </row>
-    <row r="80" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D80" t="s">
-        <v>526</v>
-      </c>
-      <c r="E80" t="s">
         <v>527</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
         <v>528</v>
       </c>
       <c r="G80" s="5" t="s">
@@ -5990,36 +6224,39 @@
       <c r="H80" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J80">
         <f t="shared" si="14"/>
         <v>180</v>
       </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" t="s">
-        <v>290</v>
+      <c r="M80">
+        <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q80" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="O80" t="s">
+        <v>291</v>
+      </c>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
-    </row>
-    <row r="81" spans="7:8">
-      <c r="G81"/>
-      <c r="H81" s="4"/>
+      <c r="T80" s="2"/>
+    </row>
+    <row r="81" spans="8:9">
+      <c r="H81"/>
+      <c r="I81" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 E4 E5 G5 H5 I5 J5 K5 L5 M5 C3:C5 D3:D5 F3:F5 J3:J4 K3:K4 L3:L4 M3:M4 G3:I4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="532">
   <si>
     <t>ID</t>
   </si>
@@ -1523,7 +1523,7 @@
     <t>幻影火龙兽</t>
   </si>
   <si>
-    <t>256000000000000</t>
+    <t>200000000000000</t>
   </si>
   <si>
     <t>8600000000000</t>
@@ -1544,7 +1544,7 @@
     <t>噩梦鸡</t>
   </si>
   <si>
-    <t>512000000000000</t>
+    <t>300000000000000</t>
   </si>
   <si>
     <t>12000000000000</t>
@@ -1562,61 +1562,61 @@
     <t>噩梦鹿</t>
   </si>
   <si>
+    <t>440000000000000</t>
+  </si>
+  <si>
+    <t>16800000000000</t>
+  </si>
+  <si>
+    <t>1680000000000000000</t>
+  </si>
+  <si>
+    <t>10073</t>
+  </si>
+  <si>
+    <t>1072</t>
+  </si>
+  <si>
+    <t>噩梦草人</t>
+  </si>
+  <si>
+    <t>600000000000000</t>
+  </si>
+  <si>
+    <t>23500000000000</t>
+  </si>
+  <si>
+    <t>2350000000000000000</t>
+  </si>
+  <si>
+    <t>10074</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>噩梦猫</t>
+  </si>
+  <si>
+    <t>800000000000000</t>
+  </si>
+  <si>
+    <t>32900000000000</t>
+  </si>
+  <si>
+    <t>3290000000000000000</t>
+  </si>
+  <si>
+    <t>10075</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>噩梦花</t>
+  </si>
+  <si>
     <t>1000000000000000</t>
-  </si>
-  <si>
-    <t>16800000000000</t>
-  </si>
-  <si>
-    <t>1680000000000000000</t>
-  </si>
-  <si>
-    <t>10073</t>
-  </si>
-  <si>
-    <t>1072</t>
-  </si>
-  <si>
-    <t>噩梦草人</t>
-  </si>
-  <si>
-    <t>2000000000000000</t>
-  </si>
-  <si>
-    <t>23500000000000</t>
-  </si>
-  <si>
-    <t>2350000000000000000</t>
-  </si>
-  <si>
-    <t>10074</t>
-  </si>
-  <si>
-    <t>1073</t>
-  </si>
-  <si>
-    <t>噩梦猫</t>
-  </si>
-  <si>
-    <t>4000000000000000</t>
-  </si>
-  <si>
-    <t>32900000000000</t>
-  </si>
-  <si>
-    <t>3290000000000000000</t>
-  </si>
-  <si>
-    <t>10075</t>
-  </si>
-  <si>
-    <t>1074</t>
-  </si>
-  <si>
-    <t>噩梦花</t>
-  </si>
-  <si>
-    <t>8000000000000000</t>
   </si>
   <si>
     <t>46000000000000</t>
@@ -1629,11 +1629,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2255,13 +2256,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -2585,8 +2587,8 @@
   <sheetPr/>
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5464,7 +5466,7 @@
       <c r="H65" t="s">
         <v>429</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I65" s="6" t="s">
         <v>430</v>
       </c>
       <c r="J65">
@@ -5516,7 +5518,7 @@
       <c r="H66" t="s">
         <v>436</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="6" t="s">
         <v>437</v>
       </c>
       <c r="J66">
@@ -5568,7 +5570,7 @@
       <c r="H67" t="s">
         <v>443</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" s="6" t="s">
         <v>444</v>
       </c>
       <c r="J67">
@@ -5580,7 +5582,7 @@
         <v>55</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L66:L70" si="7">L66+5</f>
+        <f t="shared" ref="L66:L80" si="7">L66+5</f>
         <v>85</v>
       </c>
       <c r="M67">
@@ -5620,7 +5622,7 @@
       <c r="H68" t="s">
         <v>450</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="6" t="s">
         <v>451</v>
       </c>
       <c r="J68">
@@ -5669,10 +5671,10 @@
       <c r="G69" t="s">
         <v>456</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="6" t="s">
         <v>458</v>
       </c>
       <c r="J69">
@@ -5718,13 +5720,13 @@
       <c r="F70" t="s">
         <v>462</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="6" t="s">
         <v>465</v>
       </c>
       <c r="J70">
@@ -5770,26 +5772,26 @@
       <c r="F71" t="s">
         <v>469</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="6" t="s">
         <v>472</v>
       </c>
       <c r="J71">
-        <f t="shared" ref="J71:M71" si="9">J70+15</f>
+        <f>J70+15</f>
         <v>175</v>
       </c>
       <c r="K71">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J71:M71" si="9">K70+15</f>
         <v>85</v>
       </c>
       <c r="L71">
-        <f t="shared" si="9"/>
-        <v>115</v>
+        <f t="shared" si="7"/>
+        <v>105</v>
       </c>
       <c r="M71">
         <f t="shared" si="9"/>
@@ -5822,29 +5824,29 @@
       <c r="F72" t="s">
         <v>476</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="6" t="s">
         <v>479</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J71:J75" si="10">J71+15</f>
+        <f t="shared" ref="J71:J80" si="10">J71+15</f>
         <v>190</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K75" si="11">K71+15</f>
+        <f>K71+15</f>
         <v>100</v>
       </c>
       <c r="L72">
-        <f t="shared" ref="L72:L75" si="12">L71+15</f>
-        <v>130</v>
+        <f t="shared" si="7"/>
+        <v>110</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M75" si="13">M71+15</f>
+        <f t="shared" ref="M72:M80" si="11">M71+15</f>
         <v>130</v>
       </c>
       <c r="N72" t="s">
@@ -5874,13 +5876,13 @@
       <c r="F73" t="s">
         <v>483</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="6" t="s">
         <v>486</v>
       </c>
       <c r="J73">
@@ -5888,15 +5890,15 @@
         <v>205</v>
       </c>
       <c r="K73">
+        <f t="shared" ref="K73:K80" si="12">K72+5</f>
+        <v>105</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="11"/>
-        <v>115</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="12"/>
-        <v>145</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="13"/>
         <v>145</v>
       </c>
       <c r="N73" t="s">
@@ -5926,13 +5928,13 @@
       <c r="F74" t="s">
         <v>490</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" s="6" t="s">
         <v>493</v>
       </c>
       <c r="J74">
@@ -5940,15 +5942,15 @@
         <v>220</v>
       </c>
       <c r="K74">
+        <f t="shared" si="12"/>
+        <v>110</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="11"/>
-        <v>130</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="12"/>
-        <v>160</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="13"/>
         <v>160</v>
       </c>
       <c r="N74" t="s">
@@ -5978,13 +5980,13 @@
       <c r="F75" t="s">
         <v>497</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" s="6" t="s">
         <v>500</v>
       </c>
       <c r="J75">
@@ -5992,22 +5994,22 @@
         <v>235</v>
       </c>
       <c r="K75">
+        <f t="shared" si="12"/>
+        <v>115</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="11"/>
-        <v>145</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="12"/>
-        <v>175</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="13"/>
         <v>175</v>
       </c>
       <c r="N75" t="s">
         <v>501</v>
       </c>
-      <c r="O75">
-        <v>219385000</v>
+      <c r="O75" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -6030,33 +6032,36 @@
       <c r="F76" t="s">
         <v>504</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I76" s="6" t="s">
         <v>507</v>
       </c>
       <c r="J76">
-        <f t="shared" ref="J76:J80" si="14">(D76-1014)*3</f>
-        <v>168</v>
+        <f t="shared" si="10"/>
+        <v>250</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>120</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>130</v>
       </c>
       <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76" t="s">
-        <v>263</v>
-      </c>
-      <c r="O76" t="s">
-        <v>263</v>
+        <f t="shared" si="11"/>
+        <v>190</v>
+      </c>
+      <c r="N76">
+        <v>229385000</v>
+      </c>
+      <c r="O76">
+        <v>229385000</v>
       </c>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
@@ -6077,33 +6082,36 @@
       <c r="F77" t="s">
         <v>510</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="6" t="s">
         <v>513</v>
       </c>
       <c r="J77">
-        <f t="shared" si="14"/>
-        <v>171</v>
+        <f t="shared" si="10"/>
+        <v>265</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>125</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>135</v>
       </c>
       <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77" t="s">
-        <v>270</v>
-      </c>
-      <c r="O77" t="s">
-        <v>270</v>
+        <f t="shared" si="11"/>
+        <v>205</v>
+      </c>
+      <c r="N77">
+        <v>239385000</v>
+      </c>
+      <c r="O77">
+        <v>239385000</v>
       </c>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
@@ -6124,33 +6132,36 @@
       <c r="F78" t="s">
         <v>516</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="6" t="s">
         <v>519</v>
       </c>
       <c r="J78">
-        <f t="shared" si="14"/>
-        <v>174</v>
+        <f t="shared" si="10"/>
+        <v>280</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>130</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>140</v>
       </c>
       <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78" t="s">
-        <v>277</v>
-      </c>
-      <c r="O78" t="s">
-        <v>277</v>
+        <f t="shared" si="11"/>
+        <v>220</v>
+      </c>
+      <c r="N78">
+        <v>249385000</v>
+      </c>
+      <c r="O78">
+        <v>249385000</v>
       </c>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
@@ -6171,33 +6182,36 @@
       <c r="F79" t="s">
         <v>522</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I79" s="6" t="s">
         <v>525</v>
       </c>
       <c r="J79">
-        <f t="shared" si="14"/>
-        <v>177</v>
+        <f t="shared" si="10"/>
+        <v>295</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>135</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>145</v>
       </c>
       <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79" t="s">
-        <v>284</v>
-      </c>
-      <c r="O79" t="s">
-        <v>284</v>
+        <f t="shared" si="11"/>
+        <v>235</v>
+      </c>
+      <c r="N79">
+        <v>259385000</v>
+      </c>
+      <c r="O79">
+        <v>259385000</v>
       </c>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
@@ -6218,41 +6232,45 @@
       <c r="F80" t="s">
         <v>528</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I80" s="6" t="s">
         <v>531</v>
       </c>
       <c r="J80">
-        <f t="shared" si="14"/>
-        <v>180</v>
+        <f t="shared" si="10"/>
+        <v>310</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>140</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>150</v>
       </c>
       <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80" t="s">
-        <v>291</v>
-      </c>
-      <c r="O80" t="s">
-        <v>291</v>
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="N80">
+        <v>269385000</v>
+      </c>
+      <c r="O80">
+        <v>269385000</v>
       </c>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="8:9">
+    <row r="81" spans="7:9">
+      <c r="G81" s="4"/>
       <c r="H81"/>
-      <c r="I81" s="4"/>
+      <c r="I81" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="562">
   <si>
     <t>ID</t>
   </si>
@@ -1623,18 +1623,107 @@
   </si>
   <si>
     <t>4600000000000000000</t>
+  </si>
+  <si>
+    <t>10076</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>噩梦雪人</t>
+  </si>
+  <si>
+    <t>2000000000000000</t>
+  </si>
+  <si>
+    <t>78000000000000</t>
+  </si>
+  <si>
+    <t>6000000000000000000</t>
+  </si>
+  <si>
+    <t>10077</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>噩梦蝙蝠</t>
+  </si>
+  <si>
+    <t>4000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000</t>
+  </si>
+  <si>
+    <t>10078</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>噩梦骷髅</t>
+  </si>
+  <si>
+    <t>8000000000000000</t>
+  </si>
+  <si>
+    <t>150000000000000</t>
+  </si>
+  <si>
+    <t>15000000000000000000</t>
+  </si>
+  <si>
+    <t>10079</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>噩梦僵尸</t>
+  </si>
+  <si>
+    <t>16000000000000000</t>
+  </si>
+  <si>
+    <t>250000000000000</t>
+  </si>
+  <si>
+    <t>29000000000000000000</t>
+  </si>
+  <si>
+    <t>10080</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>噩梦虎蛇</t>
+  </si>
+  <si>
+    <t>32000000000000000</t>
+  </si>
+  <si>
+    <t>330000000000000</t>
+  </si>
+  <si>
+    <t>60000000000000000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1647,14 +1736,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2256,16 +2345,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2585,3692 +2673,3948 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81:F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
-    <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.125"/>
-    <col min="18" max="18" width="13.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="17.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="3" customWidth="1"/>
+    <col min="11" max="13" width="12.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.125" style="2"/>
+    <col min="17" max="17" width="9" style="2"/>
+    <col min="18" max="18" width="13.625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:20">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:20">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:20">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="3:15">
-      <c r="C6" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:15">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>1000</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="3:15">
-      <c r="C7" t="s">
+    <row r="7" customHeight="1" spans="3:15">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="3:15">
-      <c r="C8" t="s">
+    <row r="8" customHeight="1" spans="3:15">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="24" customHeight="1" spans="3:15">
-      <c r="C9" t="s">
+    <row r="9" customHeight="1" spans="3:15">
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="24" customHeight="1" spans="3:15">
-      <c r="C10" t="s">
+    <row r="10" customHeight="1" spans="3:15">
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" ht="24" customHeight="1" spans="3:15">
-      <c r="C11" t="s">
+    <row r="11" customHeight="1" spans="3:15">
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" ht="24" customHeight="1" spans="3:15">
-      <c r="C12" t="s">
+    <row r="12" customHeight="1" spans="3:15">
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" ht="24" customHeight="1" spans="3:15">
-      <c r="C13" t="s">
+    <row r="13" customHeight="1" spans="3:15">
+      <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="24" customHeight="1" spans="3:15">
-      <c r="C14" t="s">
+    <row r="14" customHeight="1" spans="3:15">
+      <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" ht="24" customHeight="1" spans="3:15">
-      <c r="C15" t="s">
+    <row r="15" customHeight="1" spans="3:15">
+      <c r="C15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="3:15">
-      <c r="C16" t="s">
+    <row r="16" customHeight="1" spans="3:15">
+      <c r="C16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" ht="24" customHeight="1" spans="3:15">
-      <c r="C17" t="s">
+    <row r="17" customHeight="1" spans="3:15">
+      <c r="C17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" ht="24" customHeight="1" spans="3:15">
-      <c r="C18" t="s">
+    <row r="18" customHeight="1" spans="3:15">
+      <c r="C18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" ht="24" customHeight="1" spans="3:15">
-      <c r="C19" t="s">
+    <row r="19" customHeight="1" spans="3:15">
+      <c r="C19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" ht="24" customHeight="1" spans="3:15">
-      <c r="C20" t="s">
+    <row r="20" customHeight="1" spans="3:15">
+      <c r="C20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" ht="24" customHeight="1" spans="3:15">
-      <c r="C21" t="s">
+    <row r="21" customHeight="1" spans="3:15">
+      <c r="C21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <f t="shared" ref="J21:J66" si="0">(D21-1014)*3</f>
         <v>3</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" ht="24" customHeight="1" spans="3:15">
-      <c r="C22" t="s">
+    <row r="22" customHeight="1" spans="3:15">
+      <c r="C22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" ht="24" customHeight="1" spans="3:15">
-      <c r="C23" t="s">
+    <row r="23" customHeight="1" spans="3:15">
+      <c r="C23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" ht="24" customHeight="1" spans="3:15">
-      <c r="C24" t="s">
+    <row r="24" customHeight="1" spans="3:15">
+      <c r="C24" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" ht="24" customHeight="1" spans="3:15">
-      <c r="C25" t="s">
+    <row r="25" customHeight="1" spans="3:15">
+      <c r="C25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" ht="24" customHeight="1" spans="3:15">
-      <c r="C26" t="s">
+    <row r="26" customHeight="1" spans="3:15">
+      <c r="C26" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" ht="24" customHeight="1" spans="3:15">
-      <c r="C27" t="s">
+    <row r="27" customHeight="1" spans="3:15">
+      <c r="C27" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" ht="24" customHeight="1" spans="3:15">
-      <c r="C28" t="s">
+    <row r="28" customHeight="1" spans="3:15">
+      <c r="C28" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="29" ht="24" customHeight="1" spans="3:15">
-      <c r="C29" t="s">
+    <row r="29" customHeight="1" spans="3:15">
+      <c r="C29" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="30" ht="24" customHeight="1" spans="3:15">
-      <c r="C30" t="s">
+    <row r="30" customHeight="1" spans="3:15">
+      <c r="C30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" ht="24" customHeight="1" spans="3:15">
-      <c r="C31" t="s">
+    <row r="31" customHeight="1" spans="3:15">
+      <c r="C31" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="32" ht="24" customHeight="1" spans="3:15">
-      <c r="C32" t="s">
+    <row r="32" customHeight="1" spans="3:15">
+      <c r="C32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="33" ht="24" customHeight="1" spans="3:15">
-      <c r="C33" t="s">
+    <row r="33" customHeight="1" spans="3:15">
+      <c r="C33" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="34" ht="24" customHeight="1" spans="3:15">
-      <c r="C34" t="s">
+    <row r="34" customHeight="1" spans="3:15">
+      <c r="C34" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="35" ht="24" customHeight="1" spans="3:15">
-      <c r="C35" t="s">
+    <row r="35" customHeight="1" spans="3:15">
+      <c r="C35" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="36" ht="24" customHeight="1" spans="3:15">
-      <c r="C36" t="s">
+    <row r="36" customHeight="1" spans="3:15">
+      <c r="C36" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="37" ht="24" customHeight="1" spans="3:15">
-      <c r="C37" t="s">
+    <row r="37" customHeight="1" spans="3:15">
+      <c r="C37" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="38" ht="24" customHeight="1" spans="3:15">
-      <c r="C38" t="s">
+    <row r="38" customHeight="1" spans="3:15">
+      <c r="C38" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="39" ht="24" customHeight="1" spans="3:15">
-      <c r="C39" t="s">
+    <row r="39" customHeight="1" spans="3:15">
+      <c r="C39" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" ht="24" customHeight="1" spans="3:15">
-      <c r="C40" t="s">
+    <row r="40" customHeight="1" spans="3:15">
+      <c r="C40" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s">
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>2</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s">
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>2</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="2">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s">
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>2</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="2">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-    </row>
-    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s">
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>2</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-    </row>
-    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s">
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>2</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-    </row>
-    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s">
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>2</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="2">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-    </row>
-    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s">
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>2</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-    </row>
-    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s">
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>2</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-    </row>
-    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s">
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>2</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-    </row>
-    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s">
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>2</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-    </row>
-    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>2</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="2">
         <f t="shared" ref="K51:K65" si="1">(D51-1044)*3</f>
         <v>3</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="2">
         <f t="shared" ref="L51:L70" si="2">(D51-1044)*5</f>
         <v>5</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="2">
         <f t="shared" ref="M51:M65" si="3">(D51-1044)*5</f>
         <v>5</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-    </row>
-    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>2</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="2">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-    </row>
-    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>2</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="2">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="2">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-    </row>
-    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s">
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>2</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="2">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-    </row>
-    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s">
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>2</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="2">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="2">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-    </row>
-    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>2</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="2">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-    </row>
-    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>2</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="2">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="2">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="O57" t="s">
+      <c r="O57" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-    </row>
-    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+    </row>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>2</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="2">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-    </row>
-    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s">
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>2</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="2">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="2">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-    </row>
-    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s">
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>2</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="2">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-    </row>
-    <row r="61" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>2</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="2">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="2">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="2">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O61" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-    </row>
-    <row r="62" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>2</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="2">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="2">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O62" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-    </row>
-    <row r="63" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s">
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>2</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="2">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="2">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="2">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O63" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-    </row>
-    <row r="64" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s">
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>2</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="2">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="O64" t="s">
+      <c r="O64" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-    </row>
-    <row r="65" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s">
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>2</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I65" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="2">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="2">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="2">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N65" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O65" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-    </row>
-    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s">
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>2</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="2">
         <f t="shared" ref="J66:M66" si="4">J65+5</f>
         <v>140</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="2">
         <f t="shared" ref="K66:K70" si="5">K65+5</f>
         <v>50</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="2">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="2">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N66" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O66" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-    </row>
-    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s">
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>2</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="2">
         <f t="shared" ref="J66:J71" si="6">J66+5</f>
         <v>145</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="L67">
-        <f t="shared" ref="L66:L80" si="7">L66+5</f>
+      <c r="L67" s="2">
+        <f t="shared" ref="L66:L85" si="7">L66+5</f>
         <v>85</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="2">
         <f t="shared" ref="M67:M70" si="8">M66+5</f>
         <v>85</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N67" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="O67" t="s">
+      <c r="O67" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-    </row>
-    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>2</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="2">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="2">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="2">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N68" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="O68" t="s">
+      <c r="O68" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-    </row>
-    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s">
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>2</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H69" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="I69" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="2">
         <f t="shared" si="6"/>
         <v>155</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="2">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="2">
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="2">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N69" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O69" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-    </row>
-    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s">
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>2</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="I70" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="2">
         <f t="shared" si="6"/>
         <v>160</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="2">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="2">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="2">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="N70" t="s">
+      <c r="N70" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="O70" t="s">
+      <c r="O70" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-    </row>
-    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s">
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+    </row>
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>2</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="I71" s="6" t="s">
+      <c r="I71" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="2">
         <f>J70+15</f>
         <v>175</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="2">
         <f t="shared" ref="J71:M71" si="9">K70+15</f>
         <v>85</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="2">
         <f t="shared" si="7"/>
         <v>105</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="2">
         <f t="shared" si="9"/>
         <v>115</v>
       </c>
-      <c r="N71" t="s">
+      <c r="N71" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O71" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-    </row>
-    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s">
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+    </row>
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>2</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H72" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I72" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J72">
-        <f t="shared" ref="J71:J80" si="10">J71+15</f>
+      <c r="J72" s="2">
+        <f t="shared" ref="J71:J81" si="10">J71+15</f>
         <v>190</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="2">
         <f>K71+15</f>
         <v>100</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="2">
         <f t="shared" si="7"/>
         <v>110</v>
       </c>
-      <c r="M72">
-        <f t="shared" ref="M72:M80" si="11">M71+15</f>
+      <c r="M72" s="2">
+        <f t="shared" ref="M72:M85" si="11">M71+15</f>
         <v>130</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N72" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="O72" t="s">
+      <c r="O72" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-    </row>
-    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s">
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+    </row>
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>2</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="H73" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I73" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="2">
         <f t="shared" si="10"/>
         <v>205</v>
       </c>
-      <c r="K73">
-        <f t="shared" ref="K73:K80" si="12">K72+5</f>
+      <c r="K73" s="2">
+        <f t="shared" ref="K73:K81" si="12">K72+5</f>
         <v>105</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="2">
         <f t="shared" si="7"/>
         <v>115</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="2">
         <f t="shared" si="11"/>
         <v>145</v>
       </c>
-      <c r="N73" t="s">
+      <c r="N73" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="O73" t="s">
+      <c r="O73" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-    </row>
-    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s">
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+    </row>
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>2</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I74" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="2">
         <f t="shared" si="10"/>
         <v>220</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="2">
         <f t="shared" si="12"/>
         <v>110</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="2">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="2">
         <f t="shared" si="11"/>
         <v>160</v>
       </c>
-      <c r="N74" t="s">
+      <c r="N74" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-    </row>
-    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s">
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+    </row>
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>2</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I75" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="2">
         <f t="shared" si="10"/>
         <v>235</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="2">
         <f t="shared" si="12"/>
         <v>115</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="2">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="2">
         <f t="shared" si="11"/>
         <v>175</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N75" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="O75" s="6" t="s">
+      <c r="O75" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-    </row>
-    <row r="76" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s">
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+    </row>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>3</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I76" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="2">
         <f t="shared" si="10"/>
         <v>250</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="2">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="2">
         <f t="shared" si="7"/>
         <v>130</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="2">
         <f t="shared" si="11"/>
         <v>190</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="2">
         <v>229385000</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="2">
         <v>229385000</v>
       </c>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-    </row>
-    <row r="77" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s">
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+    </row>
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>3</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I77" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="2">
         <f t="shared" si="10"/>
         <v>265</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="2">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="2">
         <f t="shared" si="7"/>
         <v>135</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="2">
         <f t="shared" si="11"/>
         <v>205</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="2">
         <v>239385000</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="2">
         <v>239385000</v>
       </c>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-    </row>
-    <row r="78" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s">
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <v>3</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="I78" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="2">
         <f t="shared" si="10"/>
         <v>280</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="2">
         <f t="shared" si="12"/>
         <v>130</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="2">
         <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="2">
         <f t="shared" si="11"/>
         <v>220</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="2">
         <v>249385000</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="2">
         <v>249385000</v>
       </c>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-    </row>
-    <row r="79" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s">
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+    </row>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>3</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="H79" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="I79" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="2">
         <f t="shared" si="10"/>
         <v>295</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="2">
         <f t="shared" si="12"/>
         <v>135</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="2">
         <f t="shared" si="7"/>
         <v>145</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="2">
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="2">
         <v>259385000</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="2">
         <v>259385000</v>
       </c>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-    </row>
-    <row r="80" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s">
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <v>3</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="I80" s="6" t="s">
+      <c r="I80" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="2">
         <f t="shared" si="10"/>
         <v>310</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="2">
         <f t="shared" si="12"/>
         <v>140</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="2">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="2">
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="2">
         <v>269385000</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="2">
         <v>269385000</v>
       </c>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-    </row>
-    <row r="81" spans="7:9">
-      <c r="G81" s="4"/>
-      <c r="H81"/>
-      <c r="I81" s="5"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+    </row>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" ref="J81:J85" si="13">J80+25</f>
+        <v>335</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" ref="K81:K85" si="14">K80+15</f>
+        <v>155</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+      <c r="M81" s="2">
+        <f t="shared" si="11"/>
+        <v>265</v>
+      </c>
+      <c r="N81" s="2">
+        <v>300000000</v>
+      </c>
+      <c r="O81" s="2">
+        <v>300000000</v>
+      </c>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="13"/>
+        <v>360</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="L82" s="2">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="M82" s="2">
+        <f t="shared" si="11"/>
+        <v>280</v>
+      </c>
+      <c r="N82" s="2">
+        <v>320000000</v>
+      </c>
+      <c r="O82" s="2">
+        <v>320000000</v>
+      </c>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="13"/>
+        <v>385</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="14"/>
+        <v>185</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" si="7"/>
+        <v>165</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" si="11"/>
+        <v>295</v>
+      </c>
+      <c r="N83" s="2">
+        <v>340000000</v>
+      </c>
+      <c r="O83" s="2">
+        <v>340000000</v>
+      </c>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="13"/>
+        <v>410</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="L84" s="2">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="M84" s="2">
+        <f t="shared" si="11"/>
+        <v>310</v>
+      </c>
+      <c r="N84" s="2">
+        <v>370000000</v>
+      </c>
+      <c r="O84" s="2">
+        <v>370000000</v>
+      </c>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E85" s="2">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="13"/>
+        <v>435</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="14"/>
+        <v>215</v>
+      </c>
+      <c r="L85" s="2">
+        <f t="shared" si="7"/>
+        <v>175</v>
+      </c>
+      <c r="M85" s="2">
+        <f t="shared" si="11"/>
+        <v>325</v>
+      </c>
+      <c r="N85" s="2">
+        <v>400000000</v>
+      </c>
+      <c r="O85" s="2">
+        <v>400000000</v>
+      </c>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="587">
   <si>
     <t>ID</t>
   </si>
@@ -1713,6 +1713,81 @@
   </si>
   <si>
     <t>60000000000000000000</t>
+  </si>
+  <si>
+    <t>10081</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>噩梦狼</t>
+  </si>
+  <si>
+    <t>60000000000000000</t>
+  </si>
+  <si>
+    <t>180000000000000000000</t>
+  </si>
+  <si>
+    <t>10082</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>噩梦沙虫</t>
+  </si>
+  <si>
+    <t>100000000000000000</t>
+  </si>
+  <si>
+    <t>3000000000000000</t>
+  </si>
+  <si>
+    <t>500000000000000000000</t>
+  </si>
+  <si>
+    <t>10083</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>噩梦小鹰</t>
+  </si>
+  <si>
+    <t>1500000000000000000000</t>
+  </si>
+  <si>
+    <t>10084</t>
+  </si>
+  <si>
+    <t>1083</t>
+  </si>
+  <si>
+    <t>噩梦多角虫</t>
+  </si>
+  <si>
+    <t>30000000000000000</t>
+  </si>
+  <si>
+    <t>5000000000000000000000</t>
+  </si>
+  <si>
+    <t>10085</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>噩梦蜈蚣</t>
+  </si>
+  <si>
+    <t>800000000000000000</t>
+  </si>
+  <si>
+    <t>15000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -2345,9 +2420,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2673,203 +2747,203 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81:F85"/>
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="3" customWidth="1"/>
-    <col min="11" max="13" width="12.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.125" style="2"/>
-    <col min="17" max="17" width="9" style="2"/>
-    <col min="18" max="18" width="13.625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="17.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
+    <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.125" style="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="13.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="3:15">
       <c r="C6" s="1" t="s">
@@ -2878,31 +2952,31 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>1000</v>
       </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -2919,7 +2993,7 @@
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2934,16 +3008,16 @@
       <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -2960,7 +3034,7 @@
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2975,16 +3049,16 @@
       <c r="I8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -3001,7 +3075,7 @@
       <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -3016,16 +3090,16 @@
       <c r="I9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -3042,7 +3116,7 @@
       <c r="D10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -3057,16 +3131,16 @@
       <c r="I10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -3083,7 +3157,7 @@
       <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -3098,16 +3172,16 @@
       <c r="I11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -3124,7 +3198,7 @@
       <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -3139,16 +3213,16 @@
       <c r="I12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -3165,7 +3239,7 @@
       <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -3180,16 +3254,16 @@
       <c r="I13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -3206,7 +3280,7 @@
       <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -3221,16 +3295,16 @@
       <c r="I14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -3247,7 +3321,7 @@
       <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -3262,16 +3336,16 @@
       <c r="I15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -3288,7 +3362,7 @@
       <c r="D16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -3303,16 +3377,16 @@
       <c r="I16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -3329,7 +3403,7 @@
       <c r="D17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -3344,16 +3418,16 @@
       <c r="I17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -3370,7 +3444,7 @@
       <c r="D18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -3385,16 +3459,16 @@
       <c r="I18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -3411,7 +3485,7 @@
       <c r="D19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -3426,16 +3500,16 @@
       <c r="I19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -3452,7 +3526,7 @@
       <c r="D20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -3467,16 +3541,16 @@
       <c r="I20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -3493,7 +3567,7 @@
       <c r="D21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3508,17 +3582,17 @@
       <c r="I21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <f t="shared" ref="J21:J66" si="0">(D21-1014)*3</f>
         <v>3</v>
       </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
         <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -3535,7 +3609,7 @@
       <c r="D22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -3550,17 +3624,17 @@
       <c r="I22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
         <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -3577,7 +3651,7 @@
       <c r="D23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -3592,17 +3666,17 @@
       <c r="I23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
         <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -3619,7 +3693,7 @@
       <c r="D24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3634,17 +3708,17 @@
       <c r="I24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
         <v>0</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -3661,7 +3735,7 @@
       <c r="D25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3676,17 +3750,17 @@
       <c r="I25" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
         <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -3703,7 +3777,7 @@
       <c r="D26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -3718,17 +3792,17 @@
       <c r="I26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
         <v>0</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -3745,7 +3819,7 @@
       <c r="D27" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -3760,17 +3834,17 @@
       <c r="I27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -3787,7 +3861,7 @@
       <c r="D28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -3802,17 +3876,17 @@
       <c r="I28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
         <v>0</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -3829,7 +3903,7 @@
       <c r="D29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -3844,17 +3918,17 @@
       <c r="I29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
         <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -3871,7 +3945,7 @@
       <c r="D30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -3886,17 +3960,17 @@
       <c r="I30" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
         <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -3913,7 +3987,7 @@
       <c r="D31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -3928,17 +4002,17 @@
       <c r="I31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
         <v>0</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -3955,7 +4029,7 @@
       <c r="D32" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -3970,17 +4044,17 @@
       <c r="I32" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
         <v>0</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -3997,7 +4071,7 @@
       <c r="D33" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -4012,17 +4086,17 @@
       <c r="I33" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
         <v>0</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -4039,7 +4113,7 @@
       <c r="D34" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -4054,17 +4128,17 @@
       <c r="I34" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
         <v>0</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -4081,7 +4155,7 @@
       <c r="D35" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -4096,17 +4170,17 @@
       <c r="I35" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
         <v>0</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -4123,7 +4197,7 @@
       <c r="D36" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -4138,17 +4212,17 @@
       <c r="I36" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
         <v>0</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -4165,7 +4239,7 @@
       <c r="D37" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -4180,17 +4254,17 @@
       <c r="I37" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
         <v>0</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -4207,7 +4281,7 @@
       <c r="D38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -4222,17 +4296,17 @@
       <c r="I38" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
         <v>0</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -4249,7 +4323,7 @@
       <c r="D39" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -4264,17 +4338,17 @@
       <c r="I39" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
         <v>0</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -4291,7 +4365,7 @@
       <c r="D40" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -4306,17 +4380,17 @@
       <c r="I40" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
         <v>0</v>
       </c>
       <c r="N40" s="1" t="s">
@@ -4326,16 +4400,16 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -4350,17 +4424,17 @@
       <c r="I41" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
         <v>0</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -4369,20 +4443,20 @@
       <c r="O41" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-    </row>
-    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -4397,17 +4471,17 @@
       <c r="I42" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
         <v>0</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -4416,20 +4490,20 @@
       <c r="O42" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-    </row>
-    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="1" t="s">
         <v>271</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -4444,17 +4518,17 @@
       <c r="I43" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
         <v>0</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -4463,20 +4537,20 @@
       <c r="O43" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-    </row>
-    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -4491,17 +4565,17 @@
       <c r="I44" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
         <v>0</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -4510,20 +4584,20 @@
       <c r="O44" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-    </row>
-    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -4538,17 +4612,17 @@
       <c r="I45" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
         <v>0</v>
       </c>
       <c r="N45" s="1" t="s">
@@ -4557,20 +4631,20 @@
       <c r="O45" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-    </row>
-    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
         <v>292</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -4585,17 +4659,17 @@
       <c r="I46" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
         <v>0</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -4604,22 +4678,22 @@
       <c r="O46" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-    </row>
-    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -4634,17 +4708,17 @@
       <c r="I47" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
         <v>0</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -4653,22 +4727,22 @@
       <c r="O47" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-    </row>
-    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="1" t="s">
         <v>306</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>2</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -4683,17 +4757,17 @@
       <c r="I48" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
         <v>0</v>
       </c>
       <c r="N48" s="1" t="s">
@@ -4702,22 +4776,22 @@
       <c r="O48" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-    </row>
-    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="1" t="s">
         <v>313</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -4732,17 +4806,17 @@
       <c r="I49" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
         <v>0</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -4751,22 +4825,22 @@
       <c r="O49" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-    </row>
-    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
         <v>320</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -4781,17 +4855,17 @@
       <c r="I50" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
         <v>0</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -4800,22 +4874,22 @@
       <c r="O50" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-    </row>
-    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
         <v>327</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -4830,19 +4904,19 @@
       <c r="I51" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="1">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <f t="shared" ref="K51:K65" si="1">(D51-1044)*3</f>
         <v>3</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1">
         <f t="shared" ref="L51:L70" si="2">(D51-1044)*5</f>
         <v>5</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <f t="shared" ref="M51:M65" si="3">(D51-1044)*5</f>
         <v>5</v>
       </c>
@@ -4852,22 +4926,22 @@
       <c r="O51" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-    </row>
-    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
         <v>334</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -4882,19 +4956,19 @@
       <c r="I52" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="1">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -4904,22 +4978,22 @@
       <c r="O52" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-    </row>
-    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
         <v>341</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -4934,19 +5008,19 @@
       <c r="I53" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -4956,22 +5030,22 @@
       <c r="O53" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-    </row>
-    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -4986,19 +5060,19 @@
       <c r="I54" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="1">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -5008,22 +5082,22 @@
       <c r="O54" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-    </row>
-    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="1" t="s">
         <v>355</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -5038,19 +5112,19 @@
       <c r="I55" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="1">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="1">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -5060,22 +5134,22 @@
       <c r="O55" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-    </row>
-    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
         <v>362</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>2</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -5090,19 +5164,19 @@
       <c r="I56" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="1">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -5112,22 +5186,22 @@
       <c r="O56" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-    </row>
-    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="1" t="s">
         <v>369</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>2</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -5142,19 +5216,19 @@
       <c r="I57" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="1">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="1">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -5164,22 +5238,22 @@
       <c r="O57" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-    </row>
-    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
         <v>376</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -5194,19 +5268,19 @@
       <c r="I58" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="1">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="1">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="1">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
@@ -5216,22 +5290,22 @@
       <c r="O58" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-    </row>
-    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -5246,19 +5320,19 @@
       <c r="I59" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="1">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="1">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
@@ -5268,22 +5342,22 @@
       <c r="O59" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-    </row>
-    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="1" t="s">
         <v>390</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -5298,19 +5372,19 @@
       <c r="I60" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="1">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
@@ -5320,22 +5394,22 @@
       <c r="O60" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-    </row>
-    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="1" t="s">
         <v>397</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -5350,19 +5424,19 @@
       <c r="I61" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="1">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="1">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="1">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
@@ -5372,22 +5446,22 @@
       <c r="O61" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-    </row>
-    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="1" t="s">
         <v>404</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>2</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -5402,19 +5476,19 @@
       <c r="I62" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="1">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="1">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="1">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
@@ -5424,22 +5498,22 @@
       <c r="O62" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-    </row>
-    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
       <c r="C63" s="1" t="s">
         <v>411</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -5454,19 +5528,19 @@
       <c r="I63" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="1">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="1">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="1">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
@@ -5476,22 +5550,22 @@
       <c r="O63" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-    </row>
-    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
         <v>418</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>2</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -5506,19 +5580,19 @@
       <c r="I64" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="1">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="1">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="1">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
@@ -5528,22 +5602,22 @@
       <c r="O64" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-    </row>
-    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
       <c r="C65" s="1" t="s">
         <v>425</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -5555,22 +5629,22 @@
       <c r="H65" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I65" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="1">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="1">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="1">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
@@ -5580,22 +5654,22 @@
       <c r="O65" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-    </row>
-    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="1" t="s">
         <v>432</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>2</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -5607,22 +5681,22 @@
       <c r="H66" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="1">
         <f t="shared" ref="J66:M66" si="4">J65+5</f>
         <v>140</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="1">
         <f t="shared" ref="K66:K70" si="5">K65+5</f>
         <v>50</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="1">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="1">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
@@ -5632,22 +5706,22 @@
       <c r="O66" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-    </row>
-    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="1" t="s">
         <v>439</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>2</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -5659,22 +5733,22 @@
       <c r="H67" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="1">
         <f t="shared" ref="J66:J71" si="6">J66+5</f>
         <v>145</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="1">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="L67" s="2">
-        <f t="shared" ref="L66:L85" si="7">L66+5</f>
+      <c r="L67" s="1">
+        <f t="shared" ref="L66:L90" si="7">L66+5</f>
         <v>85</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="1">
         <f t="shared" ref="M67:M70" si="8">M66+5</f>
         <v>85</v>
       </c>
@@ -5684,22 +5758,22 @@
       <c r="O67" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-    </row>
-    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
         <v>446</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -5711,22 +5785,22 @@
       <c r="H68" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="1">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="1">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="1">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="1">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
@@ -5736,22 +5810,22 @@
       <c r="O68" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-    </row>
-    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
       <c r="C69" s="1" t="s">
         <v>453</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -5760,25 +5834,25 @@
       <c r="G69" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="1">
         <f t="shared" si="6"/>
         <v>155</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="1">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="1">
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="1">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
@@ -5788,49 +5862,49 @@
       <c r="O69" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-    </row>
-    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
         <v>460</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>2</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="1">
         <f t="shared" si="6"/>
         <v>160</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="1">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L70" s="1">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="1">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -5840,49 +5914,49 @@
       <c r="O70" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-    </row>
-    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
         <v>467</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>2</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="1">
         <f>J70+15</f>
         <v>175</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="1">
         <f t="shared" ref="J71:M71" si="9">K70+15</f>
         <v>85</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71" s="1">
         <f t="shared" si="7"/>
         <v>105</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="1">
         <f t="shared" si="9"/>
         <v>115</v>
       </c>
@@ -5892,50 +5966,50 @@
       <c r="O71" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-    </row>
-    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="1" t="s">
         <v>474</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="1">
         <f t="shared" ref="J71:J81" si="10">J71+15</f>
         <v>190</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="1">
         <f>K71+15</f>
         <v>100</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L72" s="1">
         <f t="shared" si="7"/>
         <v>110</v>
       </c>
-      <c r="M72" s="2">
-        <f t="shared" ref="M72:M85" si="11">M71+15</f>
+      <c r="M72" s="1">
+        <f t="shared" ref="M72:M90" si="11">M71+15</f>
         <v>130</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -5944,49 +6018,49 @@
       <c r="O72" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-    </row>
-    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="1" t="s">
         <v>481</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>2</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="1">
         <f t="shared" si="10"/>
         <v>205</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="1">
         <f t="shared" ref="K73:K81" si="12">K72+5</f>
         <v>105</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="1">
         <f t="shared" si="7"/>
         <v>115</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="1">
         <f t="shared" si="11"/>
         <v>145</v>
       </c>
@@ -5996,49 +6070,49 @@
       <c r="O73" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-    </row>
-    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
         <v>488</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>2</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="1">
         <f t="shared" si="10"/>
         <v>220</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="1">
         <f t="shared" si="12"/>
         <v>110</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="1">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="1">
         <f t="shared" si="11"/>
         <v>160</v>
       </c>
@@ -6048,573 +6122,833 @@
       <c r="O74" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-    </row>
-    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
       <c r="C75" s="1" t="s">
         <v>495</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>2</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="1">
         <f t="shared" si="10"/>
         <v>235</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="1">
         <f t="shared" si="12"/>
         <v>115</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L75" s="1">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="1">
         <f t="shared" si="11"/>
         <v>175</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="O75" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-    </row>
-    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
       <c r="C76" s="1" t="s">
         <v>502</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1">
         <v>3</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I76" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="1">
         <f t="shared" si="10"/>
         <v>250</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="1">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
-      <c r="L76" s="2">
+      <c r="L76" s="1">
         <f t="shared" si="7"/>
         <v>130</v>
       </c>
-      <c r="M76" s="2">
+      <c r="M76" s="1">
         <f t="shared" si="11"/>
         <v>190</v>
       </c>
-      <c r="N76" s="2">
+      <c r="N76" s="1">
         <v>229385000</v>
       </c>
-      <c r="O76" s="2">
+      <c r="O76" s="1">
         <v>229385000</v>
       </c>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-    </row>
-    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="1" t="s">
         <v>508</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>3</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="1">
         <f t="shared" si="10"/>
         <v>265</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="1">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="L77" s="2">
+      <c r="L77" s="1">
         <f t="shared" si="7"/>
         <v>135</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77" s="1">
         <f t="shared" si="11"/>
         <v>205</v>
       </c>
-      <c r="N77" s="2">
+      <c r="N77" s="1">
         <v>239385000</v>
       </c>
-      <c r="O77" s="2">
+      <c r="O77" s="1">
         <v>239385000</v>
       </c>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-    </row>
-    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="1" t="s">
         <v>514</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1">
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="1">
         <f t="shared" si="10"/>
         <v>280</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="1">
         <f t="shared" si="12"/>
         <v>130</v>
       </c>
-      <c r="L78" s="2">
+      <c r="L78" s="1">
         <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="1">
         <f t="shared" si="11"/>
         <v>220</v>
       </c>
-      <c r="N78" s="2">
+      <c r="N78" s="1">
         <v>249385000</v>
       </c>
-      <c r="O78" s="2">
+      <c r="O78" s="1">
         <v>249385000</v>
       </c>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-    </row>
-    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+    </row>
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
       <c r="C79" s="1" t="s">
         <v>520</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <v>3</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I79" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="1">
         <f t="shared" si="10"/>
         <v>295</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="1">
         <f t="shared" si="12"/>
         <v>135</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L79" s="1">
         <f t="shared" si="7"/>
         <v>145</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="1">
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="N79" s="2">
+      <c r="N79" s="1">
         <v>259385000</v>
       </c>
-      <c r="O79" s="2">
+      <c r="O79" s="1">
         <v>259385000</v>
       </c>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-    </row>
-    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="1" t="s">
         <v>526</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>3</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I80" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="1">
         <f t="shared" si="10"/>
         <v>310</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="1">
         <f t="shared" si="12"/>
         <v>140</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="1">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="1">
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="1">
         <v>269385000</v>
       </c>
-      <c r="O80" s="2">
+      <c r="O80" s="1">
         <v>269385000</v>
       </c>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-    </row>
-    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+    </row>
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
         <v>532</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>3</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="I81" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J81" s="2">
-        <f t="shared" ref="J81:J85" si="13">J80+25</f>
+      <c r="J81" s="1">
+        <f t="shared" ref="J81:J90" si="13">J80+25</f>
         <v>335</v>
       </c>
-      <c r="K81" s="2">
-        <f t="shared" ref="K81:K85" si="14">K80+15</f>
+      <c r="K81" s="1">
+        <f t="shared" ref="K81:K90" si="14">K80+15</f>
         <v>155</v>
       </c>
-      <c r="L81" s="2">
+      <c r="L81" s="1">
         <f t="shared" si="7"/>
         <v>155</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81" s="1">
         <f t="shared" si="11"/>
         <v>265</v>
       </c>
-      <c r="N81" s="2">
+      <c r="N81" s="1">
         <v>300000000</v>
       </c>
-      <c r="O81" s="2">
+      <c r="O81" s="1">
         <v>300000000</v>
       </c>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-    </row>
-    <row r="82" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
         <v>538</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <v>3</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="I82" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="1">
         <f t="shared" si="13"/>
         <v>360</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="1">
         <f t="shared" si="14"/>
         <v>170</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L82" s="1">
         <f t="shared" si="7"/>
         <v>160</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82" s="1">
         <f t="shared" si="11"/>
         <v>280</v>
       </c>
-      <c r="N82" s="2">
+      <c r="N82" s="1">
         <v>320000000</v>
       </c>
-      <c r="O82" s="2">
+      <c r="O82" s="1">
         <v>320000000</v>
       </c>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-    </row>
-    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+    </row>
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
       <c r="C83" s="1" t="s">
         <v>544</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1">
         <v>3</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="I83" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="1">
         <f t="shared" si="13"/>
         <v>385</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="1">
         <f t="shared" si="14"/>
         <v>185</v>
       </c>
-      <c r="L83" s="2">
+      <c r="L83" s="1">
         <f t="shared" si="7"/>
         <v>165</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83" s="1">
         <f t="shared" si="11"/>
         <v>295</v>
       </c>
-      <c r="N83" s="2">
+      <c r="N83" s="1">
         <v>340000000</v>
       </c>
-      <c r="O83" s="2">
+      <c r="O83" s="1">
         <v>340000000</v>
       </c>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-    </row>
-    <row r="84" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+    </row>
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="1" t="s">
         <v>550</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <v>3</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="I84" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="1">
         <f t="shared" si="13"/>
         <v>410</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="1">
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L84" s="1">
         <f t="shared" si="7"/>
         <v>170</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84" s="1">
         <f t="shared" si="11"/>
         <v>310</v>
       </c>
-      <c r="N84" s="2">
+      <c r="N84" s="1">
         <v>370000000</v>
       </c>
-      <c r="O84" s="2">
+      <c r="O84" s="1">
         <v>370000000</v>
       </c>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-    </row>
-    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+    </row>
+    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
       <c r="C85" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <v>3</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I85" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="1">
         <f t="shared" si="13"/>
         <v>435</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85" s="1">
         <f t="shared" si="14"/>
         <v>215</v>
       </c>
-      <c r="L85" s="2">
+      <c r="L85" s="1">
         <f t="shared" si="7"/>
         <v>175</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="1">
         <f t="shared" si="11"/>
         <v>325</v>
       </c>
-      <c r="N85" s="2">
+      <c r="N85" s="1">
         <v>400000000</v>
       </c>
-      <c r="O85" s="2">
+      <c r="O85" s="1">
         <v>400000000</v>
       </c>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+    </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E86" s="1">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="13"/>
+        <v>460</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="14"/>
+        <v>230</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" si="11"/>
+        <v>340</v>
+      </c>
+      <c r="N86" s="1">
+        <v>500000000</v>
+      </c>
+      <c r="O86" s="1">
+        <v>500000000</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E87" s="1">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="J87" s="1">
+        <f t="shared" si="13"/>
+        <v>485</v>
+      </c>
+      <c r="K87" s="1">
+        <f t="shared" si="14"/>
+        <v>245</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" si="7"/>
+        <v>185</v>
+      </c>
+      <c r="M87" s="1">
+        <f t="shared" si="11"/>
+        <v>355</v>
+      </c>
+      <c r="N87" s="1">
+        <v>600000000</v>
+      </c>
+      <c r="O87" s="1">
+        <v>600000000</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E88" s="1">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="J88" s="1">
+        <f t="shared" si="13"/>
+        <v>510</v>
+      </c>
+      <c r="K88" s="1">
+        <f t="shared" si="14"/>
+        <v>260</v>
+      </c>
+      <c r="L88" s="1">
+        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" si="11"/>
+        <v>370</v>
+      </c>
+      <c r="N88" s="1">
+        <v>700000000</v>
+      </c>
+      <c r="O88" s="1">
+        <v>700000000</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="J89" s="1">
+        <f t="shared" si="13"/>
+        <v>535</v>
+      </c>
+      <c r="K89" s="1">
+        <f t="shared" si="14"/>
+        <v>275</v>
+      </c>
+      <c r="L89" s="1">
+        <f t="shared" si="7"/>
+        <v>195</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" si="11"/>
+        <v>385</v>
+      </c>
+      <c r="N89" s="1">
+        <v>800000000</v>
+      </c>
+      <c r="O89" s="1">
+        <v>800000000</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+    </row>
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E90" s="1">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="J90" s="1">
+        <f t="shared" si="13"/>
+        <v>560</v>
+      </c>
+      <c r="K90" s="1">
+        <f t="shared" si="14"/>
+        <v>290</v>
+      </c>
+      <c r="L90" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="N90" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="O90" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -2750,7 +2750,7 @@
   <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="615">
   <si>
     <t>ID</t>
   </si>
@@ -1788,6 +1788,90 @@
   </si>
   <si>
     <t>15000000000000000000000</t>
+  </si>
+  <si>
+    <t>10086</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>噩梦钳虫</t>
+  </si>
+  <si>
+    <t>2400000000000000000</t>
+  </si>
+  <si>
+    <t>300000000000000000</t>
+  </si>
+  <si>
+    <t>45000000000000000000000</t>
+  </si>
+  <si>
+    <t>10087</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>噩梦蠕虫</t>
+  </si>
+  <si>
+    <t>7200000000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000000000</t>
+  </si>
+  <si>
+    <t>135000000000000000000000</t>
+  </si>
+  <si>
+    <t>10088</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>噩梦黑猪</t>
+  </si>
+  <si>
+    <t>21600000000000000000</t>
+  </si>
+  <si>
+    <t>3000000000000000000</t>
+  </si>
+  <si>
+    <t>500000000000000000000000</t>
+  </si>
+  <si>
+    <t>10089</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>噩梦红猪</t>
+  </si>
+  <si>
+    <t>10000000000000000000</t>
+  </si>
+  <si>
+    <t>1500000000000000000000000</t>
+  </si>
+  <si>
+    <t>10090</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>噩梦蝎蛇</t>
+  </si>
+  <si>
+    <t>30000000000000000000</t>
+  </si>
+  <si>
+    <t>4500000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -2747,10 +2831,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6009,7 +6093,7 @@
         <v>110</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" ref="M72:M90" si="11">M71+15</f>
+        <f t="shared" ref="M72:M95" si="11">M71+15</f>
         <v>130</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -6455,7 +6539,7 @@
         <v>537</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" ref="J81:J90" si="13">J80+25</f>
+        <f t="shared" ref="J81:J91" si="13">J80+25</f>
         <v>335</v>
       </c>
       <c r="K81" s="1">
@@ -6949,6 +7033,266 @@
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
+    </row>
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="J91" s="1">
+        <f t="shared" ref="J91:J95" si="15">J90+30</f>
+        <v>590</v>
+      </c>
+      <c r="K91" s="1">
+        <f t="shared" ref="K90:K95" si="16">K90+25</f>
+        <v>315</v>
+      </c>
+      <c r="L91" s="1">
+        <f t="shared" ref="L91:L95" si="17">(D91-1044)*5</f>
+        <v>205</v>
+      </c>
+      <c r="M91" s="1">
+        <f t="shared" ref="M91:M95" si="18">M90+20</f>
+        <v>420</v>
+      </c>
+      <c r="N91" s="1">
+        <v>1100000000</v>
+      </c>
+      <c r="O91" s="1">
+        <v>1100000000</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E92" s="1">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="J92" s="1">
+        <f t="shared" si="15"/>
+        <v>620</v>
+      </c>
+      <c r="K92" s="1">
+        <f t="shared" si="16"/>
+        <v>340</v>
+      </c>
+      <c r="L92" s="1">
+        <f t="shared" si="17"/>
+        <v>210</v>
+      </c>
+      <c r="M92" s="1">
+        <f t="shared" si="18"/>
+        <v>440</v>
+      </c>
+      <c r="N92" s="1">
+        <v>1200000000</v>
+      </c>
+      <c r="O92" s="1">
+        <v>1200000000</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="J93" s="1">
+        <f t="shared" si="15"/>
+        <v>650</v>
+      </c>
+      <c r="K93" s="1">
+        <f t="shared" si="16"/>
+        <v>365</v>
+      </c>
+      <c r="L93" s="1">
+        <f t="shared" si="17"/>
+        <v>215</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" si="18"/>
+        <v>460</v>
+      </c>
+      <c r="N93" s="1">
+        <v>1300000000</v>
+      </c>
+      <c r="O93" s="1">
+        <v>1300000000</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="J94" s="1">
+        <f t="shared" si="15"/>
+        <v>680</v>
+      </c>
+      <c r="K94" s="1">
+        <f t="shared" si="16"/>
+        <v>390</v>
+      </c>
+      <c r="L94" s="1">
+        <f t="shared" si="17"/>
+        <v>220</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" si="18"/>
+        <v>480</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1400000000</v>
+      </c>
+      <c r="O94" s="1">
+        <v>1400000000</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="J95" s="1">
+        <f t="shared" si="15"/>
+        <v>710</v>
+      </c>
+      <c r="K95" s="1">
+        <f t="shared" si="16"/>
+        <v>415</v>
+      </c>
+      <c r="L95" s="1">
+        <f t="shared" si="17"/>
+        <v>225</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" si="18"/>
+        <v>500</v>
+      </c>
+      <c r="N95" s="1">
+        <v>1500000000</v>
+      </c>
+      <c r="O95" s="1">
+        <v>1500000000</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -2834,7 +2834,7 @@
   <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7044,7 +7044,7 @@
         <v>588</v>
       </c>
       <c r="E91" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>589</v>
@@ -7096,7 +7096,7 @@
         <v>594</v>
       </c>
       <c r="E92" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>595</v>
@@ -7148,7 +7148,7 @@
         <v>600</v>
       </c>
       <c r="E93" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>601</v>
@@ -7200,7 +7200,7 @@
         <v>606</v>
       </c>
       <c r="E94" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>607</v>
@@ -7252,7 +7252,7 @@
         <v>611</v>
       </c>
       <c r="E95" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>612</v>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="644">
   <si>
     <t>ID</t>
   </si>
@@ -1872,6 +1872,93 @@
   </si>
   <si>
     <t>4500000000000000000000000</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>10091</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>噩梦火焰</t>
+  </si>
+  <si>
+    <t>100000000000000000000</t>
+  </si>
+  <si>
+    <t>15000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10092</t>
+  </si>
+  <si>
+    <t>1091</t>
+  </si>
+  <si>
+    <t>噩梦勇士</t>
+  </si>
+  <si>
+    <t>300000000000000000000</t>
+  </si>
+  <si>
+    <t>45000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10093</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>噩梦雕像</t>
+  </si>
+  <si>
+    <t>4500000000000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000000000000</t>
+  </si>
+  <si>
+    <t>150000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10094</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>噩梦卫士</t>
+  </si>
+  <si>
+    <t>13500000000000000000000</t>
+  </si>
+  <si>
+    <t>3000000000000000000000</t>
+  </si>
+  <si>
+    <t>450000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10095</t>
+  </si>
+  <si>
+    <t>1094</t>
+  </si>
+  <si>
+    <t>噩梦魔猪</t>
+  </si>
+  <si>
+    <t>40000000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000000</t>
+  </si>
+  <si>
+    <t>1500000000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -2831,10 +2918,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -5829,7 +5916,7 @@
         <v>55</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" ref="L66:L90" si="7">L66+5</f>
+        <f t="shared" ref="L66:L91" si="7">L66+5</f>
         <v>85</v>
       </c>
       <c r="M67" s="1">
@@ -7007,7 +7094,7 @@
         <v>586</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" si="13"/>
+        <f>J89+25</f>
         <v>560</v>
       </c>
       <c r="K90" s="1">
@@ -7059,19 +7146,19 @@
         <v>592</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" ref="J91:J95" si="15">J90+30</f>
+        <f t="shared" ref="J91:J100" si="15">J90+30</f>
         <v>590</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" ref="K90:K95" si="16">K90+25</f>
+        <f t="shared" ref="K90:K96" si="16">K90+25</f>
         <v>315</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" ref="L91:L95" si="17">(D91-1044)*5</f>
-        <v>205</v>
+        <f t="shared" ref="L91:L96" si="17">L90+20</f>
+        <v>220</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" ref="M91:M95" si="18">M90+20</f>
+        <f t="shared" ref="M91:M96" si="18">M90+20</f>
         <v>420</v>
       </c>
       <c r="N91" s="1">
@@ -7120,7 +7207,7 @@
       </c>
       <c r="L92" s="1">
         <f t="shared" si="17"/>
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="M92" s="1">
         <f t="shared" si="18"/>
@@ -7172,7 +7259,7 @@
       </c>
       <c r="L93" s="1">
         <f t="shared" si="17"/>
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="M93" s="1">
         <f t="shared" si="18"/>
@@ -7224,7 +7311,7 @@
       </c>
       <c r="L94" s="1">
         <f t="shared" si="17"/>
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M94" s="1">
         <f t="shared" si="18"/>
@@ -7276,7 +7363,7 @@
       </c>
       <c r="L95" s="1">
         <f t="shared" si="17"/>
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="M95" s="1">
         <f t="shared" si="18"/>
@@ -7293,6 +7380,261 @@
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:15">
+      <c r="A96" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="J96" s="1">
+        <f t="shared" ref="J96:J100" si="19">J95+40</f>
+        <v>750</v>
+      </c>
+      <c r="K96" s="1">
+        <f t="shared" ref="K96:K100" si="20">K95+35</f>
+        <v>450</v>
+      </c>
+      <c r="L96" s="1">
+        <f t="shared" ref="L96:L100" si="21">L95+30</f>
+        <v>330</v>
+      </c>
+      <c r="M96" s="1">
+        <f t="shared" ref="M96:M100" si="22">M95+30</f>
+        <v>530</v>
+      </c>
+      <c r="N96" s="1">
+        <v>1600000000</v>
+      </c>
+      <c r="O96" s="1">
+        <v>1600000000</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:15">
+      <c r="A97" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="J97" s="1">
+        <f t="shared" si="19"/>
+        <v>790</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" si="20"/>
+        <v>485</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" si="21"/>
+        <v>360</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="22"/>
+        <v>560</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1700000000</v>
+      </c>
+      <c r="O97" s="1">
+        <v>1700000000</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:15">
+      <c r="A98" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E98" s="1">
+        <v>3</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="J98" s="1">
+        <f t="shared" si="19"/>
+        <v>830</v>
+      </c>
+      <c r="K98" s="1">
+        <f t="shared" si="20"/>
+        <v>520</v>
+      </c>
+      <c r="L98" s="1">
+        <f t="shared" si="21"/>
+        <v>390</v>
+      </c>
+      <c r="M98" s="1">
+        <f t="shared" si="22"/>
+        <v>590</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1800000000</v>
+      </c>
+      <c r="O98" s="1">
+        <v>1800000000</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:15">
+      <c r="A99" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E99" s="1">
+        <v>3</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="J99" s="1">
+        <f t="shared" si="19"/>
+        <v>870</v>
+      </c>
+      <c r="K99" s="1">
+        <f t="shared" si="20"/>
+        <v>555</v>
+      </c>
+      <c r="L99" s="1">
+        <f t="shared" si="21"/>
+        <v>420</v>
+      </c>
+      <c r="M99" s="1">
+        <f t="shared" si="22"/>
+        <v>620</v>
+      </c>
+      <c r="N99" s="1">
+        <v>1900000000</v>
+      </c>
+      <c r="O99" s="1">
+        <v>1900000000</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:15">
+      <c r="A100" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="J100" s="1">
+        <f t="shared" si="19"/>
+        <v>910</v>
+      </c>
+      <c r="K100" s="1">
+        <f t="shared" si="20"/>
+        <v>590</v>
+      </c>
+      <c r="L100" s="1">
+        <f t="shared" si="21"/>
+        <v>450</v>
+      </c>
+      <c r="M100" s="1">
+        <f t="shared" si="22"/>
+        <v>650</v>
+      </c>
+      <c r="N100" s="1">
+        <v>2000000000</v>
+      </c>
+      <c r="O100" s="1">
+        <v>2000000000</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="643">
   <si>
     <t>ID</t>
   </si>
@@ -1872,9 +1872,6 @@
   </si>
   <si>
     <t>4500000000000000000000000</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>10091</t>
@@ -2921,7 +2918,7 @@
   <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7094,7 +7091,7 @@
         <v>586</v>
       </c>
       <c r="J90" s="1">
-        <f>J89+25</f>
+        <f t="shared" si="13"/>
         <v>560</v>
       </c>
       <c r="K90" s="1">
@@ -7381,33 +7378,27 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" customHeight="1" spans="1:15">
-      <c r="A96" s="2" t="s">
+    <row r="96" customHeight="1" spans="3:15">
+      <c r="C96" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>572</v>
       </c>
       <c r="H96" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="I96" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>620</v>
       </c>
       <c r="J96" s="1">
         <f t="shared" ref="J96:J100" si="19">J95+40</f>
@@ -7432,33 +7423,27 @@
         <v>1600000000</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:15">
-      <c r="A97" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>615</v>
-      </c>
+    <row r="97" customHeight="1" spans="3:15">
       <c r="C97" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="E97" s="1">
         <v>3</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>576</v>
       </c>
       <c r="H97" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>625</v>
       </c>
       <c r="J97" s="1">
         <f t="shared" si="19"/>
@@ -7483,33 +7468,27 @@
         <v>1700000000</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:15">
-      <c r="A98" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>615</v>
-      </c>
+    <row r="98" customHeight="1" spans="3:15">
       <c r="C98" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G98" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="H98" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="I98" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>631</v>
       </c>
       <c r="J98" s="1">
         <f t="shared" si="19"/>
@@ -7534,33 +7513,27 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:15">
-      <c r="A99" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>615</v>
-      </c>
+    <row r="99" customHeight="1" spans="3:15">
       <c r="C99" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="H99" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="I99" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="J99" s="1">
         <f t="shared" si="19"/>
@@ -7585,33 +7558,27 @@
         <v>1900000000</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:15">
-      <c r="A100" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>615</v>
-      </c>
+    <row r="100" customHeight="1" spans="3:15">
       <c r="C100" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="H100" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="I100" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>643</v>
       </c>
       <c r="J100" s="1">
         <f t="shared" si="19"/>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="658">
   <si>
     <t>ID</t>
   </si>
@@ -1956,6 +1956,51 @@
   </si>
   <si>
     <t>1500000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10096</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>噩梦树妖</t>
+  </si>
+  <si>
+    <t>10097</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>噩梦侍卫</t>
+  </si>
+  <si>
+    <t>10098</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>噩梦剧毒</t>
+  </si>
+  <si>
+    <t>10099</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>噩梦锤兵</t>
+  </si>
+  <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>噩梦将军</t>
   </si>
 </sst>
 </file>
@@ -2915,10 +2960,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2928,7 +2973,7 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="25.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
@@ -7401,19 +7446,19 @@
         <v>619</v>
       </c>
       <c r="J96" s="1">
-        <f t="shared" ref="J96:J100" si="19">J95+40</f>
+        <f t="shared" ref="J96:J105" si="19">J95+40</f>
         <v>750</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" ref="K96:K100" si="20">K95+35</f>
+        <f t="shared" ref="K96:K105" si="20">K95+35</f>
         <v>450</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" ref="L96:L100" si="21">L95+30</f>
+        <f t="shared" ref="L96:L105" si="21">L95+30</f>
         <v>330</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" ref="M96:M100" si="22">M95+30</f>
+        <f t="shared" ref="M96:M105" si="22">M95+30</f>
         <v>530</v>
       </c>
       <c r="N96" s="1">
@@ -7603,9 +7648,234 @@
         <v>2000000000</v>
       </c>
     </row>
+    <row r="101" customHeight="1" spans="3:15">
+      <c r="C101" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E101" s="1">
+        <v>3</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="J101" s="1">
+        <f t="shared" si="19"/>
+        <v>950</v>
+      </c>
+      <c r="K101" s="1">
+        <f t="shared" si="20"/>
+        <v>625</v>
+      </c>
+      <c r="L101" s="1">
+        <f t="shared" si="21"/>
+        <v>480</v>
+      </c>
+      <c r="M101" s="1">
+        <f t="shared" si="22"/>
+        <v>680</v>
+      </c>
+      <c r="N101" s="1">
+        <v>2100000000</v>
+      </c>
+      <c r="O101" s="1">
+        <v>2100000000</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:15">
+      <c r="C102" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E102" s="1">
+        <v>3</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="J102" s="1">
+        <f t="shared" si="19"/>
+        <v>990</v>
+      </c>
+      <c r="K102" s="1">
+        <f t="shared" si="20"/>
+        <v>660</v>
+      </c>
+      <c r="L102" s="1">
+        <f t="shared" si="21"/>
+        <v>510</v>
+      </c>
+      <c r="M102" s="1">
+        <f t="shared" si="22"/>
+        <v>710</v>
+      </c>
+      <c r="N102" s="1">
+        <v>2200000000</v>
+      </c>
+      <c r="O102" s="1">
+        <v>2200000000</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:15">
+      <c r="C103" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E103" s="1">
+        <v>3</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="J103" s="1">
+        <f t="shared" si="19"/>
+        <v>1030</v>
+      </c>
+      <c r="K103" s="1">
+        <f t="shared" si="20"/>
+        <v>695</v>
+      </c>
+      <c r="L103" s="1">
+        <f t="shared" si="21"/>
+        <v>540</v>
+      </c>
+      <c r="M103" s="1">
+        <f t="shared" si="22"/>
+        <v>740</v>
+      </c>
+      <c r="N103" s="1">
+        <v>2300000000</v>
+      </c>
+      <c r="O103" s="1">
+        <v>2300000000</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:15">
+      <c r="C104" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E104" s="1">
+        <v>3</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="J104" s="1">
+        <f t="shared" si="19"/>
+        <v>1070</v>
+      </c>
+      <c r="K104" s="1">
+        <f t="shared" si="20"/>
+        <v>730</v>
+      </c>
+      <c r="L104" s="1">
+        <f t="shared" si="21"/>
+        <v>570</v>
+      </c>
+      <c r="M104" s="1">
+        <f t="shared" si="22"/>
+        <v>770</v>
+      </c>
+      <c r="N104" s="1">
+        <v>2300000000</v>
+      </c>
+      <c r="O104" s="1">
+        <v>2300000000</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:15">
+      <c r="C105" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E105" s="1">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="19"/>
+        <v>1110</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="20"/>
+        <v>765</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="21"/>
+        <v>600</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="22"/>
+        <v>800</v>
+      </c>
+      <c r="N105" s="1">
+        <v>2500000000</v>
+      </c>
+      <c r="O105" s="1">
+        <v>2500000000</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 E4 E5 G5 H5 I5 J5 K5 L5 M5 C3:C5 D3:D5 F3:F5 J3:J4 K3:K4 L3:L4 M3:M4 G3:I4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:M5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="671">
   <si>
     <t>ID</t>
   </si>
@@ -1967,6 +1967,15 @@
     <t>噩梦树妖</t>
   </si>
   <si>
+    <t>120000000000000000000000</t>
+  </si>
+  <si>
+    <t>30000000000000000000000</t>
+  </si>
+  <si>
+    <t>7500000000000000000000000000</t>
+  </si>
+  <si>
     <t>10097</t>
   </si>
   <si>
@@ -1976,6 +1985,15 @@
     <t>噩梦侍卫</t>
   </si>
   <si>
+    <t>360000000000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000</t>
+  </si>
+  <si>
+    <t>37500000000000000000000000000</t>
+  </si>
+  <si>
     <t>10098</t>
   </si>
   <si>
@@ -1985,6 +2003,15 @@
     <t>噩梦剧毒</t>
   </si>
   <si>
+    <t>1000000000000000000000000</t>
+  </si>
+  <si>
+    <t>300000000000000000000000</t>
+  </si>
+  <si>
+    <t>180000000000000000000000000000</t>
+  </si>
+  <si>
     <t>10099</t>
   </si>
   <si>
@@ -1994,6 +2021,12 @@
     <t>噩梦锤兵</t>
   </si>
   <si>
+    <t>3000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000</t>
+  </si>
+  <si>
     <t>10100</t>
   </si>
   <si>
@@ -2001,6 +2034,12 @@
   </si>
   <si>
     <t>噩梦将军</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4500000000000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -2963,7 +3002,7 @@
   <dimension ref="A1:T105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+      <selection activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7662,13 +7701,13 @@
         <v>645</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="J101" s="1">
         <f t="shared" si="19"/>
@@ -7695,25 +7734,25 @@
     </row>
     <row r="102" customHeight="1" spans="3:15">
       <c r="C102" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="J102" s="1">
         <f t="shared" si="19"/>
@@ -7740,25 +7779,25 @@
     </row>
     <row r="103" customHeight="1" spans="3:15">
       <c r="C103" s="1" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="J103" s="1">
         <f t="shared" si="19"/>
@@ -7785,25 +7824,25 @@
     </row>
     <row r="104" customHeight="1" spans="3:15">
       <c r="C104" s="1" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="J104" s="1">
         <f t="shared" si="19"/>
@@ -7822,33 +7861,33 @@
         <v>770</v>
       </c>
       <c r="N104" s="1">
-        <v>2300000000</v>
+        <v>2400000000</v>
       </c>
       <c r="O104" s="1">
-        <v>2300000000</v>
+        <v>2400000000</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="3:15">
       <c r="C105" s="1" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="J105" s="1">
         <f t="shared" si="19"/>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="701">
   <si>
     <t>ID</t>
   </si>
@@ -2040,6 +2040,96 @@
   </si>
   <si>
     <t>4500000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>噩梦钢牙</t>
+  </si>
+  <si>
+    <t>27000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000000000</t>
+  </si>
+  <si>
+    <t>24000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10102</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>噩梦天狼</t>
+  </si>
+  <si>
+    <t>81000000000000000000000000</t>
+  </si>
+  <si>
+    <t>30000000000000000000000000</t>
+  </si>
+  <si>
+    <t>120000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10103</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>噩梦血巨人</t>
+  </si>
+  <si>
+    <t>240000000000000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000000</t>
+  </si>
+  <si>
+    <t>600000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10104</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>噩梦魔龙兵</t>
+  </si>
+  <si>
+    <t>720000000000000000000000000</t>
+  </si>
+  <si>
+    <t>300000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10105</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>噩梦火龙兽</t>
+  </si>
+  <si>
+    <t>2100000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>15000000000000000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -2999,10 +3089,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T105"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="N110" sqref="N110"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3014,7 +3104,7 @@
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
     <col min="14" max="14" width="16.375" style="2" customWidth="1"/>
@@ -7912,6 +8002,266 @@
         <v>2500000000</v>
       </c>
     </row>
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E106" s="1">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="J106" s="1">
+        <f t="shared" ref="J106:M106" si="23">J105+15</f>
+        <v>1125</v>
+      </c>
+      <c r="K106" s="1">
+        <f t="shared" si="23"/>
+        <v>780</v>
+      </c>
+      <c r="L106" s="1">
+        <f t="shared" ref="L106:L110" si="24">L105+5</f>
+        <v>605</v>
+      </c>
+      <c r="M106" s="1">
+        <f t="shared" si="23"/>
+        <v>815</v>
+      </c>
+      <c r="N106" s="1">
+        <v>2600000000</v>
+      </c>
+      <c r="O106" s="1">
+        <v>2600000000</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E107" s="1">
+        <v>3</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="J107" s="1">
+        <f t="shared" ref="J107:M107" si="25">J106+15</f>
+        <v>1140</v>
+      </c>
+      <c r="K107" s="1">
+        <f t="shared" si="25"/>
+        <v>795</v>
+      </c>
+      <c r="L107" s="1">
+        <f t="shared" si="24"/>
+        <v>610</v>
+      </c>
+      <c r="M107" s="1">
+        <f t="shared" si="25"/>
+        <v>830</v>
+      </c>
+      <c r="N107" s="1">
+        <v>2700000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>2700000000</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E108" s="1">
+        <v>3</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="J108" s="1">
+        <f t="shared" ref="J108:J110" si="26">J107+15</f>
+        <v>1155</v>
+      </c>
+      <c r="K108" s="1">
+        <f t="shared" ref="K108:K110" si="27">K107+5</f>
+        <v>800</v>
+      </c>
+      <c r="L108" s="1">
+        <f t="shared" si="24"/>
+        <v>615</v>
+      </c>
+      <c r="M108" s="1">
+        <f t="shared" ref="M108:M110" si="28">M107+15</f>
+        <v>845</v>
+      </c>
+      <c r="N108" s="1">
+        <v>2800000000</v>
+      </c>
+      <c r="O108" s="1">
+        <v>2800000000</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E109" s="1">
+        <v>3</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="J109" s="1">
+        <f t="shared" si="26"/>
+        <v>1170</v>
+      </c>
+      <c r="K109" s="1">
+        <f t="shared" si="27"/>
+        <v>805</v>
+      </c>
+      <c r="L109" s="1">
+        <f t="shared" si="24"/>
+        <v>620</v>
+      </c>
+      <c r="M109" s="1">
+        <f t="shared" si="28"/>
+        <v>860</v>
+      </c>
+      <c r="N109" s="1">
+        <v>2900000000</v>
+      </c>
+      <c r="O109" s="1">
+        <v>2900000000</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E110" s="1">
+        <v>3</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J110" s="1">
+        <f t="shared" si="26"/>
+        <v>1185</v>
+      </c>
+      <c r="K110" s="1">
+        <f t="shared" si="27"/>
+        <v>810</v>
+      </c>
+      <c r="L110" s="1">
+        <f t="shared" si="24"/>
+        <v>625</v>
+      </c>
+      <c r="M110" s="1">
+        <f t="shared" si="28"/>
+        <v>875</v>
+      </c>
+      <c r="N110" s="1">
+        <v>3000000000</v>
+      </c>
+      <c r="O110" s="1">
+        <v>3000000000</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:M5" errorStyle="warning">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="841">
   <si>
     <t>ID</t>
   </si>
@@ -2130,6 +2130,426 @@
   </si>
   <si>
     <t>15000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10106</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>地狱鸡</t>
+  </si>
+  <si>
+    <t>3100000000</t>
+  </si>
+  <si>
+    <t>10107</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>地狱鹿</t>
+  </si>
+  <si>
+    <t>3200000000</t>
+  </si>
+  <si>
+    <t>10108</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>地狱草人</t>
+  </si>
+  <si>
+    <t>3300000000</t>
+  </si>
+  <si>
+    <t>10109</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>地狱猫</t>
+  </si>
+  <si>
+    <t>3400000000</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>地狱花</t>
+  </si>
+  <si>
+    <t>3500000000</t>
+  </si>
+  <si>
+    <t>10111</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>地狱雪人</t>
+  </si>
+  <si>
+    <t>3600000000</t>
+  </si>
+  <si>
+    <t>10112</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>地狱蝙蝠</t>
+  </si>
+  <si>
+    <t>3700000000</t>
+  </si>
+  <si>
+    <t>10113</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>地狱骷髅</t>
+  </si>
+  <si>
+    <t>3800000000</t>
+  </si>
+  <si>
+    <t>10114</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>地狱僵尸</t>
+  </si>
+  <si>
+    <t>3900000000</t>
+  </si>
+  <si>
+    <t>10115</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>地狱虎蛇</t>
+  </si>
+  <si>
+    <t>4000000000</t>
+  </si>
+  <si>
+    <t>10116</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>地狱狼</t>
+  </si>
+  <si>
+    <t>4100000000</t>
+  </si>
+  <si>
+    <t>10117</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>地狱沙虫</t>
+  </si>
+  <si>
+    <t>4200000000</t>
+  </si>
+  <si>
+    <t>10118</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>地狱小鹰</t>
+  </si>
+  <si>
+    <t>4300000000</t>
+  </si>
+  <si>
+    <t>10119</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>地狱多角虫</t>
+  </si>
+  <si>
+    <t>4400000000</t>
+  </si>
+  <si>
+    <t>10120</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>地狱蜈蚣</t>
+  </si>
+  <si>
+    <t>4500000000</t>
+  </si>
+  <si>
+    <t>10121</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>地狱钳虫</t>
+  </si>
+  <si>
+    <t>4600000000</t>
+  </si>
+  <si>
+    <t>10122</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>地狱蠕虫</t>
+  </si>
+  <si>
+    <t>4700000000</t>
+  </si>
+  <si>
+    <t>10123</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>地狱黑猪</t>
+  </si>
+  <si>
+    <t>4800000000</t>
+  </si>
+  <si>
+    <t>10124</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>地狱红猪</t>
+  </si>
+  <si>
+    <t>4900000000</t>
+  </si>
+  <si>
+    <t>10125</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>地狱蝎蛇</t>
+  </si>
+  <si>
+    <t>5000000000</t>
+  </si>
+  <si>
+    <t>10126</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>地狱火焰</t>
+  </si>
+  <si>
+    <t>5100000000</t>
+  </si>
+  <si>
+    <t>10127</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>地狱勇士</t>
+  </si>
+  <si>
+    <t>5200000000</t>
+  </si>
+  <si>
+    <t>10128</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>地狱雕像</t>
+  </si>
+  <si>
+    <t>5300000000</t>
+  </si>
+  <si>
+    <t>10129</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>地狱卫士</t>
+  </si>
+  <si>
+    <t>5400000000</t>
+  </si>
+  <si>
+    <t>10130</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>地狱魔猪</t>
+  </si>
+  <si>
+    <t>5500000000</t>
+  </si>
+  <si>
+    <t>10131</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>地狱树妖</t>
+  </si>
+  <si>
+    <t>5600000000</t>
+  </si>
+  <si>
+    <t>10132</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>地狱侍卫</t>
+  </si>
+  <si>
+    <t>5700000000</t>
+  </si>
+  <si>
+    <t>10133</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>地狱剧毒</t>
+  </si>
+  <si>
+    <t>5800000000</t>
+  </si>
+  <si>
+    <t>10134</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>地狱锤兵</t>
+  </si>
+  <si>
+    <t>5900000000</t>
+  </si>
+  <si>
+    <t>10135</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>地狱将军</t>
+  </si>
+  <si>
+    <t>6000000000</t>
+  </si>
+  <si>
+    <t>10136</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>地狱钢牙</t>
+  </si>
+  <si>
+    <t>6100000000</t>
+  </si>
+  <si>
+    <t>10137</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>地狱天狼</t>
+  </si>
+  <si>
+    <t>6200000000</t>
+  </si>
+  <si>
+    <t>10138</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>地狱血巨人</t>
+  </si>
+  <si>
+    <t>6300000000</t>
+  </si>
+  <si>
+    <t>10139</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>地狱魔龙兵</t>
+  </si>
+  <si>
+    <t>6400000000</t>
+  </si>
+  <si>
+    <t>10140</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>地狱火龙兽</t>
+  </si>
+  <si>
+    <t>6500000000</t>
   </si>
 </sst>
 </file>
@@ -3089,10 +3509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111:O123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3102,8 +3522,7 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="24.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="24.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
@@ -8035,7 +8454,7 @@
         <v>780</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" ref="L106:L110" si="24">L105+5</f>
+        <f t="shared" ref="L106:L125" si="24">L105+5</f>
         <v>605</v>
       </c>
       <c r="M106" s="1">
@@ -8131,11 +8550,11 @@
         <v>688</v>
       </c>
       <c r="J108" s="1">
-        <f t="shared" ref="J108:J110" si="26">J107+15</f>
+        <f t="shared" ref="J108:J115" si="26">J107+15</f>
         <v>1155</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" ref="K108:K110" si="27">K107+5</f>
+        <f t="shared" ref="K108:K115" si="27">K107+5</f>
         <v>800</v>
       </c>
       <c r="L108" s="1">
@@ -8143,7 +8562,7 @@
         <v>615</v>
       </c>
       <c r="M108" s="1">
-        <f t="shared" ref="M108:M110" si="28">M107+15</f>
+        <f t="shared" ref="M108:M125" si="28">M107+15</f>
         <v>845</v>
       </c>
       <c r="N108" s="1">
@@ -8261,6 +8680,1746 @@
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
+    </row>
+    <row r="111" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E111" s="1">
+        <v>4</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J111" s="1">
+        <f t="shared" si="26"/>
+        <v>1200</v>
+      </c>
+      <c r="K111" s="1">
+        <f t="shared" si="27"/>
+        <v>815</v>
+      </c>
+      <c r="L111" s="1">
+        <f t="shared" si="24"/>
+        <v>630</v>
+      </c>
+      <c r="M111" s="1">
+        <f t="shared" si="28"/>
+        <v>890</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="O111" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+    </row>
+    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E112" s="1">
+        <v>4</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J112" s="1">
+        <f t="shared" si="26"/>
+        <v>1215</v>
+      </c>
+      <c r="K112" s="1">
+        <f t="shared" si="27"/>
+        <v>820</v>
+      </c>
+      <c r="L112" s="1">
+        <f t="shared" si="24"/>
+        <v>635</v>
+      </c>
+      <c r="M112" s="1">
+        <f t="shared" si="28"/>
+        <v>905</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="O112" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+    </row>
+    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E113" s="1">
+        <v>4</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J113" s="1">
+        <f t="shared" si="26"/>
+        <v>1230</v>
+      </c>
+      <c r="K113" s="1">
+        <f t="shared" si="27"/>
+        <v>825</v>
+      </c>
+      <c r="L113" s="1">
+        <f t="shared" si="24"/>
+        <v>640</v>
+      </c>
+      <c r="M113" s="1">
+        <f t="shared" si="28"/>
+        <v>920</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="O113" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+    </row>
+    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E114" s="1">
+        <v>4</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J114" s="1">
+        <f t="shared" si="26"/>
+        <v>1245</v>
+      </c>
+      <c r="K114" s="1">
+        <f t="shared" si="27"/>
+        <v>830</v>
+      </c>
+      <c r="L114" s="1">
+        <f t="shared" si="24"/>
+        <v>645</v>
+      </c>
+      <c r="M114" s="1">
+        <f t="shared" si="28"/>
+        <v>935</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+    </row>
+    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E115" s="1">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J115" s="1">
+        <f t="shared" si="26"/>
+        <v>1260</v>
+      </c>
+      <c r="K115" s="1">
+        <f t="shared" si="27"/>
+        <v>835</v>
+      </c>
+      <c r="L115" s="1">
+        <f t="shared" si="24"/>
+        <v>650</v>
+      </c>
+      <c r="M115" s="1">
+        <f t="shared" si="28"/>
+        <v>950</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+    </row>
+    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E116" s="1">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J116" s="1">
+        <f t="shared" ref="J116:J125" si="29">J115+25</f>
+        <v>1285</v>
+      </c>
+      <c r="K116" s="1">
+        <f t="shared" ref="K116:K125" si="30">K115+15</f>
+        <v>850</v>
+      </c>
+      <c r="L116" s="1">
+        <f t="shared" si="24"/>
+        <v>655</v>
+      </c>
+      <c r="M116" s="1">
+        <f t="shared" si="28"/>
+        <v>965</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="O116" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+    </row>
+    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E117" s="1">
+        <v>4</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J117" s="1">
+        <f t="shared" si="29"/>
+        <v>1310</v>
+      </c>
+      <c r="K117" s="1">
+        <f t="shared" si="30"/>
+        <v>865</v>
+      </c>
+      <c r="L117" s="1">
+        <f t="shared" si="24"/>
+        <v>660</v>
+      </c>
+      <c r="M117" s="1">
+        <f t="shared" si="28"/>
+        <v>980</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="O117" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+    </row>
+    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E118" s="1">
+        <v>4</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J118" s="1">
+        <f t="shared" si="29"/>
+        <v>1335</v>
+      </c>
+      <c r="K118" s="1">
+        <f t="shared" si="30"/>
+        <v>880</v>
+      </c>
+      <c r="L118" s="1">
+        <f t="shared" si="24"/>
+        <v>665</v>
+      </c>
+      <c r="M118" s="1">
+        <f t="shared" si="28"/>
+        <v>995</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="O118" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+    </row>
+    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E119" s="1">
+        <v>4</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J119" s="1">
+        <f t="shared" si="29"/>
+        <v>1360</v>
+      </c>
+      <c r="K119" s="1">
+        <f t="shared" si="30"/>
+        <v>895</v>
+      </c>
+      <c r="L119" s="1">
+        <f t="shared" si="24"/>
+        <v>670</v>
+      </c>
+      <c r="M119" s="1">
+        <f t="shared" si="28"/>
+        <v>1010</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="O119" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+    </row>
+    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E120" s="1">
+        <v>4</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J120" s="1">
+        <f t="shared" si="29"/>
+        <v>1385</v>
+      </c>
+      <c r="K120" s="1">
+        <f t="shared" si="30"/>
+        <v>910</v>
+      </c>
+      <c r="L120" s="1">
+        <f t="shared" si="24"/>
+        <v>675</v>
+      </c>
+      <c r="M120" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="O120" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+    </row>
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E121" s="1">
+        <v>4</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J121" s="1">
+        <f t="shared" si="29"/>
+        <v>1410</v>
+      </c>
+      <c r="K121" s="1">
+        <f t="shared" si="30"/>
+        <v>925</v>
+      </c>
+      <c r="L121" s="1">
+        <f t="shared" si="24"/>
+        <v>680</v>
+      </c>
+      <c r="M121" s="1">
+        <f t="shared" si="28"/>
+        <v>1040</v>
+      </c>
+      <c r="N121" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="O121" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+    </row>
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E122" s="1">
+        <v>4</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J122" s="1">
+        <f t="shared" si="29"/>
+        <v>1435</v>
+      </c>
+      <c r="K122" s="1">
+        <f t="shared" si="30"/>
+        <v>940</v>
+      </c>
+      <c r="L122" s="1">
+        <f t="shared" si="24"/>
+        <v>685</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" si="28"/>
+        <v>1055</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="O122" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+    </row>
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E123" s="1">
+        <v>4</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J123" s="1">
+        <f t="shared" si="29"/>
+        <v>1460</v>
+      </c>
+      <c r="K123" s="1">
+        <f t="shared" si="30"/>
+        <v>955</v>
+      </c>
+      <c r="L123" s="1">
+        <f t="shared" si="24"/>
+        <v>690</v>
+      </c>
+      <c r="M123" s="1">
+        <f t="shared" si="28"/>
+        <v>1070</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="O123" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+    </row>
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E124" s="1">
+        <v>4</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J124" s="1">
+        <f t="shared" si="29"/>
+        <v>1485</v>
+      </c>
+      <c r="K124" s="1">
+        <f t="shared" si="30"/>
+        <v>970</v>
+      </c>
+      <c r="L124" s="1">
+        <f t="shared" si="24"/>
+        <v>695</v>
+      </c>
+      <c r="M124" s="1">
+        <f t="shared" si="28"/>
+        <v>1085</v>
+      </c>
+      <c r="N124" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="O124" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+    </row>
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E125" s="1">
+        <v>4</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J125" s="1">
+        <f t="shared" si="29"/>
+        <v>1510</v>
+      </c>
+      <c r="K125" s="1">
+        <f t="shared" si="30"/>
+        <v>985</v>
+      </c>
+      <c r="L125" s="1">
+        <f t="shared" si="24"/>
+        <v>700</v>
+      </c>
+      <c r="M125" s="1">
+        <f t="shared" si="28"/>
+        <v>1100</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="O125" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+    </row>
+    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E126" s="1">
+        <v>4</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J126" s="1">
+        <f t="shared" ref="J126:J130" si="31">J125+30</f>
+        <v>1540</v>
+      </c>
+      <c r="K126" s="1">
+        <f t="shared" ref="K126:K130" si="32">K125+25</f>
+        <v>1010</v>
+      </c>
+      <c r="L126" s="1">
+        <f t="shared" ref="L126:L130" si="33">L125+20</f>
+        <v>720</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" ref="M126:M130" si="34">M125+20</f>
+        <v>1120</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="O126" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+    </row>
+    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E127" s="1">
+        <v>4</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J127" s="1">
+        <f t="shared" si="31"/>
+        <v>1570</v>
+      </c>
+      <c r="K127" s="1">
+        <f t="shared" si="32"/>
+        <v>1035</v>
+      </c>
+      <c r="L127" s="1">
+        <f t="shared" si="33"/>
+        <v>740</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" si="34"/>
+        <v>1140</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="O127" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+    </row>
+    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E128" s="1">
+        <v>4</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J128" s="1">
+        <f t="shared" si="31"/>
+        <v>1600</v>
+      </c>
+      <c r="K128" s="1">
+        <f t="shared" si="32"/>
+        <v>1060</v>
+      </c>
+      <c r="L128" s="1">
+        <f t="shared" si="33"/>
+        <v>760</v>
+      </c>
+      <c r="M128" s="1">
+        <f t="shared" si="34"/>
+        <v>1160</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="O128" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+    </row>
+    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E129" s="1">
+        <v>4</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J129" s="1">
+        <f t="shared" si="31"/>
+        <v>1630</v>
+      </c>
+      <c r="K129" s="1">
+        <f t="shared" si="32"/>
+        <v>1085</v>
+      </c>
+      <c r="L129" s="1">
+        <f t="shared" si="33"/>
+        <v>780</v>
+      </c>
+      <c r="M129" s="1">
+        <f t="shared" si="34"/>
+        <v>1180</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="O129" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+    </row>
+    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E130" s="1">
+        <v>4</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J130" s="1">
+        <f t="shared" si="31"/>
+        <v>1660</v>
+      </c>
+      <c r="K130" s="1">
+        <f t="shared" si="32"/>
+        <v>1110</v>
+      </c>
+      <c r="L130" s="1">
+        <f t="shared" si="33"/>
+        <v>800</v>
+      </c>
+      <c r="M130" s="1">
+        <f t="shared" si="34"/>
+        <v>1200</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="O130" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+    </row>
+    <row r="131" customHeight="1" spans="3:15">
+      <c r="C131" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E131" s="1">
+        <v>4</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J131" s="1">
+        <f t="shared" ref="J131:J140" si="35">J130+40</f>
+        <v>1700</v>
+      </c>
+      <c r="K131" s="1">
+        <f t="shared" ref="K131:K140" si="36">K130+35</f>
+        <v>1145</v>
+      </c>
+      <c r="L131" s="1">
+        <f t="shared" ref="L131:L140" si="37">L130+30</f>
+        <v>830</v>
+      </c>
+      <c r="M131" s="1">
+        <f t="shared" ref="M131:M140" si="38">M130+30</f>
+        <v>1230</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="O131" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="3:15">
+      <c r="C132" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E132" s="1">
+        <v>4</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J132" s="1">
+        <f t="shared" si="35"/>
+        <v>1740</v>
+      </c>
+      <c r="K132" s="1">
+        <f t="shared" si="36"/>
+        <v>1180</v>
+      </c>
+      <c r="L132" s="1">
+        <f t="shared" si="37"/>
+        <v>860</v>
+      </c>
+      <c r="M132" s="1">
+        <f t="shared" si="38"/>
+        <v>1260</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="O132" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="3:15">
+      <c r="C133" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E133" s="1">
+        <v>4</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J133" s="1">
+        <f t="shared" si="35"/>
+        <v>1780</v>
+      </c>
+      <c r="K133" s="1">
+        <f t="shared" si="36"/>
+        <v>1215</v>
+      </c>
+      <c r="L133" s="1">
+        <f t="shared" si="37"/>
+        <v>890</v>
+      </c>
+      <c r="M133" s="1">
+        <f t="shared" si="38"/>
+        <v>1290</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="O133" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="3:15">
+      <c r="C134" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E134" s="1">
+        <v>4</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J134" s="1">
+        <f t="shared" si="35"/>
+        <v>1820</v>
+      </c>
+      <c r="K134" s="1">
+        <f t="shared" si="36"/>
+        <v>1250</v>
+      </c>
+      <c r="L134" s="1">
+        <f t="shared" si="37"/>
+        <v>920</v>
+      </c>
+      <c r="M134" s="1">
+        <f t="shared" si="38"/>
+        <v>1320</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="O134" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="3:15">
+      <c r="C135" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E135" s="1">
+        <v>4</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J135" s="1">
+        <f t="shared" si="35"/>
+        <v>1860</v>
+      </c>
+      <c r="K135" s="1">
+        <f t="shared" si="36"/>
+        <v>1285</v>
+      </c>
+      <c r="L135" s="1">
+        <f t="shared" si="37"/>
+        <v>950</v>
+      </c>
+      <c r="M135" s="1">
+        <f t="shared" si="38"/>
+        <v>1350</v>
+      </c>
+      <c r="N135" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="O135" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="3:15">
+      <c r="C136" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E136" s="1">
+        <v>4</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J136" s="1">
+        <f t="shared" si="35"/>
+        <v>1900</v>
+      </c>
+      <c r="K136" s="1">
+        <f t="shared" si="36"/>
+        <v>1320</v>
+      </c>
+      <c r="L136" s="1">
+        <f t="shared" si="37"/>
+        <v>980</v>
+      </c>
+      <c r="M136" s="1">
+        <f t="shared" si="38"/>
+        <v>1380</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="O136" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="3:15">
+      <c r="C137" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E137" s="1">
+        <v>4</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J137" s="1">
+        <f t="shared" si="35"/>
+        <v>1940</v>
+      </c>
+      <c r="K137" s="1">
+        <f t="shared" si="36"/>
+        <v>1355</v>
+      </c>
+      <c r="L137" s="1">
+        <f t="shared" si="37"/>
+        <v>1010</v>
+      </c>
+      <c r="M137" s="1">
+        <f t="shared" si="38"/>
+        <v>1410</v>
+      </c>
+      <c r="N137" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="O137" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="3:15">
+      <c r="C138" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E138" s="1">
+        <v>4</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J138" s="1">
+        <f t="shared" si="35"/>
+        <v>1980</v>
+      </c>
+      <c r="K138" s="1">
+        <f t="shared" si="36"/>
+        <v>1390</v>
+      </c>
+      <c r="L138" s="1">
+        <f t="shared" si="37"/>
+        <v>1040</v>
+      </c>
+      <c r="M138" s="1">
+        <f t="shared" si="38"/>
+        <v>1440</v>
+      </c>
+      <c r="N138" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="O138" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="3:15">
+      <c r="C139" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E139" s="1">
+        <v>4</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J139" s="1">
+        <f t="shared" si="35"/>
+        <v>2020</v>
+      </c>
+      <c r="K139" s="1">
+        <f t="shared" si="36"/>
+        <v>1425</v>
+      </c>
+      <c r="L139" s="1">
+        <f t="shared" si="37"/>
+        <v>1070</v>
+      </c>
+      <c r="M139" s="1">
+        <f t="shared" si="38"/>
+        <v>1470</v>
+      </c>
+      <c r="N139" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="O139" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="3:15">
+      <c r="C140" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E140" s="1">
+        <v>4</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J140" s="1">
+        <f t="shared" si="35"/>
+        <v>2060</v>
+      </c>
+      <c r="K140" s="1">
+        <f t="shared" si="36"/>
+        <v>1460</v>
+      </c>
+      <c r="L140" s="1">
+        <f t="shared" si="37"/>
+        <v>1100</v>
+      </c>
+      <c r="M140" s="1">
+        <f t="shared" si="38"/>
+        <v>1500</v>
+      </c>
+      <c r="N140" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="O140" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E141" s="1">
+        <v>4</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J141" s="1">
+        <f t="shared" ref="J141:M141" si="39">J140+15</f>
+        <v>2075</v>
+      </c>
+      <c r="K141" s="1">
+        <f t="shared" si="39"/>
+        <v>1475</v>
+      </c>
+      <c r="L141" s="1">
+        <f t="shared" ref="L141:L145" si="40">L140+5</f>
+        <v>1105</v>
+      </c>
+      <c r="M141" s="1">
+        <f t="shared" si="39"/>
+        <v>1515</v>
+      </c>
+      <c r="N141" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="O141" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+    </row>
+    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E142" s="1">
+        <v>4</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J142" s="1">
+        <f t="shared" ref="J142:M142" si="41">J141+15</f>
+        <v>2090</v>
+      </c>
+      <c r="K142" s="1">
+        <f t="shared" si="41"/>
+        <v>1490</v>
+      </c>
+      <c r="L142" s="1">
+        <f t="shared" si="40"/>
+        <v>1110</v>
+      </c>
+      <c r="M142" s="1">
+        <f t="shared" si="41"/>
+        <v>1530</v>
+      </c>
+      <c r="N142" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="O142" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+    </row>
+    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E143" s="1">
+        <v>4</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J143" s="1">
+        <f t="shared" ref="J143:J145" si="42">J142+15</f>
+        <v>2105</v>
+      </c>
+      <c r="K143" s="1">
+        <f t="shared" ref="K143:K145" si="43">K142+5</f>
+        <v>1495</v>
+      </c>
+      <c r="L143" s="1">
+        <f t="shared" si="40"/>
+        <v>1115</v>
+      </c>
+      <c r="M143" s="1">
+        <f t="shared" ref="M143:M145" si="44">M142+15</f>
+        <v>1545</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="O143" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+    </row>
+    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E144" s="1">
+        <v>4</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J144" s="1">
+        <f t="shared" si="42"/>
+        <v>2120</v>
+      </c>
+      <c r="K144" s="1">
+        <f t="shared" si="43"/>
+        <v>1500</v>
+      </c>
+      <c r="L144" s="1">
+        <f t="shared" si="40"/>
+        <v>1120</v>
+      </c>
+      <c r="M144" s="1">
+        <f t="shared" si="44"/>
+        <v>1560</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="O144" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+    </row>
+    <row r="145" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E145" s="1">
+        <v>4</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J145" s="1">
+        <f t="shared" si="42"/>
+        <v>2135</v>
+      </c>
+      <c r="K145" s="1">
+        <f t="shared" si="43"/>
+        <v>1505</v>
+      </c>
+      <c r="L145" s="1">
+        <f t="shared" si="40"/>
+        <v>1125</v>
+      </c>
+      <c r="M145" s="1">
+        <f t="shared" si="44"/>
+        <v>1575</v>
+      </c>
+      <c r="N145" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="O145" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="854">
   <si>
     <t>ID</t>
   </si>
@@ -2042,6 +2042,9 @@
     <t>4500000000000000000000000000000</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>10101</t>
   </si>
   <si>
@@ -2141,6 +2144,12 @@
     <t>地狱鸡</t>
   </si>
   <si>
+    <t>1000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>3100000000</t>
   </si>
   <si>
@@ -2153,6 +2162,12 @@
     <t>地狱鹿</t>
   </si>
   <si>
+    <t>3000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>45000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>3200000000</t>
   </si>
   <si>
@@ -2165,6 +2180,12 @@
     <t>地狱草人</t>
   </si>
   <si>
+    <t>10000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>250000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>3300000000</t>
   </si>
   <si>
@@ -2177,6 +2198,12 @@
     <t>地狱猫</t>
   </si>
   <si>
+    <t>30000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1250000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>3400000000</t>
   </si>
   <si>
@@ -2189,6 +2216,12 @@
     <t>地狱花</t>
   </si>
   <si>
+    <t>100000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>6000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>3500000000</t>
   </si>
   <si>
@@ -2199,6 +2232,12 @@
   </si>
   <si>
     <t>地狱雪人</t>
+  </si>
+  <si>
+    <t>300000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>30000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>3600000000</t>
@@ -3511,8 +3550,8 @@
   <sheetPr/>
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111:O123"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117:I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3522,8 +3561,9 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="24.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
     <col min="14" max="14" width="16.375" style="2" customWidth="1"/>
@@ -8422,28 +8462,32 @@
       </c>
     </row>
     <row r="106" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+      <c r="A106" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C106" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" ref="J106:M106" si="23">J105+15</f>
@@ -8474,28 +8518,32 @@
       <c r="T106" s="2"/>
     </row>
     <row r="107" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
+      <c r="A107" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C107" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" ref="J107:M107" si="25">J106+15</f>
@@ -8526,28 +8574,32 @@
       <c r="T107" s="2"/>
     </row>
     <row r="108" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
+      <c r="A108" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C108" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" ref="J108:J115" si="26">J107+15</f>
@@ -8578,28 +8630,32 @@
       <c r="T108" s="2"/>
     </row>
     <row r="109" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
+      <c r="A109" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C109" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="26"/>
@@ -8630,28 +8686,32 @@
       <c r="T109" s="2"/>
     </row>
     <row r="110" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
+      <c r="A110" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C110" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" si="26"/>
@@ -8682,28 +8742,32 @@
       <c r="T110" s="2"/>
     </row>
     <row r="111" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
+      <c r="A111" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C111" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E111" s="1">
         <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="J111" s="1">
         <f t="shared" si="26"/>
@@ -8722,38 +8786,42 @@
         <v>890</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="R111" s="2"/>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
     <row r="112" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
+      <c r="A112" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C112" s="1" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="E112" s="1">
         <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" si="26"/>
@@ -8772,38 +8840,42 @@
         <v>905</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="R112" s="2"/>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
     <row r="113" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
+      <c r="A113" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C113" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="26"/>
@@ -8822,38 +8894,42 @@
         <v>920</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="R113" s="2"/>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
     <row r="114" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
+      <c r="A114" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C114" s="1" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>698</v>
+        <v>723</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="26"/>
@@ -8872,38 +8948,42 @@
         <v>935</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="R114" s="2"/>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
     <row r="115" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
+      <c r="A115" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C115" s="1" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>698</v>
+        <v>729</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="26"/>
@@ -8922,38 +9002,42 @@
         <v>950</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
     <row r="116" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
+      <c r="A116" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C116" s="1" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" ref="J116:J125" si="29">J115+25</f>
@@ -8972,10 +9056,10 @@
         <v>965</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
@@ -8984,28 +9068,32 @@
       <c r="T116" s="2"/>
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
+      <c r="A117" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" si="29"/>
@@ -9024,10 +9112,10 @@
         <v>980</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
@@ -9036,28 +9124,32 @@
       <c r="T117" s="2"/>
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
+      <c r="A118" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="29"/>
@@ -9076,10 +9168,10 @@
         <v>995</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
@@ -9088,28 +9180,32 @@
       <c r="T118" s="2"/>
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
+      <c r="A119" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C119" s="1" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="G119" s="4" t="s">
-        <v>698</v>
-      </c>
       <c r="H119" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" si="29"/>
@@ -9128,10 +9224,10 @@
         <v>1010</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
@@ -9140,28 +9236,32 @@
       <c r="T119" s="2"/>
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
+      <c r="A120" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C120" s="1" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="29"/>
@@ -9180,10 +9280,10 @@
         <v>1025</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
@@ -9192,28 +9292,32 @@
       <c r="T120" s="2"/>
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C121" s="1" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" si="29"/>
@@ -9232,10 +9336,10 @@
         <v>1040</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
@@ -9244,28 +9348,32 @@
       <c r="T121" s="2"/>
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
+      <c r="A122" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C122" s="1" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="29"/>
@@ -9284,10 +9392,10 @@
         <v>1055</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="O122" s="4" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
@@ -9296,28 +9404,32 @@
       <c r="T122" s="2"/>
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
+      <c r="A123" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C123" s="1" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="29"/>
@@ -9336,10 +9448,10 @@
         <v>1070</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
@@ -9348,28 +9460,32 @@
       <c r="T123" s="2"/>
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
+      <c r="A124" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C124" s="1" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" si="29"/>
@@ -9388,10 +9504,10 @@
         <v>1085</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="O124" s="4" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
@@ -9400,28 +9516,32 @@
       <c r="T124" s="2"/>
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+      <c r="A125" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C125" s="1" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" si="29"/>
@@ -9440,10 +9560,10 @@
         <v>1100</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="O125" s="4" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
@@ -9452,28 +9572,32 @@
       <c r="T125" s="2"/>
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
+      <c r="A126" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C126" s="1" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" ref="J126:J130" si="31">J125+30</f>
@@ -9492,10 +9616,10 @@
         <v>1120</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="O126" s="4" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
@@ -9504,28 +9628,32 @@
       <c r="T126" s="2"/>
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C127" s="1" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" si="31"/>
@@ -9544,10 +9672,10 @@
         <v>1140</v>
       </c>
       <c r="N127" s="4" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="O127" s="4" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
@@ -9556,28 +9684,32 @@
       <c r="T127" s="2"/>
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
+      <c r="A128" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C128" s="1" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" si="31"/>
@@ -9596,10 +9728,10 @@
         <v>1160</v>
       </c>
       <c r="N128" s="4" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="O128" s="4" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
@@ -9608,28 +9740,32 @@
       <c r="T128" s="2"/>
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
+      <c r="A129" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C129" s="1" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" si="31"/>
@@ -9648,10 +9784,10 @@
         <v>1180</v>
       </c>
       <c r="N129" s="4" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="O129" s="4" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
@@ -9660,28 +9796,32 @@
       <c r="T129" s="2"/>
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
+      <c r="A130" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C130" s="1" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" si="31"/>
@@ -9700,10 +9840,10 @@
         <v>1200</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="O130" s="4" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
@@ -9711,27 +9851,33 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" customHeight="1" spans="3:15">
+    <row r="131" customHeight="1" spans="1:15">
+      <c r="A131" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C131" s="1" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J131" s="1">
         <f t="shared" ref="J131:J140" si="35">J130+40</f>
@@ -9750,33 +9896,39 @@
         <v>1230</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="O131" s="4" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="132" customHeight="1" spans="3:15">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:15">
+      <c r="A132" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C132" s="1" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J132" s="1">
         <f t="shared" si="35"/>
@@ -9795,33 +9947,39 @@
         <v>1260</v>
       </c>
       <c r="N132" s="4" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="O132" s="4" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="133" customHeight="1" spans="3:15">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:15">
+      <c r="A133" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C133" s="1" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J133" s="1">
         <f t="shared" si="35"/>
@@ -9840,33 +9998,39 @@
         <v>1290</v>
       </c>
       <c r="N133" s="4" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="O133" s="4" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="134" customHeight="1" spans="3:15">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:15">
+      <c r="A134" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C134" s="1" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" si="35"/>
@@ -9885,33 +10049,39 @@
         <v>1320</v>
       </c>
       <c r="N134" s="4" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="O134" s="4" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="135" customHeight="1" spans="3:15">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:15">
+      <c r="A135" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C135" s="1" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J135" s="1">
         <f t="shared" si="35"/>
@@ -9930,33 +10100,39 @@
         <v>1350</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="O135" s="4" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="136" customHeight="1" spans="3:15">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:15">
+      <c r="A136" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C136" s="1" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="E136" s="1">
         <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J136" s="1">
         <f t="shared" si="35"/>
@@ -9975,33 +10151,39 @@
         <v>1380</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="O136" s="4" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="137" customHeight="1" spans="3:15">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:15">
+      <c r="A137" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C137" s="1" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J137" s="1">
         <f t="shared" si="35"/>
@@ -10020,33 +10202,39 @@
         <v>1410</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="O137" s="4" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="138" customHeight="1" spans="3:15">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:15">
+      <c r="A138" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C138" s="1" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J138" s="1">
         <f t="shared" si="35"/>
@@ -10065,33 +10253,39 @@
         <v>1440</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="O138" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="3:15">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:15">
+      <c r="A139" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C139" s="1" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" si="35"/>
@@ -10110,33 +10304,39 @@
         <v>1470</v>
       </c>
       <c r="N139" s="4" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="O139" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="3:15">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:15">
+      <c r="A140" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C140" s="1" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="E140" s="1">
         <v>4</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" si="35"/>
@@ -10155,35 +10355,39 @@
         <v>1500</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="O140" s="4" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
+      <c r="A141" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C141" s="1" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" ref="J141:M141" si="39">J140+15</f>
@@ -10202,10 +10406,10 @@
         <v>1515</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="O141" s="4" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
@@ -10214,28 +10418,32 @@
       <c r="T141" s="2"/>
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
+      <c r="A142" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C142" s="1" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" ref="J142:M142" si="41">J141+15</f>
@@ -10254,10 +10462,10 @@
         <v>1530</v>
       </c>
       <c r="N142" s="4" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="O142" s="4" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
@@ -10266,28 +10474,32 @@
       <c r="T142" s="2"/>
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+      <c r="A143" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C143" s="1" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" ref="J143:J145" si="42">J142+15</f>
@@ -10306,10 +10518,10 @@
         <v>1545</v>
       </c>
       <c r="N143" s="4" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="O143" s="4" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
@@ -10318,28 +10530,32 @@
       <c r="T143" s="2"/>
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
+      <c r="A144" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C144" s="1" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" si="42"/>
@@ -10358,10 +10574,10 @@
         <v>1560</v>
       </c>
       <c r="N144" s="4" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="O144" s="4" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
@@ -10370,28 +10586,32 @@
       <c r="T144" s="2"/>
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
+      <c r="A145" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="C145" s="1" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" si="42"/>
@@ -10410,10 +10630,10 @@
         <v>1575</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="O145" s="4" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="854">
   <si>
     <t>ID</t>
   </si>
@@ -2042,97 +2042,97 @@
     <t>4500000000000000000000000000000</t>
   </si>
   <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>噩梦钢牙</t>
+  </si>
+  <si>
+    <t>27000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000000000</t>
+  </si>
+  <si>
+    <t>24000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10102</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>噩梦天狼</t>
+  </si>
+  <si>
+    <t>81000000000000000000000000</t>
+  </si>
+  <si>
+    <t>30000000000000000000000000</t>
+  </si>
+  <si>
+    <t>120000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10103</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>噩梦血巨人</t>
+  </si>
+  <si>
+    <t>240000000000000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000000</t>
+  </si>
+  <si>
+    <t>600000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10104</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>噩梦魔龙兵</t>
+  </si>
+  <si>
+    <t>720000000000000000000000000</t>
+  </si>
+  <si>
+    <t>300000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10105</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>噩梦火龙兽</t>
+  </si>
+  <si>
+    <t>2100000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>15000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>10101</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>噩梦钢牙</t>
-  </si>
-  <si>
-    <t>27000000000000000000000000</t>
-  </si>
-  <si>
-    <t>10000000000000000000000000</t>
-  </si>
-  <si>
-    <t>24000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>10102</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>噩梦天狼</t>
-  </si>
-  <si>
-    <t>81000000000000000000000000</t>
-  </si>
-  <si>
-    <t>30000000000000000000000000</t>
-  </si>
-  <si>
-    <t>120000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>10103</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>噩梦血巨人</t>
-  </si>
-  <si>
-    <t>240000000000000000000000000</t>
-  </si>
-  <si>
-    <t>100000000000000000000000000</t>
-  </si>
-  <si>
-    <t>600000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>10104</t>
-  </si>
-  <si>
-    <t>1103</t>
-  </si>
-  <si>
-    <t>噩梦魔龙兵</t>
-  </si>
-  <si>
-    <t>720000000000000000000000000</t>
-  </si>
-  <si>
-    <t>300000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>10105</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>噩梦火龙兽</t>
-  </si>
-  <si>
-    <t>2100000000000000000000000000</t>
-  </si>
-  <si>
-    <t>1000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>15000000000000000000000000000000000</t>
   </si>
   <si>
     <t>10106</t>
@@ -3551,7 +3551,7 @@
   <dimension ref="A1:T145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117:I145"/>
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -8462,32 +8462,28 @@
       </c>
     </row>
     <row r="106" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G106" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="H106" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="I106" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>677</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" ref="J106:M106" si="23">J105+15</f>
@@ -8518,32 +8514,28 @@
       <c r="T106" s="2"/>
     </row>
     <row r="107" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A107" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>671</v>
-      </c>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="H107" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="I107" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>683</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" ref="J107:M107" si="25">J106+15</f>
@@ -8574,32 +8566,28 @@
       <c r="T107" s="2"/>
     </row>
     <row r="108" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A108" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>671</v>
-      </c>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
       <c r="C108" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G108" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="H108" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="I108" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>689</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" ref="J108:J115" si="26">J107+15</f>
@@ -8630,32 +8618,28 @@
       <c r="T108" s="2"/>
     </row>
     <row r="109" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A109" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>671</v>
-      </c>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
       <c r="C109" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G109" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="H109" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="H109" s="4" t="s">
+      <c r="I109" s="4" t="s">
         <v>694</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>695</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="26"/>
@@ -8686,32 +8670,28 @@
       <c r="T109" s="2"/>
     </row>
     <row r="110" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A110" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>671</v>
-      </c>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
       <c r="C110" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="H110" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="I110" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>701</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" si="26"/>
@@ -8743,10 +8723,10 @@
     </row>
     <row r="111" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A111" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>702</v>
@@ -8797,10 +8777,10 @@
     </row>
     <row r="112" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A112" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>708</v>
@@ -8851,10 +8831,10 @@
     </row>
     <row r="113" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A113" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>714</v>
@@ -8905,10 +8885,10 @@
     </row>
     <row r="114" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A114" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>720</v>
@@ -8959,10 +8939,10 @@
     </row>
     <row r="115" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A115" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>726</v>
@@ -9013,10 +8993,10 @@
     </row>
     <row r="116" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A116" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>732</v>
@@ -9069,10 +9049,10 @@
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A117" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>738</v>
@@ -9125,10 +9105,10 @@
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A118" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>742</v>
@@ -9181,10 +9161,10 @@
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A119" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>746</v>
@@ -9237,10 +9217,10 @@
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A120" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>750</v>
@@ -9293,10 +9273,10 @@
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A121" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>754</v>
@@ -9349,10 +9329,10 @@
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A122" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>758</v>
@@ -9405,10 +9385,10 @@
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A123" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>762</v>
@@ -9461,10 +9441,10 @@
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A124" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>766</v>
@@ -9517,10 +9497,10 @@
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A125" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>770</v>
@@ -9573,10 +9553,10 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A126" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>774</v>
@@ -9629,10 +9609,10 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A127" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>778</v>
@@ -9685,10 +9665,10 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A128" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>782</v>
@@ -9741,10 +9721,10 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A129" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>786</v>
@@ -9797,10 +9777,10 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A130" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>790</v>
@@ -9853,10 +9833,10 @@
     </row>
     <row r="131" customHeight="1" spans="1:15">
       <c r="A131" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>794</v>
@@ -9904,10 +9884,10 @@
     </row>
     <row r="132" customHeight="1" spans="1:15">
       <c r="A132" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>798</v>
@@ -9955,10 +9935,10 @@
     </row>
     <row r="133" customHeight="1" spans="1:15">
       <c r="A133" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>802</v>
@@ -10006,10 +9986,10 @@
     </row>
     <row r="134" customHeight="1" spans="1:15">
       <c r="A134" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>806</v>
@@ -10057,10 +10037,10 @@
     </row>
     <row r="135" customHeight="1" spans="1:15">
       <c r="A135" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>810</v>
@@ -10108,10 +10088,10 @@
     </row>
     <row r="136" customHeight="1" spans="1:15">
       <c r="A136" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>814</v>
@@ -10159,10 +10139,10 @@
     </row>
     <row r="137" customHeight="1" spans="1:15">
       <c r="A137" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>818</v>
@@ -10210,10 +10190,10 @@
     </row>
     <row r="138" customHeight="1" spans="1:15">
       <c r="A138" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>822</v>
@@ -10261,10 +10241,10 @@
     </row>
     <row r="139" customHeight="1" spans="1:15">
       <c r="A139" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>826</v>
@@ -10312,10 +10292,10 @@
     </row>
     <row r="140" customHeight="1" spans="1:15">
       <c r="A140" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>830</v>
@@ -10363,10 +10343,10 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A141" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>834</v>
@@ -10419,10 +10399,10 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A142" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>838</v>
@@ -10475,10 +10455,10 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A143" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>842</v>
@@ -10531,10 +10511,10 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A144" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>846</v>
@@ -10587,10 +10567,10 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A145" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>850</v>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="860">
   <si>
     <t>ID</t>
   </si>
@@ -62,6 +62,12 @@
     <t>CritDamage</t>
   </si>
   <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
     <t>经验</t>
   </si>
   <si>
@@ -2132,97 +2138,109 @@
     <t>15000000000000000000000000000000000</t>
   </si>
   <si>
+    <t>10106</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>地狱鸡</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3100000000</t>
+  </si>
+  <si>
+    <t>10107</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>地狱鹿</t>
+  </si>
+  <si>
+    <t>45000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>7200000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3200000000</t>
+  </si>
+  <si>
+    <t>10108</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>地狱草人</t>
+  </si>
+  <si>
+    <t>250000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>56000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3300000000</t>
+  </si>
+  <si>
+    <t>10109</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>地狱猫</t>
+  </si>
+  <si>
+    <t>1250000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>480000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3400000000</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>地狱花</t>
+  </si>
+  <si>
+    <t>60000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3500000000</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>10106</t>
-  </si>
-  <si>
-    <t>1105</t>
-  </si>
-  <si>
-    <t>地狱鸡</t>
-  </si>
-  <si>
-    <t>1000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3100000000</t>
-  </si>
-  <si>
-    <t>10107</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>地狱鹿</t>
-  </si>
-  <si>
-    <t>3000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>45000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3200000000</t>
-  </si>
-  <si>
-    <t>10108</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>地狱草人</t>
-  </si>
-  <si>
-    <t>10000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>250000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3300000000</t>
-  </si>
-  <si>
-    <t>10109</t>
-  </si>
-  <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>地狱猫</t>
-  </si>
-  <si>
-    <t>30000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>1250000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3400000000</t>
-  </si>
-  <si>
-    <t>10110</t>
-  </si>
-  <si>
-    <t>1109</t>
-  </si>
-  <si>
-    <t>地狱花</t>
-  </si>
-  <si>
-    <t>100000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>6000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3500000000</t>
   </si>
   <si>
     <t>10111</t>
@@ -2595,11 +2613,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -3221,14 +3240,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3548,10 +3578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T145"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3561,22 +3591,24 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="39.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.125" style="1"/>
-    <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="13.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="14" max="14" width="14.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.125" style="1"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="13.625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="9.625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="G1" s="2"/>
@@ -3588,11 +3620,13 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="G2" s="2"/>
@@ -3604,11 +3638,13 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
       <c r="T2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -3650,33 +3686,39 @@
       <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
@@ -3691,50 +3733,56 @@
         <v>10</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="T4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>23</v>
@@ -3742,22 +3790,28 @@
       <c r="O5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="P5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="T5" s="2"/>
-    </row>
-    <row r="6" customHeight="1" spans="3:15">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" ht="14.25" hidden="1" spans="3:17">
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -3780,34 +3834,40 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:15">
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" customHeight="1" spans="3:17">
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -3821,75 +3881,87 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:15">
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" customHeight="1" spans="3:17">
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:15">
+      <c r="Q8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" customHeight="1" spans="3:17">
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -3903,34 +3975,40 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:15">
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" customHeight="1" spans="3:17">
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -3944,34 +4022,40 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:15">
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" customHeight="1" spans="3:17">
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -3985,34 +4069,40 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:15">
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" customHeight="1" spans="3:17">
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -4026,34 +4116,40 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:15">
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" customHeight="1" spans="3:17">
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -4067,34 +4163,40 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:15">
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" customHeight="1" spans="3:17">
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -4108,34 +4210,40 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:15">
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" customHeight="1" spans="3:17">
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -4149,34 +4257,40 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:15">
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" customHeight="1" spans="3:17">
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -4190,34 +4304,40 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:15">
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" customHeight="1" spans="3:17">
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -4231,34 +4351,40 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:15">
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" customHeight="1" spans="3:17">
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -4272,34 +4398,40 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:15">
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" customHeight="1" spans="3:17">
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -4313,34 +4445,40 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:15">
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" customHeight="1" spans="3:17">
       <c r="C20" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -4354,34 +4492,40 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:15">
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" customHeight="1" spans="3:17">
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ref="J21:J66" si="0">(D21-1014)*3</f>
@@ -4396,34 +4540,40 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:15">
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" customHeight="1" spans="3:17">
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
@@ -4438,34 +4588,40 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:15">
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" customHeight="1" spans="3:17">
       <c r="C23" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
@@ -4480,34 +4636,40 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:15">
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" customHeight="1" spans="3:17">
       <c r="C24" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
@@ -4522,34 +4684,40 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:15">
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" customHeight="1" spans="3:17">
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
@@ -4564,34 +4732,40 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:15">
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" customHeight="1" spans="3:17">
       <c r="C26" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
@@ -4606,34 +4780,40 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:15">
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" customHeight="1" spans="3:17">
       <c r="C27" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
@@ -4648,34 +4828,40 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:15">
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" customHeight="1" spans="3:17">
       <c r="C28" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
@@ -4690,34 +4876,40 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:15">
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" customHeight="1" spans="3:17">
       <c r="C29" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
@@ -4732,34 +4924,40 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:15">
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" customHeight="1" spans="3:17">
       <c r="C30" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
@@ -4774,34 +4972,40 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:15">
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" customHeight="1" spans="3:17">
       <c r="C31" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
@@ -4816,34 +5020,40 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:15">
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" customHeight="1" spans="3:17">
       <c r="C32" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
@@ -4858,34 +5068,40 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:15">
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" customHeight="1" spans="3:17">
       <c r="C33" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
@@ -4900,34 +5116,40 @@
       <c r="M33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:15">
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" customHeight="1" spans="3:17">
       <c r="C34" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
@@ -4942,34 +5164,40 @@
       <c r="M34" s="1">
         <v>0</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:15">
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" customHeight="1" spans="3:17">
       <c r="C35" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
@@ -4984,34 +5212,40 @@
       <c r="M35" s="1">
         <v>0</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:15">
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" customHeight="1" spans="3:17">
       <c r="C36" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
@@ -5026,34 +5260,40 @@
       <c r="M36" s="1">
         <v>0</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:15">
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" customHeight="1" spans="3:17">
       <c r="C37" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
@@ -5068,34 +5308,40 @@
       <c r="M37" s="1">
         <v>0</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:15">
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" customHeight="1" spans="3:17">
       <c r="C38" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="0"/>
@@ -5110,34 +5356,40 @@
       <c r="M38" s="1">
         <v>0</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:15">
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" customHeight="1" spans="3:17">
       <c r="C39" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="0"/>
@@ -5152,34 +5404,40 @@
       <c r="M39" s="1">
         <v>0</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:15">
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" customHeight="1" spans="3:17">
       <c r="C40" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="0"/>
@@ -5194,36 +5452,42 @@
       <c r="M40" s="1">
         <v>0</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="0"/>
@@ -5238,39 +5502,45 @@
       <c r="M41" s="1">
         <v>0</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="T41" s="2"/>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="0"/>
@@ -5285,39 +5555,45 @@
       <c r="M42" s="1">
         <v>0</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="T42" s="2"/>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+    </row>
+    <row r="43" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="0"/>
@@ -5332,39 +5608,45 @@
       <c r="M43" s="1">
         <v>0</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="T43" s="2"/>
-    </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="0"/>
@@ -5379,39 +5661,45 @@
       <c r="M44" s="1">
         <v>0</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="T44" s="2"/>
-    </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+    </row>
+    <row r="45" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="0"/>
@@ -5426,39 +5714,45 @@
       <c r="M45" s="1">
         <v>0</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="T45" s="2"/>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+    </row>
+    <row r="46" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="0"/>
@@ -5473,41 +5767,47 @@
       <c r="M46" s="1">
         <v>0</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="0"/>
@@ -5522,41 +5822,47 @@
       <c r="M47" s="1">
         <v>0</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="0"/>
@@ -5571,41 +5877,47 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+    </row>
+    <row r="49" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="0"/>
@@ -5620,41 +5932,47 @@
       <c r="M49" s="1">
         <v>0</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+    </row>
+    <row r="50" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="0"/>
@@ -5669,41 +5987,47 @@
       <c r="M50" s="1">
         <v>0</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+    </row>
+    <row r="51" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="0"/>
@@ -5721,41 +6045,47 @@
         <f t="shared" ref="M51:M65" si="3">(D51-1044)*5</f>
         <v>5</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+    </row>
+    <row r="52" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="0"/>
@@ -5773,41 +6103,47 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+    </row>
+    <row r="53" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="0"/>
@@ -5825,41 +6161,47 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="N53" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+    </row>
+    <row r="54" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="0"/>
@@ -5877,41 +6219,47 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-    </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+    </row>
+    <row r="55" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="0"/>
@@ -5929,41 +6277,47 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="N55" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+    </row>
+    <row r="56" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="0"/>
@@ -5981,41 +6335,47 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
+      <c r="N56" s="4">
+        <v>0</v>
+      </c>
+      <c r="O56" s="4">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+    </row>
+    <row r="57" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" si="0"/>
@@ -6033,41 +6393,47 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
+      <c r="N57" s="4">
+        <v>0</v>
+      </c>
+      <c r="O57" s="4">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+    </row>
+    <row r="58" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" si="0"/>
@@ -6085,41 +6451,47 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
+      <c r="N58" s="4">
+        <v>0</v>
+      </c>
+      <c r="O58" s="4">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+    </row>
+    <row r="59" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" si="0"/>
@@ -6137,41 +6509,47 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="N59" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
+      <c r="N59" s="4">
+        <v>0</v>
+      </c>
+      <c r="O59" s="4">
+        <v>0</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+    </row>
+    <row r="60" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="0"/>
@@ -6189,41 +6567,47 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="N60" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
+      <c r="N60" s="4">
+        <v>0</v>
+      </c>
+      <c r="O60" s="4">
+        <v>0</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-    </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+    </row>
+    <row r="61" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="0"/>
@@ -6241,41 +6625,47 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="N61" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
+      <c r="N61" s="4">
+        <v>0</v>
+      </c>
+      <c r="O61" s="4">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-    </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+    </row>
+    <row r="62" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="0"/>
@@ -6293,41 +6683,47 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="N62" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
+      <c r="N62" s="4">
+        <v>0</v>
+      </c>
+      <c r="O62" s="4">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-    </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+    </row>
+    <row r="63" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="0"/>
@@ -6345,41 +6741,47 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="N63" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
+      <c r="N63" s="4">
+        <v>0</v>
+      </c>
+      <c r="O63" s="4">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-    </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+    </row>
+    <row r="64" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="0"/>
@@ -6397,41 +6799,47 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="N64" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
+      <c r="N64" s="4">
+        <v>0</v>
+      </c>
+      <c r="O64" s="4">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-    </row>
-    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+    </row>
+    <row r="65" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" si="0"/>
@@ -6449,41 +6857,47 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="N65" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
+      <c r="N65" s="4">
+        <v>0</v>
+      </c>
+      <c r="O65" s="4">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-    </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+    </row>
+    <row r="66" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" ref="J66:M66" si="4">J65+5</f>
@@ -6501,41 +6915,47 @@
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="N66" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
+      <c r="N66" s="4">
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+    </row>
+    <row r="67" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>446</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" ref="J66:J71" si="6">J66+5</f>
@@ -6553,41 +6973,47 @@
         <f t="shared" ref="M67:M70" si="8">M66+5</f>
         <v>85</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
+      <c r="N67" s="4">
+        <v>0</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+    </row>
+    <row r="68" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>453</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" si="6"/>
@@ -6605,41 +7031,47 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
+      <c r="N68" s="4">
+        <v>0</v>
+      </c>
+      <c r="O68" s="4">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+    </row>
+    <row r="69" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="I69" s="4" t="s">
         <v>458</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>460</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" si="6"/>
@@ -6657,41 +7089,47 @@
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="N69" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
+      <c r="N69" s="4">
+        <v>0</v>
+      </c>
+      <c r="O69" s="4">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>461</v>
+      </c>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
-    </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+    </row>
+    <row r="70" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="H70" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="G70" s="10" t="s">
         <v>465</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>467</v>
       </c>
       <c r="J70" s="1">
         <f t="shared" si="6"/>
@@ -6709,41 +7147,47 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="N70" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
+      <c r="N70" s="4">
+        <v>0</v>
+      </c>
+      <c r="O70" s="4">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
-    </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+    </row>
+    <row r="71" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="H71" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="G71" s="10" t="s">
         <v>472</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>474</v>
       </c>
       <c r="J71" s="1">
         <f>J70+15</f>
@@ -6761,41 +7205,47 @@
         <f t="shared" si="9"/>
         <v>115</v>
       </c>
-      <c r="N71" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
+      <c r="N71" s="4">
+        <v>0</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+    </row>
+    <row r="72" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H72" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="G72" s="10" t="s">
         <v>479</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>481</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" ref="J71:J81" si="10">J71+15</f>
@@ -6813,41 +7263,47 @@
         <f t="shared" ref="M72:M95" si="11">M71+15</f>
         <v>130</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
+      <c r="N72" s="4">
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>482</v>
+      </c>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
-    </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+    </row>
+    <row r="73" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E73" s="1">
         <v>2</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="H73" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="G73" s="10" t="s">
         <v>486</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="J73" s="1">
         <f t="shared" si="10"/>
@@ -6865,41 +7321,47 @@
         <f t="shared" si="11"/>
         <v>145</v>
       </c>
-      <c r="N73" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
+      <c r="N73" s="4">
+        <v>0</v>
+      </c>
+      <c r="O73" s="4">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
-    </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+    </row>
+    <row r="74" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E74" s="1">
         <v>2</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="H74" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="G74" s="10" t="s">
         <v>493</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" si="10"/>
@@ -6917,41 +7379,47 @@
         <f t="shared" si="11"/>
         <v>160</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
+      <c r="N74" s="4">
+        <v>0</v>
+      </c>
+      <c r="O74" s="4">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>496</v>
+      </c>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
-    </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+    </row>
+    <row r="75" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E75" s="1">
         <v>2</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="H75" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="G75" s="10" t="s">
         <v>500</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>502</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" si="10"/>
@@ -6969,41 +7437,47 @@
         <f t="shared" si="11"/>
         <v>175</v>
       </c>
-      <c r="N75" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
+      <c r="N75" s="4">
+        <v>0</v>
+      </c>
+      <c r="O75" s="4">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q75" s="10" t="s">
+        <v>503</v>
+      </c>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
-    </row>
-    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+    </row>
+    <row r="76" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="H76" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="G76" s="10" t="s">
         <v>507</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>509</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" si="10"/>
@@ -7021,39 +7495,45 @@
         <f t="shared" si="11"/>
         <v>190</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N76" s="4">
+        <v>0</v>
+      </c>
+      <c r="O76" s="4">
+        <v>0</v>
+      </c>
+      <c r="P76" s="1">
         <v>229385000</v>
       </c>
-      <c r="O76" s="1">
+      <c r="Q76" s="1">
         <v>229385000</v>
       </c>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
       <c r="T76" s="2"/>
-    </row>
-    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+    </row>
+    <row r="77" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="H77" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="G77" s="10" t="s">
         <v>513</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>515</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" si="10"/>
@@ -7071,39 +7551,45 @@
         <f t="shared" si="11"/>
         <v>205</v>
       </c>
-      <c r="N77" s="1">
+      <c r="N77" s="4">
+        <v>0</v>
+      </c>
+      <c r="O77" s="4">
+        <v>0</v>
+      </c>
+      <c r="P77" s="1">
         <v>239385000</v>
       </c>
-      <c r="O77" s="1">
+      <c r="Q77" s="1">
         <v>239385000</v>
       </c>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
       <c r="T77" s="2"/>
-    </row>
-    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+    </row>
+    <row r="78" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="H78" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="G78" s="10" t="s">
         <v>519</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>521</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" si="10"/>
@@ -7121,39 +7607,45 @@
         <f t="shared" si="11"/>
         <v>220</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N78" s="4">
+        <v>0</v>
+      </c>
+      <c r="O78" s="4">
+        <v>0</v>
+      </c>
+      <c r="P78" s="1">
         <v>249385000</v>
       </c>
-      <c r="O78" s="1">
+      <c r="Q78" s="1">
         <v>249385000</v>
       </c>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
       <c r="T78" s="2"/>
-    </row>
-    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+    </row>
+    <row r="79" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E79" s="1">
         <v>3</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="H79" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="G79" s="10" t="s">
         <v>525</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>527</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" si="10"/>
@@ -7171,39 +7663,45 @@
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="N79" s="1">
+      <c r="N79" s="4">
+        <v>0</v>
+      </c>
+      <c r="O79" s="4">
+        <v>0</v>
+      </c>
+      <c r="P79" s="1">
         <v>259385000</v>
       </c>
-      <c r="O79" s="1">
+      <c r="Q79" s="1">
         <v>259385000</v>
       </c>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
       <c r="T79" s="2"/>
-    </row>
-    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+    </row>
+    <row r="80" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="H80" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="G80" s="10" t="s">
         <v>531</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>533</v>
       </c>
       <c r="J80" s="1">
         <f t="shared" si="10"/>
@@ -7221,39 +7719,45 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="N80" s="1">
+      <c r="N80" s="4">
+        <v>0</v>
+      </c>
+      <c r="O80" s="4">
+        <v>0</v>
+      </c>
+      <c r="P80" s="1">
         <v>269385000</v>
       </c>
-      <c r="O80" s="1">
+      <c r="Q80" s="1">
         <v>269385000</v>
       </c>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
       <c r="T80" s="2"/>
-    </row>
-    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+    </row>
+    <row r="81" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="H81" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="G81" s="10" t="s">
         <v>537</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>539</v>
       </c>
       <c r="J81" s="1">
         <f t="shared" ref="J81:J91" si="13">J80+25</f>
@@ -7271,41 +7775,47 @@
         <f t="shared" si="11"/>
         <v>265</v>
       </c>
-      <c r="N81" s="1">
+      <c r="N81" s="4">
+        <v>0</v>
+      </c>
+      <c r="O81" s="4">
+        <v>0</v>
+      </c>
+      <c r="P81" s="1">
         <v>300000000</v>
       </c>
-      <c r="O81" s="1">
+      <c r="Q81" s="1">
         <v>300000000</v>
       </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
-    </row>
-    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+    </row>
+    <row r="82" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="H82" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="G82" s="10" t="s">
         <v>543</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>545</v>
       </c>
       <c r="J82" s="1">
         <f t="shared" si="13"/>
@@ -7323,41 +7833,47 @@
         <f t="shared" si="11"/>
         <v>280</v>
       </c>
-      <c r="N82" s="1">
+      <c r="N82" s="4">
+        <v>0</v>
+      </c>
+      <c r="O82" s="4">
+        <v>0</v>
+      </c>
+      <c r="P82" s="1">
         <v>320000000</v>
       </c>
-      <c r="O82" s="1">
+      <c r="Q82" s="1">
         <v>320000000</v>
       </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
-    </row>
-    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+    </row>
+    <row r="83" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E83" s="1">
         <v>3</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="H83" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="G83" s="10" t="s">
         <v>549</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>551</v>
       </c>
       <c r="J83" s="1">
         <f t="shared" si="13"/>
@@ -7375,41 +7891,47 @@
         <f t="shared" si="11"/>
         <v>295</v>
       </c>
-      <c r="N83" s="1">
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+      <c r="O83" s="4">
+        <v>0</v>
+      </c>
+      <c r="P83" s="1">
         <v>340000000</v>
       </c>
-      <c r="O83" s="1">
+      <c r="Q83" s="1">
         <v>340000000</v>
       </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
-    </row>
-    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+    </row>
+    <row r="84" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="H84" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="G84" s="10" t="s">
         <v>555</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>557</v>
       </c>
       <c r="J84" s="1">
         <f t="shared" si="13"/>
@@ -7427,41 +7949,47 @@
         <f t="shared" si="11"/>
         <v>310</v>
       </c>
-      <c r="N84" s="1">
+      <c r="N84" s="4">
+        <v>0</v>
+      </c>
+      <c r="O84" s="4">
+        <v>0</v>
+      </c>
+      <c r="P84" s="1">
         <v>370000000</v>
       </c>
-      <c r="O84" s="1">
+      <c r="Q84" s="1">
         <v>370000000</v>
       </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
-    </row>
-    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+    </row>
+    <row r="85" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="H85" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="G85" s="10" t="s">
         <v>561</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>563</v>
       </c>
       <c r="J85" s="1">
         <f t="shared" si="13"/>
@@ -7479,41 +8007,47 @@
         <f t="shared" si="11"/>
         <v>325</v>
       </c>
-      <c r="N85" s="1">
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+      <c r="O85" s="4">
+        <v>0</v>
+      </c>
+      <c r="P85" s="1">
         <v>400000000</v>
       </c>
-      <c r="O85" s="1">
+      <c r="Q85" s="1">
         <v>400000000</v>
       </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
-    </row>
-    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+    </row>
+    <row r="86" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E86" s="1">
         <v>3</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="I86" s="4" t="s">
         <v>566</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="J86" s="1">
         <f t="shared" si="13"/>
@@ -7531,41 +8065,47 @@
         <f t="shared" si="11"/>
         <v>340</v>
       </c>
-      <c r="N86" s="1">
+      <c r="N86" s="4">
+        <v>0</v>
+      </c>
+      <c r="O86" s="4">
+        <v>0</v>
+      </c>
+      <c r="P86" s="1">
         <v>500000000</v>
       </c>
-      <c r="O86" s="1">
+      <c r="Q86" s="1">
         <v>500000000</v>
       </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
-    </row>
-    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+    </row>
+    <row r="87" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E87" s="1">
         <v>3</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="H87" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="G87" s="10" t="s">
         <v>572</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>574</v>
       </c>
       <c r="J87" s="1">
         <f t="shared" si="13"/>
@@ -7583,41 +8123,47 @@
         <f t="shared" si="11"/>
         <v>355</v>
       </c>
-      <c r="N87" s="1">
+      <c r="N87" s="4">
+        <v>0</v>
+      </c>
+      <c r="O87" s="4">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1">
         <v>600000000</v>
       </c>
-      <c r="O87" s="1">
+      <c r="Q87" s="1">
         <v>600000000</v>
       </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
-    </row>
-    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+    </row>
+    <row r="88" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E88" s="1">
         <v>3</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>578</v>
       </c>
       <c r="J88" s="1">
         <f t="shared" si="13"/>
@@ -7635,41 +8181,47 @@
         <f t="shared" si="11"/>
         <v>370</v>
       </c>
-      <c r="N88" s="1">
+      <c r="N88" s="4">
+        <v>0</v>
+      </c>
+      <c r="O88" s="4">
+        <v>0</v>
+      </c>
+      <c r="P88" s="1">
         <v>700000000</v>
       </c>
-      <c r="O88" s="1">
+      <c r="Q88" s="1">
         <v>700000000</v>
       </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
-    </row>
-    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+    </row>
+    <row r="89" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E89" s="1">
         <v>3</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="I89" s="4" t="s">
         <v>581</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>583</v>
       </c>
       <c r="J89" s="1">
         <f t="shared" si="13"/>
@@ -7687,41 +8239,47 @@
         <f t="shared" si="11"/>
         <v>385</v>
       </c>
-      <c r="N89" s="1">
+      <c r="N89" s="4">
+        <v>0</v>
+      </c>
+      <c r="O89" s="4">
+        <v>0</v>
+      </c>
+      <c r="P89" s="1">
         <v>800000000</v>
       </c>
-      <c r="O89" s="1">
+      <c r="Q89" s="1">
         <v>800000000</v>
       </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
-    </row>
-    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+    </row>
+    <row r="90" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E90" s="1">
         <v>3</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="I90" s="4" t="s">
         <v>586</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>588</v>
       </c>
       <c r="J90" s="1">
         <f t="shared" si="13"/>
@@ -7739,41 +8297,47 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="N90" s="1">
+      <c r="N90" s="4">
+        <v>0</v>
+      </c>
+      <c r="O90" s="4">
+        <v>0</v>
+      </c>
+      <c r="P90" s="1">
         <v>1000000000</v>
       </c>
-      <c r="O90" s="1">
+      <c r="Q90" s="1">
         <v>1000000000</v>
       </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
-    </row>
-    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+    </row>
+    <row r="91" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E91" s="1">
         <v>3</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="H91" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="G91" s="10" t="s">
         <v>592</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>594</v>
       </c>
       <c r="J91" s="1">
         <f t="shared" ref="J91:J100" si="15">J90+30</f>
@@ -7791,41 +8355,47 @@
         <f t="shared" ref="M91:M96" si="18">M90+20</f>
         <v>420</v>
       </c>
-      <c r="N91" s="1">
+      <c r="N91" s="4">
+        <v>0</v>
+      </c>
+      <c r="O91" s="4">
+        <v>0</v>
+      </c>
+      <c r="P91" s="1">
         <v>1100000000</v>
       </c>
-      <c r="O91" s="1">
+      <c r="Q91" s="1">
         <v>1100000000</v>
       </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
-    </row>
-    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+    </row>
+    <row r="92" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="H92" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="G92" s="10" t="s">
         <v>598</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>600</v>
       </c>
       <c r="J92" s="1">
         <f t="shared" si="15"/>
@@ -7843,41 +8413,47 @@
         <f t="shared" si="18"/>
         <v>440</v>
       </c>
-      <c r="N92" s="1">
+      <c r="N92" s="4">
+        <v>0</v>
+      </c>
+      <c r="O92" s="4">
+        <v>0</v>
+      </c>
+      <c r="P92" s="1">
         <v>1200000000</v>
       </c>
-      <c r="O92" s="1">
+      <c r="Q92" s="1">
         <v>1200000000</v>
       </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
-    </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+    </row>
+    <row r="93" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="H93" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="G93" s="10" t="s">
         <v>604</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>606</v>
       </c>
       <c r="J93" s="1">
         <f t="shared" si="15"/>
@@ -7895,41 +8471,47 @@
         <f t="shared" si="18"/>
         <v>460</v>
       </c>
-      <c r="N93" s="1">
+      <c r="N93" s="4">
+        <v>0</v>
+      </c>
+      <c r="O93" s="4">
+        <v>0</v>
+      </c>
+      <c r="P93" s="1">
         <v>1300000000</v>
       </c>
-      <c r="O93" s="1">
+      <c r="Q93" s="1">
         <v>1300000000</v>
       </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
-    </row>
-    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+    </row>
+    <row r="94" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="I94" s="4" t="s">
         <v>609</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>611</v>
       </c>
       <c r="J94" s="1">
         <f t="shared" si="15"/>
@@ -7947,41 +8529,47 @@
         <f t="shared" si="18"/>
         <v>480</v>
       </c>
-      <c r="N94" s="1">
+      <c r="N94" s="4">
+        <v>0</v>
+      </c>
+      <c r="O94" s="4">
+        <v>0</v>
+      </c>
+      <c r="P94" s="1">
         <v>1400000000</v>
       </c>
-      <c r="O94" s="1">
+      <c r="Q94" s="1">
         <v>1400000000</v>
       </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
-    </row>
-    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+    </row>
+    <row r="95" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="I95" s="4" t="s">
         <v>614</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>616</v>
       </c>
       <c r="J95" s="1">
         <f t="shared" si="15"/>
@@ -7999,39 +8587,45 @@
         <f t="shared" si="18"/>
         <v>500</v>
       </c>
-      <c r="N95" s="1">
+      <c r="N95" s="4">
+        <v>0</v>
+      </c>
+      <c r="O95" s="4">
+        <v>0</v>
+      </c>
+      <c r="P95" s="1">
         <v>1500000000</v>
       </c>
-      <c r="O95" s="1">
+      <c r="Q95" s="1">
         <v>1500000000</v>
       </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
-    </row>
-    <row r="96" customHeight="1" spans="3:15">
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+    </row>
+    <row r="96" hidden="1" customHeight="1" spans="3:17">
       <c r="C96" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="I96" s="4" t="s">
         <v>619</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>621</v>
       </c>
       <c r="J96" s="1">
         <f t="shared" ref="J96:J105" si="19">J95+40</f>
@@ -8049,34 +8643,40 @@
         <f t="shared" ref="M96:M105" si="22">M95+30</f>
         <v>530</v>
       </c>
-      <c r="N96" s="1">
+      <c r="N96" s="4">
+        <v>0</v>
+      </c>
+      <c r="O96" s="4">
+        <v>0</v>
+      </c>
+      <c r="P96" s="1">
         <v>1600000000</v>
       </c>
-      <c r="O96" s="1">
+      <c r="Q96" s="1">
         <v>1600000000</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="3:15">
+    <row r="97" hidden="1" customHeight="1" spans="3:17">
       <c r="C97" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E97" s="1">
         <v>3</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="I97" s="4" t="s">
         <v>624</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>626</v>
       </c>
       <c r="J97" s="1">
         <f t="shared" si="19"/>
@@ -8094,34 +8694,40 @@
         <f t="shared" si="22"/>
         <v>560</v>
       </c>
-      <c r="N97" s="1">
+      <c r="N97" s="4">
+        <v>0</v>
+      </c>
+      <c r="O97" s="4">
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
         <v>1700000000</v>
       </c>
-      <c r="O97" s="1">
+      <c r="Q97" s="1">
         <v>1700000000</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="3:15">
+    <row r="98" hidden="1" customHeight="1" spans="3:17">
       <c r="C98" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="H98" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="G98" s="10" t="s">
         <v>630</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>632</v>
       </c>
       <c r="J98" s="1">
         <f t="shared" si="19"/>
@@ -8139,34 +8745,40 @@
         <f t="shared" si="22"/>
         <v>590</v>
       </c>
-      <c r="N98" s="1">
+      <c r="N98" s="4">
+        <v>0</v>
+      </c>
+      <c r="O98" s="4">
+        <v>0</v>
+      </c>
+      <c r="P98" s="1">
         <v>1800000000</v>
       </c>
-      <c r="O98" s="1">
+      <c r="Q98" s="1">
         <v>1800000000</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="3:15">
+    <row r="99" hidden="1" customHeight="1" spans="3:17">
       <c r="C99" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="H99" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="G99" s="10" t="s">
         <v>636</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>638</v>
       </c>
       <c r="J99" s="1">
         <f t="shared" si="19"/>
@@ -8184,34 +8796,40 @@
         <f t="shared" si="22"/>
         <v>620</v>
       </c>
-      <c r="N99" s="1">
+      <c r="N99" s="4">
+        <v>0</v>
+      </c>
+      <c r="O99" s="4">
+        <v>0</v>
+      </c>
+      <c r="P99" s="1">
         <v>1900000000</v>
       </c>
-      <c r="O99" s="1">
+      <c r="Q99" s="1">
         <v>1900000000</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="3:15">
+    <row r="100" hidden="1" customHeight="1" spans="3:17">
       <c r="C100" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="H100" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="G100" s="10" t="s">
         <v>642</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>644</v>
       </c>
       <c r="J100" s="1">
         <f t="shared" si="19"/>
@@ -8229,34 +8847,40 @@
         <f t="shared" si="22"/>
         <v>650</v>
       </c>
-      <c r="N100" s="1">
+      <c r="N100" s="4">
+        <v>0</v>
+      </c>
+      <c r="O100" s="4">
+        <v>0</v>
+      </c>
+      <c r="P100" s="1">
         <v>2000000000</v>
       </c>
-      <c r="O100" s="1">
+      <c r="Q100" s="1">
         <v>2000000000</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="3:15">
+    <row r="101" hidden="1" customHeight="1" spans="3:17">
       <c r="C101" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="H101" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="G101" s="10" t="s">
         <v>648</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>650</v>
       </c>
       <c r="J101" s="1">
         <f t="shared" si="19"/>
@@ -8274,34 +8898,40 @@
         <f t="shared" si="22"/>
         <v>680</v>
       </c>
-      <c r="N101" s="1">
+      <c r="N101" s="4">
+        <v>0</v>
+      </c>
+      <c r="O101" s="4">
+        <v>0</v>
+      </c>
+      <c r="P101" s="1">
         <v>2100000000</v>
       </c>
-      <c r="O101" s="1">
+      <c r="Q101" s="1">
         <v>2100000000</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="3:15">
+    <row r="102" hidden="1" customHeight="1" spans="3:17">
       <c r="C102" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="H102" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="G102" s="10" t="s">
         <v>654</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>656</v>
       </c>
       <c r="J102" s="1">
         <f t="shared" si="19"/>
@@ -8319,34 +8949,40 @@
         <f t="shared" si="22"/>
         <v>710</v>
       </c>
-      <c r="N102" s="1">
+      <c r="N102" s="4">
+        <v>0</v>
+      </c>
+      <c r="O102" s="4">
+        <v>0</v>
+      </c>
+      <c r="P102" s="1">
         <v>2200000000</v>
       </c>
-      <c r="O102" s="1">
+      <c r="Q102" s="1">
         <v>2200000000</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="3:15">
+    <row r="103" hidden="1" customHeight="1" spans="3:17">
       <c r="C103" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="H103" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="G103" s="10" t="s">
         <v>660</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>662</v>
       </c>
       <c r="J103" s="1">
         <f t="shared" si="19"/>
@@ -8364,34 +9000,40 @@
         <f t="shared" si="22"/>
         <v>740</v>
       </c>
-      <c r="N103" s="1">
+      <c r="N103" s="4">
+        <v>0</v>
+      </c>
+      <c r="O103" s="4">
+        <v>0</v>
+      </c>
+      <c r="P103" s="1">
         <v>2300000000</v>
       </c>
-      <c r="O103" s="1">
+      <c r="Q103" s="1">
         <v>2300000000</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="3:15">
+    <row r="104" hidden="1" customHeight="1" spans="3:17">
       <c r="C104" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="I104" s="4" t="s">
         <v>665</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>667</v>
       </c>
       <c r="J104" s="1">
         <f t="shared" si="19"/>
@@ -8409,34 +9051,40 @@
         <f t="shared" si="22"/>
         <v>770</v>
       </c>
-      <c r="N104" s="1">
+      <c r="N104" s="4">
+        <v>0</v>
+      </c>
+      <c r="O104" s="4">
+        <v>0</v>
+      </c>
+      <c r="P104" s="1">
         <v>2400000000</v>
       </c>
-      <c r="O104" s="1">
+      <c r="Q104" s="1">
         <v>2400000000</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="3:15">
+    <row r="105" hidden="1" customHeight="1" spans="3:17">
       <c r="C105" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="I105" s="4" t="s">
         <v>670</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>672</v>
       </c>
       <c r="J105" s="1">
         <f t="shared" si="19"/>
@@ -8454,36 +9102,42 @@
         <f t="shared" si="22"/>
         <v>800</v>
       </c>
-      <c r="N105" s="1">
+      <c r="N105" s="4">
+        <v>0</v>
+      </c>
+      <c r="O105" s="4">
+        <v>0</v>
+      </c>
+      <c r="P105" s="1">
         <v>2500000000</v>
       </c>
-      <c r="O105" s="1">
+      <c r="Q105" s="1">
         <v>2500000000</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:20">
+    <row r="106" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="H106" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="I106" s="4" t="s">
+      <c r="G106" s="10" t="s">
         <v>676</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>678</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" ref="J106:M106" si="23">J105+15</f>
@@ -8501,41 +9155,47 @@
         <f t="shared" si="23"/>
         <v>815</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N106" s="4">
+        <v>0</v>
+      </c>
+      <c r="O106" s="4">
+        <v>0</v>
+      </c>
+      <c r="P106" s="1">
         <v>2600000000</v>
       </c>
-      <c r="O106" s="1">
+      <c r="Q106" s="1">
         <v>2600000000</v>
       </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
-    </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+    </row>
+    <row r="107" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="H107" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="G107" s="10" t="s">
         <v>682</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>684</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" ref="J107:M107" si="25">J106+15</f>
@@ -8553,41 +9213,47 @@
         <f t="shared" si="25"/>
         <v>830</v>
       </c>
-      <c r="N107" s="1">
+      <c r="N107" s="4">
+        <v>0</v>
+      </c>
+      <c r="O107" s="4">
+        <v>0</v>
+      </c>
+      <c r="P107" s="1">
         <v>2700000000</v>
       </c>
-      <c r="O107" s="1">
+      <c r="Q107" s="1">
         <v>2700000000</v>
       </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
-    </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+    </row>
+    <row r="108" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="H108" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="I108" s="4" t="s">
+      <c r="G108" s="10" t="s">
         <v>688</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>690</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" ref="J108:J115" si="26">J107+15</f>
@@ -8605,41 +9271,47 @@
         <f t="shared" ref="M108:M125" si="28">M107+15</f>
         <v>845</v>
       </c>
-      <c r="N108" s="1">
+      <c r="N108" s="4">
+        <v>0</v>
+      </c>
+      <c r="O108" s="4">
+        <v>0</v>
+      </c>
+      <c r="P108" s="1">
         <v>2800000000</v>
       </c>
-      <c r="O108" s="1">
+      <c r="Q108" s="1">
         <v>2800000000</v>
       </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
-    </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+    </row>
+    <row r="109" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H109" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="I109" s="4" t="s">
+      <c r="G109" s="10" t="s">
         <v>694</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>696</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="26"/>
@@ -8657,41 +9329,47 @@
         <f t="shared" si="28"/>
         <v>860</v>
       </c>
-      <c r="N109" s="1">
+      <c r="N109" s="4">
+        <v>0</v>
+      </c>
+      <c r="O109" s="4">
+        <v>0</v>
+      </c>
+      <c r="P109" s="1">
         <v>2900000000</v>
       </c>
-      <c r="O109" s="1">
+      <c r="Q109" s="1">
         <v>2900000000</v>
       </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
-    </row>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="H110" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="I110" s="4" t="s">
+      <c r="G110" s="10" t="s">
         <v>700</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>702</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" si="26"/>
@@ -8709,45 +9387,47 @@
         <f t="shared" si="28"/>
         <v>875</v>
       </c>
-      <c r="N110" s="1">
+      <c r="N110" s="4">
+        <v>0</v>
+      </c>
+      <c r="O110" s="4">
+        <v>0</v>
+      </c>
+      <c r="P110" s="1">
         <v>3000000000</v>
       </c>
-      <c r="O110" s="1">
+      <c r="Q110" s="1">
         <v>3000000000</v>
       </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
-    </row>
-    <row r="111" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A111" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>701</v>
-      </c>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+    </row>
+    <row r="111" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
       <c r="C111" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E111" s="1">
         <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="G111" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="H111" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="I111" s="4" t="s">
+      <c r="G111" s="11" t="s">
         <v>706</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>707</v>
       </c>
       <c r="J111" s="1">
         <f t="shared" si="26"/>
@@ -8765,43 +9445,45 @@
         <f t="shared" si="28"/>
         <v>890</v>
       </c>
-      <c r="N111" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="O111" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
+      <c r="N111" s="2">
+        <v>30</v>
+      </c>
+      <c r="O111" s="4">
+        <v>0</v>
+      </c>
+      <c r="P111" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q111" s="10" t="s">
+        <v>708</v>
+      </c>
       <c r="T111" s="2"/>
-    </row>
-    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A112" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>701</v>
-      </c>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+    </row>
+    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
       <c r="C112" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E112" s="1">
         <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="G112" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="I112" s="4" t="s">
+      <c r="G112" s="14" t="s">
         <v>712</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>714</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" si="26"/>
@@ -8819,43 +9501,46 @@
         <f t="shared" si="28"/>
         <v>905</v>
       </c>
-      <c r="N112" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="O112" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
+      <c r="N112" s="2">
+        <f t="shared" ref="N112:N145" si="29">N111+1</f>
+        <v>31</v>
+      </c>
+      <c r="O112" s="4">
+        <v>0</v>
+      </c>
+      <c r="P112" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q112" s="10" t="s">
+        <v>715</v>
+      </c>
       <c r="T112" s="2"/>
-    </row>
-    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A113" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>701</v>
-      </c>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+    </row>
+    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
       <c r="C113" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="I113" s="4" t="s">
         <v>718</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>721</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="26"/>
@@ -8873,43 +9558,46 @@
         <f t="shared" si="28"/>
         <v>920</v>
       </c>
-      <c r="N113" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="O113" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
+      <c r="N113" s="2">
+        <f t="shared" si="29"/>
+        <v>32</v>
+      </c>
+      <c r="O113" s="4">
+        <v>0</v>
+      </c>
+      <c r="P113" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q113" s="10" t="s">
+        <v>722</v>
+      </c>
       <c r="T113" s="2"/>
-    </row>
-    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A114" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>701</v>
-      </c>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+    </row>
+    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
       <c r="C114" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>728</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="26"/>
@@ -8927,43 +9615,46 @@
         <f t="shared" si="28"/>
         <v>935</v>
       </c>
-      <c r="N114" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="O114" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
+      <c r="N114" s="2">
+        <f t="shared" si="29"/>
+        <v>33</v>
+      </c>
+      <c r="O114" s="4">
+        <v>0</v>
+      </c>
+      <c r="P114" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q114" s="10" t="s">
+        <v>729</v>
+      </c>
       <c r="T114" s="2"/>
-    </row>
-    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A115" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>701</v>
-      </c>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+    </row>
+    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
       <c r="C115" s="1" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>730</v>
+        <v>732</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="I115" s="15" t="s">
+        <v>735</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="26"/>
@@ -8981,50 +9672,57 @@
         <f t="shared" si="28"/>
         <v>950</v>
       </c>
-      <c r="N115" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="O115" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
+      <c r="N115" s="2">
+        <f t="shared" si="29"/>
+        <v>34</v>
+      </c>
+      <c r="O115" s="4">
+        <v>0</v>
+      </c>
+      <c r="P115" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q115" s="10" t="s">
+        <v>736</v>
+      </c>
       <c r="T115" s="2"/>
-    </row>
-    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+    </row>
+    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A116" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>736</v>
+        <v>740</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J116" s="1">
-        <f t="shared" ref="J116:J125" si="29">J115+25</f>
+        <f t="shared" ref="J116:J125" si="30">J115+25</f>
         <v>1285</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" ref="K116:K125" si="30">K115+15</f>
+        <f t="shared" ref="K116:K125" si="31">K115+15</f>
         <v>850</v>
       </c>
       <c r="L116" s="1">
@@ -9035,52 +9733,59 @@
         <f t="shared" si="28"/>
         <v>965</v>
       </c>
-      <c r="N116" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="O116" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
+      <c r="N116" s="2">
+        <f t="shared" si="29"/>
+        <v>35</v>
+      </c>
+      <c r="O116" s="4">
+        <v>0</v>
+      </c>
+      <c r="P116" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q116" s="10" t="s">
+        <v>743</v>
+      </c>
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
-    </row>
-    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+    </row>
+    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A117" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>736</v>
+        <v>746</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J117" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1310</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>865</v>
       </c>
       <c r="L117" s="1">
@@ -9091,52 +9796,59 @@
         <f t="shared" si="28"/>
         <v>980</v>
       </c>
-      <c r="N117" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="O117" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
+      <c r="N117" s="2">
+        <f t="shared" si="29"/>
+        <v>36</v>
+      </c>
+      <c r="O117" s="4">
+        <v>0</v>
+      </c>
+      <c r="P117" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q117" s="10" t="s">
+        <v>747</v>
+      </c>
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
-    </row>
-    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+    </row>
+    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A118" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>736</v>
+        <v>750</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J118" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1335</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>880</v>
       </c>
       <c r="L118" s="1">
@@ -9147,52 +9859,59 @@
         <f t="shared" si="28"/>
         <v>995</v>
       </c>
-      <c r="N118" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="O118" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
+      <c r="N118" s="2">
+        <f t="shared" si="29"/>
+        <v>37</v>
+      </c>
+      <c r="O118" s="4">
+        <v>0</v>
+      </c>
+      <c r="P118" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q118" s="10" t="s">
+        <v>751</v>
+      </c>
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
-    </row>
-    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+    </row>
+    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A119" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>736</v>
+        <v>754</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J119" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1360</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>895</v>
       </c>
       <c r="L119" s="1">
@@ -9203,52 +9922,59 @@
         <f t="shared" si="28"/>
         <v>1010</v>
       </c>
-      <c r="N119" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="O119" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
+      <c r="N119" s="2">
+        <f t="shared" si="29"/>
+        <v>38</v>
+      </c>
+      <c r="O119" s="4">
+        <v>0</v>
+      </c>
+      <c r="P119" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q119" s="10" t="s">
+        <v>755</v>
+      </c>
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
-    </row>
-    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+    </row>
+    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A120" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>736</v>
+        <v>758</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J120" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1385</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>910</v>
       </c>
       <c r="L120" s="1">
@@ -9259,52 +9985,59 @@
         <f t="shared" si="28"/>
         <v>1025</v>
       </c>
-      <c r="N120" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="O120" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
+      <c r="N120" s="2">
+        <f t="shared" si="29"/>
+        <v>39</v>
+      </c>
+      <c r="O120" s="4">
+        <v>0</v>
+      </c>
+      <c r="P120" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q120" s="10" t="s">
+        <v>759</v>
+      </c>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
-    </row>
-    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+    </row>
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A121" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>736</v>
+        <v>762</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J121" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1410</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>925</v>
       </c>
       <c r="L121" s="1">
@@ -9315,52 +10048,59 @@
         <f t="shared" si="28"/>
         <v>1040</v>
       </c>
-      <c r="N121" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="O121" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
+      <c r="N121" s="2">
+        <f t="shared" si="29"/>
+        <v>40</v>
+      </c>
+      <c r="O121" s="4">
+        <v>0</v>
+      </c>
+      <c r="P121" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q121" s="10" t="s">
+        <v>763</v>
+      </c>
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
-    </row>
-    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+    </row>
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A122" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>736</v>
+        <v>766</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J122" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1435</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>940</v>
       </c>
       <c r="L122" s="1">
@@ -9371,52 +10111,59 @@
         <f t="shared" si="28"/>
         <v>1055</v>
       </c>
-      <c r="N122" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="O122" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
+      <c r="N122" s="2">
+        <f t="shared" si="29"/>
+        <v>41</v>
+      </c>
+      <c r="O122" s="4">
+        <v>0</v>
+      </c>
+      <c r="P122" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q122" s="10" t="s">
+        <v>767</v>
+      </c>
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
-    </row>
-    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U122" s="2"/>
+      <c r="V122" s="2"/>
+    </row>
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A123" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>736</v>
+        <v>770</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J123" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1460</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>955</v>
       </c>
       <c r="L123" s="1">
@@ -9427,52 +10174,59 @@
         <f t="shared" si="28"/>
         <v>1070</v>
       </c>
-      <c r="N123" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="O123" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
+      <c r="N123" s="2">
+        <f t="shared" si="29"/>
+        <v>42</v>
+      </c>
+      <c r="O123" s="4">
+        <v>0</v>
+      </c>
+      <c r="P123" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q123" s="10" t="s">
+        <v>771</v>
+      </c>
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
-    </row>
-    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+    </row>
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A124" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>736</v>
+        <v>774</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J124" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1485</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>970</v>
       </c>
       <c r="L124" s="1">
@@ -9483,52 +10237,59 @@
         <f t="shared" si="28"/>
         <v>1085</v>
       </c>
-      <c r="N124" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="O124" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
+      <c r="N124" s="2">
+        <f t="shared" si="29"/>
+        <v>43</v>
+      </c>
+      <c r="O124" s="4">
+        <v>0</v>
+      </c>
+      <c r="P124" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q124" s="10" t="s">
+        <v>775</v>
+      </c>
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
-    </row>
-    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+    </row>
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A125" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>736</v>
+        <v>778</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J125" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1510</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>985</v>
       </c>
       <c r="L125" s="1">
@@ -9539,1091 +10300,1238 @@
         <f t="shared" si="28"/>
         <v>1100</v>
       </c>
-      <c r="N125" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="O125" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
+      <c r="N125" s="2">
+        <f t="shared" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="O125" s="4">
+        <v>0</v>
+      </c>
+      <c r="P125" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q125" s="10" t="s">
+        <v>779</v>
+      </c>
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
-    </row>
-    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+    </row>
+    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A126" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>736</v>
+        <v>782</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J126" s="1">
-        <f t="shared" ref="J126:J130" si="31">J125+30</f>
+        <f t="shared" ref="J126:J130" si="32">J125+30</f>
         <v>1540</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" ref="K126:K130" si="32">K125+25</f>
+        <f t="shared" ref="K126:K130" si="33">K125+25</f>
         <v>1010</v>
       </c>
       <c r="L126" s="1">
-        <f t="shared" ref="L126:L130" si="33">L125+20</f>
+        <f t="shared" ref="L126:L130" si="34">L125+20</f>
         <v>720</v>
       </c>
       <c r="M126" s="1">
-        <f t="shared" ref="M126:M130" si="34">M125+20</f>
+        <f t="shared" ref="M126:M130" si="35">M125+20</f>
         <v>1120</v>
       </c>
-      <c r="N126" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="O126" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
+      <c r="N126" s="2">
+        <f t="shared" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="O126" s="4">
+        <v>0</v>
+      </c>
+      <c r="P126" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q126" s="10" t="s">
+        <v>783</v>
+      </c>
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
-    </row>
-    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+    </row>
+    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A127" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>736</v>
+        <v>786</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I127" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J127" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1570</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1035</v>
       </c>
       <c r="L127" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>740</v>
       </c>
       <c r="M127" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1140</v>
       </c>
-      <c r="N127" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="O127" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
+      <c r="N127" s="2">
+        <f t="shared" si="29"/>
+        <v>46</v>
+      </c>
+      <c r="O127" s="4">
+        <v>0</v>
+      </c>
+      <c r="P127" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q127" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
-    </row>
-    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U127" s="2"/>
+      <c r="V127" s="2"/>
+    </row>
+    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A128" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>736</v>
+        <v>790</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J128" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1600</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1060</v>
       </c>
       <c r="L128" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>760</v>
       </c>
       <c r="M128" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1160</v>
       </c>
-      <c r="N128" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="O128" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
+      <c r="N128" s="2">
+        <f t="shared" si="29"/>
+        <v>47</v>
+      </c>
+      <c r="O128" s="4">
+        <v>0</v>
+      </c>
+      <c r="P128" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q128" s="10" t="s">
+        <v>791</v>
+      </c>
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
-    </row>
-    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+    </row>
+    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A129" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>736</v>
+        <v>794</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I129" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J129" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1630</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1085</v>
       </c>
       <c r="L129" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>780</v>
       </c>
       <c r="M129" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1180</v>
       </c>
-      <c r="N129" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="O129" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
+      <c r="N129" s="2">
+        <f t="shared" si="29"/>
+        <v>48</v>
+      </c>
+      <c r="O129" s="4">
+        <v>0</v>
+      </c>
+      <c r="P129" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q129" s="10" t="s">
+        <v>795</v>
+      </c>
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
-    </row>
-    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+    </row>
+    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A130" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>736</v>
+        <v>798</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J130" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1660</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1110</v>
       </c>
       <c r="L130" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>800</v>
       </c>
       <c r="M130" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1200</v>
       </c>
-      <c r="N130" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="O130" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
+      <c r="N130" s="2">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="O130" s="4">
+        <v>0</v>
+      </c>
+      <c r="P130" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q130" s="10" t="s">
+        <v>799</v>
+      </c>
       <c r="R130" s="2"/>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
-    </row>
-    <row r="131" customHeight="1" spans="1:15">
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:17">
       <c r="A131" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>736</v>
+        <v>802</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H131" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I131" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J131" s="1">
-        <f t="shared" ref="J131:J140" si="35">J130+40</f>
+        <f t="shared" ref="J131:J140" si="36">J130+40</f>
         <v>1700</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" ref="K131:K140" si="36">K130+35</f>
+        <f t="shared" ref="K131:K140" si="37">K130+35</f>
         <v>1145</v>
       </c>
       <c r="L131" s="1">
-        <f t="shared" ref="L131:L140" si="37">L130+30</f>
+        <f t="shared" ref="L131:L140" si="38">L130+30</f>
         <v>830</v>
       </c>
       <c r="M131" s="1">
-        <f t="shared" ref="M131:M140" si="38">M130+30</f>
+        <f t="shared" ref="M131:M140" si="39">M130+30</f>
         <v>1230</v>
       </c>
-      <c r="N131" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="O131" s="4" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="132" customHeight="1" spans="1:15">
+      <c r="N131" s="2">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+      <c r="O131" s="4">
+        <v>0</v>
+      </c>
+      <c r="P131" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="Q131" s="10" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:17">
       <c r="A132" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I132" s="4" t="s">
-        <v>736</v>
+        <v>806</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J132" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1740</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1180</v>
       </c>
       <c r="L132" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>860</v>
       </c>
       <c r="M132" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1260</v>
       </c>
-      <c r="N132" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="O132" s="4" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="133" customHeight="1" spans="1:15">
+      <c r="N132" s="2">
+        <f t="shared" si="29"/>
+        <v>51</v>
+      </c>
+      <c r="O132" s="4">
+        <v>0</v>
+      </c>
+      <c r="P132" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q132" s="10" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:17">
       <c r="A133" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I133" s="4" t="s">
-        <v>736</v>
+        <v>810</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I133" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J133" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1780</v>
       </c>
       <c r="K133" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1215</v>
       </c>
       <c r="L133" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>890</v>
       </c>
       <c r="M133" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1290</v>
       </c>
-      <c r="N133" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="O133" s="4" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="134" customHeight="1" spans="1:15">
+      <c r="N133" s="2">
+        <f t="shared" si="29"/>
+        <v>52</v>
+      </c>
+      <c r="O133" s="4">
+        <v>0</v>
+      </c>
+      <c r="P133" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q133" s="10" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:17">
       <c r="A134" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I134" s="4" t="s">
-        <v>736</v>
+        <v>814</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J134" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1820</v>
       </c>
       <c r="K134" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1250</v>
       </c>
       <c r="L134" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>920</v>
       </c>
       <c r="M134" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1320</v>
       </c>
-      <c r="N134" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="O134" s="4" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="135" customHeight="1" spans="1:15">
+      <c r="N134" s="2">
+        <f t="shared" si="29"/>
+        <v>53</v>
+      </c>
+      <c r="O134" s="4">
+        <v>0</v>
+      </c>
+      <c r="P134" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="Q134" s="10" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:17">
       <c r="A135" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>736</v>
+        <v>818</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J135" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1860</v>
       </c>
       <c r="K135" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1285</v>
       </c>
       <c r="L135" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>950</v>
       </c>
       <c r="M135" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1350</v>
       </c>
-      <c r="N135" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="O135" s="4" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="136" customHeight="1" spans="1:15">
+      <c r="N135" s="2">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="O135" s="4">
+        <v>0</v>
+      </c>
+      <c r="P135" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q135" s="10" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:17">
       <c r="A136" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="E136" s="1">
         <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>736</v>
+        <v>822</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J136" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1900</v>
       </c>
       <c r="K136" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1320</v>
       </c>
       <c r="L136" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>980</v>
       </c>
       <c r="M136" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1380</v>
       </c>
-      <c r="N136" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="O136" s="4" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="137" customHeight="1" spans="1:15">
+      <c r="N136" s="2">
+        <f t="shared" si="29"/>
+        <v>55</v>
+      </c>
+      <c r="O136" s="4">
+        <v>0</v>
+      </c>
+      <c r="P136" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="Q136" s="10" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:17">
       <c r="A137" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>736</v>
+        <v>826</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I137" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J137" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1940</v>
       </c>
       <c r="K137" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1355</v>
       </c>
       <c r="L137" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1010</v>
       </c>
       <c r="M137" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1410</v>
       </c>
-      <c r="N137" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="O137" s="4" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="138" customHeight="1" spans="1:15">
+      <c r="N137" s="2">
+        <f t="shared" si="29"/>
+        <v>56</v>
+      </c>
+      <c r="O137" s="4">
+        <v>0</v>
+      </c>
+      <c r="P137" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q137" s="10" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:17">
       <c r="A138" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>736</v>
+        <v>830</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J138" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1980</v>
       </c>
       <c r="K138" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1390</v>
       </c>
       <c r="L138" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1040</v>
       </c>
       <c r="M138" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1440</v>
       </c>
-      <c r="N138" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="O138" s="4" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="1:15">
+      <c r="N138" s="2">
+        <f t="shared" si="29"/>
+        <v>57</v>
+      </c>
+      <c r="O138" s="4">
+        <v>0</v>
+      </c>
+      <c r="P138" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q138" s="10" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:17">
       <c r="A139" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>736</v>
+        <v>834</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I139" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J139" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2020</v>
       </c>
       <c r="K139" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1425</v>
       </c>
       <c r="L139" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1070</v>
       </c>
       <c r="M139" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1470</v>
       </c>
-      <c r="N139" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="O139" s="4" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="1:15">
+      <c r="N139" s="2">
+        <f t="shared" si="29"/>
+        <v>58</v>
+      </c>
+      <c r="O139" s="4">
+        <v>0</v>
+      </c>
+      <c r="P139" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="Q139" s="10" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:17">
       <c r="A140" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="E140" s="1">
         <v>4</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>736</v>
+        <v>838</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J140" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2060</v>
       </c>
       <c r="K140" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1460</v>
       </c>
       <c r="L140" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1100</v>
       </c>
       <c r="M140" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1500</v>
       </c>
-      <c r="N140" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="O140" s="4" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="N140" s="2">
+        <f t="shared" si="29"/>
+        <v>59</v>
+      </c>
+      <c r="O140" s="4">
+        <v>0</v>
+      </c>
+      <c r="P140" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q140" s="10" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A141" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>736</v>
+        <v>842</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H141" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I141" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J141" s="1">
-        <f t="shared" ref="J141:M141" si="39">J140+15</f>
+        <f t="shared" ref="J141:M141" si="40">J140+15</f>
         <v>2075</v>
       </c>
       <c r="K141" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1475</v>
       </c>
       <c r="L141" s="1">
-        <f t="shared" ref="L141:L145" si="40">L140+5</f>
+        <f t="shared" ref="L141:L145" si="41">L140+5</f>
         <v>1105</v>
       </c>
       <c r="M141" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1515</v>
       </c>
-      <c r="N141" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="O141" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="2"/>
+      <c r="N141" s="2">
+        <f t="shared" si="29"/>
+        <v>60</v>
+      </c>
+      <c r="O141" s="4">
+        <v>0</v>
+      </c>
+      <c r="P141" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q141" s="10" t="s">
+        <v>843</v>
+      </c>
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
-    </row>
-    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U141" s="2"/>
+      <c r="V141" s="2"/>
+    </row>
+    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A142" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>736</v>
+        <v>846</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J142" s="1">
-        <f t="shared" ref="J142:M142" si="41">J141+15</f>
+        <f t="shared" ref="J142:M142" si="42">J141+15</f>
         <v>2090</v>
       </c>
       <c r="K142" s="1">
+        <f t="shared" si="42"/>
+        <v>1490</v>
+      </c>
+      <c r="L142" s="1">
         <f t="shared" si="41"/>
-        <v>1490</v>
-      </c>
-      <c r="L142" s="1">
-        <f t="shared" si="40"/>
         <v>1110</v>
       </c>
       <c r="M142" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1530</v>
       </c>
-      <c r="N142" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="O142" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="P142" s="2"/>
-      <c r="Q142" s="2"/>
+      <c r="N142" s="2">
+        <f t="shared" si="29"/>
+        <v>61</v>
+      </c>
+      <c r="O142" s="4">
+        <v>0</v>
+      </c>
+      <c r="P142" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q142" s="10" t="s">
+        <v>847</v>
+      </c>
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
-    </row>
-    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U142" s="2"/>
+      <c r="V142" s="2"/>
+    </row>
+    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A143" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>736</v>
+        <v>850</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I143" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J143" s="1">
-        <f t="shared" ref="J143:J145" si="42">J142+15</f>
+        <f t="shared" ref="J143:J145" si="43">J142+15</f>
         <v>2105</v>
       </c>
       <c r="K143" s="1">
-        <f t="shared" ref="K143:K145" si="43">K142+5</f>
+        <f t="shared" ref="K143:K145" si="44">K142+5</f>
         <v>1495</v>
       </c>
       <c r="L143" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1115</v>
       </c>
       <c r="M143" s="1">
-        <f t="shared" ref="M143:M145" si="44">M142+15</f>
+        <f t="shared" ref="M143:M145" si="45">M142+15</f>
         <v>1545</v>
       </c>
-      <c r="N143" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="O143" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
+      <c r="N143" s="2">
+        <f t="shared" si="29"/>
+        <v>62</v>
+      </c>
+      <c r="O143" s="4">
+        <v>0</v>
+      </c>
+      <c r="P143" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="Q143" s="10" t="s">
+        <v>851</v>
+      </c>
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
-    </row>
-    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U143" s="2"/>
+      <c r="V143" s="2"/>
+    </row>
+    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A144" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>736</v>
+        <v>854</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J144" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2120</v>
       </c>
       <c r="K144" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1500</v>
       </c>
       <c r="L144" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1120</v>
       </c>
       <c r="M144" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1560</v>
       </c>
-      <c r="N144" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="O144" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
+      <c r="N144" s="2">
+        <f t="shared" si="29"/>
+        <v>63</v>
+      </c>
+      <c r="O144" s="4">
+        <v>0</v>
+      </c>
+      <c r="P144" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q144" s="10" t="s">
+        <v>855</v>
+      </c>
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
-    </row>
-    <row r="145" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U144" s="2"/>
+      <c r="V144" s="2"/>
+    </row>
+    <row r="145" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A145" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>736</v>
+        <v>858</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I145" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="J145" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2135</v>
       </c>
       <c r="K145" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1505</v>
       </c>
       <c r="L145" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1125</v>
       </c>
       <c r="M145" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1575</v>
       </c>
-      <c r="N145" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="O145" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
+      <c r="N145" s="2">
+        <f t="shared" si="29"/>
+        <v>64</v>
+      </c>
+      <c r="O145" s="4">
+        <v>0</v>
+      </c>
+      <c r="P145" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q145" s="10" t="s">
+        <v>859</v>
+      </c>
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
+      <c r="U145" s="2"/>
+      <c r="V145" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:M5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="O5 N3:N5 O3:O4 C3:M5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="874">
   <si>
     <t>ID</t>
   </si>
@@ -2168,10 +2168,7 @@
     <t>45000000000000000000000000000000</t>
   </si>
   <si>
-    <t>7200000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000000000</t>
+    <t>20000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>3200000000</t>
@@ -2189,10 +2186,10 @@
     <t>250000000000000000000000000000000</t>
   </si>
   <si>
-    <t>56000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>400000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>3300000000</t>
@@ -2210,10 +2207,10 @@
     <t>1250000000000000000000000000000000</t>
   </si>
   <si>
-    <t>480000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>8000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>3400000000</t>
@@ -2231,91 +2228,136 @@
     <t>60000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>4000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>160000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>3500000000</t>
   </si>
   <si>
+    <t>10111</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>地狱雪人</t>
+  </si>
+  <si>
+    <t>300000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3200000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3600000000</t>
+  </si>
+  <si>
+    <t>10112</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>地狱蝙蝠</t>
+  </si>
+  <si>
+    <t>1500000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>64000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3700000000</t>
+  </si>
+  <si>
+    <t>10113</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>地狱骷髅</t>
+  </si>
+  <si>
+    <t>7500000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1200000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3800000000</t>
+  </si>
+  <si>
+    <t>10114</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>地狱僵尸</t>
+  </si>
+  <si>
+    <t>40000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>24000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3900000000</t>
+  </si>
+  <si>
+    <t>10115</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>地狱虎蛇</t>
+  </si>
+  <si>
+    <t>200000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>480000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4000000000</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
-    <t>10111</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>地狱雪人</t>
+    <t>10116</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>地狱狼</t>
   </si>
   <si>
     <t>300000000000000000000000000000000</t>
   </si>
   <si>
     <t>30000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3600000000</t>
-  </si>
-  <si>
-    <t>10112</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>地狱蝙蝠</t>
-  </si>
-  <si>
-    <t>3700000000</t>
-  </si>
-  <si>
-    <t>10113</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>地狱骷髅</t>
-  </si>
-  <si>
-    <t>3800000000</t>
-  </si>
-  <si>
-    <t>10114</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>地狱僵尸</t>
-  </si>
-  <si>
-    <t>3900000000</t>
-  </si>
-  <si>
-    <t>10115</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>地狱虎蛇</t>
-  </si>
-  <si>
-    <t>4000000000</t>
-  </si>
-  <si>
-    <t>10116</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>地狱狼</t>
   </si>
   <si>
     <t>4100000000</t>
@@ -3581,7 +3623,7 @@
   <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3593,7 +3635,7 @@
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="34.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="34.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="39.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.125" style="2" customWidth="1"/>
@@ -9480,10 +9522,10 @@
         <v>712</v>
       </c>
       <c r="H112" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="I112" s="15" t="s">
         <v>713</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>714</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" si="26"/>
@@ -9509,10 +9551,10 @@
         <v>0</v>
       </c>
       <c r="P112" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="Q112" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
@@ -9522,25 +9564,25 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G113" s="14" t="s">
         <v>718</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="H113" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="H113" s="10" t="s">
+      <c r="I113" s="15" t="s">
         <v>720</v>
-      </c>
-      <c r="I113" s="15" t="s">
-        <v>721</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="26"/>
@@ -9566,10 +9608,10 @@
         <v>0</v>
       </c>
       <c r="P113" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Q113" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
@@ -9579,25 +9621,25 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>724</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G114" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="G114" s="14" t="s">
+      <c r="H114" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="H114" s="10" t="s">
+      <c r="I114" s="15" t="s">
         <v>727</v>
-      </c>
-      <c r="I114" s="15" t="s">
-        <v>728</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="26"/>
@@ -9623,10 +9665,10 @@
         <v>0</v>
       </c>
       <c r="P114" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Q114" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
@@ -9636,25 +9678,25 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G115" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="G115" s="14" t="s">
+      <c r="H115" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="H115" s="10" t="s">
+      <c r="I115" s="15" t="s">
         <v>734</v>
-      </c>
-      <c r="I115" s="15" t="s">
-        <v>735</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="26"/>
@@ -9680,42 +9722,38 @@
         <v>0</v>
       </c>
       <c r="P115" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q115" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
     </row>
     <row r="116" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="H116" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="G116" s="10" t="s">
+      <c r="I116" s="15" t="s">
         <v>741</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>742</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" ref="J116:J125" si="30">J115+25</f>
@@ -9741,10 +9779,10 @@
         <v>0</v>
       </c>
       <c r="P116" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="Q116" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
@@ -9753,32 +9791,28 @@
       <c r="V116" s="2"/>
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A117" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>737</v>
-      </c>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
       <c r="C117" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G117" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="G117" s="10" t="s">
-        <v>741</v>
-      </c>
       <c r="H117" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="I117" s="10" t="s">
-        <v>742</v>
+        <v>747</v>
+      </c>
+      <c r="I117" s="15" t="s">
+        <v>748</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" si="30"/>
@@ -9804,10 +9838,10 @@
         <v>0</v>
       </c>
       <c r="P117" s="10" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="Q117" s="10" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
@@ -9816,32 +9850,28 @@
       <c r="V117" s="2"/>
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A118" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>737</v>
-      </c>
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
       <c r="C118" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>741</v>
+        <v>752</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>753</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>742</v>
+        <v>754</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>755</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="30"/>
@@ -9867,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="P118" s="10" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="Q118" s="10" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
@@ -9879,32 +9909,28 @@
       <c r="V118" s="2"/>
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A119" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>737</v>
-      </c>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
       <c r="C119" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>741</v>
+        <v>759</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>760</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="I119" s="10" t="s">
-        <v>742</v>
+        <v>761</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>762</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" si="30"/>
@@ -9930,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="P119" s="10" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="Q119" s="10" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
@@ -9942,32 +9968,28 @@
       <c r="V119" s="2"/>
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A120" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>737</v>
-      </c>
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
       <c r="C120" s="1" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>741</v>
+        <v>766</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>767</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>742</v>
+        <v>768</v>
+      </c>
+      <c r="I120" s="15" t="s">
+        <v>769</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="30"/>
@@ -9993,10 +10015,10 @@
         <v>0</v>
       </c>
       <c r="P120" s="10" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
@@ -10006,31 +10028,31 @@
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A121" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" si="30"/>
@@ -10056,10 +10078,10 @@
         <v>0</v>
       </c>
       <c r="P121" s="10" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="Q121" s="10" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
@@ -10069,31 +10091,31 @@
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A122" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="30"/>
@@ -10119,10 +10141,10 @@
         <v>0</v>
       </c>
       <c r="P122" s="10" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="Q122" s="10" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
@@ -10132,31 +10154,31 @@
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A123" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="30"/>
@@ -10182,10 +10204,10 @@
         <v>0</v>
       </c>
       <c r="P123" s="10" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="Q123" s="10" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
@@ -10195,31 +10217,31 @@
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A124" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" si="30"/>
@@ -10245,10 +10267,10 @@
         <v>0</v>
       </c>
       <c r="P124" s="10" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="Q124" s="10" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
@@ -10258,31 +10280,31 @@
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A125" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" si="30"/>
@@ -10308,10 +10330,10 @@
         <v>0</v>
       </c>
       <c r="P125" s="10" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="Q125" s="10" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
@@ -10321,31 +10343,31 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A126" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" ref="J126:J130" si="32">J125+30</f>
@@ -10371,10 +10393,10 @@
         <v>0</v>
       </c>
       <c r="P126" s="10" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="Q126" s="10" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
@@ -10384,31 +10406,31 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A127" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" si="32"/>
@@ -10434,10 +10456,10 @@
         <v>0</v>
       </c>
       <c r="P127" s="10" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="Q127" s="10" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
@@ -10447,31 +10469,31 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A128" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" si="32"/>
@@ -10497,10 +10519,10 @@
         <v>0</v>
       </c>
       <c r="P128" s="10" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="Q128" s="10" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
@@ -10510,31 +10532,31 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A129" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" si="32"/>
@@ -10560,10 +10582,10 @@
         <v>0</v>
       </c>
       <c r="P129" s="10" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="Q129" s="10" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
@@ -10573,31 +10595,31 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A130" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" si="32"/>
@@ -10623,10 +10645,10 @@
         <v>0</v>
       </c>
       <c r="P130" s="10" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="Q130" s="10" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="R130" s="2"/>
       <c r="S130" s="2"/>
@@ -10636,31 +10658,31 @@
     </row>
     <row r="131" customHeight="1" spans="1:17">
       <c r="A131" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J131" s="1">
         <f t="shared" ref="J131:J140" si="36">J130+40</f>
@@ -10686,39 +10708,39 @@
         <v>0</v>
       </c>
       <c r="P131" s="10" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="Q131" s="10" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:17">
       <c r="A132" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J132" s="1">
         <f t="shared" si="36"/>
@@ -10744,39 +10766,39 @@
         <v>0</v>
       </c>
       <c r="P132" s="10" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="Q132" s="10" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:17">
       <c r="A133" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J133" s="1">
         <f t="shared" si="36"/>
@@ -10802,39 +10824,39 @@
         <v>0</v>
       </c>
       <c r="P133" s="10" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="Q133" s="10" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:17">
       <c r="A134" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" si="36"/>
@@ -10860,39 +10882,39 @@
         <v>0</v>
       </c>
       <c r="P134" s="10" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="Q134" s="10" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:17">
       <c r="A135" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J135" s="1">
         <f t="shared" si="36"/>
@@ -10918,39 +10940,39 @@
         <v>0</v>
       </c>
       <c r="P135" s="10" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="Q135" s="10" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:17">
       <c r="A136" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="E136" s="1">
         <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J136" s="1">
         <f t="shared" si="36"/>
@@ -10976,39 +10998,39 @@
         <v>0</v>
       </c>
       <c r="P136" s="10" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="Q136" s="10" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:17">
       <c r="A137" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J137" s="1">
         <f t="shared" si="36"/>
@@ -11034,39 +11056,39 @@
         <v>0</v>
       </c>
       <c r="P137" s="10" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="Q137" s="10" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:17">
       <c r="A138" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J138" s="1">
         <f t="shared" si="36"/>
@@ -11092,39 +11114,39 @@
         <v>0</v>
       </c>
       <c r="P138" s="10" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="Q138" s="10" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:17">
       <c r="A139" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" si="36"/>
@@ -11150,39 +11172,39 @@
         <v>0</v>
       </c>
       <c r="P139" s="10" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="Q139" s="10" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:17">
       <c r="A140" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="E140" s="1">
         <v>4</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" si="36"/>
@@ -11208,39 +11230,39 @@
         <v>0</v>
       </c>
       <c r="P140" s="10" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="Q140" s="10" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A141" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" ref="J141:M141" si="40">J140+15</f>
@@ -11266,10 +11288,10 @@
         <v>0</v>
       </c>
       <c r="P141" s="10" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="Q141" s="10" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
@@ -11279,31 +11301,31 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A142" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" ref="J142:M142" si="42">J141+15</f>
@@ -11329,10 +11351,10 @@
         <v>0</v>
       </c>
       <c r="P142" s="10" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="Q142" s="10" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
@@ -11342,31 +11364,31 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A143" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" ref="J143:J145" si="43">J142+15</f>
@@ -11392,10 +11414,10 @@
         <v>0</v>
       </c>
       <c r="P143" s="10" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="Q143" s="10" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
@@ -11405,31 +11427,31 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A144" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" si="43"/>
@@ -11455,10 +11477,10 @@
         <v>0</v>
       </c>
       <c r="P144" s="10" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="Q144" s="10" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
@@ -11468,31 +11490,31 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A145" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" si="43"/>
@@ -11518,10 +11540,10 @@
         <v>0</v>
       </c>
       <c r="P145" s="10" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="Q145" s="10" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
@@ -11531,7 +11553,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="O5 N3:N5 O3:O4 C3:M5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:O5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="875">
   <si>
     <t>ID</t>
   </si>
@@ -2165,7 +2165,7 @@
     <t>地狱鹿</t>
   </si>
   <si>
-    <t>45000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000</t>
   </si>
   <si>
     <t>20000000000000000000000000000000000000000000</t>
@@ -2183,10 +2183,7 @@
     <t>地狱草人</t>
   </si>
   <si>
-    <t>250000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000</t>
   </si>
   <si>
     <t>400000000000000000000000000000000000000000000</t>
@@ -2204,10 +2201,7 @@
     <t>地狱猫</t>
   </si>
   <si>
-    <t>1250000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000</t>
   </si>
   <si>
     <t>8000000000000000000000000000000000000000000000</t>
@@ -2225,10 +2219,7 @@
     <t>地狱花</t>
   </si>
   <si>
-    <t>60000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000</t>
   </si>
   <si>
     <t>160000000000000000000000000000000000000000000000</t>
@@ -2246,10 +2237,7 @@
     <t>地狱雪人</t>
   </si>
   <si>
-    <t>300000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000000</t>
   </si>
   <si>
     <t>3200000000000000000000000000000000000000000000000</t>
@@ -2267,10 +2255,7 @@
     <t>地狱蝙蝠</t>
   </si>
   <si>
-    <t>1500000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>64000000000000000000000000000000000000000000000000</t>
@@ -2288,10 +2273,7 @@
     <t>地狱骷髅</t>
   </si>
   <si>
-    <t>7500000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>1200000000000000000000000000000000000000000000000000</t>
@@ -2309,10 +2291,7 @@
     <t>地狱僵尸</t>
   </si>
   <si>
-    <t>40000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>24000000000000000000000000000000000000000000000000000</t>
@@ -2330,10 +2309,7 @@
     <t>地狱虎蛇</t>
   </si>
   <si>
-    <t>200000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>480000000000000000000000000000000000000000000000000000</t>
@@ -2342,82 +2318,109 @@
     <t>4000000000</t>
   </si>
   <si>
+    <t>10116</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>地狱狼</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4100000000</t>
+  </si>
+  <si>
+    <t>10117</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>地狱沙虫</t>
+  </si>
+  <si>
+    <t>200000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4200000000</t>
+  </si>
+  <si>
+    <t>10118</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>地狱小鹰</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4300000000</t>
+  </si>
+  <si>
+    <t>10119</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>地狱多角虫</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>80000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4400000000</t>
+  </si>
+  <si>
+    <t>10120</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>地狱蜈蚣</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1600000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4500000000</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
-    <t>10116</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>地狱狼</t>
+    <t>10121</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>地狱钳虫</t>
   </si>
   <si>
     <t>300000000000000000000000000000000</t>
   </si>
   <si>
     <t>30000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>4100000000</t>
-  </si>
-  <si>
-    <t>10117</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>地狱沙虫</t>
-  </si>
-  <si>
-    <t>4200000000</t>
-  </si>
-  <si>
-    <t>10118</t>
-  </si>
-  <si>
-    <t>1117</t>
-  </si>
-  <si>
-    <t>地狱小鹰</t>
-  </si>
-  <si>
-    <t>4300000000</t>
-  </si>
-  <si>
-    <t>10119</t>
-  </si>
-  <si>
-    <t>1118</t>
-  </si>
-  <si>
-    <t>地狱多角虫</t>
-  </si>
-  <si>
-    <t>4400000000</t>
-  </si>
-  <si>
-    <t>10120</t>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>地狱蜈蚣</t>
-  </si>
-  <si>
-    <t>4500000000</t>
-  </si>
-  <si>
-    <t>10121</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>地狱钳虫</t>
   </si>
   <si>
     <t>4600000000</t>
@@ -3623,7 +3626,7 @@
   <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+      <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3633,9 +3636,9 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="34.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="47.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.125" style="2" customWidth="1"/>
@@ -9579,10 +9582,10 @@
         <v>718</v>
       </c>
       <c r="H113" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="I113" s="15" t="s">
         <v>719</v>
-      </c>
-      <c r="I113" s="15" t="s">
-        <v>720</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="26"/>
@@ -9608,10 +9611,10 @@
         <v>0</v>
       </c>
       <c r="P113" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="Q113" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
@@ -9621,25 +9624,25 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G114" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="G114" s="14" t="s">
+      <c r="H114" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="I114" s="15" t="s">
         <v>725</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>726</v>
-      </c>
-      <c r="I114" s="15" t="s">
-        <v>727</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="26"/>
@@ -9665,10 +9668,10 @@
         <v>0</v>
       </c>
       <c r="P114" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="Q114" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
@@ -9678,25 +9681,25 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="I115" s="15" t="s">
         <v>731</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>732</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="I115" s="15" t="s">
-        <v>734</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="26"/>
@@ -9722,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="P115" s="10" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="Q115" s="10" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
@@ -9735,25 +9738,25 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" ref="J116:J125" si="30">J115+25</f>
@@ -9779,10 +9782,10 @@
         <v>0</v>
       </c>
       <c r="P116" s="10" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="Q116" s="10" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
@@ -9794,25 +9797,25 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" si="30"/>
@@ -9838,10 +9841,10 @@
         <v>0</v>
       </c>
       <c r="P117" s="10" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="Q117" s="10" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
@@ -9853,25 +9856,25 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="30"/>
@@ -9897,10 +9900,10 @@
         <v>0</v>
       </c>
       <c r="P118" s="10" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="Q118" s="10" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
@@ -9912,25 +9915,25 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" si="30"/>
@@ -9956,10 +9959,10 @@
         <v>0</v>
       </c>
       <c r="P119" s="10" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="Q119" s="10" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
@@ -9971,25 +9974,25 @@
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="30"/>
@@ -10015,10 +10018,10 @@
         <v>0</v>
       </c>
       <c r="P120" s="10" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
@@ -10027,32 +10030,28 @@
       <c r="V120" s="2"/>
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A121" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>771</v>
-      </c>
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
       <c r="C121" s="1" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>775</v>
+        <v>765</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>766</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>776</v>
+        <v>760</v>
+      </c>
+      <c r="I121" s="15" t="s">
+        <v>767</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" si="30"/>
@@ -10078,10 +10077,10 @@
         <v>0</v>
       </c>
       <c r="P121" s="10" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="Q121" s="10" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
@@ -10090,32 +10089,28 @@
       <c r="V121" s="2"/>
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A122" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>771</v>
-      </c>
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
       <c r="C122" s="1" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>775</v>
+        <v>771</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>707</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>776</v>
+        <v>766</v>
+      </c>
+      <c r="I122" s="15" t="s">
+        <v>772</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="30"/>
@@ -10141,10 +10136,10 @@
         <v>0</v>
       </c>
       <c r="P122" s="10" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="Q122" s="10" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
@@ -10153,32 +10148,28 @@
       <c r="V122" s="2"/>
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A123" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>771</v>
-      </c>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
       <c r="C123" s="1" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>775</v>
+        <v>776</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>777</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>776</v>
+        <v>707</v>
+      </c>
+      <c r="I123" s="15" t="s">
+        <v>778</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="30"/>
@@ -10204,10 +10195,10 @@
         <v>0</v>
       </c>
       <c r="P123" s="10" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="Q123" s="10" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
@@ -10216,32 +10207,28 @@
       <c r="V123" s="2"/>
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A124" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>771</v>
-      </c>
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
       <c r="C124" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>775</v>
+        <v>782</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>783</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="I124" s="10" t="s">
-        <v>776</v>
+        <v>777</v>
+      </c>
+      <c r="I124" s="15" t="s">
+        <v>784</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" si="30"/>
@@ -10267,10 +10254,10 @@
         <v>0</v>
       </c>
       <c r="P124" s="10" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="Q124" s="10" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
@@ -10279,32 +10266,28 @@
       <c r="V124" s="2"/>
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A125" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>771</v>
-      </c>
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
       <c r="C125" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>775</v>
+        <v>788</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>789</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="I125" s="10" t="s">
-        <v>776</v>
+        <v>783</v>
+      </c>
+      <c r="I125" s="15" t="s">
+        <v>790</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" si="30"/>
@@ -10330,10 +10313,10 @@
         <v>0</v>
       </c>
       <c r="P125" s="10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q125" s="10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
@@ -10343,31 +10326,31 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A126" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>795</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G126" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="G126" s="10" t="s">
-        <v>775</v>
-      </c>
       <c r="H126" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" ref="J126:J130" si="32">J125+30</f>
@@ -10393,10 +10376,10 @@
         <v>0</v>
       </c>
       <c r="P126" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="Q126" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
@@ -10406,31 +10389,31 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A127" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" si="32"/>
@@ -10456,10 +10439,10 @@
         <v>0</v>
       </c>
       <c r="P127" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="Q127" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
@@ -10469,31 +10452,31 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A128" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" si="32"/>
@@ -10519,10 +10502,10 @@
         <v>0</v>
       </c>
       <c r="P128" s="10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="Q128" s="10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
@@ -10532,31 +10515,31 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A129" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" si="32"/>
@@ -10582,10 +10565,10 @@
         <v>0</v>
       </c>
       <c r="P129" s="10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Q129" s="10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
@@ -10595,31 +10578,31 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A130" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" si="32"/>
@@ -10645,10 +10628,10 @@
         <v>0</v>
       </c>
       <c r="P130" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="Q130" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="R130" s="2"/>
       <c r="S130" s="2"/>
@@ -10658,31 +10641,31 @@
     </row>
     <row r="131" customHeight="1" spans="1:17">
       <c r="A131" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J131" s="1">
         <f t="shared" ref="J131:J140" si="36">J130+40</f>
@@ -10708,39 +10691,39 @@
         <v>0</v>
       </c>
       <c r="P131" s="10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Q131" s="10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:17">
       <c r="A132" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J132" s="1">
         <f t="shared" si="36"/>
@@ -10766,39 +10749,39 @@
         <v>0</v>
       </c>
       <c r="P132" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Q132" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:17">
       <c r="A133" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J133" s="1">
         <f t="shared" si="36"/>
@@ -10824,39 +10807,39 @@
         <v>0</v>
       </c>
       <c r="P133" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Q133" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:17">
       <c r="A134" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" si="36"/>
@@ -10882,39 +10865,39 @@
         <v>0</v>
       </c>
       <c r="P134" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="Q134" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:17">
       <c r="A135" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J135" s="1">
         <f t="shared" si="36"/>
@@ -10940,39 +10923,39 @@
         <v>0</v>
       </c>
       <c r="P135" s="10" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Q135" s="10" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:17">
       <c r="A136" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E136" s="1">
         <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J136" s="1">
         <f t="shared" si="36"/>
@@ -10998,39 +10981,39 @@
         <v>0</v>
       </c>
       <c r="P136" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="Q136" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:17">
       <c r="A137" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J137" s="1">
         <f t="shared" si="36"/>
@@ -11056,39 +11039,39 @@
         <v>0</v>
       </c>
       <c r="P137" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="Q137" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:17">
       <c r="A138" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J138" s="1">
         <f t="shared" si="36"/>
@@ -11114,39 +11097,39 @@
         <v>0</v>
       </c>
       <c r="P138" s="10" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="Q138" s="10" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:17">
       <c r="A139" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" si="36"/>
@@ -11172,39 +11155,39 @@
         <v>0</v>
       </c>
       <c r="P139" s="10" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="Q139" s="10" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:17">
       <c r="A140" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E140" s="1">
         <v>4</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" si="36"/>
@@ -11230,39 +11213,39 @@
         <v>0</v>
       </c>
       <c r="P140" s="10" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="Q140" s="10" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A141" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" ref="J141:M141" si="40">J140+15</f>
@@ -11288,10 +11271,10 @@
         <v>0</v>
       </c>
       <c r="P141" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="Q141" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
@@ -11301,31 +11284,31 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A142" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" ref="J142:M142" si="42">J141+15</f>
@@ -11351,10 +11334,10 @@
         <v>0</v>
       </c>
       <c r="P142" s="10" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="Q142" s="10" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
@@ -11364,31 +11347,31 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A143" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" ref="J143:J145" si="43">J142+15</f>
@@ -11414,10 +11397,10 @@
         <v>0</v>
       </c>
       <c r="P143" s="10" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="Q143" s="10" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
@@ -11427,31 +11410,31 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A144" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" si="43"/>
@@ -11477,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="P144" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="Q144" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
@@ -11490,31 +11473,31 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A145" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" si="43"/>
@@ -11540,10 +11523,10 @@
         <v>0</v>
       </c>
       <c r="P145" s="10" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="Q145" s="10" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="875">
   <si>
     <t>ID</t>
   </si>
@@ -2147,190 +2147,193 @@
     <t>地狱鸡</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3100000000</t>
+  </si>
+  <si>
+    <t>10107</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>地狱鹿</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>200000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3200000000</t>
+  </si>
+  <si>
+    <t>10108</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>地狱草人</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3300000000</t>
+  </si>
+  <si>
+    <t>10109</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>地狱猫</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>80000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3400000000</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>地狱花</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1600000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3500000000</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>10111</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>地狱雪人</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>32000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3600000000</t>
+  </si>
+  <si>
+    <t>10112</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>地狱蝙蝠</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>640000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3700000000</t>
+  </si>
+  <si>
+    <t>10113</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>地狱骷髅</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>12000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3800000000</t>
+  </si>
+  <si>
+    <t>10114</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>地狱僵尸</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>240000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3900000000</t>
+  </si>
+  <si>
+    <t>10115</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>地狱虎蛇</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4800000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4000000000</t>
+  </si>
+  <si>
+    <t>10116</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>地狱狼</t>
   </si>
   <si>
     <t>900000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>3100000000</t>
-  </si>
-  <si>
-    <t>10107</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>地狱鹿</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>20000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3200000000</t>
-  </si>
-  <si>
-    <t>10108</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>地狱草人</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>400000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3300000000</t>
-  </si>
-  <si>
-    <t>10109</t>
-  </si>
-  <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>地狱猫</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>8000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3400000000</t>
-  </si>
-  <si>
-    <t>10110</t>
-  </si>
-  <si>
-    <t>1109</t>
-  </si>
-  <si>
-    <t>地狱花</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>160000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3500000000</t>
-  </si>
-  <si>
-    <t>10111</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>地狱雪人</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3200000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3600000000</t>
-  </si>
-  <si>
-    <t>10112</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>地狱蝙蝠</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>64000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3700000000</t>
-  </si>
-  <si>
-    <t>10113</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>地狱骷髅</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>1200000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3800000000</t>
-  </si>
-  <si>
-    <t>10114</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>地狱僵尸</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>24000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3900000000</t>
-  </si>
-  <si>
-    <t>10115</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>地狱虎蛇</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>480000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>4000000000</t>
-  </si>
-  <si>
-    <t>10116</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>地狱狼</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>10000000000000000000000000000000000000000000000000000000</t>
+    <t>100000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>4100000000</t>
@@ -2345,7 +2348,10 @@
     <t>地狱沙虫</t>
   </si>
   <si>
-    <t>200000000000000000000000000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>2000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>4200000000</t>
@@ -2360,10 +2366,10 @@
     <t>地狱小鹰</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>4000000000000000000000000000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>40000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>4300000000</t>
@@ -2378,10 +2384,10 @@
     <t>地狱多角虫</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>80000000000000000000000000000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>800000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>4400000000</t>
@@ -2396,16 +2402,10 @@
     <t>地狱蜈蚣</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>1600000000000000000000000000000000000000000000000000000000000</t>
+    <t>16000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>4500000000</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>10121</t>
@@ -3626,7 +3626,7 @@
   <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+      <selection activeCell="A116" sqref="A116:B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3634,11 +3634,12 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="52.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.125" style="2" customWidth="1"/>
@@ -9469,7 +9470,7 @@
         <v>706</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>667</v>
+        <v>706</v>
       </c>
       <c r="I111" s="13" t="s">
         <v>707</v>
@@ -9525,7 +9526,7 @@
         <v>712</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="I112" s="15" t="s">
         <v>713</v>
@@ -9582,7 +9583,7 @@
         <v>718</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="I113" s="15" t="s">
         <v>719</v>
@@ -9639,7 +9640,7 @@
         <v>724</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="I114" s="15" t="s">
         <v>725</v>
@@ -9696,7 +9697,7 @@
         <v>730</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="I115" s="15" t="s">
         <v>731</v>
@@ -9735,28 +9736,32 @@
       <c r="V115" s="2"/>
     </row>
     <row r="116" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
+      <c r="A116" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="C116" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" ref="J116:J125" si="30">J115+25</f>
@@ -9782,10 +9787,10 @@
         <v>0</v>
       </c>
       <c r="P116" s="10" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Q116" s="10" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
@@ -9794,28 +9799,32 @@
       <c r="V116" s="2"/>
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
+      <c r="A117" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" si="30"/>
@@ -9841,10 +9850,10 @@
         <v>0</v>
       </c>
       <c r="P117" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Q117" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
@@ -9853,28 +9862,32 @@
       <c r="V117" s="2"/>
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
+      <c r="A118" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="30"/>
@@ -9900,10 +9913,10 @@
         <v>0</v>
       </c>
       <c r="P118" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Q118" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
@@ -9912,28 +9925,32 @@
       <c r="V118" s="2"/>
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
+      <c r="A119" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="C119" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" si="30"/>
@@ -9959,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="P119" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="Q119" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
@@ -9971,28 +9988,32 @@
       <c r="V119" s="2"/>
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
+      <c r="A120" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="C120" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="30"/>
@@ -10018,10 +10039,10 @@
         <v>0</v>
       </c>
       <c r="P120" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
@@ -10030,28 +10051,32 @@
       <c r="V120" s="2"/>
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="C121" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="I121" s="15" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" si="30"/>
@@ -10077,10 +10102,10 @@
         <v>0</v>
       </c>
       <c r="P121" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Q121" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
@@ -10089,28 +10114,32 @@
       <c r="V121" s="2"/>
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
+      <c r="A122" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="C122" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>707</v>
+        <v>773</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="30"/>
@@ -10136,10 +10165,10 @@
         <v>0</v>
       </c>
       <c r="P122" s="10" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="Q122" s="10" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
@@ -10148,28 +10177,32 @@
       <c r="V122" s="2"/>
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
+      <c r="A123" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="C123" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>707</v>
+        <v>779</v>
       </c>
       <c r="I123" s="15" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="30"/>
@@ -10195,10 +10228,10 @@
         <v>0</v>
       </c>
       <c r="P123" s="10" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="Q123" s="10" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
@@ -10207,28 +10240,32 @@
       <c r="V123" s="2"/>
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
+      <c r="A124" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="C124" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="I124" s="15" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" si="30"/>
@@ -10254,10 +10291,10 @@
         <v>0</v>
       </c>
       <c r="P124" s="10" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="Q124" s="10" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
@@ -10266,28 +10303,32 @@
       <c r="V124" s="2"/>
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+      <c r="A125" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="C125" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>789</v>
+        <v>707</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>783</v>
+        <v>707</v>
       </c>
       <c r="I125" s="15" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" si="30"/>
@@ -10313,10 +10354,10 @@
         <v>0</v>
       </c>
       <c r="P125" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="Q125" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
@@ -10326,10 +10367,10 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A126" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>793</v>
@@ -10389,10 +10430,10 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A127" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>799</v>
@@ -10452,10 +10493,10 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A128" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>803</v>
@@ -10515,10 +10556,10 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A129" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>807</v>
@@ -10578,10 +10619,10 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A130" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>811</v>
@@ -10641,10 +10682,10 @@
     </row>
     <row r="131" customHeight="1" spans="1:17">
       <c r="A131" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>815</v>
@@ -10699,10 +10740,10 @@
     </row>
     <row r="132" customHeight="1" spans="1:17">
       <c r="A132" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>819</v>
@@ -10757,10 +10798,10 @@
     </row>
     <row r="133" customHeight="1" spans="1:17">
       <c r="A133" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>823</v>
@@ -10815,10 +10856,10 @@
     </row>
     <row r="134" customHeight="1" spans="1:17">
       <c r="A134" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>827</v>
@@ -10873,10 +10914,10 @@
     </row>
     <row r="135" customHeight="1" spans="1:17">
       <c r="A135" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>831</v>
@@ -10931,10 +10972,10 @@
     </row>
     <row r="136" customHeight="1" spans="1:17">
       <c r="A136" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>835</v>
@@ -10989,10 +11030,10 @@
     </row>
     <row r="137" customHeight="1" spans="1:17">
       <c r="A137" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>839</v>
@@ -11047,10 +11088,10 @@
     </row>
     <row r="138" customHeight="1" spans="1:17">
       <c r="A138" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>843</v>
@@ -11105,10 +11146,10 @@
     </row>
     <row r="139" customHeight="1" spans="1:17">
       <c r="A139" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>847</v>
@@ -11163,10 +11204,10 @@
     </row>
     <row r="140" customHeight="1" spans="1:17">
       <c r="A140" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>851</v>
@@ -11221,10 +11262,10 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A141" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>855</v>
@@ -11284,10 +11325,10 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A142" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>859</v>
@@ -11347,10 +11388,10 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A143" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>863</v>
@@ -11410,10 +11451,10 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A144" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>867</v>
@@ -11473,10 +11514,10 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A145" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>871</v>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -3625,8 +3625,8 @@
   <sheetPr/>
   <dimension ref="A1:V145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:B116"/>
+    <sheetView tabSelected="1" topLeftCell="D96" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112:J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3846,7 +3846,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" ht="14.25" hidden="1" spans="3:17">
+    <row r="6" ht="14.25" spans="3:17">
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" hidden="1" customHeight="1" spans="3:17">
+    <row r="7" customHeight="1" spans="3:17">
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" hidden="1" customHeight="1" spans="3:17">
+    <row r="8" customHeight="1" spans="3:17">
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="3:17">
+    <row r="9" customHeight="1" spans="3:17">
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" hidden="1" customHeight="1" spans="3:17">
+    <row r="10" customHeight="1" spans="3:17">
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" hidden="1" customHeight="1" spans="3:17">
+    <row r="11" customHeight="1" spans="3:17">
       <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" hidden="1" customHeight="1" spans="3:17">
+    <row r="12" customHeight="1" spans="3:17">
       <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" hidden="1" customHeight="1" spans="3:17">
+    <row r="13" customHeight="1" spans="3:17">
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" hidden="1" customHeight="1" spans="3:17">
+    <row r="14" customHeight="1" spans="3:17">
       <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" hidden="1" customHeight="1" spans="3:17">
+    <row r="15" customHeight="1" spans="3:17">
       <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" hidden="1" customHeight="1" spans="3:17">
+    <row r="16" customHeight="1" spans="3:17">
       <c r="C16" s="1" t="s">
         <v>84</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" hidden="1" customHeight="1" spans="3:17">
+    <row r="17" customHeight="1" spans="3:17">
       <c r="C17" s="1" t="s">
         <v>91</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" hidden="1" customHeight="1" spans="3:17">
+    <row r="18" customHeight="1" spans="3:17">
       <c r="C18" s="1" t="s">
         <v>98</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" hidden="1" customHeight="1" spans="3:17">
+    <row r="19" customHeight="1" spans="3:17">
       <c r="C19" s="1" t="s">
         <v>105</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" hidden="1" customHeight="1" spans="3:17">
+    <row r="20" customHeight="1" spans="3:17">
       <c r="C20" s="1" t="s">
         <v>112</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" hidden="1" customHeight="1" spans="3:17">
+    <row r="21" customHeight="1" spans="3:17">
       <c r="C21" s="1" t="s">
         <v>119</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" hidden="1" customHeight="1" spans="3:17">
+    <row r="22" customHeight="1" spans="3:17">
       <c r="C22" s="1" t="s">
         <v>126</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" hidden="1" customHeight="1" spans="3:17">
+    <row r="23" customHeight="1" spans="3:17">
       <c r="C23" s="1" t="s">
         <v>133</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" hidden="1" customHeight="1" spans="3:17">
+    <row r="24" customHeight="1" spans="3:17">
       <c r="C24" s="1" t="s">
         <v>140</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" hidden="1" customHeight="1" spans="3:17">
+    <row r="25" customHeight="1" spans="3:17">
       <c r="C25" s="1" t="s">
         <v>147</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" hidden="1" customHeight="1" spans="3:17">
+    <row r="26" customHeight="1" spans="3:17">
       <c r="C26" s="1" t="s">
         <v>154</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" hidden="1" customHeight="1" spans="3:17">
+    <row r="27" customHeight="1" spans="3:17">
       <c r="C27" s="1" t="s">
         <v>161</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" hidden="1" customHeight="1" spans="3:17">
+    <row r="28" customHeight="1" spans="3:17">
       <c r="C28" s="1" t="s">
         <v>168</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" hidden="1" customHeight="1" spans="3:17">
+    <row r="29" customHeight="1" spans="3:17">
       <c r="C29" s="1" t="s">
         <v>175</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" hidden="1" customHeight="1" spans="3:17">
+    <row r="30" customHeight="1" spans="3:17">
       <c r="C30" s="1" t="s">
         <v>182</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" hidden="1" customHeight="1" spans="3:17">
+    <row r="31" customHeight="1" spans="3:17">
       <c r="C31" s="1" t="s">
         <v>189</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" hidden="1" customHeight="1" spans="3:17">
+    <row r="32" customHeight="1" spans="3:17">
       <c r="C32" s="1" t="s">
         <v>196</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" hidden="1" customHeight="1" spans="3:17">
+    <row r="33" customHeight="1" spans="3:17">
       <c r="C33" s="1" t="s">
         <v>203</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" hidden="1" customHeight="1" spans="3:17">
+    <row r="34" customHeight="1" spans="3:17">
       <c r="C34" s="1" t="s">
         <v>210</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" hidden="1" customHeight="1" spans="3:17">
+    <row r="35" customHeight="1" spans="3:17">
       <c r="C35" s="1" t="s">
         <v>217</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" hidden="1" customHeight="1" spans="3:17">
+    <row r="36" customHeight="1" spans="3:17">
       <c r="C36" s="1" t="s">
         <v>224</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" hidden="1" customHeight="1" spans="3:17">
+    <row r="37" customHeight="1" spans="3:17">
       <c r="C37" s="1" t="s">
         <v>231</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" hidden="1" customHeight="1" spans="3:17">
+    <row r="38" customHeight="1" spans="3:17">
       <c r="C38" s="1" t="s">
         <v>238</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="39" hidden="1" customHeight="1" spans="3:17">
+    <row r="39" customHeight="1" spans="3:17">
       <c r="C39" s="1" t="s">
         <v>245</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" hidden="1" customHeight="1" spans="3:17">
+    <row r="40" customHeight="1" spans="3:17">
       <c r="C40" s="1" t="s">
         <v>252</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
@@ -5564,7 +5564,7 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1" t="s">
@@ -5617,7 +5617,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1" t="s">
@@ -5670,7 +5670,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1" t="s">
@@ -5723,7 +5723,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
@@ -5776,7 +5776,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
@@ -5831,7 +5831,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
@@ -5886,7 +5886,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1" t="s">
@@ -5941,7 +5941,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1" t="s">
@@ -5996,7 +5996,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
@@ -6051,7 +6051,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
@@ -6109,7 +6109,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
@@ -6167,7 +6167,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
@@ -6225,7 +6225,7 @@
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1" t="s">
@@ -6283,7 +6283,7 @@
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1" t="s">
@@ -6341,7 +6341,7 @@
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
@@ -6399,7 +6399,7 @@
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1" t="s">
@@ -6457,7 +6457,7 @@
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
@@ -6515,7 +6515,7 @@
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1" t="s">
@@ -6573,7 +6573,7 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1" t="s">
@@ -6631,7 +6631,7 @@
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1" t="s">
@@ -6689,7 +6689,7 @@
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1" t="s">
@@ -6747,7 +6747,7 @@
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1" t="s">
@@ -6805,7 +6805,7 @@
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
@@ -6863,7 +6863,7 @@
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1" t="s">
@@ -6921,7 +6921,7 @@
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1" t="s">
@@ -6979,7 +6979,7 @@
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1" t="s">
@@ -7037,7 +7037,7 @@
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
@@ -7095,7 +7095,7 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1" t="s">
@@ -7153,7 +7153,7 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
@@ -7211,7 +7211,7 @@
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
@@ -7269,7 +7269,7 @@
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1" t="s">
@@ -7327,7 +7327,7 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1" t="s">
@@ -7385,7 +7385,7 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
@@ -7443,7 +7443,7 @@
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
     </row>
-    <row r="75" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1" t="s">
@@ -7501,7 +7501,7 @@
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
     </row>
-    <row r="76" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1" t="s">
@@ -7557,7 +7557,7 @@
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1" t="s">
@@ -7613,7 +7613,7 @@
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
     </row>
-    <row r="78" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1" t="s">
@@ -7669,7 +7669,7 @@
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1" t="s">
@@ -7725,7 +7725,7 @@
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1" t="s">
@@ -7781,7 +7781,7 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
@@ -7839,7 +7839,7 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
@@ -7897,7 +7897,7 @@
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
     </row>
-    <row r="83" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1" t="s">
@@ -7955,7 +7955,7 @@
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
     </row>
-    <row r="84" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1" t="s">
@@ -8013,7 +8013,7 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1" t="s">
@@ -8071,7 +8071,7 @@
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
     </row>
-    <row r="86" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1" t="s">
@@ -8129,7 +8129,7 @@
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
     </row>
-    <row r="87" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1" t="s">
@@ -8187,7 +8187,7 @@
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1" t="s">
@@ -8245,7 +8245,7 @@
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1" t="s">
@@ -8303,7 +8303,7 @@
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
     </row>
-    <row r="90" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
@@ -8361,7 +8361,7 @@
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1" t="s">
@@ -8419,7 +8419,7 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
     </row>
-    <row r="92" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1" t="s">
@@ -8477,7 +8477,7 @@
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="93" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
@@ -8535,7 +8535,7 @@
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1" t="s">
@@ -8593,7 +8593,7 @@
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1" t="s">
@@ -8651,7 +8651,7 @@
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" hidden="1" customHeight="1" spans="3:17">
+    <row r="96" customHeight="1" spans="3:17">
       <c r="C96" s="1" t="s">
         <v>617</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>1600000000</v>
       </c>
     </row>
-    <row r="97" hidden="1" customHeight="1" spans="3:17">
+    <row r="97" customHeight="1" spans="3:17">
       <c r="C97" s="1" t="s">
         <v>622</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>1700000000</v>
       </c>
     </row>
-    <row r="98" hidden="1" customHeight="1" spans="3:17">
+    <row r="98" customHeight="1" spans="3:17">
       <c r="C98" s="1" t="s">
         <v>627</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="99" hidden="1" customHeight="1" spans="3:17">
+    <row r="99" customHeight="1" spans="3:17">
       <c r="C99" s="1" t="s">
         <v>633</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>1900000000</v>
       </c>
     </row>
-    <row r="100" hidden="1" customHeight="1" spans="3:17">
+    <row r="100" customHeight="1" spans="3:17">
       <c r="C100" s="1" t="s">
         <v>639</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>2000000000</v>
       </c>
     </row>
-    <row r="101" hidden="1" customHeight="1" spans="3:17">
+    <row r="101" customHeight="1" spans="3:17">
       <c r="C101" s="1" t="s">
         <v>645</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>2100000000</v>
       </c>
     </row>
-    <row r="102" hidden="1" customHeight="1" spans="3:17">
+    <row r="102" customHeight="1" spans="3:17">
       <c r="C102" s="1" t="s">
         <v>651</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>2200000000</v>
       </c>
     </row>
-    <row r="103" hidden="1" customHeight="1" spans="3:17">
+    <row r="103" customHeight="1" spans="3:17">
       <c r="C103" s="1" t="s">
         <v>657</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>2300000000</v>
       </c>
     </row>
-    <row r="104" hidden="1" customHeight="1" spans="3:17">
+    <row r="104" customHeight="1" spans="3:17">
       <c r="C104" s="1" t="s">
         <v>663</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>2400000000</v>
       </c>
     </row>
-    <row r="105" hidden="1" customHeight="1" spans="3:17">
+    <row r="105" customHeight="1" spans="3:17">
       <c r="C105" s="1" t="s">
         <v>668</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>2500000000</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
@@ -9194,7 +9194,7 @@
         <v>780</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" ref="L106:L125" si="24">L105+5</f>
+        <f>L105+5</f>
         <v>605</v>
       </c>
       <c r="M106" s="1">
@@ -9219,7 +9219,7 @@
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
     </row>
-    <row r="107" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
@@ -9244,19 +9244,19 @@
         <v>684</v>
       </c>
       <c r="J107" s="1">
-        <f t="shared" ref="J107:M107" si="25">J106+15</f>
+        <f t="shared" ref="J107:M107" si="24">J106+15</f>
         <v>1140</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>795</v>
       </c>
       <c r="L107" s="1">
+        <f t="shared" ref="L107:L112" si="25">L106+5</f>
+        <v>610</v>
+      </c>
+      <c r="M107" s="1">
         <f t="shared" si="24"/>
-        <v>610</v>
-      </c>
-      <c r="M107" s="1">
-        <f t="shared" si="25"/>
         <v>830</v>
       </c>
       <c r="N107" s="4">
@@ -9277,7 +9277,7 @@
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
     </row>
-    <row r="108" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1" t="s">
@@ -9302,19 +9302,19 @@
         <v>690</v>
       </c>
       <c r="J108" s="1">
-        <f t="shared" ref="J108:J115" si="26">J107+15</f>
+        <f>J107+15</f>
         <v>1155</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" ref="K108:K115" si="27">K107+5</f>
+        <f>K107+5</f>
         <v>800</v>
       </c>
       <c r="L108" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>615</v>
       </c>
       <c r="M108" s="1">
-        <f t="shared" ref="M108:M125" si="28">M107+15</f>
+        <f>M107+15</f>
         <v>845</v>
       </c>
       <c r="N108" s="4">
@@ -9335,7 +9335,7 @@
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
     </row>
-    <row r="109" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1" t="s">
@@ -9360,19 +9360,19 @@
         <v>696</v>
       </c>
       <c r="J109" s="1">
-        <f t="shared" si="26"/>
+        <f>J108+15</f>
         <v>1170</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="27"/>
+        <f>K108+5</f>
         <v>805</v>
       </c>
       <c r="L109" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>620</v>
       </c>
       <c r="M109" s="1">
-        <f t="shared" si="28"/>
+        <f>M108+15</f>
         <v>860</v>
       </c>
       <c r="N109" s="4">
@@ -9418,19 +9418,19 @@
         <v>702</v>
       </c>
       <c r="J110" s="1">
-        <f t="shared" si="26"/>
+        <f>J109+15</f>
         <v>1185</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="27"/>
+        <f>K109+5</f>
         <v>810</v>
       </c>
       <c r="L110" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>625</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" si="28"/>
+        <f>M109+15</f>
         <v>875</v>
       </c>
       <c r="N110" s="4">
@@ -9476,20 +9476,16 @@
         <v>707</v>
       </c>
       <c r="J111" s="1">
-        <f t="shared" si="26"/>
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="27"/>
-        <v>815</v>
+        <v>1100</v>
       </c>
       <c r="L111" s="1">
-        <f t="shared" si="24"/>
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="M111" s="1">
-        <f t="shared" si="28"/>
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="N111" s="2">
         <v>30</v>
@@ -9532,23 +9528,23 @@
         <v>713</v>
       </c>
       <c r="J112" s="1">
-        <f t="shared" si="26"/>
-        <v>1215</v>
+        <f t="shared" ref="J112:J145" si="26">J111+100</f>
+        <v>1500</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="27"/>
-        <v>820</v>
+        <f t="shared" ref="K112:K145" si="27">K111+100</f>
+        <v>1200</v>
       </c>
       <c r="L112" s="1">
-        <f t="shared" si="24"/>
-        <v>635</v>
+        <f t="shared" ref="L112:L145" si="28">L111+50</f>
+        <v>950</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="28"/>
-        <v>905</v>
+        <f t="shared" ref="M112:M145" si="29">M111+50</f>
+        <v>950</v>
       </c>
       <c r="N112" s="2">
-        <f t="shared" ref="N112:N145" si="29">N111+1</f>
+        <f t="shared" ref="N112:N145" si="30">N111+1</f>
         <v>31</v>
       </c>
       <c r="O112" s="4">
@@ -9590,22 +9586,22 @@
       </c>
       <c r="J113" s="1">
         <f t="shared" si="26"/>
-        <v>1230</v>
+        <v>1600</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" si="27"/>
-        <v>825</v>
+        <v>1300</v>
       </c>
       <c r="L113" s="1">
-        <f t="shared" si="24"/>
-        <v>640</v>
+        <f t="shared" si="28"/>
+        <v>1000</v>
       </c>
       <c r="M113" s="1">
-        <f t="shared" si="28"/>
-        <v>920</v>
+        <f t="shared" si="29"/>
+        <v>1000</v>
       </c>
       <c r="N113" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>32</v>
       </c>
       <c r="O113" s="4">
@@ -9647,22 +9643,22 @@
       </c>
       <c r="J114" s="1">
         <f t="shared" si="26"/>
-        <v>1245</v>
+        <v>1700</v>
       </c>
       <c r="K114" s="1">
         <f t="shared" si="27"/>
-        <v>830</v>
+        <v>1400</v>
       </c>
       <c r="L114" s="1">
-        <f t="shared" si="24"/>
-        <v>645</v>
+        <f t="shared" si="28"/>
+        <v>1050</v>
       </c>
       <c r="M114" s="1">
-        <f t="shared" si="28"/>
-        <v>935</v>
+        <f t="shared" si="29"/>
+        <v>1050</v>
       </c>
       <c r="N114" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>33</v>
       </c>
       <c r="O114" s="4">
@@ -9704,22 +9700,22 @@
       </c>
       <c r="J115" s="1">
         <f t="shared" si="26"/>
-        <v>1260</v>
+        <v>1800</v>
       </c>
       <c r="K115" s="1">
         <f t="shared" si="27"/>
-        <v>835</v>
+        <v>1500</v>
       </c>
       <c r="L115" s="1">
-        <f t="shared" si="24"/>
-        <v>650</v>
+        <f t="shared" si="28"/>
+        <v>1100</v>
       </c>
       <c r="M115" s="1">
-        <f t="shared" si="28"/>
-        <v>950</v>
+        <f t="shared" si="29"/>
+        <v>1100</v>
       </c>
       <c r="N115" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>34</v>
       </c>
       <c r="O115" s="4">
@@ -9764,23 +9760,23 @@
         <v>738</v>
       </c>
       <c r="J116" s="1">
-        <f t="shared" ref="J116:J125" si="30">J115+25</f>
-        <v>1285</v>
+        <f t="shared" si="26"/>
+        <v>1900</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" ref="K116:K125" si="31">K115+15</f>
-        <v>850</v>
+        <f t="shared" si="27"/>
+        <v>1600</v>
       </c>
       <c r="L116" s="1">
-        <f t="shared" si="24"/>
-        <v>655</v>
+        <f t="shared" si="28"/>
+        <v>1150</v>
       </c>
       <c r="M116" s="1">
-        <f t="shared" si="28"/>
-        <v>965</v>
+        <f t="shared" si="29"/>
+        <v>1150</v>
       </c>
       <c r="N116" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>35</v>
       </c>
       <c r="O116" s="4">
@@ -9827,23 +9823,23 @@
         <v>744</v>
       </c>
       <c r="J117" s="1">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="K117" s="1">
+        <f t="shared" si="27"/>
+        <v>1700</v>
+      </c>
+      <c r="L117" s="1">
+        <f t="shared" si="28"/>
+        <v>1200</v>
+      </c>
+      <c r="M117" s="1">
+        <f t="shared" si="29"/>
+        <v>1200</v>
+      </c>
+      <c r="N117" s="2">
         <f t="shared" si="30"/>
-        <v>1310</v>
-      </c>
-      <c r="K117" s="1">
-        <f t="shared" si="31"/>
-        <v>865</v>
-      </c>
-      <c r="L117" s="1">
-        <f t="shared" si="24"/>
-        <v>660</v>
-      </c>
-      <c r="M117" s="1">
-        <f t="shared" si="28"/>
-        <v>980</v>
-      </c>
-      <c r="N117" s="2">
-        <f t="shared" si="29"/>
         <v>36</v>
       </c>
       <c r="O117" s="4">
@@ -9890,23 +9886,23 @@
         <v>750</v>
       </c>
       <c r="J118" s="1">
+        <f t="shared" si="26"/>
+        <v>2100</v>
+      </c>
+      <c r="K118" s="1">
+        <f t="shared" si="27"/>
+        <v>1800</v>
+      </c>
+      <c r="L118" s="1">
+        <f t="shared" si="28"/>
+        <v>1250</v>
+      </c>
+      <c r="M118" s="1">
+        <f t="shared" si="29"/>
+        <v>1250</v>
+      </c>
+      <c r="N118" s="2">
         <f t="shared" si="30"/>
-        <v>1335</v>
-      </c>
-      <c r="K118" s="1">
-        <f t="shared" si="31"/>
-        <v>880</v>
-      </c>
-      <c r="L118" s="1">
-        <f t="shared" si="24"/>
-        <v>665</v>
-      </c>
-      <c r="M118" s="1">
-        <f t="shared" si="28"/>
-        <v>995</v>
-      </c>
-      <c r="N118" s="2">
-        <f t="shared" si="29"/>
         <v>37</v>
       </c>
       <c r="O118" s="4">
@@ -9953,23 +9949,23 @@
         <v>756</v>
       </c>
       <c r="J119" s="1">
+        <f t="shared" si="26"/>
+        <v>2200</v>
+      </c>
+      <c r="K119" s="1">
+        <f t="shared" si="27"/>
+        <v>1900</v>
+      </c>
+      <c r="L119" s="1">
+        <f t="shared" si="28"/>
+        <v>1300</v>
+      </c>
+      <c r="M119" s="1">
+        <f t="shared" si="29"/>
+        <v>1300</v>
+      </c>
+      <c r="N119" s="2">
         <f t="shared" si="30"/>
-        <v>1360</v>
-      </c>
-      <c r="K119" s="1">
-        <f t="shared" si="31"/>
-        <v>895</v>
-      </c>
-      <c r="L119" s="1">
-        <f t="shared" si="24"/>
-        <v>670</v>
-      </c>
-      <c r="M119" s="1">
-        <f t="shared" si="28"/>
-        <v>1010</v>
-      </c>
-      <c r="N119" s="2">
-        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="O119" s="4">
@@ -10016,23 +10012,23 @@
         <v>762</v>
       </c>
       <c r="J120" s="1">
+        <f t="shared" si="26"/>
+        <v>2300</v>
+      </c>
+      <c r="K120" s="1">
+        <f t="shared" si="27"/>
+        <v>2000</v>
+      </c>
+      <c r="L120" s="1">
+        <f t="shared" si="28"/>
+        <v>1350</v>
+      </c>
+      <c r="M120" s="1">
+        <f t="shared" si="29"/>
+        <v>1350</v>
+      </c>
+      <c r="N120" s="2">
         <f t="shared" si="30"/>
-        <v>1385</v>
-      </c>
-      <c r="K120" s="1">
-        <f t="shared" si="31"/>
-        <v>910</v>
-      </c>
-      <c r="L120" s="1">
-        <f t="shared" si="24"/>
-        <v>675</v>
-      </c>
-      <c r="M120" s="1">
-        <f t="shared" si="28"/>
-        <v>1025</v>
-      </c>
-      <c r="N120" s="2">
-        <f t="shared" si="29"/>
         <v>39</v>
       </c>
       <c r="O120" s="4">
@@ -10079,23 +10075,23 @@
         <v>768</v>
       </c>
       <c r="J121" s="1">
+        <f t="shared" si="26"/>
+        <v>2400</v>
+      </c>
+      <c r="K121" s="1">
+        <f t="shared" si="27"/>
+        <v>2100</v>
+      </c>
+      <c r="L121" s="1">
+        <f t="shared" si="28"/>
+        <v>1400</v>
+      </c>
+      <c r="M121" s="1">
+        <f t="shared" si="29"/>
+        <v>1400</v>
+      </c>
+      <c r="N121" s="2">
         <f t="shared" si="30"/>
-        <v>1410</v>
-      </c>
-      <c r="K121" s="1">
-        <f t="shared" si="31"/>
-        <v>925</v>
-      </c>
-      <c r="L121" s="1">
-        <f t="shared" si="24"/>
-        <v>680</v>
-      </c>
-      <c r="M121" s="1">
-        <f t="shared" si="28"/>
-        <v>1040</v>
-      </c>
-      <c r="N121" s="2">
-        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="O121" s="4">
@@ -10142,23 +10138,23 @@
         <v>774</v>
       </c>
       <c r="J122" s="1">
+        <f t="shared" si="26"/>
+        <v>2500</v>
+      </c>
+      <c r="K122" s="1">
+        <f t="shared" si="27"/>
+        <v>2200</v>
+      </c>
+      <c r="L122" s="1">
+        <f t="shared" si="28"/>
+        <v>1450</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" si="29"/>
+        <v>1450</v>
+      </c>
+      <c r="N122" s="2">
         <f t="shared" si="30"/>
-        <v>1435</v>
-      </c>
-      <c r="K122" s="1">
-        <f t="shared" si="31"/>
-        <v>940</v>
-      </c>
-      <c r="L122" s="1">
-        <f t="shared" si="24"/>
-        <v>685</v>
-      </c>
-      <c r="M122" s="1">
-        <f t="shared" si="28"/>
-        <v>1055</v>
-      </c>
-      <c r="N122" s="2">
-        <f t="shared" si="29"/>
         <v>41</v>
       </c>
       <c r="O122" s="4">
@@ -10205,23 +10201,23 @@
         <v>780</v>
       </c>
       <c r="J123" s="1">
+        <f t="shared" si="26"/>
+        <v>2600</v>
+      </c>
+      <c r="K123" s="1">
+        <f t="shared" si="27"/>
+        <v>2300</v>
+      </c>
+      <c r="L123" s="1">
+        <f t="shared" si="28"/>
+        <v>1500</v>
+      </c>
+      <c r="M123" s="1">
+        <f t="shared" si="29"/>
+        <v>1500</v>
+      </c>
+      <c r="N123" s="2">
         <f t="shared" si="30"/>
-        <v>1460</v>
-      </c>
-      <c r="K123" s="1">
-        <f t="shared" si="31"/>
-        <v>955</v>
-      </c>
-      <c r="L123" s="1">
-        <f t="shared" si="24"/>
-        <v>690</v>
-      </c>
-      <c r="M123" s="1">
-        <f t="shared" si="28"/>
-        <v>1070</v>
-      </c>
-      <c r="N123" s="2">
-        <f t="shared" si="29"/>
         <v>42</v>
       </c>
       <c r="O123" s="4">
@@ -10268,23 +10264,23 @@
         <v>786</v>
       </c>
       <c r="J124" s="1">
+        <f t="shared" si="26"/>
+        <v>2700</v>
+      </c>
+      <c r="K124" s="1">
+        <f t="shared" si="27"/>
+        <v>2400</v>
+      </c>
+      <c r="L124" s="1">
+        <f t="shared" si="28"/>
+        <v>1550</v>
+      </c>
+      <c r="M124" s="1">
+        <f t="shared" si="29"/>
+        <v>1550</v>
+      </c>
+      <c r="N124" s="2">
         <f t="shared" si="30"/>
-        <v>1485</v>
-      </c>
-      <c r="K124" s="1">
-        <f t="shared" si="31"/>
-        <v>970</v>
-      </c>
-      <c r="L124" s="1">
-        <f t="shared" si="24"/>
-        <v>695</v>
-      </c>
-      <c r="M124" s="1">
-        <f t="shared" si="28"/>
-        <v>1085</v>
-      </c>
-      <c r="N124" s="2">
-        <f t="shared" si="29"/>
         <v>43</v>
       </c>
       <c r="O124" s="4">
@@ -10331,23 +10327,23 @@
         <v>791</v>
       </c>
       <c r="J125" s="1">
+        <f t="shared" si="26"/>
+        <v>2800</v>
+      </c>
+      <c r="K125" s="1">
+        <f t="shared" si="27"/>
+        <v>2500</v>
+      </c>
+      <c r="L125" s="1">
+        <f t="shared" si="28"/>
+        <v>1600</v>
+      </c>
+      <c r="M125" s="1">
+        <f t="shared" si="29"/>
+        <v>1600</v>
+      </c>
+      <c r="N125" s="2">
         <f t="shared" si="30"/>
-        <v>1510</v>
-      </c>
-      <c r="K125" s="1">
-        <f t="shared" si="31"/>
-        <v>985</v>
-      </c>
-      <c r="L125" s="1">
-        <f t="shared" si="24"/>
-        <v>700</v>
-      </c>
-      <c r="M125" s="1">
-        <f t="shared" si="28"/>
-        <v>1100</v>
-      </c>
-      <c r="N125" s="2">
-        <f t="shared" si="29"/>
         <v>44</v>
       </c>
       <c r="O125" s="4">
@@ -10394,23 +10390,23 @@
         <v>797</v>
       </c>
       <c r="J126" s="1">
-        <f t="shared" ref="J126:J130" si="32">J125+30</f>
-        <v>1540</v>
+        <f t="shared" si="26"/>
+        <v>2900</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" ref="K126:K130" si="33">K125+25</f>
-        <v>1010</v>
+        <f t="shared" si="27"/>
+        <v>2600</v>
       </c>
       <c r="L126" s="1">
-        <f t="shared" ref="L126:L130" si="34">L125+20</f>
-        <v>720</v>
+        <f t="shared" si="28"/>
+        <v>1650</v>
       </c>
       <c r="M126" s="1">
-        <f t="shared" ref="M126:M130" si="35">M125+20</f>
-        <v>1120</v>
+        <f t="shared" si="29"/>
+        <v>1650</v>
       </c>
       <c r="N126" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>45</v>
       </c>
       <c r="O126" s="4">
@@ -10457,23 +10453,23 @@
         <v>797</v>
       </c>
       <c r="J127" s="1">
-        <f t="shared" si="32"/>
-        <v>1570</v>
+        <f t="shared" si="26"/>
+        <v>3000</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="33"/>
-        <v>1035</v>
+        <f t="shared" si="27"/>
+        <v>2700</v>
       </c>
       <c r="L127" s="1">
-        <f t="shared" si="34"/>
-        <v>740</v>
+        <f t="shared" si="28"/>
+        <v>1700</v>
       </c>
       <c r="M127" s="1">
-        <f t="shared" si="35"/>
-        <v>1140</v>
+        <f t="shared" si="29"/>
+        <v>1700</v>
       </c>
       <c r="N127" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>46</v>
       </c>
       <c r="O127" s="4">
@@ -10520,23 +10516,23 @@
         <v>797</v>
       </c>
       <c r="J128" s="1">
-        <f t="shared" si="32"/>
-        <v>1600</v>
+        <f t="shared" si="26"/>
+        <v>3100</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="33"/>
-        <v>1060</v>
+        <f t="shared" si="27"/>
+        <v>2800</v>
       </c>
       <c r="L128" s="1">
-        <f t="shared" si="34"/>
-        <v>760</v>
+        <f t="shared" si="28"/>
+        <v>1750</v>
       </c>
       <c r="M128" s="1">
-        <f t="shared" si="35"/>
-        <v>1160</v>
+        <f t="shared" si="29"/>
+        <v>1750</v>
       </c>
       <c r="N128" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>47</v>
       </c>
       <c r="O128" s="4">
@@ -10583,23 +10579,23 @@
         <v>797</v>
       </c>
       <c r="J129" s="1">
-        <f t="shared" si="32"/>
-        <v>1630</v>
+        <f t="shared" si="26"/>
+        <v>3200</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="33"/>
-        <v>1085</v>
+        <f t="shared" si="27"/>
+        <v>2900</v>
       </c>
       <c r="L129" s="1">
-        <f t="shared" si="34"/>
-        <v>780</v>
+        <f t="shared" si="28"/>
+        <v>1800</v>
       </c>
       <c r="M129" s="1">
-        <f t="shared" si="35"/>
-        <v>1180</v>
+        <f t="shared" si="29"/>
+        <v>1800</v>
       </c>
       <c r="N129" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>48</v>
       </c>
       <c r="O129" s="4">
@@ -10646,23 +10642,23 @@
         <v>797</v>
       </c>
       <c r="J130" s="1">
-        <f t="shared" si="32"/>
-        <v>1660</v>
+        <f t="shared" si="26"/>
+        <v>3300</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" si="33"/>
-        <v>1110</v>
+        <f t="shared" si="27"/>
+        <v>3000</v>
       </c>
       <c r="L130" s="1">
-        <f t="shared" si="34"/>
-        <v>800</v>
+        <f t="shared" si="28"/>
+        <v>1850</v>
       </c>
       <c r="M130" s="1">
-        <f t="shared" si="35"/>
-        <v>1200</v>
+        <f t="shared" si="29"/>
+        <v>1850</v>
       </c>
       <c r="N130" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>49</v>
       </c>
       <c r="O130" s="4">
@@ -10709,23 +10705,23 @@
         <v>797</v>
       </c>
       <c r="J131" s="1">
-        <f t="shared" ref="J131:J140" si="36">J130+40</f>
-        <v>1700</v>
+        <f t="shared" si="26"/>
+        <v>3400</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" ref="K131:K140" si="37">K130+35</f>
-        <v>1145</v>
+        <f t="shared" si="27"/>
+        <v>3100</v>
       </c>
       <c r="L131" s="1">
-        <f t="shared" ref="L131:L140" si="38">L130+30</f>
-        <v>830</v>
+        <f t="shared" si="28"/>
+        <v>1900</v>
       </c>
       <c r="M131" s="1">
-        <f t="shared" ref="M131:M140" si="39">M130+30</f>
-        <v>1230</v>
+        <f t="shared" si="29"/>
+        <v>1900</v>
       </c>
       <c r="N131" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="O131" s="4">
@@ -10767,23 +10763,23 @@
         <v>797</v>
       </c>
       <c r="J132" s="1">
-        <f t="shared" si="36"/>
-        <v>1740</v>
+        <f t="shared" si="26"/>
+        <v>3500</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" si="37"/>
-        <v>1180</v>
+        <f t="shared" si="27"/>
+        <v>3200</v>
       </c>
       <c r="L132" s="1">
-        <f t="shared" si="38"/>
-        <v>860</v>
+        <f t="shared" si="28"/>
+        <v>1950</v>
       </c>
       <c r="M132" s="1">
-        <f t="shared" si="39"/>
-        <v>1260</v>
+        <f t="shared" si="29"/>
+        <v>1950</v>
       </c>
       <c r="N132" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>51</v>
       </c>
       <c r="O132" s="4">
@@ -10825,23 +10821,23 @@
         <v>797</v>
       </c>
       <c r="J133" s="1">
-        <f t="shared" si="36"/>
-        <v>1780</v>
+        <f t="shared" si="26"/>
+        <v>3600</v>
       </c>
       <c r="K133" s="1">
-        <f t="shared" si="37"/>
-        <v>1215</v>
+        <f t="shared" si="27"/>
+        <v>3300</v>
       </c>
       <c r="L133" s="1">
-        <f t="shared" si="38"/>
-        <v>890</v>
+        <f t="shared" si="28"/>
+        <v>2000</v>
       </c>
       <c r="M133" s="1">
-        <f t="shared" si="39"/>
-        <v>1290</v>
+        <f t="shared" si="29"/>
+        <v>2000</v>
       </c>
       <c r="N133" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>52</v>
       </c>
       <c r="O133" s="4">
@@ -10883,23 +10879,23 @@
         <v>797</v>
       </c>
       <c r="J134" s="1">
-        <f t="shared" si="36"/>
-        <v>1820</v>
+        <f t="shared" si="26"/>
+        <v>3700</v>
       </c>
       <c r="K134" s="1">
-        <f t="shared" si="37"/>
-        <v>1250</v>
+        <f t="shared" si="27"/>
+        <v>3400</v>
       </c>
       <c r="L134" s="1">
-        <f t="shared" si="38"/>
-        <v>920</v>
+        <f t="shared" si="28"/>
+        <v>2050</v>
       </c>
       <c r="M134" s="1">
-        <f t="shared" si="39"/>
-        <v>1320</v>
+        <f t="shared" si="29"/>
+        <v>2050</v>
       </c>
       <c r="N134" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>53</v>
       </c>
       <c r="O134" s="4">
@@ -10941,23 +10937,23 @@
         <v>797</v>
       </c>
       <c r="J135" s="1">
-        <f t="shared" si="36"/>
-        <v>1860</v>
+        <f t="shared" si="26"/>
+        <v>3800</v>
       </c>
       <c r="K135" s="1">
-        <f t="shared" si="37"/>
-        <v>1285</v>
+        <f t="shared" si="27"/>
+        <v>3500</v>
       </c>
       <c r="L135" s="1">
-        <f t="shared" si="38"/>
-        <v>950</v>
+        <f t="shared" si="28"/>
+        <v>2100</v>
       </c>
       <c r="M135" s="1">
-        <f t="shared" si="39"/>
-        <v>1350</v>
+        <f t="shared" si="29"/>
+        <v>2100</v>
       </c>
       <c r="N135" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>54</v>
       </c>
       <c r="O135" s="4">
@@ -10999,23 +10995,23 @@
         <v>797</v>
       </c>
       <c r="J136" s="1">
-        <f t="shared" si="36"/>
-        <v>1900</v>
+        <f t="shared" si="26"/>
+        <v>3900</v>
       </c>
       <c r="K136" s="1">
-        <f t="shared" si="37"/>
-        <v>1320</v>
+        <f t="shared" si="27"/>
+        <v>3600</v>
       </c>
       <c r="L136" s="1">
-        <f t="shared" si="38"/>
-        <v>980</v>
+        <f t="shared" si="28"/>
+        <v>2150</v>
       </c>
       <c r="M136" s="1">
-        <f t="shared" si="39"/>
-        <v>1380</v>
+        <f t="shared" si="29"/>
+        <v>2150</v>
       </c>
       <c r="N136" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>55</v>
       </c>
       <c r="O136" s="4">
@@ -11057,23 +11053,23 @@
         <v>797</v>
       </c>
       <c r="J137" s="1">
-        <f t="shared" si="36"/>
-        <v>1940</v>
+        <f t="shared" si="26"/>
+        <v>4000</v>
       </c>
       <c r="K137" s="1">
-        <f t="shared" si="37"/>
-        <v>1355</v>
+        <f t="shared" si="27"/>
+        <v>3700</v>
       </c>
       <c r="L137" s="1">
-        <f t="shared" si="38"/>
-        <v>1010</v>
+        <f t="shared" si="28"/>
+        <v>2200</v>
       </c>
       <c r="M137" s="1">
-        <f t="shared" si="39"/>
-        <v>1410</v>
+        <f t="shared" si="29"/>
+        <v>2200</v>
       </c>
       <c r="N137" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>56</v>
       </c>
       <c r="O137" s="4">
@@ -11115,23 +11111,23 @@
         <v>797</v>
       </c>
       <c r="J138" s="1">
-        <f t="shared" si="36"/>
-        <v>1980</v>
+        <f t="shared" si="26"/>
+        <v>4100</v>
       </c>
       <c r="K138" s="1">
-        <f t="shared" si="37"/>
-        <v>1390</v>
+        <f t="shared" si="27"/>
+        <v>3800</v>
       </c>
       <c r="L138" s="1">
-        <f t="shared" si="38"/>
-        <v>1040</v>
+        <f t="shared" si="28"/>
+        <v>2250</v>
       </c>
       <c r="M138" s="1">
-        <f t="shared" si="39"/>
-        <v>1440</v>
+        <f t="shared" si="29"/>
+        <v>2250</v>
       </c>
       <c r="N138" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>57</v>
       </c>
       <c r="O138" s="4">
@@ -11173,23 +11169,23 @@
         <v>797</v>
       </c>
       <c r="J139" s="1">
-        <f t="shared" si="36"/>
-        <v>2020</v>
+        <f t="shared" si="26"/>
+        <v>4200</v>
       </c>
       <c r="K139" s="1">
-        <f t="shared" si="37"/>
-        <v>1425</v>
+        <f t="shared" si="27"/>
+        <v>3900</v>
       </c>
       <c r="L139" s="1">
-        <f t="shared" si="38"/>
-        <v>1070</v>
+        <f t="shared" si="28"/>
+        <v>2300</v>
       </c>
       <c r="M139" s="1">
-        <f t="shared" si="39"/>
-        <v>1470</v>
+        <f t="shared" si="29"/>
+        <v>2300</v>
       </c>
       <c r="N139" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>58</v>
       </c>
       <c r="O139" s="4">
@@ -11231,23 +11227,23 @@
         <v>797</v>
       </c>
       <c r="J140" s="1">
-        <f t="shared" si="36"/>
-        <v>2060</v>
+        <f t="shared" si="26"/>
+        <v>4300</v>
       </c>
       <c r="K140" s="1">
-        <f t="shared" si="37"/>
-        <v>1460</v>
+        <f t="shared" si="27"/>
+        <v>4000</v>
       </c>
       <c r="L140" s="1">
-        <f t="shared" si="38"/>
-        <v>1100</v>
+        <f t="shared" si="28"/>
+        <v>2350</v>
       </c>
       <c r="M140" s="1">
-        <f t="shared" si="39"/>
-        <v>1500</v>
+        <f t="shared" si="29"/>
+        <v>2350</v>
       </c>
       <c r="N140" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>59</v>
       </c>
       <c r="O140" s="4">
@@ -11289,23 +11285,23 @@
         <v>797</v>
       </c>
       <c r="J141" s="1">
-        <f t="shared" ref="J141:M141" si="40">J140+15</f>
-        <v>2075</v>
+        <f t="shared" si="26"/>
+        <v>4400</v>
       </c>
       <c r="K141" s="1">
-        <f t="shared" si="40"/>
-        <v>1475</v>
+        <f t="shared" si="27"/>
+        <v>4100</v>
       </c>
       <c r="L141" s="1">
-        <f t="shared" ref="L141:L145" si="41">L140+5</f>
-        <v>1105</v>
+        <f t="shared" si="28"/>
+        <v>2400</v>
       </c>
       <c r="M141" s="1">
-        <f t="shared" si="40"/>
-        <v>1515</v>
+        <f t="shared" si="29"/>
+        <v>2400</v>
       </c>
       <c r="N141" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>60</v>
       </c>
       <c r="O141" s="4">
@@ -11352,23 +11348,23 @@
         <v>797</v>
       </c>
       <c r="J142" s="1">
-        <f t="shared" ref="J142:M142" si="42">J141+15</f>
-        <v>2090</v>
+        <f t="shared" si="26"/>
+        <v>4500</v>
       </c>
       <c r="K142" s="1">
-        <f t="shared" si="42"/>
-        <v>1490</v>
+        <f t="shared" si="27"/>
+        <v>4200</v>
       </c>
       <c r="L142" s="1">
-        <f t="shared" si="41"/>
-        <v>1110</v>
+        <f t="shared" si="28"/>
+        <v>2450</v>
       </c>
       <c r="M142" s="1">
-        <f t="shared" si="42"/>
-        <v>1530</v>
+        <f t="shared" si="29"/>
+        <v>2450</v>
       </c>
       <c r="N142" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>61</v>
       </c>
       <c r="O142" s="4">
@@ -11415,23 +11411,23 @@
         <v>797</v>
       </c>
       <c r="J143" s="1">
-        <f t="shared" ref="J143:J145" si="43">J142+15</f>
-        <v>2105</v>
+        <f t="shared" si="26"/>
+        <v>4600</v>
       </c>
       <c r="K143" s="1">
-        <f t="shared" ref="K143:K145" si="44">K142+5</f>
-        <v>1495</v>
+        <f t="shared" si="27"/>
+        <v>4300</v>
       </c>
       <c r="L143" s="1">
-        <f t="shared" si="41"/>
-        <v>1115</v>
+        <f t="shared" si="28"/>
+        <v>2500</v>
       </c>
       <c r="M143" s="1">
-        <f t="shared" ref="M143:M145" si="45">M142+15</f>
-        <v>1545</v>
+        <f t="shared" si="29"/>
+        <v>2500</v>
       </c>
       <c r="N143" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>62</v>
       </c>
       <c r="O143" s="4">
@@ -11478,23 +11474,23 @@
         <v>797</v>
       </c>
       <c r="J144" s="1">
-        <f t="shared" si="43"/>
-        <v>2120</v>
+        <f t="shared" si="26"/>
+        <v>4700</v>
       </c>
       <c r="K144" s="1">
-        <f t="shared" si="44"/>
-        <v>1500</v>
+        <f t="shared" si="27"/>
+        <v>4400</v>
       </c>
       <c r="L144" s="1">
-        <f t="shared" si="41"/>
-        <v>1120</v>
+        <f t="shared" si="28"/>
+        <v>2550</v>
       </c>
       <c r="M144" s="1">
-        <f t="shared" si="45"/>
-        <v>1560</v>
+        <f t="shared" si="29"/>
+        <v>2550</v>
       </c>
       <c r="N144" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>63</v>
       </c>
       <c r="O144" s="4">
@@ -11541,23 +11537,23 @@
         <v>797</v>
       </c>
       <c r="J145" s="1">
-        <f t="shared" si="43"/>
-        <v>2135</v>
+        <f t="shared" si="26"/>
+        <v>4800</v>
       </c>
       <c r="K145" s="1">
-        <f t="shared" si="44"/>
-        <v>1505</v>
+        <f t="shared" si="27"/>
+        <v>4500</v>
       </c>
       <c r="L145" s="1">
-        <f t="shared" si="41"/>
-        <v>1125</v>
+        <f t="shared" si="28"/>
+        <v>2600</v>
       </c>
       <c r="M145" s="1">
-        <f t="shared" si="45"/>
-        <v>1575</v>
+        <f t="shared" si="29"/>
+        <v>2600</v>
       </c>
       <c r="N145" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>64</v>
       </c>
       <c r="O145" s="4">

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="856">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +68,9 @@
     <t>Accuracy</t>
   </si>
   <si>
+    <t>Protect</t>
+  </si>
+  <si>
     <t>经验</t>
   </si>
   <si>
@@ -2147,7 +2150,7 @@
     <t>地狱鸡</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000000</t>
   </si>
   <si>
     <t>9000000000000000000000000000000000000000000000</t>
@@ -2165,7 +2168,7 @@
     <t>地狱鹿</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>200000000000000000000000000000000000000000000000</t>
@@ -2183,7 +2186,7 @@
     <t>地狱草人</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>4000000000000000000000000000000000000000000000000</t>
@@ -2201,7 +2204,7 @@
     <t>地狱猫</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>80000000000000000000000000000000000000000000000000</t>
@@ -2219,7 +2222,7 @@
     <t>地狱花</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>1600000000000000000000000000000000000000000000000000</t>
@@ -2240,10 +2243,7 @@
     <t>地狱雪人</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>32000000000000000000000000000000000000000000000000000</t>
+    <t>1</t>
   </si>
   <si>
     <t>3600000000</t>
@@ -2258,12 +2258,6 @@
     <t>地狱蝙蝠</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>640000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>3700000000</t>
   </si>
   <si>
@@ -2276,12 +2270,6 @@
     <t>地狱骷髅</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>12000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>3800000000</t>
   </si>
   <si>
@@ -2294,12 +2282,6 @@
     <t>地狱僵尸</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>240000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>3900000000</t>
   </si>
   <si>
@@ -2312,12 +2294,6 @@
     <t>地狱虎蛇</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>4800000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>4000000000</t>
   </si>
   <si>
@@ -2330,12 +2306,6 @@
     <t>地狱狼</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>100000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>4100000000</t>
   </si>
   <si>
@@ -2348,12 +2318,6 @@
     <t>地狱沙虫</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>2000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>4200000000</t>
   </si>
   <si>
@@ -2366,12 +2330,6 @@
     <t>地狱小鹰</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>40000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>4300000000</t>
   </si>
   <si>
@@ -2384,12 +2342,6 @@
     <t>地狱多角虫</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>800000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>4400000000</t>
   </si>
   <si>
@@ -2402,9 +2354,6 @@
     <t>地狱蜈蚣</t>
   </si>
   <si>
-    <t>16000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>4500000000</t>
   </si>
   <si>
@@ -2415,12 +2364,6 @@
   </si>
   <si>
     <t>地狱钳虫</t>
-  </si>
-  <si>
-    <t>300000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>30000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>4600000000</t>
@@ -3623,10 +3566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D96" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112:J145"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3640,21 +3583,24 @@
     <col min="7" max="7" width="36.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="40.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="52.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
-    <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="2" customWidth="1"/>
     <col min="15" max="15" width="7.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.125" style="1"/>
-    <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="13.625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="9.625" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="2"/>
+    <col min="16" max="16" width="7.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.125" style="1"/>
+    <col min="20" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="13.625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="9.625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="G1" s="2"/>
@@ -3668,11 +3614,12 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="R1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="G2" s="2"/>
@@ -3686,11 +3633,12 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="R2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -3738,33 +3686,36 @@
       <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="2"/>
+      <c r="R3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
@@ -3785,79 +3736,85 @@
         <v>12</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="2"/>
+      <c r="R4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="N5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-    </row>
-    <row r="6" ht="14.25" spans="3:17">
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" ht="14.25" spans="3:18">
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -3886,128 +3843,137 @@
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>29</v>
+      <c r="P6" s="4">
+        <v>0</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:17">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:18">
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:17">
+      <c r="R7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:18">
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:17">
+      <c r="R8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:18">
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -4027,81 +3993,87 @@
       <c r="O9" s="4">
         <v>0</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>34</v>
+      <c r="P9" s="4">
+        <v>0</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:17">
+        <v>35</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:18">
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:17">
+      <c r="R10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:18">
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -4121,34 +4093,37 @@
       <c r="O11" s="4">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>56</v>
+      <c r="P11" s="4">
+        <v>0</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:17">
+        <v>57</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:18">
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -4168,34 +4143,37 @@
       <c r="O12" s="4">
         <v>0</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>63</v>
+      <c r="P12" s="4">
+        <v>0</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:17">
+        <v>64</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:18">
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -4215,34 +4193,37 @@
       <c r="O13" s="4">
         <v>0</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>49</v>
+      <c r="P13" s="4">
+        <v>0</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:17">
+        <v>50</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:18">
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -4262,34 +4243,37 @@
       <c r="O14" s="4">
         <v>0</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>76</v>
+      <c r="P14" s="4">
+        <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:17">
+        <v>77</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:18">
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -4309,34 +4293,37 @@
       <c r="O15" s="4">
         <v>0</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>83</v>
+      <c r="P15" s="4">
+        <v>0</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:17">
+        <v>84</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:18">
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -4356,34 +4343,37 @@
       <c r="O16" s="4">
         <v>0</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>90</v>
+      <c r="P16" s="4">
+        <v>0</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:17">
+        <v>91</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:18">
       <c r="C17" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -4403,34 +4393,37 @@
       <c r="O17" s="4">
         <v>0</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>97</v>
+      <c r="P17" s="4">
+        <v>0</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:17">
+        <v>98</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:18">
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -4450,34 +4443,37 @@
       <c r="O18" s="4">
         <v>0</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>104</v>
+      <c r="P18" s="4">
+        <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:17">
+        <v>105</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:18">
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -4497,34 +4493,37 @@
       <c r="O19" s="4">
         <v>0</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>111</v>
+      <c r="P19" s="4">
+        <v>0</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:17">
+        <v>112</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:18">
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -4544,34 +4543,37 @@
       <c r="O20" s="4">
         <v>0</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>118</v>
+      <c r="P20" s="4">
+        <v>0</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:17">
+        <v>119</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:18">
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ref="J21:J66" si="0">(D21-1014)*3</f>
@@ -4592,34 +4594,37 @@
       <c r="O21" s="4">
         <v>0</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>125</v>
+      <c r="P21" s="4">
+        <v>0</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:17">
+        <v>126</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:18">
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
@@ -4640,34 +4645,37 @@
       <c r="O22" s="4">
         <v>0</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>132</v>
+      <c r="P22" s="4">
+        <v>0</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:17">
+        <v>133</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:18">
       <c r="C23" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
@@ -4688,34 +4696,37 @@
       <c r="O23" s="4">
         <v>0</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>139</v>
+      <c r="P23" s="4">
+        <v>0</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:17">
+        <v>140</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:18">
       <c r="C24" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
@@ -4736,34 +4747,37 @@
       <c r="O24" s="4">
         <v>0</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>146</v>
+      <c r="P24" s="4">
+        <v>0</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:17">
+        <v>147</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:18">
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
@@ -4784,34 +4798,37 @@
       <c r="O25" s="4">
         <v>0</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>153</v>
+      <c r="P25" s="4">
+        <v>0</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:17">
+        <v>154</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:18">
       <c r="C26" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
@@ -4832,34 +4849,37 @@
       <c r="O26" s="4">
         <v>0</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>160</v>
+      <c r="P26" s="4">
+        <v>0</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:17">
+        <v>161</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:18">
       <c r="C27" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
@@ -4880,34 +4900,37 @@
       <c r="O27" s="4">
         <v>0</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>167</v>
+      <c r="P27" s="4">
+        <v>0</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:17">
+        <v>168</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:18">
       <c r="C28" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
@@ -4928,34 +4951,37 @@
       <c r="O28" s="4">
         <v>0</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>174</v>
+      <c r="P28" s="4">
+        <v>0</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:17">
+        <v>175</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:18">
       <c r="C29" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
@@ -4976,34 +5002,37 @@
       <c r="O29" s="4">
         <v>0</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>181</v>
+      <c r="P29" s="4">
+        <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:17">
+        <v>182</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:18">
       <c r="C30" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
@@ -5024,34 +5053,37 @@
       <c r="O30" s="4">
         <v>0</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>188</v>
+      <c r="P30" s="4">
+        <v>0</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:17">
+        <v>189</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:18">
       <c r="C31" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
@@ -5072,34 +5104,37 @@
       <c r="O31" s="4">
         <v>0</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>195</v>
+      <c r="P31" s="4">
+        <v>0</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:17">
+        <v>196</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:18">
       <c r="C32" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
@@ -5120,34 +5155,37 @@
       <c r="O32" s="4">
         <v>0</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>202</v>
+      <c r="P32" s="4">
+        <v>0</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:17">
+        <v>203</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:18">
       <c r="C33" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
@@ -5168,34 +5206,37 @@
       <c r="O33" s="4">
         <v>0</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>209</v>
+      <c r="P33" s="4">
+        <v>0</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:17">
+        <v>210</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:18">
       <c r="C34" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
@@ -5216,34 +5257,37 @@
       <c r="O34" s="4">
         <v>0</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>216</v>
+      <c r="P34" s="4">
+        <v>0</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:17">
+        <v>217</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:18">
       <c r="C35" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
@@ -5264,34 +5308,37 @@
       <c r="O35" s="4">
         <v>0</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>223</v>
+      <c r="P35" s="4">
+        <v>0</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:17">
+        <v>224</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:18">
       <c r="C36" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
@@ -5312,34 +5359,37 @@
       <c r="O36" s="4">
         <v>0</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>230</v>
+      <c r="P36" s="4">
+        <v>0</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:17">
+        <v>231</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:18">
       <c r="C37" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
@@ -5360,34 +5410,37 @@
       <c r="O37" s="4">
         <v>0</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>237</v>
+      <c r="P37" s="4">
+        <v>0</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:17">
+        <v>238</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:18">
       <c r="C38" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="0"/>
@@ -5408,34 +5461,37 @@
       <c r="O38" s="4">
         <v>0</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>244</v>
+      <c r="P38" s="4">
+        <v>0</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:17">
+        <v>245</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:18">
       <c r="C39" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="0"/>
@@ -5456,34 +5512,37 @@
       <c r="O39" s="4">
         <v>0</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>251</v>
+      <c r="P39" s="4">
+        <v>0</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:17">
+        <v>252</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:18">
       <c r="C40" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="0"/>
@@ -5504,36 +5563,39 @@
       <c r="O40" s="4">
         <v>0</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>258</v>
+      <c r="P40" s="4">
+        <v>0</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:22">
+        <v>259</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="0"/>
@@ -5554,39 +5616,42 @@
       <c r="O41" s="4">
         <v>0</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>265</v>
+      <c r="P41" s="4">
+        <v>0</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="T41" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="0"/>
@@ -5607,39 +5672,42 @@
       <c r="O42" s="4">
         <v>0</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>272</v>
+      <c r="P42" s="4">
+        <v>0</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="T42" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="0"/>
@@ -5660,39 +5728,42 @@
       <c r="O43" s="4">
         <v>0</v>
       </c>
-      <c r="P43" s="1" t="s">
-        <v>279</v>
+      <c r="P43" s="4">
+        <v>0</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="T43" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-    </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W43" s="2"/>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="0"/>
@@ -5713,39 +5784,42 @@
       <c r="O44" s="4">
         <v>0</v>
       </c>
-      <c r="P44" s="1" t="s">
-        <v>286</v>
+      <c r="P44" s="4">
+        <v>0</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="T44" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-    </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="0"/>
@@ -5766,39 +5840,42 @@
       <c r="O45" s="4">
         <v>0</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>293</v>
+      <c r="P45" s="4">
+        <v>0</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="T45" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="0"/>
@@ -5819,41 +5896,44 @@
       <c r="O46" s="4">
         <v>0</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>300</v>
+      <c r="P46" s="4">
+        <v>0</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="R46" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="0"/>
@@ -5874,41 +5954,44 @@
       <c r="O47" s="4">
         <v>0</v>
       </c>
-      <c r="P47" s="1" t="s">
-        <v>307</v>
+      <c r="P47" s="4">
+        <v>0</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="R47" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="0"/>
@@ -5929,41 +6012,44 @@
       <c r="O48" s="4">
         <v>0</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>314</v>
+      <c r="P48" s="4">
+        <v>0</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="R48" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="0"/>
@@ -5984,41 +6070,44 @@
       <c r="O49" s="4">
         <v>0</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>321</v>
+      <c r="P49" s="4">
+        <v>0</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="R49" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W49" s="2"/>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="0"/>
@@ -6039,41 +6128,44 @@
       <c r="O50" s="4">
         <v>0</v>
       </c>
-      <c r="P50" s="1" t="s">
-        <v>328</v>
+      <c r="P50" s="4">
+        <v>0</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="R50" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="0"/>
@@ -6097,41 +6189,44 @@
       <c r="O51" s="4">
         <v>0</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>335</v>
+      <c r="P51" s="4">
+        <v>0</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="R51" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="0"/>
@@ -6155,41 +6250,44 @@
       <c r="O52" s="4">
         <v>0</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>342</v>
+      <c r="P52" s="4">
+        <v>0</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="R52" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="0"/>
@@ -6213,41 +6311,44 @@
       <c r="O53" s="4">
         <v>0</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>349</v>
+      <c r="P53" s="4">
+        <v>0</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="R53" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W53" s="2"/>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="0"/>
@@ -6271,41 +6372,44 @@
       <c r="O54" s="4">
         <v>0</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>356</v>
+      <c r="P54" s="4">
+        <v>0</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="R54" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-    </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W54" s="2"/>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="0"/>
@@ -6329,41 +6433,44 @@
       <c r="O55" s="4">
         <v>0</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>363</v>
+      <c r="P55" s="4">
+        <v>0</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="R55" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W55" s="2"/>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="0"/>
@@ -6387,41 +6494,44 @@
       <c r="O56" s="4">
         <v>0</v>
       </c>
-      <c r="P56" s="1" t="s">
-        <v>370</v>
+      <c r="P56" s="4">
+        <v>0</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="R56" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W56" s="2"/>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" si="0"/>
@@ -6445,41 +6555,44 @@
       <c r="O57" s="4">
         <v>0</v>
       </c>
-      <c r="P57" s="1" t="s">
-        <v>377</v>
+      <c r="P57" s="4">
+        <v>0</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="R57" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" si="0"/>
@@ -6503,41 +6616,44 @@
       <c r="O58" s="4">
         <v>0</v>
       </c>
-      <c r="P58" s="1" t="s">
-        <v>384</v>
+      <c r="P58" s="4">
+        <v>0</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="R58" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W58" s="2"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" si="0"/>
@@ -6561,41 +6677,44 @@
       <c r="O59" s="4">
         <v>0</v>
       </c>
-      <c r="P59" s="1" t="s">
-        <v>391</v>
+      <c r="P59" s="4">
+        <v>0</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="R59" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W59" s="2"/>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="0"/>
@@ -6619,41 +6738,44 @@
       <c r="O60" s="4">
         <v>0</v>
       </c>
-      <c r="P60" s="1" t="s">
-        <v>398</v>
+      <c r="P60" s="4">
+        <v>0</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="R60" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-    </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W60" s="2"/>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="0"/>
@@ -6677,41 +6799,44 @@
       <c r="O61" s="4">
         <v>0</v>
       </c>
-      <c r="P61" s="1" t="s">
-        <v>405</v>
+      <c r="P61" s="4">
+        <v>0</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="R61" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-    </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W61" s="2"/>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="0"/>
@@ -6735,41 +6860,44 @@
       <c r="O62" s="4">
         <v>0</v>
       </c>
-      <c r="P62" s="1" t="s">
-        <v>412</v>
+      <c r="P62" s="4">
+        <v>0</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="R62" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-    </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W62" s="2"/>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="0"/>
@@ -6793,41 +6921,44 @@
       <c r="O63" s="4">
         <v>0</v>
       </c>
-      <c r="P63" s="1" t="s">
-        <v>419</v>
+      <c r="P63" s="4">
+        <v>0</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="R63" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-    </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W63" s="2"/>
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="0"/>
@@ -6851,41 +6982,44 @@
       <c r="O64" s="4">
         <v>0</v>
       </c>
-      <c r="P64" s="1" t="s">
-        <v>426</v>
+      <c r="P64" s="4">
+        <v>0</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="R64" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
-    </row>
-    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W64" s="2"/>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" si="0"/>
@@ -6909,41 +7043,44 @@
       <c r="O65" s="4">
         <v>0</v>
       </c>
-      <c r="P65" s="1" t="s">
-        <v>433</v>
+      <c r="P65" s="4">
+        <v>0</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="R65" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
-    </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W65" s="2"/>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" ref="J66:M66" si="4">J65+5</f>
@@ -6967,41 +7104,44 @@
       <c r="O66" s="4">
         <v>0</v>
       </c>
-      <c r="P66" s="1" t="s">
-        <v>440</v>
+      <c r="P66" s="4">
+        <v>0</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="R66" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W66" s="2"/>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" ref="J66:J71" si="6">J66+5</f>
@@ -7025,41 +7165,44 @@
       <c r="O67" s="4">
         <v>0</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>447</v>
+      <c r="P67" s="4">
+        <v>0</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="R67" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W67" s="2"/>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" si="6"/>
@@ -7083,41 +7226,44 @@
       <c r="O68" s="4">
         <v>0</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>454</v>
+      <c r="P68" s="4">
+        <v>0</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="R68" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W68" s="2"/>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" si="6"/>
@@ -7141,41 +7287,44 @@
       <c r="O69" s="4">
         <v>0</v>
       </c>
-      <c r="P69" s="1" t="s">
-        <v>461</v>
+      <c r="P69" s="4">
+        <v>0</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="R69" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
-    </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W69" s="2"/>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J70" s="1">
         <f t="shared" si="6"/>
@@ -7199,41 +7348,44 @@
       <c r="O70" s="4">
         <v>0</v>
       </c>
-      <c r="P70" s="1" t="s">
-        <v>468</v>
+      <c r="P70" s="4">
+        <v>0</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="R70" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>469</v>
+      </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
-    </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W70" s="2"/>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J71" s="1">
         <f>J70+15</f>
@@ -7257,41 +7409,44 @@
       <c r="O71" s="4">
         <v>0</v>
       </c>
-      <c r="P71" s="1" t="s">
-        <v>475</v>
+      <c r="P71" s="4">
+        <v>0</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="R71" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W71" s="2"/>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" ref="J71:J81" si="10">J71+15</f>
@@ -7315,41 +7470,44 @@
       <c r="O72" s="4">
         <v>0</v>
       </c>
-      <c r="P72" s="1" t="s">
-        <v>482</v>
+      <c r="P72" s="4">
+        <v>0</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="R72" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>483</v>
+      </c>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
-    </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W72" s="2"/>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E73" s="1">
         <v>2</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J73" s="1">
         <f t="shared" si="10"/>
@@ -7373,41 +7531,44 @@
       <c r="O73" s="4">
         <v>0</v>
       </c>
-      <c r="P73" s="1" t="s">
-        <v>489</v>
+      <c r="P73" s="4">
+        <v>0</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="R73" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
-    </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W73" s="2"/>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E74" s="1">
         <v>2</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" si="10"/>
@@ -7431,41 +7592,44 @@
       <c r="O74" s="4">
         <v>0</v>
       </c>
-      <c r="P74" s="1" t="s">
-        <v>496</v>
+      <c r="P74" s="4">
+        <v>0</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="R74" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
-    </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E75" s="1">
         <v>2</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" si="10"/>
@@ -7489,41 +7653,44 @@
       <c r="O75" s="4">
         <v>0</v>
       </c>
-      <c r="P75" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q75" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="R75" s="2"/>
+      <c r="P75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R75" s="10" t="s">
+        <v>504</v>
+      </c>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
-    </row>
-    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W75" s="2"/>
+    </row>
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" si="10"/>
@@ -7547,39 +7714,42 @@
       <c r="O76" s="4">
         <v>0</v>
       </c>
-      <c r="P76" s="1">
-        <v>229385000</v>
+      <c r="P76" s="4">
+        <v>0</v>
       </c>
       <c r="Q76" s="1">
         <v>229385000</v>
       </c>
-      <c r="T76" s="2"/>
+      <c r="R76" s="1">
+        <v>229385000</v>
+      </c>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
-    </row>
-    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W76" s="2"/>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" si="10"/>
@@ -7603,39 +7773,42 @@
       <c r="O77" s="4">
         <v>0</v>
       </c>
-      <c r="P77" s="1">
-        <v>239385000</v>
+      <c r="P77" s="4">
+        <v>0</v>
       </c>
       <c r="Q77" s="1">
         <v>239385000</v>
       </c>
-      <c r="T77" s="2"/>
+      <c r="R77" s="1">
+        <v>239385000</v>
+      </c>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
-    </row>
-    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W77" s="2"/>
+    </row>
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" si="10"/>
@@ -7659,39 +7832,42 @@
       <c r="O78" s="4">
         <v>0</v>
       </c>
-      <c r="P78" s="1">
-        <v>249385000</v>
+      <c r="P78" s="4">
+        <v>0</v>
       </c>
       <c r="Q78" s="1">
         <v>249385000</v>
       </c>
-      <c r="T78" s="2"/>
+      <c r="R78" s="1">
+        <v>249385000</v>
+      </c>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
-    </row>
-    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W78" s="2"/>
+    </row>
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E79" s="1">
         <v>3</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" si="10"/>
@@ -7715,39 +7891,42 @@
       <c r="O79" s="4">
         <v>0</v>
       </c>
-      <c r="P79" s="1">
-        <v>259385000</v>
+      <c r="P79" s="4">
+        <v>0</v>
       </c>
       <c r="Q79" s="1">
         <v>259385000</v>
       </c>
-      <c r="T79" s="2"/>
+      <c r="R79" s="1">
+        <v>259385000</v>
+      </c>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
-    </row>
-    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W79" s="2"/>
+    </row>
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J80" s="1">
         <f t="shared" si="10"/>
@@ -7771,39 +7950,42 @@
       <c r="O80" s="4">
         <v>0</v>
       </c>
-      <c r="P80" s="1">
-        <v>269385000</v>
+      <c r="P80" s="4">
+        <v>0</v>
       </c>
       <c r="Q80" s="1">
         <v>269385000</v>
       </c>
-      <c r="T80" s="2"/>
+      <c r="R80" s="1">
+        <v>269385000</v>
+      </c>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
-    </row>
-    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W80" s="2"/>
+    </row>
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J81" s="1">
         <f t="shared" ref="J81:J91" si="13">J80+25</f>
@@ -7827,41 +8009,44 @@
       <c r="O81" s="4">
         <v>0</v>
       </c>
-      <c r="P81" s="1">
-        <v>300000000</v>
+      <c r="P81" s="4">
+        <v>0</v>
       </c>
       <c r="Q81" s="1">
         <v>300000000</v>
       </c>
-      <c r="R81" s="2"/>
+      <c r="R81" s="1">
+        <v>300000000</v>
+      </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
-    </row>
-    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W81" s="2"/>
+    </row>
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J82" s="1">
         <f t="shared" si="13"/>
@@ -7885,41 +8070,44 @@
       <c r="O82" s="4">
         <v>0</v>
       </c>
-      <c r="P82" s="1">
-        <v>320000000</v>
+      <c r="P82" s="4">
+        <v>0</v>
       </c>
       <c r="Q82" s="1">
         <v>320000000</v>
       </c>
-      <c r="R82" s="2"/>
+      <c r="R82" s="1">
+        <v>320000000</v>
+      </c>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
-    </row>
-    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W82" s="2"/>
+    </row>
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E83" s="1">
         <v>3</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J83" s="1">
         <f t="shared" si="13"/>
@@ -7943,41 +8131,44 @@
       <c r="O83" s="4">
         <v>0</v>
       </c>
-      <c r="P83" s="1">
-        <v>340000000</v>
+      <c r="P83" s="4">
+        <v>0</v>
       </c>
       <c r="Q83" s="1">
         <v>340000000</v>
       </c>
-      <c r="R83" s="2"/>
+      <c r="R83" s="1">
+        <v>340000000</v>
+      </c>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
-    </row>
-    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W83" s="2"/>
+    </row>
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J84" s="1">
         <f t="shared" si="13"/>
@@ -8001,41 +8192,44 @@
       <c r="O84" s="4">
         <v>0</v>
       </c>
-      <c r="P84" s="1">
-        <v>370000000</v>
+      <c r="P84" s="4">
+        <v>0</v>
       </c>
       <c r="Q84" s="1">
         <v>370000000</v>
       </c>
-      <c r="R84" s="2"/>
+      <c r="R84" s="1">
+        <v>370000000</v>
+      </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
-    </row>
-    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W84" s="2"/>
+    </row>
+    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J85" s="1">
         <f t="shared" si="13"/>
@@ -8059,41 +8253,44 @@
       <c r="O85" s="4">
         <v>0</v>
       </c>
-      <c r="P85" s="1">
-        <v>400000000</v>
+      <c r="P85" s="4">
+        <v>0</v>
       </c>
       <c r="Q85" s="1">
         <v>400000000</v>
       </c>
-      <c r="R85" s="2"/>
+      <c r="R85" s="1">
+        <v>400000000</v>
+      </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
-    </row>
-    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W85" s="2"/>
+    </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E86" s="1">
         <v>3</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J86" s="1">
         <f t="shared" si="13"/>
@@ -8117,41 +8314,44 @@
       <c r="O86" s="4">
         <v>0</v>
       </c>
-      <c r="P86" s="1">
-        <v>500000000</v>
+      <c r="P86" s="4">
+        <v>0</v>
       </c>
       <c r="Q86" s="1">
         <v>500000000</v>
       </c>
-      <c r="R86" s="2"/>
+      <c r="R86" s="1">
+        <v>500000000</v>
+      </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
-    </row>
-    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W86" s="2"/>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E87" s="1">
         <v>3</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J87" s="1">
         <f t="shared" si="13"/>
@@ -8175,41 +8375,44 @@
       <c r="O87" s="4">
         <v>0</v>
       </c>
-      <c r="P87" s="1">
-        <v>600000000</v>
+      <c r="P87" s="4">
+        <v>0</v>
       </c>
       <c r="Q87" s="1">
         <v>600000000</v>
       </c>
-      <c r="R87" s="2"/>
+      <c r="R87" s="1">
+        <v>600000000</v>
+      </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
-    </row>
-    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W87" s="2"/>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E88" s="1">
         <v>3</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J88" s="1">
         <f t="shared" si="13"/>
@@ -8233,41 +8436,44 @@
       <c r="O88" s="4">
         <v>0</v>
       </c>
-      <c r="P88" s="1">
-        <v>700000000</v>
+      <c r="P88" s="4">
+        <v>0</v>
       </c>
       <c r="Q88" s="1">
         <v>700000000</v>
       </c>
-      <c r="R88" s="2"/>
+      <c r="R88" s="1">
+        <v>700000000</v>
+      </c>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
-    </row>
-    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W88" s="2"/>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E89" s="1">
         <v>3</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J89" s="1">
         <f t="shared" si="13"/>
@@ -8291,41 +8497,44 @@
       <c r="O89" s="4">
         <v>0</v>
       </c>
-      <c r="P89" s="1">
-        <v>800000000</v>
+      <c r="P89" s="4">
+        <v>0</v>
       </c>
       <c r="Q89" s="1">
         <v>800000000</v>
       </c>
-      <c r="R89" s="2"/>
+      <c r="R89" s="1">
+        <v>800000000</v>
+      </c>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
-    </row>
-    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W89" s="2"/>
+    </row>
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E90" s="1">
         <v>3</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J90" s="1">
         <f t="shared" si="13"/>
@@ -8349,41 +8558,44 @@
       <c r="O90" s="4">
         <v>0</v>
       </c>
-      <c r="P90" s="1">
-        <v>1000000000</v>
+      <c r="P90" s="4">
+        <v>0</v>
       </c>
       <c r="Q90" s="1">
         <v>1000000000</v>
       </c>
-      <c r="R90" s="2"/>
+      <c r="R90" s="1">
+        <v>1000000000</v>
+      </c>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
-    </row>
-    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W90" s="2"/>
+    </row>
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E91" s="1">
         <v>3</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J91" s="1">
         <f t="shared" ref="J91:J100" si="15">J90+30</f>
@@ -8407,41 +8619,44 @@
       <c r="O91" s="4">
         <v>0</v>
       </c>
-      <c r="P91" s="1">
-        <v>1100000000</v>
+      <c r="P91" s="4">
+        <v>0</v>
       </c>
       <c r="Q91" s="1">
         <v>1100000000</v>
       </c>
-      <c r="R91" s="2"/>
+      <c r="R91" s="1">
+        <v>1100000000</v>
+      </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
-    </row>
-    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W91" s="2"/>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J92" s="1">
         <f t="shared" si="15"/>
@@ -8465,41 +8680,44 @@
       <c r="O92" s="4">
         <v>0</v>
       </c>
-      <c r="P92" s="1">
-        <v>1200000000</v>
+      <c r="P92" s="4">
+        <v>0</v>
       </c>
       <c r="Q92" s="1">
         <v>1200000000</v>
       </c>
-      <c r="R92" s="2"/>
+      <c r="R92" s="1">
+        <v>1200000000</v>
+      </c>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
-    </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W92" s="2"/>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J93" s="1">
         <f t="shared" si="15"/>
@@ -8523,41 +8741,44 @@
       <c r="O93" s="4">
         <v>0</v>
       </c>
-      <c r="P93" s="1">
-        <v>1300000000</v>
+      <c r="P93" s="4">
+        <v>0</v>
       </c>
       <c r="Q93" s="1">
         <v>1300000000</v>
       </c>
-      <c r="R93" s="2"/>
+      <c r="R93" s="1">
+        <v>1300000000</v>
+      </c>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
-    </row>
-    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W93" s="2"/>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J94" s="1">
         <f t="shared" si="15"/>
@@ -8581,41 +8802,44 @@
       <c r="O94" s="4">
         <v>0</v>
       </c>
-      <c r="P94" s="1">
-        <v>1400000000</v>
+      <c r="P94" s="4">
+        <v>0</v>
       </c>
       <c r="Q94" s="1">
         <v>1400000000</v>
       </c>
-      <c r="R94" s="2"/>
+      <c r="R94" s="1">
+        <v>1400000000</v>
+      </c>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
-    </row>
-    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W94" s="2"/>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J95" s="1">
         <f t="shared" si="15"/>
@@ -8639,39 +8863,42 @@
       <c r="O95" s="4">
         <v>0</v>
       </c>
-      <c r="P95" s="1">
-        <v>1500000000</v>
+      <c r="P95" s="4">
+        <v>0</v>
       </c>
       <c r="Q95" s="1">
         <v>1500000000</v>
       </c>
-      <c r="R95" s="2"/>
+      <c r="R95" s="1">
+        <v>1500000000</v>
+      </c>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
-    </row>
-    <row r="96" customHeight="1" spans="3:17">
+      <c r="W95" s="2"/>
+    </row>
+    <row r="96" customHeight="1" spans="3:18">
       <c r="C96" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J96" s="1">
         <f t="shared" ref="J96:J105" si="19">J95+40</f>
@@ -8695,34 +8922,37 @@
       <c r="O96" s="4">
         <v>0</v>
       </c>
-      <c r="P96" s="1">
-        <v>1600000000</v>
+      <c r="P96" s="4">
+        <v>0</v>
       </c>
       <c r="Q96" s="1">
         <v>1600000000</v>
       </c>
-    </row>
-    <row r="97" customHeight="1" spans="3:17">
+      <c r="R96" s="1">
+        <v>1600000000</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:18">
       <c r="C97" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E97" s="1">
         <v>3</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J97" s="1">
         <f t="shared" si="19"/>
@@ -8746,34 +8976,37 @@
       <c r="O97" s="4">
         <v>0</v>
       </c>
-      <c r="P97" s="1">
-        <v>1700000000</v>
+      <c r="P97" s="4">
+        <v>0</v>
       </c>
       <c r="Q97" s="1">
         <v>1700000000</v>
       </c>
-    </row>
-    <row r="98" customHeight="1" spans="3:17">
+      <c r="R97" s="1">
+        <v>1700000000</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:18">
       <c r="C98" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J98" s="1">
         <f t="shared" si="19"/>
@@ -8797,34 +9030,37 @@
       <c r="O98" s="4">
         <v>0</v>
       </c>
-      <c r="P98" s="1">
-        <v>1800000000</v>
+      <c r="P98" s="4">
+        <v>0</v>
       </c>
       <c r="Q98" s="1">
         <v>1800000000</v>
       </c>
-    </row>
-    <row r="99" customHeight="1" spans="3:17">
+      <c r="R98" s="1">
+        <v>1800000000</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:18">
       <c r="C99" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J99" s="1">
         <f t="shared" si="19"/>
@@ -8848,34 +9084,37 @@
       <c r="O99" s="4">
         <v>0</v>
       </c>
-      <c r="P99" s="1">
-        <v>1900000000</v>
+      <c r="P99" s="4">
+        <v>0</v>
       </c>
       <c r="Q99" s="1">
         <v>1900000000</v>
       </c>
-    </row>
-    <row r="100" customHeight="1" spans="3:17">
+      <c r="R99" s="1">
+        <v>1900000000</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:18">
       <c r="C100" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J100" s="1">
         <f t="shared" si="19"/>
@@ -8899,34 +9138,37 @@
       <c r="O100" s="4">
         <v>0</v>
       </c>
-      <c r="P100" s="1">
-        <v>2000000000</v>
+      <c r="P100" s="4">
+        <v>0</v>
       </c>
       <c r="Q100" s="1">
         <v>2000000000</v>
       </c>
-    </row>
-    <row r="101" customHeight="1" spans="3:17">
+      <c r="R100" s="1">
+        <v>2000000000</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:18">
       <c r="C101" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J101" s="1">
         <f t="shared" si="19"/>
@@ -8950,34 +9192,37 @@
       <c r="O101" s="4">
         <v>0</v>
       </c>
-      <c r="P101" s="1">
-        <v>2100000000</v>
+      <c r="P101" s="4">
+        <v>0</v>
       </c>
       <c r="Q101" s="1">
         <v>2100000000</v>
       </c>
-    </row>
-    <row r="102" customHeight="1" spans="3:17">
+      <c r="R101" s="1">
+        <v>2100000000</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:18">
       <c r="C102" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J102" s="1">
         <f t="shared" si="19"/>
@@ -9001,34 +9246,37 @@
       <c r="O102" s="4">
         <v>0</v>
       </c>
-      <c r="P102" s="1">
-        <v>2200000000</v>
+      <c r="P102" s="4">
+        <v>0</v>
       </c>
       <c r="Q102" s="1">
         <v>2200000000</v>
       </c>
-    </row>
-    <row r="103" customHeight="1" spans="3:17">
+      <c r="R102" s="1">
+        <v>2200000000</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:18">
       <c r="C103" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J103" s="1">
         <f t="shared" si="19"/>
@@ -9052,34 +9300,37 @@
       <c r="O103" s="4">
         <v>0</v>
       </c>
-      <c r="P103" s="1">
-        <v>2300000000</v>
+      <c r="P103" s="4">
+        <v>0</v>
       </c>
       <c r="Q103" s="1">
         <v>2300000000</v>
       </c>
-    </row>
-    <row r="104" customHeight="1" spans="3:17">
+      <c r="R103" s="1">
+        <v>2300000000</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:18">
       <c r="C104" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J104" s="1">
         <f t="shared" si="19"/>
@@ -9103,34 +9354,37 @@
       <c r="O104" s="4">
         <v>0</v>
       </c>
-      <c r="P104" s="1">
-        <v>2400000000</v>
+      <c r="P104" s="4">
+        <v>0</v>
       </c>
       <c r="Q104" s="1">
         <v>2400000000</v>
       </c>
-    </row>
-    <row r="105" customHeight="1" spans="3:17">
+      <c r="R104" s="1">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:18">
       <c r="C105" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J105" s="1">
         <f t="shared" si="19"/>
@@ -9154,36 +9408,39 @@
       <c r="O105" s="4">
         <v>0</v>
       </c>
-      <c r="P105" s="1">
-        <v>2500000000</v>
+      <c r="P105" s="4">
+        <v>0</v>
       </c>
       <c r="Q105" s="1">
         <v>2500000000</v>
       </c>
-    </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="R105" s="1">
+        <v>2500000000</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" ref="J106:M106" si="23">J105+15</f>
@@ -9207,41 +9464,44 @@
       <c r="O106" s="4">
         <v>0</v>
       </c>
-      <c r="P106" s="1">
-        <v>2600000000</v>
+      <c r="P106" s="4">
+        <v>0</v>
       </c>
       <c r="Q106" s="1">
         <v>2600000000</v>
       </c>
-      <c r="R106" s="2"/>
+      <c r="R106" s="1">
+        <v>2600000000</v>
+      </c>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
-    </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W106" s="2"/>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" ref="J107:M107" si="24">J106+15</f>
@@ -9265,41 +9525,44 @@
       <c r="O107" s="4">
         <v>0</v>
       </c>
-      <c r="P107" s="1">
-        <v>2700000000</v>
+      <c r="P107" s="4">
+        <v>0</v>
       </c>
       <c r="Q107" s="1">
         <v>2700000000</v>
       </c>
-      <c r="R107" s="2"/>
+      <c r="R107" s="1">
+        <v>2700000000</v>
+      </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
-    </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W107" s="2"/>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J108" s="1">
         <f>J107+15</f>
@@ -9323,41 +9586,44 @@
       <c r="O108" s="4">
         <v>0</v>
       </c>
-      <c r="P108" s="1">
-        <v>2800000000</v>
+      <c r="P108" s="4">
+        <v>0</v>
       </c>
       <c r="Q108" s="1">
         <v>2800000000</v>
       </c>
-      <c r="R108" s="2"/>
+      <c r="R108" s="1">
+        <v>2800000000</v>
+      </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
-    </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W108" s="2"/>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J109" s="1">
         <f>J108+15</f>
@@ -9381,41 +9647,44 @@
       <c r="O109" s="4">
         <v>0</v>
       </c>
-      <c r="P109" s="1">
-        <v>2900000000</v>
+      <c r="P109" s="4">
+        <v>0</v>
       </c>
       <c r="Q109" s="1">
         <v>2900000000</v>
       </c>
-      <c r="R109" s="2"/>
+      <c r="R109" s="1">
+        <v>2900000000</v>
+      </c>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
-    </row>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W109" s="2"/>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J110" s="1">
         <f>J109+15</f>
@@ -9439,41 +9708,44 @@
       <c r="O110" s="4">
         <v>0</v>
       </c>
-      <c r="P110" s="1">
-        <v>3000000000</v>
+      <c r="P110" s="4">
+        <v>0</v>
       </c>
       <c r="Q110" s="1">
         <v>3000000000</v>
       </c>
-      <c r="R110" s="2"/>
+      <c r="R110" s="1">
+        <v>3000000000</v>
+      </c>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
-    </row>
-    <row r="111" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W110" s="2"/>
+    </row>
+    <row r="111" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E111" s="1">
         <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J111" s="1">
         <v>1400</v>
@@ -9493,39 +9765,42 @@
       <c r="O111" s="4">
         <v>0</v>
       </c>
-      <c r="P111" s="10" t="s">
-        <v>708</v>
+      <c r="P111" s="2">
+        <v>90</v>
       </c>
       <c r="Q111" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="T111" s="2"/>
+        <v>709</v>
+      </c>
+      <c r="R111" s="10" t="s">
+        <v>709</v>
+      </c>
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
-    </row>
-    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W111" s="2"/>
+    </row>
+    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E112" s="1">
         <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" ref="J112:J145" si="26">J111+100</f>
@@ -9550,39 +9825,42 @@
       <c r="O112" s="4">
         <v>0</v>
       </c>
-      <c r="P112" s="10" t="s">
-        <v>714</v>
+      <c r="P112" s="2">
+        <v>90</v>
       </c>
       <c r="Q112" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="T112" s="2"/>
+        <v>715</v>
+      </c>
+      <c r="R112" s="10" t="s">
+        <v>715</v>
+      </c>
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
-    </row>
-    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W112" s="2"/>
+    </row>
+    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="26"/>
@@ -9607,39 +9885,42 @@
       <c r="O113" s="4">
         <v>0</v>
       </c>
-      <c r="P113" s="10" t="s">
-        <v>720</v>
+      <c r="P113" s="2">
+        <v>90</v>
       </c>
       <c r="Q113" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="T113" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="R113" s="10" t="s">
+        <v>721</v>
+      </c>
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
-    </row>
-    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W113" s="2"/>
+    </row>
+    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="26"/>
@@ -9664,39 +9945,42 @@
       <c r="O114" s="4">
         <v>0</v>
       </c>
-      <c r="P114" s="10" t="s">
-        <v>726</v>
+      <c r="P114" s="2">
+        <v>90</v>
       </c>
       <c r="Q114" s="10" t="s">
-        <v>726</v>
-      </c>
-      <c r="T114" s="2"/>
+        <v>727</v>
+      </c>
+      <c r="R114" s="10" t="s">
+        <v>727</v>
+      </c>
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
-    </row>
-    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W114" s="2"/>
+    </row>
+    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="I115" s="15" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="26"/>
@@ -9721,42 +10005,43 @@
       <c r="O115" s="4">
         <v>0</v>
       </c>
-      <c r="P115" s="10" t="s">
-        <v>732</v>
+      <c r="P115" s="2">
+        <v>90</v>
       </c>
       <c r="Q115" s="10" t="s">
-        <v>732</v>
-      </c>
-      <c r="T115" s="2"/>
+        <v>733</v>
+      </c>
+      <c r="R115" s="10" t="s">
+        <v>733</v>
+      </c>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
-    </row>
-    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W115" s="2"/>
+    </row>
+    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A116" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G116" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="H116" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="I116" s="15" t="s">
+      <c r="G116" s="1"/>
+      <c r="H116" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I116" s="14" t="s">
         <v>738</v>
       </c>
       <c r="J116" s="1">
@@ -9782,24 +10067,27 @@
       <c r="O116" s="4">
         <v>0</v>
       </c>
-      <c r="P116" s="10" t="s">
-        <v>739</v>
+      <c r="P116" s="2">
+        <v>90</v>
       </c>
       <c r="Q116" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="R116" s="2"/>
+      <c r="R116" s="10" t="s">
+        <v>739</v>
+      </c>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
-    </row>
-    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W116" s="2"/>
+    </row>
+    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A117" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>740</v>
@@ -9814,13 +10102,13 @@
         <v>742</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>743</v>
-      </c>
-      <c r="H117" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="I117" s="15" t="s">
-        <v>744</v>
+        <v>738</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" si="26"/>
@@ -9845,45 +10133,48 @@
       <c r="O117" s="4">
         <v>0</v>
       </c>
-      <c r="P117" s="10" t="s">
-        <v>745</v>
+      <c r="P117" s="2">
+        <v>90</v>
       </c>
       <c r="Q117" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="R117" s="2"/>
+        <v>743</v>
+      </c>
+      <c r="R117" s="10" t="s">
+        <v>743</v>
+      </c>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
-    </row>
-    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W117" s="2"/>
+    </row>
+    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A118" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="I118" s="15" t="s">
-        <v>750</v>
+        <v>738</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I118" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="26"/>
@@ -9908,45 +10199,48 @@
       <c r="O118" s="4">
         <v>0</v>
       </c>
-      <c r="P118" s="10" t="s">
-        <v>751</v>
+      <c r="P118" s="2">
+        <v>90</v>
       </c>
       <c r="Q118" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="R118" s="2"/>
+        <v>747</v>
+      </c>
+      <c r="R118" s="10" t="s">
+        <v>747</v>
+      </c>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
-    </row>
-    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W118" s="2"/>
+    </row>
+    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A119" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>755</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="I119" s="15" t="s">
-        <v>756</v>
+        <v>738</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I119" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" si="26"/>
@@ -9971,45 +10265,48 @@
       <c r="O119" s="4">
         <v>0</v>
       </c>
-      <c r="P119" s="10" t="s">
-        <v>757</v>
+      <c r="P119" s="2">
+        <v>90</v>
       </c>
       <c r="Q119" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="R119" s="2"/>
+        <v>751</v>
+      </c>
+      <c r="R119" s="10" t="s">
+        <v>751</v>
+      </c>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
-    </row>
-    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W119" s="2"/>
+    </row>
+    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A120" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="I120" s="15" t="s">
-        <v>762</v>
+        <v>738</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="26"/>
@@ -10034,45 +10331,48 @@
       <c r="O120" s="4">
         <v>0</v>
       </c>
-      <c r="P120" s="10" t="s">
-        <v>763</v>
+      <c r="P120" s="2">
+        <v>90</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="R120" s="2"/>
+        <v>755</v>
+      </c>
+      <c r="R120" s="10" t="s">
+        <v>755</v>
+      </c>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
-    </row>
-    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W120" s="2"/>
+    </row>
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A121" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>767</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>767</v>
-      </c>
-      <c r="I121" s="15" t="s">
-        <v>768</v>
+        <v>738</v>
+      </c>
+      <c r="H121" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" si="26"/>
@@ -10097,45 +10397,48 @@
       <c r="O121" s="4">
         <v>0</v>
       </c>
-      <c r="P121" s="10" t="s">
-        <v>769</v>
+      <c r="P121" s="2">
+        <v>90</v>
       </c>
       <c r="Q121" s="10" t="s">
-        <v>769</v>
-      </c>
-      <c r="R121" s="2"/>
+        <v>759</v>
+      </c>
+      <c r="R121" s="10" t="s">
+        <v>759</v>
+      </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
-    </row>
-    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W121" s="2"/>
+    </row>
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A122" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>773</v>
-      </c>
-      <c r="I122" s="15" t="s">
-        <v>774</v>
+        <v>738</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="26"/>
@@ -10160,45 +10463,48 @@
       <c r="O122" s="4">
         <v>0</v>
       </c>
-      <c r="P122" s="10" t="s">
-        <v>775</v>
+      <c r="P122" s="2">
+        <v>90</v>
       </c>
       <c r="Q122" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="R122" s="2"/>
+        <v>763</v>
+      </c>
+      <c r="R122" s="10" t="s">
+        <v>763</v>
+      </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
-    </row>
-    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W122" s="2"/>
+    </row>
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A123" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="I123" s="15" t="s">
-        <v>780</v>
+        <v>738</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I123" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="26"/>
@@ -10223,45 +10529,48 @@
       <c r="O123" s="4">
         <v>0</v>
       </c>
-      <c r="P123" s="10" t="s">
-        <v>781</v>
+      <c r="P123" s="2">
+        <v>90</v>
       </c>
       <c r="Q123" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="R123" s="2"/>
+        <v>767</v>
+      </c>
+      <c r="R123" s="10" t="s">
+        <v>767</v>
+      </c>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
-    </row>
-    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W123" s="2"/>
+    </row>
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A124" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="H124" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="I124" s="15" t="s">
-        <v>786</v>
+        <v>738</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" si="26"/>
@@ -10286,45 +10595,48 @@
       <c r="O124" s="4">
         <v>0</v>
       </c>
-      <c r="P124" s="10" t="s">
-        <v>787</v>
+      <c r="P124" s="2">
+        <v>90</v>
       </c>
       <c r="Q124" s="10" t="s">
-        <v>787</v>
-      </c>
-      <c r="R124" s="2"/>
+        <v>771</v>
+      </c>
+      <c r="R124" s="10" t="s">
+        <v>771</v>
+      </c>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
-    </row>
-    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W124" s="2"/>
+    </row>
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A125" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="I125" s="15" t="s">
-        <v>791</v>
+        <v>738</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" si="26"/>
@@ -10349,45 +10661,48 @@
       <c r="O125" s="4">
         <v>0</v>
       </c>
-      <c r="P125" s="10" t="s">
-        <v>792</v>
+      <c r="P125" s="2">
+        <v>90</v>
       </c>
       <c r="Q125" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="R125" s="2"/>
+        <v>775</v>
+      </c>
+      <c r="R125" s="10" t="s">
+        <v>775</v>
+      </c>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
-    </row>
-    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W125" s="2"/>
+    </row>
+    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A126" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>797</v>
+        <v>778</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" si="26"/>
@@ -10412,45 +10727,48 @@
       <c r="O126" s="4">
         <v>0</v>
       </c>
-      <c r="P126" s="10" t="s">
-        <v>798</v>
+      <c r="P126" s="2">
+        <v>90</v>
       </c>
       <c r="Q126" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="R126" s="2"/>
+        <v>779</v>
+      </c>
+      <c r="R126" s="10" t="s">
+        <v>779</v>
+      </c>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
-    </row>
-    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W126" s="2"/>
+    </row>
+    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A127" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H127" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I127" s="10" t="s">
-        <v>797</v>
+        <v>782</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I127" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" si="26"/>
@@ -10475,45 +10793,48 @@
       <c r="O127" s="4">
         <v>0</v>
       </c>
-      <c r="P127" s="10" t="s">
-        <v>802</v>
+      <c r="P127" s="2">
+        <v>90</v>
       </c>
       <c r="Q127" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="R127" s="2"/>
+        <v>783</v>
+      </c>
+      <c r="R127" s="10" t="s">
+        <v>783</v>
+      </c>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
-    </row>
-    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W127" s="2"/>
+    </row>
+    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A128" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I128" s="10" t="s">
-        <v>797</v>
+        <v>786</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I128" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" si="26"/>
@@ -10538,45 +10859,48 @@
       <c r="O128" s="4">
         <v>0</v>
       </c>
-      <c r="P128" s="10" t="s">
-        <v>806</v>
+      <c r="P128" s="2">
+        <v>90</v>
       </c>
       <c r="Q128" s="10" t="s">
-        <v>806</v>
-      </c>
-      <c r="R128" s="2"/>
+        <v>787</v>
+      </c>
+      <c r="R128" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
-    </row>
-    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W128" s="2"/>
+    </row>
+    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A129" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H129" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I129" s="10" t="s">
-        <v>797</v>
+        <v>790</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" si="26"/>
@@ -10601,45 +10925,48 @@
       <c r="O129" s="4">
         <v>0</v>
       </c>
-      <c r="P129" s="10" t="s">
-        <v>810</v>
+      <c r="P129" s="2">
+        <v>90</v>
       </c>
       <c r="Q129" s="10" t="s">
-        <v>810</v>
-      </c>
-      <c r="R129" s="2"/>
+        <v>791</v>
+      </c>
+      <c r="R129" s="10" t="s">
+        <v>791</v>
+      </c>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
-    </row>
-    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W129" s="2"/>
+    </row>
+    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A130" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H130" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I130" s="10" t="s">
-        <v>797</v>
+        <v>794</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" si="26"/>
@@ -10664,45 +10991,48 @@
       <c r="O130" s="4">
         <v>0</v>
       </c>
-      <c r="P130" s="10" t="s">
-        <v>814</v>
+      <c r="P130" s="2">
+        <v>90</v>
       </c>
       <c r="Q130" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="R130" s="2"/>
+        <v>795</v>
+      </c>
+      <c r="R130" s="10" t="s">
+        <v>795</v>
+      </c>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
-    </row>
-    <row r="131" customHeight="1" spans="1:17">
+      <c r="W130" s="2"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I131" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H131" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J131" s="1">
         <f t="shared" si="26"/>
@@ -10727,40 +11057,43 @@
       <c r="O131" s="4">
         <v>0</v>
       </c>
-      <c r="P131" s="10" t="s">
-        <v>818</v>
+      <c r="P131" s="2">
+        <v>90</v>
       </c>
       <c r="Q131" s="10" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="132" customHeight="1" spans="1:17">
+        <v>799</v>
+      </c>
+      <c r="R131" s="10" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H132" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I132" s="10" t="s">
-        <v>797</v>
+        <v>802</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J132" s="1">
         <f t="shared" si="26"/>
@@ -10785,40 +11118,43 @@
       <c r="O132" s="4">
         <v>0</v>
       </c>
-      <c r="P132" s="10" t="s">
-        <v>822</v>
+      <c r="P132" s="2">
+        <v>90</v>
       </c>
       <c r="Q132" s="10" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="133" customHeight="1" spans="1:17">
+        <v>803</v>
+      </c>
+      <c r="R132" s="10" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H133" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I133" s="10" t="s">
-        <v>797</v>
+        <v>806</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I133" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J133" s="1">
         <f t="shared" si="26"/>
@@ -10843,40 +11179,43 @@
       <c r="O133" s="4">
         <v>0</v>
       </c>
-      <c r="P133" s="10" t="s">
-        <v>826</v>
+      <c r="P133" s="2">
+        <v>90</v>
       </c>
       <c r="Q133" s="10" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="134" customHeight="1" spans="1:17">
+        <v>807</v>
+      </c>
+      <c r="R133" s="10" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="G134" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I134" s="10" t="s">
-        <v>797</v>
+        <v>810</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I134" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" si="26"/>
@@ -10901,40 +11240,43 @@
       <c r="O134" s="4">
         <v>0</v>
       </c>
-      <c r="P134" s="10" t="s">
-        <v>830</v>
+      <c r="P134" s="2">
+        <v>90</v>
       </c>
       <c r="Q134" s="10" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="135" customHeight="1" spans="1:17">
+        <v>811</v>
+      </c>
+      <c r="R134" s="10" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I135" s="10" t="s">
-        <v>797</v>
+        <v>814</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J135" s="1">
         <f t="shared" si="26"/>
@@ -10959,40 +11301,43 @@
       <c r="O135" s="4">
         <v>0</v>
       </c>
-      <c r="P135" s="10" t="s">
-        <v>834</v>
+      <c r="P135" s="2">
+        <v>90</v>
       </c>
       <c r="Q135" s="10" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="136" customHeight="1" spans="1:17">
+        <v>815</v>
+      </c>
+      <c r="R135" s="10" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="E136" s="1">
         <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H136" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I136" s="10" t="s">
-        <v>797</v>
+        <v>818</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I136" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J136" s="1">
         <f t="shared" si="26"/>
@@ -11017,40 +11362,43 @@
       <c r="O136" s="4">
         <v>0</v>
       </c>
-      <c r="P136" s="10" t="s">
-        <v>838</v>
+      <c r="P136" s="2">
+        <v>90</v>
       </c>
       <c r="Q136" s="10" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="137" customHeight="1" spans="1:17">
+        <v>819</v>
+      </c>
+      <c r="R136" s="10" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H137" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I137" s="10" t="s">
-        <v>797</v>
+        <v>822</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H137" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I137" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J137" s="1">
         <f t="shared" si="26"/>
@@ -11075,40 +11423,43 @@
       <c r="O137" s="4">
         <v>0</v>
       </c>
-      <c r="P137" s="10" t="s">
-        <v>842</v>
+      <c r="P137" s="2">
+        <v>90</v>
       </c>
       <c r="Q137" s="10" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="138" customHeight="1" spans="1:17">
+        <v>823</v>
+      </c>
+      <c r="R137" s="10" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="G138" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H138" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I138" s="10" t="s">
-        <v>797</v>
+        <v>826</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I138" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J138" s="1">
         <f t="shared" si="26"/>
@@ -11133,40 +11484,43 @@
       <c r="O138" s="4">
         <v>0</v>
       </c>
-      <c r="P138" s="10" t="s">
-        <v>846</v>
+      <c r="P138" s="2">
+        <v>90</v>
       </c>
       <c r="Q138" s="10" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="1:17">
+        <v>827</v>
+      </c>
+      <c r="R138" s="10" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="G139" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H139" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I139" s="10" t="s">
-        <v>797</v>
+        <v>830</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" si="26"/>
@@ -11191,40 +11545,43 @@
       <c r="O139" s="4">
         <v>0</v>
       </c>
-      <c r="P139" s="10" t="s">
-        <v>850</v>
+      <c r="P139" s="2">
+        <v>90</v>
       </c>
       <c r="Q139" s="10" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="1:17">
+        <v>831</v>
+      </c>
+      <c r="R139" s="10" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="E140" s="1">
         <v>4</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="G140" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H140" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I140" s="10" t="s">
-        <v>797</v>
+        <v>834</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I140" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" si="26"/>
@@ -11249,40 +11606,43 @@
       <c r="O140" s="4">
         <v>0</v>
       </c>
-      <c r="P140" s="10" t="s">
-        <v>854</v>
+      <c r="P140" s="2">
+        <v>90</v>
       </c>
       <c r="Q140" s="10" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:22">
+        <v>835</v>
+      </c>
+      <c r="R140" s="10" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A141" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I141" s="10" t="s">
-        <v>797</v>
+        <v>838</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H141" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I141" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" si="26"/>
@@ -11307,45 +11667,48 @@
       <c r="O141" s="4">
         <v>0</v>
       </c>
-      <c r="P141" s="10" t="s">
-        <v>858</v>
+      <c r="P141" s="2">
+        <v>90</v>
       </c>
       <c r="Q141" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="R141" s="2"/>
+        <v>839</v>
+      </c>
+      <c r="R141" s="10" t="s">
+        <v>839</v>
+      </c>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
       <c r="V141" s="2"/>
-    </row>
-    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W141" s="2"/>
+    </row>
+    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A142" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H142" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I142" s="10" t="s">
-        <v>797</v>
+        <v>842</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I142" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" si="26"/>
@@ -11370,45 +11733,48 @@
       <c r="O142" s="4">
         <v>0</v>
       </c>
-      <c r="P142" s="10" t="s">
-        <v>862</v>
+      <c r="P142" s="2">
+        <v>90</v>
       </c>
       <c r="Q142" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="R142" s="2"/>
+        <v>843</v>
+      </c>
+      <c r="R142" s="10" t="s">
+        <v>843</v>
+      </c>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
-    </row>
-    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W142" s="2"/>
+    </row>
+    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A143" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I143" s="10" t="s">
-        <v>797</v>
+        <v>846</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H143" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" si="26"/>
@@ -11433,45 +11799,48 @@
       <c r="O143" s="4">
         <v>0</v>
       </c>
-      <c r="P143" s="10" t="s">
-        <v>866</v>
+      <c r="P143" s="2">
+        <v>90</v>
       </c>
       <c r="Q143" s="10" t="s">
-        <v>866</v>
-      </c>
-      <c r="R143" s="2"/>
+        <v>847</v>
+      </c>
+      <c r="R143" s="10" t="s">
+        <v>847</v>
+      </c>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
-    </row>
-    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W143" s="2"/>
+    </row>
+    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A144" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H144" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I144" s="10" t="s">
-        <v>797</v>
+        <v>850</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I144" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" si="26"/>
@@ -11496,45 +11865,48 @@
       <c r="O144" s="4">
         <v>0</v>
       </c>
-      <c r="P144" s="10" t="s">
-        <v>870</v>
+      <c r="P144" s="2">
+        <v>90</v>
       </c>
       <c r="Q144" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="R144" s="2"/>
+        <v>851</v>
+      </c>
+      <c r="R144" s="10" t="s">
+        <v>851</v>
+      </c>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
       <c r="V144" s="2"/>
-    </row>
-    <row r="145" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="W144" s="2"/>
+    </row>
+    <row r="145" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A145" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="H145" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I145" s="10" t="s">
-        <v>797</v>
+        <v>854</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="H145" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I145" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" si="26"/>
@@ -11559,21 +11931,24 @@
       <c r="O145" s="4">
         <v>0</v>
       </c>
-      <c r="P145" s="10" t="s">
-        <v>874</v>
+      <c r="P145" s="2">
+        <v>90</v>
       </c>
       <c r="Q145" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="R145" s="2"/>
+        <v>855</v>
+      </c>
+      <c r="R145" s="10" t="s">
+        <v>855</v>
+      </c>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
+      <c r="W145" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:O5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:P5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterBase.xlsx
+++ b/Excel/MonsterBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="866">
   <si>
     <t>ID</t>
   </si>
@@ -2231,79 +2231,109 @@
     <t>3500000000</t>
   </si>
   <si>
+    <t>10111</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>地狱雪人</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>32000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3600000000</t>
+  </si>
+  <si>
+    <t>10112</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>地狱蝙蝠</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>640000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3700000000</t>
+  </si>
+  <si>
+    <t>10113</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>地狱骷髅</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>12800000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3800000000</t>
+  </si>
+  <si>
+    <t>10114</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>地狱僵尸</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>256000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3900000000</t>
+  </si>
+  <si>
+    <t>10115</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>地狱虎蛇</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>5120000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4000000000</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
-    <t>10111</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>地狱雪人</t>
+    <t>10116</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>地狱狼</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>3600000000</t>
-  </si>
-  <si>
-    <t>10112</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>地狱蝙蝠</t>
-  </si>
-  <si>
-    <t>3700000000</t>
-  </si>
-  <si>
-    <t>10113</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>地狱骷髅</t>
-  </si>
-  <si>
-    <t>3800000000</t>
-  </si>
-  <si>
-    <t>10114</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>地狱僵尸</t>
-  </si>
-  <si>
-    <t>3900000000</t>
-  </si>
-  <si>
-    <t>10115</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>地狱虎蛇</t>
-  </si>
-  <si>
-    <t>4000000000</t>
-  </si>
-  <si>
-    <t>10116</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>地狱狼</t>
   </si>
   <si>
     <t>4100000000</t>
@@ -3568,8 +3598,8 @@
   <sheetPr/>
   <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -10019,29 +10049,27 @@
       <c r="W115" s="2"/>
     </row>
     <row r="116" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>736</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G116" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="G116" s="1"/>
-      <c r="H116" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="I116" s="14" t="s">
+      <c r="H116" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="I116" s="15" t="s">
         <v>738</v>
       </c>
       <c r="J116" s="1">
@@ -10083,12 +10111,8 @@
       <c r="W116" s="2"/>
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A117" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>734</v>
-      </c>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
       <c r="C117" s="1" t="s">
         <v>740</v>
       </c>
@@ -10102,13 +10126,13 @@
         <v>742</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="H117" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="I117" s="14" t="s">
-        <v>738</v>
+        <v>743</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="I117" s="15" t="s">
+        <v>744</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" si="26"/>
@@ -10137,10 +10161,10 @@
         <v>90</v>
       </c>
       <c r="Q117" s="10" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="R117" s="10" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
@@ -10149,32 +10173,28 @@
       <c r="W117" s="2"/>
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A118" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>734</v>
-      </c>
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
       <c r="C118" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="H118" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="I118" s="14" t="s">
-        <v>738</v>
+        <v>749</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>750</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="26"/>
@@ -10203,10 +10223,10 @@
         <v>90</v>
       </c>
       <c r="Q118" s="10" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="R118" s="10" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
@@ -10215,32 +10235,28 @@
       <c r="W118" s="2"/>
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A119" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>734</v>
-      </c>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
       <c r="C119" s="1" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="H119" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="I119" s="14" t="s">
-        <v>738</v>
+        <v>755</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>756</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" si="26"/>
@@ -10269,10 +10285,10 @@
         <v>90</v>
       </c>
       <c r="Q119" s="10" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="R119" s="10" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
@@ -10281,32 +10297,28 @@
       <c r="W119" s="2"/>
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A120" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>734</v>
-      </c>
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
       <c r="C120" s="1" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="H120" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="I120" s="14" t="s">
-        <v>738</v>
+        <v>761</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="I120" s="15" t="s">
+        <v>762</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="26"/>
@@ -10335,10 +10347,10 @@
         <v>90</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="R120" s="10" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
@@ -10348,31 +10360,31 @@
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A121" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" si="26"/>
@@ -10401,10 +10413,10 @@
         <v>90</v>
       </c>
       <c r="Q121" s="10" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="R121" s="10" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
@@ -10414,31 +10426,31 @@
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A122" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="26"/>
@@ -10467,10 +10479,10 @@
         <v>90</v>
       </c>
       <c r="Q122" s="10" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="R122" s="10" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
@@ -10480,31 +10492,31 @@
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A123" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="26"/>
@@ -10533,10 +10545,10 @@
         <v>90</v>
       </c>
       <c r="Q123" s="10" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="R123" s="10" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
@@ -10546,31 +10558,31 @@
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A124" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" si="26"/>
@@ -10599,10 +10611,10 @@
         <v>90</v>
       </c>
       <c r="Q124" s="10" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="R124" s="10" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
@@ -10612,31 +10624,31 @@
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A125" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" si="26"/>
@@ -10665,10 +10677,10 @@
         <v>90</v>
       </c>
       <c r="Q125" s="10" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="R125" s="10" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
@@ -10678,31 +10690,31 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A126" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" si="26"/>
@@ -10731,10 +10743,10 @@
         <v>90</v>
       </c>
       <c r="Q126" s="10" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="R126" s="10" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
@@ -10744,31 +10756,31 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A127" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" si="26"/>
@@ -10797,10 +10809,10 @@
         <v>90</v>
       </c>
       <c r="Q127" s="10" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="R127" s="10" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
@@ -10810,31 +10822,31 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A128" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" si="26"/>
@@ -10863,10 +10875,10 @@
         <v>90</v>
       </c>
       <c r="Q128" s="10" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="R128" s="10" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
@@ -10876,31 +10888,31 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A129" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" si="26"/>
@@ -10929,10 +10941,10 @@
         <v>90</v>
       </c>
       <c r="Q129" s="10" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="R129" s="10" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
@@ -10942,31 +10954,31 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A130" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" si="26"/>
@@ -10995,10 +11007,10 @@
         <v>90</v>
       </c>
       <c r="Q130" s="10" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="R130" s="10" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
@@ -11008,31 +11020,31 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J131" s="1">
         <f t="shared" si="26"/>
@@ -11061,39 +11073,39 @@
         <v>90</v>
       </c>
       <c r="Q131" s="10" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="R131" s="10" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J132" s="1">
         <f t="shared" si="26"/>
@@ -11122,39 +11134,39 @@
         <v>90</v>
       </c>
       <c r="Q132" s="10" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="R132" s="10" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J133" s="1">
         <f t="shared" si="26"/>
@@ -11183,39 +11195,39 @@
         <v>90</v>
       </c>
       <c r="Q133" s="10" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="R133" s="10" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" si="26"/>
@@ -11244,39 +11256,39 @@
         <v>90</v>
       </c>
       <c r="Q134" s="10" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="R134" s="10" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I135" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J135" s="1">
         <f t="shared" si="26"/>
@@ -11305,39 +11317,39 @@
         <v>90</v>
       </c>
       <c r="Q135" s="10" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="R135" s="10" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="E136" s="1">
         <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J136" s="1">
         <f t="shared" si="26"/>
@@ -11366,39 +11378,39 @@
         <v>90</v>
       </c>
       <c r="Q136" s="10" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="R136" s="10" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J137" s="1">
         <f t="shared" si="26"/>
@@ -11427,39 +11439,39 @@
         <v>90</v>
       </c>
       <c r="Q137" s="10" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="R137" s="10" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J138" s="1">
         <f t="shared" si="26"/>
@@ -11488,39 +11500,39 @@
         <v>90</v>
       </c>
       <c r="Q138" s="10" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="R138" s="10" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" si="26"/>
@@ -11549,39 +11561,39 @@
         <v>90</v>
       </c>
       <c r="Q139" s="10" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="R139" s="10" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="E140" s="1">
         <v>4</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H140" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" si="26"/>
@@ -11610,39 +11622,39 @@
         <v>90</v>
       </c>
       <c r="Q140" s="10" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="R140" s="10" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A141" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" si="26"/>
@@ -11671,10 +11683,10 @@
         <v>90</v>
       </c>
       <c r="Q141" s="10" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="R141" s="10" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
@@ -11684,31 +11696,31 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A142" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" si="26"/>
@@ -11737,10 +11749,10 @@
         <v>90</v>
       </c>
       <c r="Q142" s="10" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="R142" s="10" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
@@ -11750,31 +11762,31 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A143" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" si="26"/>
@@ -11803,10 +11815,10 @@
         <v>90</v>
       </c>
       <c r="Q143" s="10" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="R143" s="10" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
@@ -11816,31 +11828,31 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A144" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" si="26"/>
@@ -11869,10 +11881,10 @@
         <v>90</v>
       </c>
       <c r="Q144" s="10" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="R144" s="10" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
@@ -11882,31 +11894,31 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A145" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" si="26"/>
@@ -11935,10 +11947,10 @@
         <v>90</v>
       </c>
       <c r="Q145" s="10" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="R145" s="10" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
